--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D19" sqref="D18:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -463,6 +463,12 @@
       <c r="C3">
         <v>3685</v>
       </c>
+      <c r="D3">
+        <v>2475</v>
+      </c>
+      <c r="E3">
+        <v>4813</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="B4">
@@ -471,6 +477,12 @@
       <c r="C4">
         <v>3192</v>
       </c>
+      <c r="D4">
+        <v>3229</v>
+      </c>
+      <c r="E4">
+        <v>5700</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5">
@@ -479,16 +491,36 @@
       <c r="C5">
         <v>2862</v>
       </c>
+      <c r="D5">
+        <v>743</v>
+      </c>
+      <c r="E5">
+        <v>1125</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6">
         <v>2079</v>
       </c>
+      <c r="D6">
+        <v>382</v>
+      </c>
+      <c r="E6">
+        <v>703</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="B7">
         <v>2862</v>
       </c>
+      <c r="D7">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="D8">
+        <v>2080</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="B9">
@@ -499,16 +531,25 @@
       <c r="B10">
         <v>1039</v>
       </c>
+      <c r="D10">
+        <v>1759</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="B11">
         <v>372</v>
       </c>
+      <c r="D11">
+        <v>955</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="B12">
         <v>1138</v>
       </c>
+      <c r="D12">
+        <v>703</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="B13">
@@ -517,54 +558,6 @@
     </row>
     <row r="14" spans="1:17">
       <c r="B14">
-        <v>352.48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
-        <v>1800</v>
-      </c>
-      <c r="C17">
-        <v>3685</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19">
-        <v>4813</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28">
         <v>352.48</v>
       </c>
     </row>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>实收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +384,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D18:D23"/>
+      <selection activeCell="I3" sqref="I3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -469,6 +473,18 @@
       <c r="E3">
         <v>4813</v>
       </c>
+      <c r="F3">
+        <v>1806</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1310</v>
+      </c>
+      <c r="I3">
+        <v>1310</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="B4">
@@ -483,6 +499,15 @@
       <c r="E4">
         <v>5700</v>
       </c>
+      <c r="F4">
+        <v>3109</v>
+      </c>
+      <c r="H4">
+        <v>2000</v>
+      </c>
+      <c r="I4">
+        <v>2000</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5">
@@ -497,6 +522,15 @@
       <c r="E5">
         <v>1125</v>
       </c>
+      <c r="F5">
+        <v>2093</v>
+      </c>
+      <c r="H5">
+        <v>965</v>
+      </c>
+      <c r="I5">
+        <v>965</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6">
@@ -508,6 +542,12 @@
       <c r="E6">
         <v>703</v>
       </c>
+      <c r="H6">
+        <v>1019</v>
+      </c>
+      <c r="I6">
+        <v>1019</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="B7">
@@ -516,16 +556,31 @@
       <c r="D7">
         <v>1467</v>
       </c>
+      <c r="H7">
+        <v>656</v>
+      </c>
+      <c r="I7">
+        <v>656</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="D8">
         <v>2080</v>
       </c>
+      <c r="H8">
+        <v>973</v>
+      </c>
+      <c r="I8">
+        <v>973</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="B9">
         <v>1513</v>
       </c>
+      <c r="H9">
+        <v>448</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="B10">
@@ -534,6 +589,9 @@
       <c r="D10">
         <v>1759</v>
       </c>
+      <c r="H10">
+        <v>328</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="B11">
@@ -542,6 +600,9 @@
       <c r="D11">
         <v>955</v>
       </c>
+      <c r="H11">
+        <v>591</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="B12">
@@ -550,15 +611,24 @@
       <c r="D12">
         <v>703</v>
       </c>
+      <c r="H12">
+        <v>747</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="B13">
         <v>788</v>
       </c>
+      <c r="H13">
+        <v>382</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="B14">
         <v>352.48</v>
+      </c>
+      <c r="H14">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="10月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="4">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +49,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -77,8 +92,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -381,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -393,34 +414,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>43003</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1">
+      <c r="C1" s="4"/>
+      <c r="D1" s="3">
         <v>43004</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1">
+      <c r="E1" s="4"/>
+      <c r="F1" s="3">
         <v>43005</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1">
+      <c r="G1" s="4"/>
+      <c r="H1" s="3">
         <v>43006</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1">
+      <c r="I1" s="4"/>
+      <c r="J1" s="3">
         <v>43007</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="1">
+      <c r="K1" s="4"/>
+      <c r="L1" s="3">
         <v>43008</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="2"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -485,6 +506,12 @@
       <c r="I3">
         <v>1310</v>
       </c>
+      <c r="J3" s="2">
+        <v>450</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1166</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="B4">
@@ -508,6 +535,12 @@
       <c r="I4">
         <v>2000</v>
       </c>
+      <c r="J4" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L4" s="1">
+        <v>631</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5">
@@ -531,6 +564,12 @@
       <c r="I5">
         <v>965</v>
       </c>
+      <c r="J5" s="2">
+        <v>995</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1390</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6">
@@ -548,6 +587,12 @@
       <c r="I6">
         <v>1019</v>
       </c>
+      <c r="J6" s="2">
+        <v>729</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1187</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="B7">
@@ -562,6 +607,12 @@
       <c r="I7">
         <v>656</v>
       </c>
+      <c r="J7" s="2">
+        <v>729</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1319</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="D8">
@@ -573,13 +624,25 @@
       <c r="I8">
         <v>973</v>
       </c>
+      <c r="J8" s="2">
+        <v>516</v>
+      </c>
+      <c r="L8" s="1">
+        <v>628</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="B9">
         <v>1513</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>448</v>
+      </c>
+      <c r="J9" s="2">
+        <v>51</v>
+      </c>
+      <c r="L9" s="1">
+        <v>418.77</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -589,8 +652,14 @@
       <c r="D10">
         <v>1759</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>328</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1427</v>
+      </c>
+      <c r="L10" s="1">
+        <v>658.97</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -600,8 +669,11 @@
       <c r="D11">
         <v>955</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>591</v>
+      </c>
+      <c r="L11" s="1">
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -611,24 +683,71 @@
       <c r="D12">
         <v>703</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>747</v>
+      </c>
+      <c r="L12" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="B13">
         <v>788</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>382</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1171</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="B14">
         <v>352.48</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="L15" s="2">
+        <v>1250</v>
+      </c>
+      <c r="M15">
+        <v>3066.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="L16" s="2">
+        <v>628</v>
+      </c>
+      <c r="M16">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" s="2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12">
+      <c r="L19" s="2">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="20" spans="12:12">
+      <c r="L20" s="2">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12">
+      <c r="L21" s="2">
+        <v>2351</v>
       </c>
     </row>
   </sheetData>
@@ -650,12 +769,495 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:29">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>43009</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3">
+        <v>43010</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3">
+        <v>43011</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3">
+        <v>43012</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3">
+        <v>43013</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="3">
+        <v>43014</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="3">
+        <v>43015</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="3">
+        <v>43016</v>
+      </c>
+      <c r="S1" s="4"/>
+      <c r="T1" s="3">
+        <v>43017</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="3">
+        <v>43018</v>
+      </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="3">
+        <v>43019</v>
+      </c>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="3">
+        <v>43020</v>
+      </c>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="3">
+        <v>43021</v>
+      </c>
+      <c r="AC1" s="4"/>
+    </row>
+    <row r="2" spans="3:29">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:29">
+      <c r="D3" s="1">
+        <v>1171</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1112</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1473</v>
+      </c>
+      <c r="J3" s="1">
+        <v>879</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1011</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2079</v>
+      </c>
+      <c r="P3" s="1">
+        <v>777</v>
+      </c>
+      <c r="R3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="3:29">
+      <c r="D4" s="1">
+        <v>2467</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1759</v>
+      </c>
+      <c r="H4" s="1">
+        <v>501</v>
+      </c>
+      <c r="J4" s="1">
+        <v>592</v>
+      </c>
+      <c r="L4" s="1">
+        <v>600</v>
+      </c>
+      <c r="N4" s="1">
+        <v>953</v>
+      </c>
+      <c r="P4" s="1">
+        <v>661</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29">
+      <c r="D5" s="1">
+        <v>507</v>
+      </c>
+      <c r="F5" s="1">
+        <v>768</v>
+      </c>
+      <c r="H5" s="1">
+        <v>496</v>
+      </c>
+      <c r="J5" s="1">
+        <v>894</v>
+      </c>
+      <c r="L5" s="1">
+        <v>959</v>
+      </c>
+      <c r="N5" s="1">
+        <v>902</v>
+      </c>
+      <c r="P5" s="1">
+        <v>777</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29">
+      <c r="D6" s="1">
+        <v>602</v>
+      </c>
+      <c r="F6" s="1">
+        <v>399</v>
+      </c>
+      <c r="H6" s="1">
+        <v>827</v>
+      </c>
+      <c r="J6" s="1">
+        <v>395</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1025</v>
+      </c>
+      <c r="N6" s="1">
+        <v>958</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="7" spans="3:29">
+      <c r="D7" s="1">
+        <v>523</v>
+      </c>
+      <c r="F7" s="1">
+        <v>453</v>
+      </c>
+      <c r="H7" s="1">
+        <v>644</v>
+      </c>
+      <c r="J7" s="1">
+        <v>530</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1080</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2901</v>
+      </c>
+      <c r="P7" s="1">
+        <v>355</v>
+      </c>
+      <c r="R7">
+        <v>1107</v>
+      </c>
+      <c r="S7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29">
+      <c r="D8" s="1">
+        <v>424</v>
+      </c>
+      <c r="F8" s="1">
+        <v>840</v>
+      </c>
+      <c r="H8" s="1">
+        <v>937</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1041</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1194</v>
+      </c>
+      <c r="N8" s="1">
+        <v>731</v>
+      </c>
+      <c r="P8" s="1">
+        <v>397</v>
+      </c>
+      <c r="R8">
+        <v>1531</v>
+      </c>
+      <c r="S8">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29">
+      <c r="D9" s="1">
+        <v>1375</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1149</v>
+      </c>
+      <c r="H9" s="1">
+        <v>352</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1031</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="N9" s="1">
+        <v>944</v>
+      </c>
+      <c r="P9" s="1">
+        <v>696</v>
+      </c>
+      <c r="R9" s="1">
+        <v>937</v>
+      </c>
+      <c r="S9">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29">
+      <c r="D10" s="1">
+        <v>584</v>
+      </c>
+      <c r="F10" s="1">
+        <v>190</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1032</v>
+      </c>
+      <c r="J10" s="1">
+        <v>661</v>
+      </c>
+      <c r="N10" s="1">
+        <v>747</v>
+      </c>
+      <c r="P10" s="1">
+        <v>795</v>
+      </c>
+      <c r="R10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29">
+      <c r="D11" s="1">
+        <v>824</v>
+      </c>
+      <c r="F11" s="1">
+        <v>910</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1475</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29">
+      <c r="D12" s="1">
+        <v>1157</v>
+      </c>
+      <c r="H12" s="1">
+        <v>815</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1016</v>
+      </c>
+      <c r="P12">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29">
+      <c r="D13" s="1">
+        <v>150</v>
+      </c>
+      <c r="H13" s="1">
+        <v>962</v>
+      </c>
+      <c r="P13">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29">
+      <c r="D14" s="1">
+        <v>922</v>
+      </c>
+      <c r="P14">
+        <v>850</v>
+      </c>
+      <c r="Q14">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29">
+      <c r="D15" s="1">
+        <v>989</v>
+      </c>
+      <c r="P15">
+        <v>664</v>
+      </c>
+      <c r="Q15">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29">
+      <c r="H16">
+        <v>1101</v>
+      </c>
+      <c r="I16">
+        <v>1101</v>
+      </c>
+      <c r="P16">
+        <v>683</v>
+      </c>
+      <c r="Q16">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17">
+      <c r="D17">
+        <v>904</v>
+      </c>
+      <c r="H17">
+        <v>1900</v>
+      </c>
+      <c r="I17">
+        <v>367</v>
+      </c>
+      <c r="P17">
+        <v>677</v>
+      </c>
+      <c r="Q17">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17">
+      <c r="D18">
+        <v>580</v>
+      </c>
+      <c r="H18">
+        <v>124</v>
+      </c>
+      <c r="I18">
+        <v>1900</v>
+      </c>
+      <c r="P18">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17">
+      <c r="H19">
+        <v>116</v>
+      </c>
+      <c r="P19">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17">
+      <c r="H20">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -664,12 +1266,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>43009</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3">
+        <v>43010</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3">
+        <v>43011</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3">
+        <v>43012</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3">
+        <v>43013</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3">
+        <v>43014</v>
+      </c>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16">
+        <v>904</v>
+      </c>
+      <c r="C16">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>580</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +69,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,6 +115,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,7 +416,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="L3" sqref="L3:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -769,10 +780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:AC20"/>
+  <dimension ref="C1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -918,10 +929,10 @@
       <c r="D3" s="1">
         <v>1171</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>1112</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="5">
         <v>1473</v>
       </c>
       <c r="J3" s="1">
@@ -938,16 +949,19 @@
       </c>
       <c r="R3">
         <v>746</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1961</v>
       </c>
     </row>
     <row r="4" spans="3:29">
       <c r="D4" s="1">
         <v>2467</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <v>1759</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="5">
         <v>501</v>
       </c>
       <c r="J4" s="1">
@@ -964,16 +978,19 @@
       </c>
       <c r="R4" s="1">
         <v>1118</v>
+      </c>
+      <c r="T4" s="1">
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="3:29">
       <c r="D5" s="1">
         <v>507</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>768</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>496</v>
       </c>
       <c r="J5" s="1">
@@ -990,16 +1007,19 @@
       </c>
       <c r="R5" s="1">
         <v>1448</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1011</v>
       </c>
     </row>
     <row r="6" spans="3:29">
       <c r="D6" s="1">
         <v>602</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>399</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <v>827</v>
       </c>
       <c r="J6" s="1">
@@ -1013,16 +1033,19 @@
       </c>
       <c r="P6" s="1">
         <v>1546</v>
+      </c>
+      <c r="T6" s="1">
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="3:29">
       <c r="D7" s="1">
         <v>523</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>453</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
         <v>644</v>
       </c>
       <c r="J7" s="1">
@@ -1048,10 +1071,10 @@
       <c r="D8" s="1">
         <v>424</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <v>840</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <v>937</v>
       </c>
       <c r="J8" s="1">
@@ -1071,16 +1094,22 @@
       </c>
       <c r="S8">
         <v>746</v>
+      </c>
+      <c r="T8">
+        <v>2149</v>
+      </c>
+      <c r="U8">
+        <v>2149</v>
       </c>
     </row>
     <row r="9" spans="3:29">
       <c r="D9" s="1">
         <v>1375</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>1149</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="5">
         <v>352</v>
       </c>
       <c r="J9" s="1">
@@ -1104,10 +1133,10 @@
       <c r="D10" s="1">
         <v>584</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <v>190</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="5">
         <v>1032</v>
       </c>
       <c r="J10" s="1">
@@ -1127,10 +1156,10 @@
       <c r="D11" s="1">
         <v>824</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <v>910</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <v>1475</v>
       </c>
       <c r="J11" s="1">
@@ -1141,48 +1170,30 @@
       <c r="D12" s="1">
         <v>1157</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="5">
         <v>815</v>
       </c>
       <c r="J12" s="1">
         <v>1016</v>
-      </c>
-      <c r="P12">
-        <v>1039</v>
       </c>
     </row>
     <row r="13" spans="3:29">
       <c r="D13" s="1">
         <v>150</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="5">
         <v>962</v>
-      </c>
-      <c r="P13">
-        <v>488</v>
       </c>
     </row>
     <row r="14" spans="3:29">
       <c r="D14" s="1">
         <v>922</v>
       </c>
-      <c r="P14">
-        <v>850</v>
-      </c>
-      <c r="Q14">
-        <v>1514</v>
-      </c>
     </row>
     <row r="15" spans="3:29">
       <c r="D15" s="1">
         <v>989</v>
       </c>
-      <c r="P15">
-        <v>664</v>
-      </c>
-      <c r="Q15">
-        <v>3942</v>
-      </c>
     </row>
     <row r="16" spans="3:29">
       <c r="H16">
@@ -1192,10 +1203,7 @@
         <v>1101</v>
       </c>
       <c r="P16">
-        <v>683</v>
-      </c>
-      <c r="Q16">
-        <v>1517</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" spans="4:17">
@@ -1209,10 +1217,7 @@
         <v>367</v>
       </c>
       <c r="P17">
-        <v>677</v>
-      </c>
-      <c r="Q17">
-        <v>1351</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="4:17">
@@ -1226,7 +1231,10 @@
         <v>1900</v>
       </c>
       <c r="P18">
-        <v>2329</v>
+        <v>850</v>
+      </c>
+      <c r="Q18">
+        <v>1514</v>
       </c>
     </row>
     <row r="19" spans="4:17">
@@ -1234,12 +1242,39 @@
         <v>116</v>
       </c>
       <c r="P19">
-        <v>1613</v>
+        <v>664</v>
+      </c>
+      <c r="Q19">
+        <v>3942</v>
       </c>
     </row>
     <row r="20" spans="4:17">
       <c r="H20">
         <v>127</v>
+      </c>
+      <c r="P20">
+        <v>683</v>
+      </c>
+      <c r="Q20">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17">
+      <c r="P21">
+        <v>677</v>
+      </c>
+      <c r="Q21">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17">
+      <c r="P22">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17">
+      <c r="P23">
+        <v>1613</v>
       </c>
     </row>
   </sheetData>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -110,14 +110,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,34 +425,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>43003</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4">
         <v>43004</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4">
         <v>43005</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3">
+      <c r="G1" s="5"/>
+      <c r="H1" s="4">
         <v>43006</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3">
+      <c r="I1" s="5"/>
+      <c r="J1" s="4">
         <v>43007</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3">
+      <c r="K1" s="5"/>
+      <c r="L1" s="4">
         <v>43008</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -783,7 +783,7 @@
   <dimension ref="C1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -792,58 +792,58 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>43009</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4">
         <v>43010</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3">
+      <c r="G1" s="5"/>
+      <c r="H1" s="4">
         <v>43011</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3">
+      <c r="I1" s="5"/>
+      <c r="J1" s="4">
         <v>43012</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3">
+      <c r="K1" s="5"/>
+      <c r="L1" s="4">
         <v>43013</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3">
+      <c r="M1" s="5"/>
+      <c r="N1" s="4">
         <v>43014</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="3">
+      <c r="O1" s="5"/>
+      <c r="P1" s="4">
         <v>43015</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="3">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4">
         <v>43016</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="3">
+      <c r="S1" s="5"/>
+      <c r="T1" s="4">
         <v>43017</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="3">
+      <c r="U1" s="5"/>
+      <c r="V1" s="4">
         <v>43018</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="3">
+      <c r="W1" s="5"/>
+      <c r="X1" s="4">
         <v>43019</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="3">
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="4">
         <v>43020</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="3">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="4">
         <v>43021</v>
       </c>
-      <c r="AC1" s="4"/>
+      <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="3:29">
       <c r="D2" t="s">
@@ -929,10 +929,10 @@
       <c r="D3" s="1">
         <v>1171</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>1112</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>1473</v>
       </c>
       <c r="J3" s="1">
@@ -952,16 +952,19 @@
       </c>
       <c r="T3" s="1">
         <v>1961</v>
+      </c>
+      <c r="V3">
+        <v>2504</v>
       </c>
     </row>
     <row r="4" spans="3:29">
       <c r="D4" s="1">
         <v>2467</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>1759</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>501</v>
       </c>
       <c r="J4" s="1">
@@ -987,10 +990,10 @@
       <c r="D5" s="1">
         <v>507</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>768</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>496</v>
       </c>
       <c r="J5" s="1">
@@ -1016,10 +1019,10 @@
       <c r="D6" s="1">
         <v>602</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>399</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>827</v>
       </c>
       <c r="J6" s="1">
@@ -1042,10 +1045,10 @@
       <c r="D7" s="1">
         <v>523</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>453</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>644</v>
       </c>
       <c r="J7" s="1">
@@ -1071,10 +1074,10 @@
       <c r="D8" s="1">
         <v>424</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>840</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>937</v>
       </c>
       <c r="J8" s="1">
@@ -1106,10 +1109,10 @@
       <c r="D9" s="1">
         <v>1375</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>1149</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>352</v>
       </c>
       <c r="J9" s="1">
@@ -1133,10 +1136,10 @@
       <c r="D10" s="1">
         <v>584</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>190</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>1032</v>
       </c>
       <c r="J10" s="1">
@@ -1156,10 +1159,10 @@
       <c r="D11" s="1">
         <v>824</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>910</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>1475</v>
       </c>
       <c r="J11" s="1">
@@ -1170,7 +1173,7 @@
       <c r="D12" s="1">
         <v>1157</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>815</v>
       </c>
       <c r="J12" s="1">
@@ -1181,7 +1184,7 @@
       <c r="D13" s="1">
         <v>150</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>962</v>
       </c>
     </row>
@@ -1279,6 +1282,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="P1:Q1"/>
@@ -1286,12 +1295,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1313,30 +1316,30 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>43009</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4">
         <v>43010</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4">
         <v>43011</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3">
+      <c r="G1" s="5"/>
+      <c r="H1" s="4">
         <v>43012</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3">
+      <c r="I1" s="5"/>
+      <c r="J1" s="4">
         <v>43013</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3">
+      <c r="K1" s="5"/>
+      <c r="L1" s="4">
         <v>43014</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" t="s">

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -37,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,14 +64,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -108,7 +100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,20 +119,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -214,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -248,6 +243,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,7 +419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -531,7 +527,7 @@
       <c r="J3" s="2">
         <v>450</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>1166</v>
       </c>
     </row>
@@ -560,7 +556,7 @@
       <c r="J4" s="2">
         <v>1011</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>631</v>
       </c>
     </row>
@@ -589,7 +585,7 @@
       <c r="J5" s="2">
         <v>995</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>1390</v>
       </c>
     </row>
@@ -612,7 +608,7 @@
       <c r="J6" s="2">
         <v>729</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>1187</v>
       </c>
     </row>
@@ -632,7 +628,7 @@
       <c r="J7" s="2">
         <v>729</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>1319</v>
       </c>
     </row>
@@ -649,7 +645,7 @@
       <c r="J8" s="2">
         <v>516</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>628</v>
       </c>
     </row>
@@ -663,7 +659,7 @@
       <c r="J9" s="2">
         <v>51</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>418.77</v>
       </c>
     </row>
@@ -680,7 +676,7 @@
       <c r="J10" s="2">
         <v>1427</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>658.97</v>
       </c>
     </row>
@@ -694,7 +690,7 @@
       <c r="H11" s="2">
         <v>591</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>405</v>
       </c>
     </row>
@@ -708,7 +704,7 @@
       <c r="H12" s="2">
         <v>747</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>29</v>
       </c>
     </row>
@@ -719,7 +715,7 @@
       <c r="H13" s="2">
         <v>382</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <v>1171</v>
       </c>
     </row>
@@ -790,11 +786,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -940,22 +936,23 @@
       <c r="D3" s="1">
         <v>1171</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1112</v>
       </c>
-      <c r="H3" s="3">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <v>1473</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>879</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>1011</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>2079</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>777</v>
       </c>
       <c r="R3">
@@ -964,7 +961,7 @@
       <c r="T3" s="1">
         <v>1961</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="3">
         <v>2504</v>
       </c>
       <c r="X3">
@@ -978,22 +975,23 @@
       <c r="D4" s="1">
         <v>2467</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1759</v>
       </c>
-      <c r="H4" s="3">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>501</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>592</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>600</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>953</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="2">
         <v>661</v>
       </c>
       <c r="R4" s="1">
@@ -1002,7 +1000,7 @@
       <c r="T4" s="1">
         <v>721</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="3">
         <v>2341</v>
       </c>
       <c r="Z4">
@@ -1013,22 +1011,23 @@
       <c r="D5" s="1">
         <v>507</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>768</v>
       </c>
-      <c r="H5" s="3">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>496</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>894</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>959</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>902</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="2">
         <v>777</v>
       </c>
       <c r="R5" s="1">
@@ -1048,22 +1047,23 @@
       <c r="D6" s="1">
         <v>602</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>399</v>
       </c>
-      <c r="H6" s="3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
         <v>827</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>395</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>1025</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>958</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="2">
         <v>1546</v>
       </c>
       <c r="T6" s="1">
@@ -1080,22 +1080,23 @@
       <c r="D7" s="1">
         <v>523</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>453</v>
       </c>
-      <c r="H7" s="3">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <v>644</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>530</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>1080</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>2901</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="2">
         <v>355</v>
       </c>
       <c r="R7">
@@ -1115,22 +1116,23 @@
       <c r="D8" s="1">
         <v>424</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>840</v>
       </c>
-      <c r="H8" s="3">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>937</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>1041</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>1194</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>731</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="2">
         <v>397</v>
       </c>
       <c r="R8">
@@ -1156,23 +1158,24 @@
       <c r="D9" s="1">
         <v>1375</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>1149</v>
       </c>
-      <c r="H9" s="3">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <v>352</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>1031</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="N9" s="1">
+      <c r="N9" s="2">
         <v>944</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="2">
         <v>696</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="2">
         <v>937</v>
       </c>
       <c r="S9">
@@ -1186,19 +1189,20 @@
       <c r="D10" s="1">
         <v>584</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>190</v>
       </c>
-      <c r="H10" s="3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <v>1032</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>661</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <v>747</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="2">
         <v>795</v>
       </c>
       <c r="R10">
@@ -1209,13 +1213,14 @@
       <c r="D11" s="1">
         <v>824</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>910</v>
       </c>
-      <c r="H11" s="3">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>1475</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>1011</v>
       </c>
     </row>
@@ -1223,10 +1228,12 @@
       <c r="D12" s="1">
         <v>1157</v>
       </c>
-      <c r="H12" s="3">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <v>815</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>1016</v>
       </c>
     </row>
@@ -1234,7 +1241,9 @@
       <c r="D13" s="1">
         <v>150</v>
       </c>
-      <c r="H13" s="3">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <v>962</v>
       </c>
     </row>
@@ -1242,7 +1251,7 @@
       <c r="D14" s="1">
         <v>922</v>
       </c>
-      <c r="Y14" s="6"/>
+      <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="3:29">
       <c r="D15" s="1">
@@ -1333,6 +1342,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="P1:Q1"/>
@@ -1340,12 +1355,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1354,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -121,14 +121,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,34 +436,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>43003</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4">
+      <c r="C1" s="6"/>
+      <c r="D1" s="5">
         <v>43004</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4">
+      <c r="E1" s="6"/>
+      <c r="F1" s="5">
         <v>43005</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5">
         <v>43006</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4">
+      <c r="I1" s="6"/>
+      <c r="J1" s="5">
         <v>43007</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4">
+      <c r="K1" s="6"/>
+      <c r="L1" s="5">
         <v>43008</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -794,7 +794,7 @@
   <dimension ref="C1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+      <selection activeCell="AB3" sqref="AB3:AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -803,58 +803,58 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="5">
         <v>43009</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4">
+      <c r="E1" s="6"/>
+      <c r="F1" s="5">
         <v>43010</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5">
         <v>43011</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4">
+      <c r="I1" s="6"/>
+      <c r="J1" s="5">
         <v>43012</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4">
+      <c r="K1" s="6"/>
+      <c r="L1" s="5">
         <v>43013</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4">
+      <c r="M1" s="6"/>
+      <c r="N1" s="5">
         <v>43014</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="4">
+      <c r="O1" s="6"/>
+      <c r="P1" s="5">
         <v>43015</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="4">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="5">
         <v>43016</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="4">
+      <c r="S1" s="6"/>
+      <c r="T1" s="5">
         <v>43017</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="4">
+      <c r="U1" s="6"/>
+      <c r="V1" s="5">
         <v>43018</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="4">
+      <c r="W1" s="6"/>
+      <c r="X1" s="5">
         <v>43019</v>
       </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="4">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="5">
         <v>43020</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="4">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="5">
         <v>43021</v>
       </c>
-      <c r="AC1" s="5"/>
+      <c r="AC1" s="6"/>
     </row>
     <row r="2" spans="3:29">
       <c r="D2" t="s">
@@ -964,7 +964,7 @@
       <c r="T3" s="1">
         <v>1961</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="4">
         <v>2504</v>
       </c>
       <c r="X3">
@@ -972,6 +972,9 @@
       </c>
       <c r="Z3">
         <v>1752</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>932</v>
       </c>
     </row>
     <row r="4" spans="3:29">
@@ -1002,11 +1005,14 @@
       <c r="T4" s="1">
         <v>721</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="4">
         <v>2341</v>
       </c>
       <c r="Z4">
         <v>2185</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="3:29">
@@ -1043,6 +1049,9 @@
       <c r="Z5">
         <v>1340</v>
       </c>
+      <c r="AB5" s="1">
+        <v>988</v>
+      </c>
     </row>
     <row r="6" spans="3:29">
       <c r="D6" s="1">
@@ -1075,6 +1084,9 @@
       <c r="Z6" s="1">
         <v>851</v>
       </c>
+      <c r="AB6" s="1">
+        <v>1492</v>
+      </c>
     </row>
     <row r="7" spans="3:29">
       <c r="D7" s="1">
@@ -1110,6 +1122,9 @@
       <c r="Z7">
         <v>1144</v>
       </c>
+      <c r="AB7" s="1">
+        <v>756</v>
+      </c>
     </row>
     <row r="8" spans="3:29">
       <c r="D8" s="1">
@@ -1151,6 +1166,9 @@
       <c r="Z8" s="1">
         <v>3145</v>
       </c>
+      <c r="AB8" s="1">
+        <v>1133</v>
+      </c>
     </row>
     <row r="9" spans="3:29">
       <c r="D9" s="1">
@@ -1181,6 +1199,9 @@
       <c r="Z9">
         <v>1408</v>
       </c>
+      <c r="AB9" s="1">
+        <v>1460</v>
+      </c>
     </row>
     <row r="10" spans="3:29">
       <c r="D10" s="1">
@@ -1204,6 +1225,9 @@
       <c r="R10">
         <v>1000</v>
       </c>
+      <c r="AB10" s="1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="11" spans="3:29">
       <c r="D11" s="1">
@@ -1242,12 +1266,18 @@
       <c r="D14" s="1">
         <v>922</v>
       </c>
-      <c r="Y14" s="6"/>
+      <c r="Y14" s="4"/>
+      <c r="AB14">
+        <v>1308</v>
+      </c>
     </row>
     <row r="15" spans="3:29">
       <c r="D15" s="1">
         <v>989</v>
       </c>
+      <c r="AB15">
+        <v>5000</v>
+      </c>
     </row>
     <row r="16" spans="3:29">
       <c r="H16">
@@ -1259,6 +1289,9 @@
       <c r="P16">
         <v>1039</v>
       </c>
+      <c r="AB16">
+        <v>1001</v>
+      </c>
     </row>
     <row r="17" spans="4:17">
       <c r="D17">
@@ -1333,6 +1366,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="P1:Q1"/>
@@ -1340,12 +1379,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1367,30 +1400,30 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>43009</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4">
+      <c r="C1" s="6"/>
+      <c r="D1" s="5">
         <v>43010</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4">
+      <c r="E1" s="6"/>
+      <c r="F1" s="5">
         <v>43011</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5">
         <v>43012</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4">
+      <c r="I1" s="6"/>
+      <c r="J1" s="5">
         <v>43013</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4">
+      <c r="K1" s="6"/>
+      <c r="L1" s="5">
         <v>43014</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" t="s">

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -794,7 +794,7 @@
   <dimension ref="C1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3:AB16"/>
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -973,9 +973,7 @@
       <c r="Z3">
         <v>1752</v>
       </c>
-      <c r="AB3" s="1">
-        <v>932</v>
-      </c>
+      <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="3:29">
       <c r="D4" s="1">
@@ -1011,9 +1009,7 @@
       <c r="Z4">
         <v>2185</v>
       </c>
-      <c r="AB4" s="1">
-        <v>543</v>
-      </c>
+      <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="3:29">
       <c r="D5" s="1">
@@ -1049,9 +1045,7 @@
       <c r="Z5">
         <v>1340</v>
       </c>
-      <c r="AB5" s="1">
-        <v>988</v>
-      </c>
+      <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="3:29">
       <c r="D6" s="1">
@@ -1084,9 +1078,7 @@
       <c r="Z6" s="1">
         <v>851</v>
       </c>
-      <c r="AB6" s="1">
-        <v>1492</v>
-      </c>
+      <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="3:29">
       <c r="D7" s="1">
@@ -1122,9 +1114,7 @@
       <c r="Z7">
         <v>1144</v>
       </c>
-      <c r="AB7" s="1">
-        <v>756</v>
-      </c>
+      <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="3:29">
       <c r="D8" s="1">
@@ -1166,9 +1156,7 @@
       <c r="Z8" s="1">
         <v>3145</v>
       </c>
-      <c r="AB8" s="1">
-        <v>1133</v>
-      </c>
+      <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="3:29">
       <c r="D9" s="1">
@@ -1199,9 +1187,7 @@
       <c r="Z9">
         <v>1408</v>
       </c>
-      <c r="AB9" s="1">
-        <v>1460</v>
-      </c>
+      <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="3:29">
       <c r="D10" s="1">
@@ -1225,9 +1211,7 @@
       <c r="R10">
         <v>1000</v>
       </c>
-      <c r="AB10" s="1">
-        <v>2022</v>
-      </c>
+      <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="3:29">
       <c r="D11" s="1">
@@ -1267,17 +1251,11 @@
         <v>922</v>
       </c>
       <c r="Y14" s="4"/>
-      <c r="AB14">
-        <v>1308</v>
-      </c>
     </row>
     <row r="15" spans="3:29">
       <c r="D15" s="1">
         <v>989</v>
       </c>
-      <c r="AB15">
-        <v>5000</v>
-      </c>
     </row>
     <row r="16" spans="3:29">
       <c r="H16">
@@ -1289,9 +1267,6 @@
       <c r="P16">
         <v>1039</v>
       </c>
-      <c r="AB16">
-        <v>1001</v>
-      </c>
     </row>
     <row r="17" spans="4:17">
       <c r="D17">
@@ -1366,12 +1341,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="P1:Q1"/>
@@ -1379,6 +1348,12 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,14 +64,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -108,7 +100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,9 +111,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -427,7 +416,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -436,34 +425,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <v>43003</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4">
         <v>43004</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4">
         <v>43005</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5">
+      <c r="G1" s="5"/>
+      <c r="H1" s="4">
         <v>43006</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5">
+      <c r="I1" s="5"/>
+      <c r="J1" s="4">
         <v>43007</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5">
+      <c r="K1" s="5"/>
+      <c r="L1" s="4">
         <v>43008</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -531,7 +520,7 @@
       <c r="J3" s="2">
         <v>450</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>1166</v>
       </c>
     </row>
@@ -560,7 +549,7 @@
       <c r="J4" s="2">
         <v>1011</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>631</v>
       </c>
     </row>
@@ -589,7 +578,7 @@
       <c r="J5" s="2">
         <v>995</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>1390</v>
       </c>
     </row>
@@ -612,7 +601,7 @@
       <c r="J6" s="2">
         <v>729</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>1187</v>
       </c>
     </row>
@@ -632,7 +621,7 @@
       <c r="J7" s="2">
         <v>729</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>1319</v>
       </c>
     </row>
@@ -649,7 +638,7 @@
       <c r="J8" s="2">
         <v>516</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>628</v>
       </c>
     </row>
@@ -663,7 +652,7 @@
       <c r="J9" s="2">
         <v>51</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>418.77</v>
       </c>
     </row>
@@ -680,7 +669,7 @@
       <c r="J10" s="2">
         <v>1427</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>658.97</v>
       </c>
     </row>
@@ -694,7 +683,7 @@
       <c r="H11" s="2">
         <v>591</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>405</v>
       </c>
     </row>
@@ -708,7 +697,7 @@
       <c r="H12" s="2">
         <v>747</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>29</v>
       </c>
     </row>
@@ -719,7 +708,7 @@
       <c r="H13" s="2">
         <v>382</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <v>1171</v>
       </c>
     </row>
@@ -791,72 +780,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:AC23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="3:29">
-      <c r="C1" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5">
+      <c r="B1" s="4">
         <v>43009</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4">
         <v>43010</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4">
         <v>43011</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5">
+      <c r="G1" s="5"/>
+      <c r="H1" s="4">
         <v>43012</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5">
+      <c r="I1" s="5"/>
+      <c r="J1" s="4">
         <v>43013</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="5">
+      <c r="K1" s="5"/>
+      <c r="L1" s="4">
         <v>43014</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="5">
+      <c r="M1" s="5"/>
+      <c r="N1" s="4">
         <v>43015</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="5">
+      <c r="O1" s="5"/>
+      <c r="P1" s="4">
         <v>43016</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="5">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4">
         <v>43017</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="5">
+      <c r="S1" s="5"/>
+      <c r="T1" s="4">
         <v>43018</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="5">
+      <c r="U1" s="5"/>
+      <c r="V1" s="4">
         <v>43019</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="5">
+      <c r="W1" s="5"/>
+      <c r="X1" s="4">
         <v>43020</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="5">
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="4">
         <v>43021</v>
       </c>
-      <c r="AC1" s="6"/>
-    </row>
-    <row r="2" spans="3:29">
+      <c r="AA1" s="5"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
@@ -929,431 +924,537 @@
       <c r="AA2" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:29">
-      <c r="D3" s="1">
+    </row>
+    <row r="3" spans="1:27">
+      <c r="B3" s="1">
         <v>1171</v>
       </c>
-      <c r="F3" s="3">
+      <c r="D3" s="2">
         <v>1112</v>
       </c>
-      <c r="H3" s="3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <v>1473</v>
       </c>
-      <c r="J3" s="1">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <v>879</v>
       </c>
-      <c r="L3" s="1">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
         <v>1011</v>
       </c>
-      <c r="N3" s="1">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
         <v>2079</v>
       </c>
-      <c r="P3" s="1">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2">
         <v>777</v>
       </c>
-      <c r="R3">
+      <c r="P3">
         <v>746</v>
       </c>
-      <c r="T3" s="1">
+      <c r="R3" s="1">
         <v>1961</v>
       </c>
-      <c r="V3" s="4">
+      <c r="T3" s="3">
         <v>2504</v>
       </c>
+      <c r="V3">
+        <v>3388</v>
+      </c>
       <c r="X3">
-        <v>3388</v>
-      </c>
-      <c r="Z3">
         <v>1752</v>
       </c>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="3:29">
-      <c r="D4" s="1">
+      <c r="Z3" s="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="B4" s="1">
         <v>2467</v>
       </c>
-      <c r="F4" s="3">
+      <c r="D4" s="2">
         <v>1759</v>
       </c>
-      <c r="H4" s="3">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <v>501</v>
       </c>
-      <c r="J4" s="1">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>592</v>
       </c>
-      <c r="L4" s="1">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
         <v>600</v>
       </c>
-      <c r="N4" s="1">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
         <v>953</v>
       </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2">
+        <v>661</v>
+      </c>
       <c r="P4" s="1">
+        <v>1118</v>
+      </c>
+      <c r="R4" s="1">
+        <v>721</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2341</v>
+      </c>
+      <c r="X4">
+        <v>2185</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="B5" s="1">
+        <v>507</v>
+      </c>
+      <c r="D5" s="2">
+        <v>768</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>496</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>894</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>959</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <v>902</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
+        <v>777</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1448</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1011</v>
+      </c>
+      <c r="V5">
+        <v>850</v>
+      </c>
+      <c r="X5">
+        <v>1340</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="B6" s="1">
+        <v>602</v>
+      </c>
+      <c r="D6" s="2">
+        <v>399</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>827</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>395</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
+        <v>1025</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <v>958</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
+        <v>1546</v>
+      </c>
+      <c r="R6" s="1">
+        <v>130</v>
+      </c>
+      <c r="V6">
+        <v>5766</v>
+      </c>
+      <c r="X6" s="1">
+        <v>851</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="B7" s="1">
+        <v>523</v>
+      </c>
+      <c r="D7" s="2">
+        <v>453</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>644</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>530</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>1080</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>2901</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>355</v>
+      </c>
+      <c r="P7">
+        <v>1107</v>
+      </c>
+      <c r="Q7">
+        <v>1000</v>
+      </c>
+      <c r="V7">
+        <v>4350</v>
+      </c>
+      <c r="X7">
+        <v>1144</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="B8" s="1">
+        <v>424</v>
+      </c>
+      <c r="D8" s="2">
+        <v>840</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>937</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>1041</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>1194</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <v>731</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>397</v>
+      </c>
+      <c r="P8">
+        <v>1531</v>
+      </c>
+      <c r="Q8">
+        <v>746</v>
+      </c>
+      <c r="R8">
+        <v>2149</v>
+      </c>
+      <c r="V8">
+        <v>3593</v>
+      </c>
+      <c r="X8" s="1">
+        <v>3145</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="B9" s="1">
+        <v>1375</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1149</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>352</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>1031</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <v>944</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>696</v>
+      </c>
+      <c r="P9" s="1">
+        <v>937</v>
+      </c>
+      <c r="Q9">
+        <v>2638</v>
+      </c>
+      <c r="X9">
+        <v>1408</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="B10" s="1">
+        <v>584</v>
+      </c>
+      <c r="D10" s="2">
+        <v>190</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>1032</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <v>661</v>
       </c>
-      <c r="R4" s="1">
-        <v>1118</v>
-      </c>
-      <c r="T4" s="1">
-        <v>721</v>
-      </c>
-      <c r="X4" s="4">
-        <v>2341</v>
-      </c>
-      <c r="Z4">
-        <v>2185</v>
-      </c>
-      <c r="AB4" s="1"/>
-    </row>
-    <row r="5" spans="3:29">
-      <c r="D5" s="1">
-        <v>507</v>
-      </c>
-      <c r="F5" s="3">
-        <v>768</v>
-      </c>
-      <c r="H5" s="3">
-        <v>496</v>
-      </c>
-      <c r="J5" s="1">
-        <v>894</v>
-      </c>
-      <c r="L5" s="1">
-        <v>959</v>
-      </c>
-      <c r="N5" s="1">
-        <v>902</v>
-      </c>
-      <c r="P5" s="1">
-        <v>777</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1448</v>
-      </c>
-      <c r="T5" s="1">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <v>747</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
+        <v>795</v>
+      </c>
+      <c r="P10">
+        <v>1000</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="B11" s="1">
+        <v>824</v>
+      </c>
+      <c r="D11" s="2">
+        <v>910</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>1475</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>1011</v>
       </c>
-      <c r="X5">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="B12" s="1">
+        <v>1157</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>815</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>1016</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="B13" s="1">
+        <v>150</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>962</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="B14" s="1">
+        <v>922</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="W14" s="3"/>
+      <c r="Z14">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="B15" s="1">
+        <v>989</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="Z15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="F16">
+        <v>1101</v>
+      </c>
+      <c r="G16">
+        <v>1101</v>
+      </c>
+      <c r="N16">
+        <v>1039</v>
+      </c>
+      <c r="Z16">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17">
+        <v>904</v>
+      </c>
+      <c r="F17">
+        <v>1900</v>
+      </c>
+      <c r="G17">
+        <v>367</v>
+      </c>
+      <c r="N17">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18">
+        <v>580</v>
+      </c>
+      <c r="F18">
+        <v>124</v>
+      </c>
+      <c r="G18">
+        <v>1900</v>
+      </c>
+      <c r="N18">
         <v>850</v>
       </c>
-      <c r="Z5">
-        <v>1340</v>
-      </c>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="3:29">
-      <c r="D6" s="1">
-        <v>602</v>
-      </c>
-      <c r="F6" s="3">
-        <v>399</v>
-      </c>
-      <c r="H6" s="3">
-        <v>827</v>
-      </c>
-      <c r="J6" s="1">
-        <v>395</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1025</v>
-      </c>
-      <c r="N6" s="1">
-        <v>958</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1546</v>
-      </c>
-      <c r="T6" s="1">
-        <v>130</v>
-      </c>
-      <c r="X6">
-        <v>5766</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>851</v>
-      </c>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="3:29">
-      <c r="D7" s="1">
-        <v>523</v>
-      </c>
-      <c r="F7" s="3">
-        <v>453</v>
-      </c>
-      <c r="H7" s="3">
-        <v>644</v>
-      </c>
-      <c r="J7" s="1">
-        <v>530</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1080</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2901</v>
-      </c>
-      <c r="P7" s="1">
-        <v>355</v>
-      </c>
-      <c r="R7">
-        <v>1107</v>
-      </c>
-      <c r="S7">
-        <v>1000</v>
-      </c>
-      <c r="X7">
-        <v>4350</v>
-      </c>
-      <c r="Z7">
-        <v>1144</v>
-      </c>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="3:29">
-      <c r="D8" s="1">
-        <v>424</v>
-      </c>
-      <c r="F8" s="3">
-        <v>840</v>
-      </c>
-      <c r="H8" s="3">
-        <v>937</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1041</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1194</v>
-      </c>
-      <c r="N8" s="1">
-        <v>731</v>
-      </c>
-      <c r="P8" s="1">
-        <v>397</v>
-      </c>
-      <c r="R8">
-        <v>1531</v>
-      </c>
-      <c r="S8">
-        <v>746</v>
-      </c>
-      <c r="T8">
-        <v>2149</v>
-      </c>
-      <c r="U8">
-        <v>2149</v>
-      </c>
-      <c r="X8">
-        <v>3593</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>3145</v>
-      </c>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="3:29">
-      <c r="D9" s="1">
-        <v>1375</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1149</v>
-      </c>
-      <c r="H9" s="3">
-        <v>352</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1031</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="N9" s="1">
-        <v>944</v>
-      </c>
-      <c r="P9" s="1">
-        <v>696</v>
-      </c>
-      <c r="R9" s="1">
-        <v>937</v>
-      </c>
-      <c r="S9">
-        <v>2638</v>
-      </c>
-      <c r="Z9">
-        <v>1408</v>
-      </c>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="3:29">
-      <c r="D10" s="1">
-        <v>584</v>
-      </c>
-      <c r="F10" s="3">
-        <v>190</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1032</v>
-      </c>
-      <c r="J10" s="1">
-        <v>661</v>
-      </c>
-      <c r="N10" s="1">
-        <v>747</v>
-      </c>
-      <c r="P10" s="1">
-        <v>795</v>
-      </c>
-      <c r="R10">
-        <v>1000</v>
-      </c>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="3:29">
-      <c r="D11" s="1">
-        <v>824</v>
-      </c>
-      <c r="F11" s="3">
-        <v>910</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1475</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="12" spans="3:29">
-      <c r="D12" s="1">
-        <v>1157</v>
-      </c>
-      <c r="H12" s="3">
-        <v>815</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="13" spans="3:29">
-      <c r="D13" s="1">
-        <v>150</v>
-      </c>
-      <c r="H13" s="3">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="14" spans="3:29">
-      <c r="D14" s="1">
-        <v>922</v>
-      </c>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="3:29">
-      <c r="D15" s="1">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="16" spans="3:29">
-      <c r="H16">
-        <v>1101</v>
-      </c>
-      <c r="I16">
-        <v>1101</v>
-      </c>
-      <c r="P16">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17">
-      <c r="D17">
-        <v>904</v>
-      </c>
-      <c r="H17">
-        <v>1900</v>
-      </c>
-      <c r="I17">
-        <v>367</v>
-      </c>
-      <c r="P17">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17">
-      <c r="D18">
-        <v>580</v>
-      </c>
-      <c r="H18">
-        <v>124</v>
-      </c>
-      <c r="I18">
-        <v>1900</v>
-      </c>
-      <c r="P18">
-        <v>850</v>
-      </c>
-      <c r="Q18">
+      <c r="O18">
         <v>1514</v>
       </c>
     </row>
-    <row r="19" spans="4:17">
-      <c r="H19">
+    <row r="19" spans="2:15">
+      <c r="F19">
         <v>116</v>
       </c>
-      <c r="P19">
+      <c r="N19">
         <v>664</v>
       </c>
-      <c r="Q19">
+      <c r="O19">
         <v>3942</v>
       </c>
     </row>
-    <row r="20" spans="4:17">
-      <c r="H20">
+    <row r="20" spans="2:15">
+      <c r="F20">
         <v>127</v>
       </c>
-      <c r="P20">
+      <c r="N20">
         <v>683</v>
       </c>
-      <c r="Q20">
+      <c r="O20">
         <v>1517</v>
       </c>
     </row>
-    <row r="21" spans="4:17">
-      <c r="P21">
+    <row r="21" spans="2:15">
+      <c r="N21">
         <v>677</v>
       </c>
-      <c r="Q21">
+      <c r="O21">
         <v>1351</v>
       </c>
     </row>
-    <row r="22" spans="4:17">
-      <c r="P22">
+    <row r="22" spans="2:15">
+      <c r="N22">
         <v>2329</v>
       </c>
     </row>
-    <row r="23" spans="4:17">
-      <c r="P23">
+    <row r="23" spans="2:15">
+      <c r="N23">
         <v>1613</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1375,30 +1476,30 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <v>43009</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4">
         <v>43010</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4">
         <v>43011</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5">
+      <c r="G1" s="5"/>
+      <c r="H1" s="4">
         <v>43012</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5">
+      <c r="I1" s="5"/>
+      <c r="J1" s="4">
         <v>43013</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5">
+      <c r="K1" s="5"/>
+      <c r="L1" s="4">
         <v>43014</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" t="s">

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="4">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -780,15 +780,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:39">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,8 +844,32 @@
         <v>43021</v>
       </c>
       <c r="AA1" s="5"/>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="4">
+        <v>43022</v>
+      </c>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="4">
+        <v>43023</v>
+      </c>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="4">
+        <v>43024</v>
+      </c>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="4">
+        <v>43025</v>
+      </c>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="4">
+        <v>43026</v>
+      </c>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="4">
+        <v>43027</v>
+      </c>
+      <c r="AM1" s="5"/>
+    </row>
+    <row r="2" spans="1:39">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -924,8 +948,44 @@
       <c r="AA2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="B3" s="1">
         <v>1171</v>
       </c>
@@ -970,8 +1030,17 @@
       <c r="Z3" s="1">
         <v>932</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>1001</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>955</v>
+      </c>
+      <c r="AC3">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="B4" s="1">
         <v>2467</v>
       </c>
@@ -1013,8 +1082,17 @@
       <c r="Z4" s="1">
         <v>543</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>1308</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>848</v>
+      </c>
+      <c r="AC4">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="B5" s="1">
         <v>507</v>
       </c>
@@ -1056,8 +1134,11 @@
       <c r="Z5" s="1">
         <v>988</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" s="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="B6" s="1">
         <v>602</v>
       </c>
@@ -1096,8 +1177,11 @@
       <c r="Z6" s="1">
         <v>1492</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" s="1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="B7" s="1">
         <v>523</v>
       </c>
@@ -1139,8 +1223,11 @@
       <c r="Z7" s="1">
         <v>756</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" s="1">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="B8" s="1">
         <v>424</v>
       </c>
@@ -1185,8 +1272,11 @@
       <c r="Z8" s="1">
         <v>1133</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" s="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
       <c r="B9" s="1">
         <v>1375</v>
       </c>
@@ -1223,8 +1313,11 @@
       <c r="Z9" s="1">
         <v>1460</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" s="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="B10" s="1">
         <v>584</v>
       </c>
@@ -1255,8 +1348,11 @@
       <c r="Z10" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" s="1">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
       <c r="B11" s="1">
         <v>824</v>
       </c>
@@ -1277,8 +1373,11 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" s="1">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
       <c r="B12" s="1">
         <v>1157</v>
       </c>
@@ -1298,7 +1397,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:39">
       <c r="B13" s="1">
         <v>150</v>
       </c>
@@ -1316,7 +1415,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:39">
       <c r="B14" s="1">
         <v>922</v>
       </c>
@@ -1335,8 +1434,11 @@
       <c r="Z14">
         <v>1308</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
       <c r="B15" s="1">
         <v>989</v>
       </c>
@@ -1354,8 +1456,11 @@
       <c r="Z15">
         <v>5000</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
       <c r="F16">
         <v>1101</v>
       </c>
@@ -1367,6 +1472,9 @@
       </c>
       <c r="Z16">
         <v>1001</v>
+      </c>
+      <c r="AB16">
+        <v>1760</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -1441,7 +1549,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="19">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="N1:O1"/>
@@ -1449,12 +1569,6 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -783,7 +783,7 @@
   <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1039,6 +1039,12 @@
       <c r="AC3">
         <v>4834</v>
       </c>
+      <c r="AD3" s="1">
+        <v>834</v>
+      </c>
+      <c r="AE3">
+        <v>2177</v>
+      </c>
     </row>
     <row r="4" spans="1:39">
       <c r="B4" s="1">
@@ -1091,6 +1097,12 @@
       <c r="AC4">
         <v>2431</v>
       </c>
+      <c r="AD4" s="1">
+        <v>307</v>
+      </c>
+      <c r="AE4">
+        <v>2099</v>
+      </c>
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="1">
@@ -1137,6 +1149,12 @@
       <c r="AB5" s="1">
         <v>1003</v>
       </c>
+      <c r="AD5" s="1">
+        <v>440</v>
+      </c>
+      <c r="AE5">
+        <v>2000</v>
+      </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="1">
@@ -1180,6 +1198,9 @@
       <c r="AB6" s="1">
         <v>865</v>
       </c>
+      <c r="AD6" s="1">
+        <v>1808</v>
+      </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" s="1">
@@ -1226,6 +1247,9 @@
       <c r="AB7" s="1">
         <v>727</v>
       </c>
+      <c r="AD7" s="1">
+        <v>478</v>
+      </c>
     </row>
     <row r="8" spans="1:39">
       <c r="B8" s="1">
@@ -1274,6 +1298,9 @@
       </c>
       <c r="AB8" s="1">
         <v>524</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1316,6 +1343,9 @@
       <c r="AB9" s="1">
         <v>676</v>
       </c>
+      <c r="AD9" s="1">
+        <v>383</v>
+      </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" s="1">
@@ -1350,6 +1380,9 @@
       </c>
       <c r="AB10" s="1">
         <v>1252</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1376,6 +1409,9 @@
       <c r="AB11" s="1">
         <v>1070</v>
       </c>
+      <c r="AD11" s="1">
+        <v>2061</v>
+      </c>
     </row>
     <row r="12" spans="1:39">
       <c r="B12" s="1">
@@ -1396,6 +1432,9 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
+      <c r="AD12" s="1">
+        <v>467</v>
+      </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="1">
@@ -1414,6 +1453,9 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
+      <c r="AD13" s="1">
+        <v>265</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" s="1">
@@ -1437,6 +1479,9 @@
       <c r="AB14">
         <v>2431</v>
       </c>
+      <c r="AD14" s="1">
+        <v>933</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
       <c r="B15" s="1">
@@ -1459,6 +1504,9 @@
       <c r="AB15">
         <v>3074</v>
       </c>
+      <c r="AD15" s="1">
+        <v>509</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="F16">
@@ -1477,7 +1525,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:30">
       <c r="B17">
         <v>904</v>
       </c>
@@ -1490,8 +1538,11 @@
       <c r="N17">
         <v>488</v>
       </c>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="AD17">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30">
       <c r="B18">
         <v>580</v>
       </c>
@@ -1507,8 +1558,11 @@
       <c r="O18">
         <v>1514</v>
       </c>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="AD18">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30">
       <c r="F19">
         <v>116</v>
       </c>
@@ -1518,8 +1572,11 @@
       <c r="O19">
         <v>3942</v>
       </c>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="AD19" s="3">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30">
       <c r="F20">
         <v>127</v>
       </c>
@@ -1529,8 +1586,11 @@
       <c r="O20">
         <v>1517</v>
       </c>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="AD20" s="3">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
       <c r="N21">
         <v>677</v>
       </c>
@@ -1538,30 +1598,18 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:30">
       <c r="N22">
         <v>2329</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:30">
       <c r="N23">
         <v>1613</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="N1:O1"/>
@@ -1569,6 +1617,18 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -125,11 +125,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -203,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,6 +243,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,7 +419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -779,11 +786,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1018,7 +1025,7 @@
       <c r="R3" s="1">
         <v>1961</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>2504</v>
       </c>
       <c r="V3">
@@ -1079,7 +1086,7 @@
       <c r="R4" s="1">
         <v>721</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <v>2341</v>
       </c>
       <c r="X4">
@@ -1610,6 +1617,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="N1:O1"/>
@@ -1617,18 +1636,6 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1637,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -37,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +77,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,6 +127,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -134,7 +145,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -208,7 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,7 +253,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,7 +428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -786,11 +795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1052,6 +1061,12 @@
       <c r="AE3">
         <v>2177</v>
       </c>
+      <c r="AF3" s="1">
+        <v>859</v>
+      </c>
+      <c r="AG3">
+        <v>1601</v>
+      </c>
     </row>
     <row r="4" spans="1:39">
       <c r="B4" s="1">
@@ -1110,6 +1125,12 @@
       <c r="AE4">
         <v>2099</v>
       </c>
+      <c r="AF4" s="1">
+        <v>879</v>
+      </c>
+      <c r="AG4">
+        <v>580</v>
+      </c>
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="1">
@@ -1162,6 +1183,12 @@
       <c r="AE5">
         <v>2000</v>
       </c>
+      <c r="AF5" s="1">
+        <v>392</v>
+      </c>
+      <c r="AG5">
+        <v>115</v>
+      </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="1">
@@ -1208,6 +1235,9 @@
       <c r="AD6" s="1">
         <v>1808</v>
       </c>
+      <c r="AF6" s="1">
+        <v>293</v>
+      </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" s="1">
@@ -1257,6 +1287,9 @@
       <c r="AD7" s="1">
         <v>478</v>
       </c>
+      <c r="AF7" s="1">
+        <v>2004</v>
+      </c>
     </row>
     <row r="8" spans="1:39">
       <c r="B8" s="1">
@@ -1308,6 +1341,9 @@
       </c>
       <c r="AD8" s="1">
         <v>387</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1353,6 +1389,9 @@
       <c r="AD9" s="1">
         <v>383</v>
       </c>
+      <c r="AF9" s="1">
+        <v>730</v>
+      </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" s="1">
@@ -1390,6 +1429,9 @@
       </c>
       <c r="AD10" s="1">
         <v>730</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1419,6 +1461,9 @@
       <c r="AD11" s="1">
         <v>2061</v>
       </c>
+      <c r="AF11" s="1">
+        <v>700</v>
+      </c>
     </row>
     <row r="12" spans="1:39">
       <c r="B12" s="1">
@@ -1441,6 +1486,9 @@
       <c r="N12" s="2"/>
       <c r="AD12" s="1">
         <v>467</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1424</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -1462,6 +1510,9 @@
       <c r="N13" s="2"/>
       <c r="AD13" s="1">
         <v>265</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1514,6 +1565,9 @@
       <c r="AD15" s="1">
         <v>509</v>
       </c>
+      <c r="AF15" s="2">
+        <v>1601</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="F16">
@@ -1531,8 +1585,11 @@
       <c r="AB16">
         <v>1760</v>
       </c>
-    </row>
-    <row r="17" spans="2:30">
+      <c r="AF16" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32">
       <c r="B17">
         <v>904</v>
       </c>
@@ -1548,8 +1605,11 @@
       <c r="AD17">
         <v>2177</v>
       </c>
-    </row>
-    <row r="18" spans="2:30">
+      <c r="AF17" s="2">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32">
       <c r="B18">
         <v>580</v>
       </c>
@@ -1568,8 +1628,11 @@
       <c r="AD18">
         <v>4099</v>
       </c>
-    </row>
-    <row r="19" spans="2:30">
+      <c r="AF18">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32">
       <c r="F19">
         <v>116</v>
       </c>
@@ -1579,11 +1642,14 @@
       <c r="O19">
         <v>3942</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD19" s="6">
         <v>1810</v>
       </c>
-    </row>
-    <row r="20" spans="2:30">
+      <c r="AF19">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32">
       <c r="F20">
         <v>127</v>
       </c>
@@ -1593,11 +1659,14 @@
       <c r="O20">
         <v>1517</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="6">
         <v>3627</v>
       </c>
-    </row>
-    <row r="21" spans="2:30">
+      <c r="AF20" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32">
       <c r="N21">
         <v>677</v>
       </c>
@@ -1605,30 +1674,18 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="22" spans="2:30">
+    <row r="22" spans="2:32">
       <c r="N22">
         <v>2329</v>
       </c>
     </row>
-    <row r="23" spans="2:30">
+    <row r="23" spans="2:32">
       <c r="N23">
         <v>1613</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="N1:O1"/>
@@ -1636,6 +1693,18 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1644,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -121,14 +121,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,34 +441,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>43003</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4">
+      <c r="C1" s="6"/>
+      <c r="D1" s="5">
         <v>43004</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4">
+      <c r="E1" s="6"/>
+      <c r="F1" s="5">
         <v>43005</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5">
         <v>43006</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4">
+      <c r="I1" s="6"/>
+      <c r="J1" s="5">
         <v>43007</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4">
+      <c r="K1" s="6"/>
+      <c r="L1" s="5">
         <v>43008</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -796,10 +796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -808,82 +808,82 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>43009</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4">
+      <c r="C1" s="6"/>
+      <c r="D1" s="5">
         <v>43010</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4">
+      <c r="E1" s="6"/>
+      <c r="F1" s="5">
         <v>43011</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5">
         <v>43012</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4">
+      <c r="I1" s="6"/>
+      <c r="J1" s="5">
         <v>43013</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4">
+      <c r="K1" s="6"/>
+      <c r="L1" s="5">
         <v>43014</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4">
+      <c r="M1" s="6"/>
+      <c r="N1" s="5">
         <v>43015</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="4">
+      <c r="O1" s="6"/>
+      <c r="P1" s="5">
         <v>43016</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="4">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="5">
         <v>43017</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="4">
+      <c r="S1" s="6"/>
+      <c r="T1" s="5">
         <v>43018</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="4">
+      <c r="U1" s="6"/>
+      <c r="V1" s="5">
         <v>43019</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="4">
+      <c r="W1" s="6"/>
+      <c r="X1" s="5">
         <v>43020</v>
       </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="4">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="5">
         <v>43021</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="4">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="5">
         <v>43022</v>
       </c>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="4">
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="5">
         <v>43023</v>
       </c>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="4">
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="5">
         <v>43024</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="4">
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="5">
         <v>43025</v>
       </c>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="4">
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="5">
         <v>43026</v>
       </c>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="4">
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="5">
         <v>43027</v>
       </c>
-      <c r="AM1" s="5"/>
+      <c r="AM1" s="6"/>
     </row>
     <row r="2" spans="1:39">
       <c r="B2" t="s">
@@ -1067,6 +1067,9 @@
       <c r="AG3">
         <v>1601</v>
       </c>
+      <c r="AH3" s="1">
+        <v>778</v>
+      </c>
     </row>
     <row r="4" spans="1:39">
       <c r="B4" s="1">
@@ -1131,6 +1134,9 @@
       <c r="AG4">
         <v>580</v>
       </c>
+      <c r="AH4" s="1">
+        <v>1076</v>
+      </c>
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="1">
@@ -1189,6 +1195,9 @@
       <c r="AG5">
         <v>115</v>
       </c>
+      <c r="AH5" s="1">
+        <v>885</v>
+      </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="1">
@@ -1238,6 +1247,9 @@
       <c r="AF6" s="1">
         <v>293</v>
       </c>
+      <c r="AH6" s="1">
+        <v>411</v>
+      </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" s="1">
@@ -1290,6 +1302,9 @@
       <c r="AF7" s="1">
         <v>2004</v>
       </c>
+      <c r="AH7" s="1">
+        <v>988</v>
+      </c>
     </row>
     <row r="8" spans="1:39">
       <c r="B8" s="1">
@@ -1344,6 +1359,9 @@
       </c>
       <c r="AF8" s="1">
         <v>627</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1392,6 +1410,9 @@
       <c r="AF9" s="1">
         <v>730</v>
       </c>
+      <c r="AH9" s="1">
+        <v>438</v>
+      </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" s="1">
@@ -1432,6 +1453,9 @@
       </c>
       <c r="AF10" s="1">
         <v>1000</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1067</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1463,6 +1487,9 @@
       </c>
       <c r="AF11" s="1">
         <v>700</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1513,6 +1540,12 @@
       </c>
       <c r="AF13" s="1">
         <v>234</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>2450</v>
+      </c>
+      <c r="AI13">
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1540,6 +1573,12 @@
       <c r="AD14" s="1">
         <v>933</v>
       </c>
+      <c r="AH14" s="2">
+        <v>4081</v>
+      </c>
+      <c r="AI14">
+        <v>701</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
       <c r="B15" s="1">
@@ -1568,6 +1607,12 @@
       <c r="AF15" s="2">
         <v>1601</v>
       </c>
+      <c r="AH15">
+        <v>2210</v>
+      </c>
+      <c r="AI15">
+        <v>678</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="F16">
@@ -1588,8 +1633,14 @@
       <c r="AF16" s="2">
         <v>589</v>
       </c>
-    </row>
-    <row r="17" spans="2:32">
+      <c r="AH16">
+        <v>963</v>
+      </c>
+      <c r="AI16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35">
       <c r="B17">
         <v>904</v>
       </c>
@@ -1608,8 +1659,14 @@
       <c r="AF17" s="2">
         <v>987</v>
       </c>
-    </row>
-    <row r="18" spans="2:32">
+      <c r="AH17">
+        <v>249</v>
+      </c>
+      <c r="AI17">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35">
       <c r="B18">
         <v>580</v>
       </c>
@@ -1631,8 +1688,11 @@
       <c r="AF18">
         <v>1020</v>
       </c>
-    </row>
-    <row r="19" spans="2:32">
+      <c r="AH18">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35">
       <c r="F19">
         <v>116</v>
       </c>
@@ -1642,14 +1702,14 @@
       <c r="O19">
         <v>3942</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="4">
         <v>1810</v>
       </c>
       <c r="AF19">
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="2:32">
+    <row r="20" spans="2:35">
       <c r="F20">
         <v>127</v>
       </c>
@@ -1659,33 +1719,63 @@
       <c r="O20">
         <v>1517</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AD20" s="4">
         <v>3627</v>
       </c>
       <c r="AF20" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="2:32">
+      <c r="AH20">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35">
       <c r="N21">
         <v>677</v>
       </c>
       <c r="O21">
         <v>1351</v>
       </c>
-    </row>
-    <row r="22" spans="2:32">
+      <c r="AH21">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35">
       <c r="N22">
         <v>2329</v>
       </c>
-    </row>
-    <row r="23" spans="2:32">
+      <c r="AH22" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35">
       <c r="N23">
         <v>1613</v>
       </c>
+      <c r="AH23" s="3">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35">
+      <c r="AH26" s="1"/>
+    </row>
+    <row r="27" spans="2:35">
+      <c r="AH27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="N1:O1"/>
@@ -1693,18 +1783,6 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1726,30 +1804,30 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>43009</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4">
+      <c r="C1" s="6"/>
+      <c r="D1" s="5">
         <v>43010</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4">
+      <c r="E1" s="6"/>
+      <c r="F1" s="5">
         <v>43011</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5">
         <v>43012</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4">
+      <c r="I1" s="6"/>
+      <c r="J1" s="5">
         <v>43013</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4">
+      <c r="K1" s="6"/>
+      <c r="L1" s="5">
         <v>43014</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" t="s">

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -37,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +85,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -130,6 +138,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -145,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -219,6 +230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -253,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,7 +441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -795,11 +808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1744,7 +1757,7 @@
       <c r="N22">
         <v>2329</v>
       </c>
-      <c r="AH22" s="3">
+      <c r="AH22" s="7">
         <v>700</v>
       </c>
     </row>
@@ -1764,18 +1777,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="N1:O1"/>
@@ -1783,6 +1784,18 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1791,7 +1804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -132,14 +132,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -230,7 +230,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -265,7 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,7 +439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -454,34 +452,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="6">
         <v>43003</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5">
+      <c r="C1" s="7"/>
+      <c r="D1" s="6">
         <v>43004</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5">
+      <c r="E1" s="7"/>
+      <c r="F1" s="6">
         <v>43005</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5">
+      <c r="G1" s="7"/>
+      <c r="H1" s="6">
         <v>43006</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5">
+      <c r="I1" s="7"/>
+      <c r="J1" s="6">
         <v>43007</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5">
+      <c r="K1" s="7"/>
+      <c r="L1" s="6">
         <v>43008</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -808,11 +806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="B3" activeCellId="11" sqref="AJ3:AJ12 AH3:AH11 AF3:AF13 AD3:AD15 AB3:AB11 Z3:Z10 X6 X8 R3:R6 P4:P5 P9 B3:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -821,82 +819,82 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="6">
         <v>43009</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5">
+      <c r="C1" s="7"/>
+      <c r="D1" s="6">
         <v>43010</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5">
+      <c r="E1" s="7"/>
+      <c r="F1" s="6">
         <v>43011</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5">
+      <c r="G1" s="7"/>
+      <c r="H1" s="6">
         <v>43012</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5">
+      <c r="I1" s="7"/>
+      <c r="J1" s="6">
         <v>43013</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5">
+      <c r="K1" s="7"/>
+      <c r="L1" s="6">
         <v>43014</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="5">
+      <c r="M1" s="7"/>
+      <c r="N1" s="6">
         <v>43015</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="5">
+      <c r="O1" s="7"/>
+      <c r="P1" s="6">
         <v>43016</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="5">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="6">
         <v>43017</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="5">
+      <c r="S1" s="7"/>
+      <c r="T1" s="6">
         <v>43018</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="5">
+      <c r="U1" s="7"/>
+      <c r="V1" s="6">
         <v>43019</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="5">
+      <c r="W1" s="7"/>
+      <c r="X1" s="6">
         <v>43020</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="5">
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="6">
         <v>43021</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="5">
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="6">
         <v>43022</v>
       </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="5">
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="6">
         <v>43023</v>
       </c>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="5">
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="6">
         <v>43024</v>
       </c>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="5">
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="6">
         <v>43025</v>
       </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="5">
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="6">
         <v>43026</v>
       </c>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="5">
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="6">
         <v>43027</v>
       </c>
-      <c r="AM1" s="6"/>
+      <c r="AM1" s="7"/>
     </row>
     <row r="2" spans="1:39">
       <c r="B2" t="s">
@@ -1083,6 +1081,9 @@
       <c r="AH3" s="1">
         <v>778</v>
       </c>
+      <c r="AJ3" s="1">
+        <v>573</v>
+      </c>
     </row>
     <row r="4" spans="1:39">
       <c r="B4" s="1">
@@ -1150,6 +1151,9 @@
       <c r="AH4" s="1">
         <v>1076</v>
       </c>
+      <c r="AJ4" s="1">
+        <v>438</v>
+      </c>
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="1">
@@ -1211,6 +1215,9 @@
       <c r="AH5" s="1">
         <v>885</v>
       </c>
+      <c r="AJ5" s="1">
+        <v>832</v>
+      </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="1">
@@ -1263,6 +1270,9 @@
       <c r="AH6" s="1">
         <v>411</v>
       </c>
+      <c r="AJ6" s="1">
+        <v>501</v>
+      </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" s="1">
@@ -1318,6 +1328,9 @@
       <c r="AH7" s="1">
         <v>988</v>
       </c>
+      <c r="AJ7" s="1">
+        <v>327</v>
+      </c>
     </row>
     <row r="8" spans="1:39">
       <c r="B8" s="1">
@@ -1375,6 +1388,9 @@
       </c>
       <c r="AH8" s="1">
         <v>747</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1426,6 +1442,9 @@
       <c r="AH9" s="1">
         <v>438</v>
       </c>
+      <c r="AJ9" s="1">
+        <v>696</v>
+      </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" s="1">
@@ -1469,6 +1488,9 @@
       </c>
       <c r="AH10" s="1">
         <v>1067</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1504,6 +1526,9 @@
       <c r="AH11" s="1">
         <v>317</v>
       </c>
+      <c r="AJ11" s="1">
+        <v>1450</v>
+      </c>
     </row>
     <row r="12" spans="1:39">
       <c r="B12" s="1">
@@ -1529,6 +1554,9 @@
       </c>
       <c r="AF12" s="1">
         <v>1424</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>757</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -1592,6 +1620,9 @@
       <c r="AI14">
         <v>701</v>
       </c>
+      <c r="AJ14" s="2">
+        <v>596.69000000000005</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
       <c r="B15" s="1">
@@ -1626,6 +1657,9 @@
       <c r="AI15">
         <v>678</v>
       </c>
+      <c r="AJ15" s="2">
+        <v>629</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="F16">
@@ -1652,8 +1686,11 @@
       <c r="AI16">
         <v>10000</v>
       </c>
-    </row>
-    <row r="17" spans="2:35">
+      <c r="AJ16" s="2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37">
       <c r="B17">
         <v>904</v>
       </c>
@@ -1678,8 +1715,11 @@
       <c r="AI17">
         <v>3862</v>
       </c>
-    </row>
-    <row r="18" spans="2:35">
+      <c r="AJ17" s="2">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37">
       <c r="B18">
         <v>580</v>
       </c>
@@ -1704,8 +1744,11 @@
       <c r="AH18">
         <v>4158</v>
       </c>
-    </row>
-    <row r="19" spans="2:35">
+      <c r="AJ18" s="2">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37">
       <c r="F19">
         <v>116</v>
       </c>
@@ -1721,8 +1764,11 @@
       <c r="AF19">
         <v>580</v>
       </c>
-    </row>
-    <row r="20" spans="2:35">
+      <c r="AJ19" s="2">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37">
       <c r="F20">
         <v>127</v>
       </c>
@@ -1741,8 +1787,11 @@
       <c r="AH20">
         <v>701</v>
       </c>
-    </row>
-    <row r="21" spans="2:35">
+      <c r="AJ20" s="2">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37">
       <c r="N21">
         <v>677</v>
       </c>
@@ -1753,30 +1802,139 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="2:35">
+    <row r="22" spans="2:37">
       <c r="N22">
         <v>2329</v>
       </c>
-      <c r="AH22" s="7">
+      <c r="AH22" s="5">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="2:35">
+      <c r="AJ22" s="3">
+        <v>1810</v>
+      </c>
+      <c r="AK22">
+        <v>1848.69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37">
       <c r="N23">
         <v>1613</v>
       </c>
       <c r="AH23" s="3">
         <v>2867</v>
       </c>
-    </row>
-    <row r="26" spans="2:35">
+      <c r="AJ23" s="3">
+        <v>1444</v>
+      </c>
+      <c r="AK23">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37">
+      <c r="AJ24" s="2">
+        <v>1119</v>
+      </c>
+      <c r="AK24">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37">
+      <c r="AJ25" s="2">
+        <v>991</v>
+      </c>
+      <c r="AK25">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37">
       <c r="AH26" s="1"/>
-    </row>
-    <row r="27" spans="2:35">
+      <c r="AJ26" s="2">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37">
       <c r="AH27" s="1"/>
+      <c r="AJ27" s="2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37">
+      <c r="AJ28" s="3">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37">
+      <c r="AJ29" s="3">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37">
+      <c r="AJ30" s="3">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="33" spans="36:36">
+      <c r="AJ33" s="1"/>
+    </row>
+    <row r="34" spans="36:36">
+      <c r="AJ34" s="1"/>
+    </row>
+    <row r="35" spans="36:36">
+      <c r="AJ35" s="1"/>
+    </row>
+    <row r="36" spans="36:36">
+      <c r="AJ36" s="1"/>
+    </row>
+    <row r="37" spans="36:36">
+      <c r="AJ37" s="1"/>
+    </row>
+    <row r="38" spans="36:36">
+      <c r="AJ38" s="1"/>
+    </row>
+    <row r="39" spans="36:36">
+      <c r="AJ39" s="1"/>
+    </row>
+    <row r="41" spans="36:36">
+      <c r="AJ41" s="1"/>
+    </row>
+    <row r="42" spans="36:36">
+      <c r="AJ42" s="1"/>
+    </row>
+    <row r="43" spans="36:36">
+      <c r="AJ43" s="1"/>
+    </row>
+    <row r="44" spans="36:36">
+      <c r="AJ44" s="1"/>
+    </row>
+    <row r="45" spans="36:36">
+      <c r="AJ45" s="1"/>
+    </row>
+    <row r="46" spans="36:36">
+      <c r="AJ46" s="1"/>
+    </row>
+    <row r="47" spans="36:36">
+      <c r="AJ47" s="1"/>
+    </row>
+    <row r="48" spans="36:36">
+      <c r="AJ48" s="1"/>
+    </row>
+    <row r="49" spans="36:36">
+      <c r="AJ49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="N1:O1"/>
@@ -1784,18 +1942,6 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1804,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1817,30 +1963,30 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="6">
         <v>43009</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5">
+      <c r="C1" s="7"/>
+      <c r="D1" s="6">
         <v>43010</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5">
+      <c r="E1" s="7"/>
+      <c r="F1" s="6">
         <v>43011</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5">
+      <c r="G1" s="7"/>
+      <c r="H1" s="6">
         <v>43012</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5">
+      <c r="I1" s="7"/>
+      <c r="J1" s="6">
         <v>43013</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5">
+      <c r="K1" s="7"/>
+      <c r="L1" s="6">
         <v>43014</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" t="s">

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -230,6 +230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,7 +441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -806,11 +808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="B3" activeCellId="11" sqref="AJ3:AJ12 AH3:AH11 AF3:AF13 AD3:AD15 AB3:AB11 Z3:Z10 X6 X8 R3:R6 P4:P5 P9 B3:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1359,7 +1361,7 @@
       <c r="N8" s="2">
         <v>397</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>1531</v>
       </c>
       <c r="Q8">
@@ -1418,7 +1420,7 @@
       <c r="N9" s="2">
         <v>696</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="2">
         <v>937</v>
       </c>
       <c r="Q9">
@@ -1923,18 +1925,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="N1:O1"/>
@@ -1942,6 +1932,18 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1950,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="X10" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1811,7 +1811,7 @@
       <c r="AH22" s="5">
         <v>700</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AJ22" s="2">
         <v>1810</v>
       </c>
       <c r="AK22">
@@ -1925,6 +1925,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="N1:O1"/>
@@ -1932,18 +1944,6 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -37,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,6 +141,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -156,7 +167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -230,7 +241,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -265,7 +275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,7 +450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -454,34 +463,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="7">
         <v>43003</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6">
+      <c r="C1" s="8"/>
+      <c r="D1" s="7">
         <v>43004</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6">
+      <c r="E1" s="8"/>
+      <c r="F1" s="7">
         <v>43005</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6">
+      <c r="G1" s="8"/>
+      <c r="H1" s="7">
         <v>43006</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6">
+      <c r="I1" s="8"/>
+      <c r="J1" s="7">
         <v>43007</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6">
+      <c r="K1" s="8"/>
+      <c r="L1" s="7">
         <v>43008</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="7"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -808,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X10" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -821,82 +830,82 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="7">
         <v>43009</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6">
+      <c r="C1" s="8"/>
+      <c r="D1" s="7">
         <v>43010</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6">
+      <c r="E1" s="8"/>
+      <c r="F1" s="7">
         <v>43011</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6">
+      <c r="G1" s="8"/>
+      <c r="H1" s="7">
         <v>43012</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6">
+      <c r="I1" s="8"/>
+      <c r="J1" s="7">
         <v>43013</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6">
+      <c r="K1" s="8"/>
+      <c r="L1" s="7">
         <v>43014</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="6">
+      <c r="M1" s="8"/>
+      <c r="N1" s="7">
         <v>43015</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="6">
+      <c r="O1" s="8"/>
+      <c r="P1" s="7">
         <v>43016</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="6">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="7">
         <v>43017</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="6">
+      <c r="S1" s="8"/>
+      <c r="T1" s="7">
         <v>43018</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="6">
+      <c r="U1" s="8"/>
+      <c r="V1" s="7">
         <v>43019</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="6">
+      <c r="W1" s="8"/>
+      <c r="X1" s="7">
         <v>43020</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="6">
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="7">
         <v>43021</v>
       </c>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="6">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="7">
         <v>43022</v>
       </c>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="6">
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="7">
         <v>43023</v>
       </c>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="6">
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="7">
         <v>43024</v>
       </c>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="6">
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="7">
         <v>43025</v>
       </c>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="6">
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="7">
         <v>43026</v>
       </c>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="6">
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="7">
         <v>43027</v>
       </c>
-      <c r="AM1" s="7"/>
+      <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:39">
       <c r="B2" t="s">
@@ -1085,6 +1094,9 @@
       </c>
       <c r="AJ3" s="1">
         <v>573</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1589,6 +1601,12 @@
       </c>
       <c r="AI13">
         <v>249</v>
+      </c>
+      <c r="AL13">
+        <v>2373</v>
+      </c>
+      <c r="AM13">
+        <v>2451</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1625,6 +1643,12 @@
       <c r="AJ14" s="2">
         <v>596.69000000000005</v>
       </c>
+      <c r="AL14" s="3">
+        <v>900</v>
+      </c>
+      <c r="AM14">
+        <v>1290</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
       <c r="B15" s="1">
@@ -1662,6 +1686,12 @@
       <c r="AJ15" s="2">
         <v>629</v>
       </c>
+      <c r="AL15" s="3">
+        <v>1051</v>
+      </c>
+      <c r="AM15">
+        <v>2597</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="F16">
@@ -1691,8 +1721,14 @@
       <c r="AJ16" s="2">
         <v>623</v>
       </c>
-    </row>
-    <row r="17" spans="2:37">
+      <c r="AL16" s="3">
+        <v>982</v>
+      </c>
+      <c r="AM16">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38">
       <c r="B17">
         <v>904</v>
       </c>
@@ -1720,8 +1756,11 @@
       <c r="AJ17" s="2">
         <v>1325</v>
       </c>
-    </row>
-    <row r="18" spans="2:37">
+      <c r="AL17">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38">
       <c r="B18">
         <v>580</v>
       </c>
@@ -1749,8 +1788,11 @@
       <c r="AJ18" s="2">
         <v>2257</v>
       </c>
-    </row>
-    <row r="19" spans="2:37">
+      <c r="AL18">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38">
       <c r="F19">
         <v>116</v>
       </c>
@@ -1769,8 +1811,11 @@
       <c r="AJ19" s="2">
         <v>2105</v>
       </c>
-    </row>
-    <row r="20" spans="2:37">
+      <c r="AL19">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38">
       <c r="F20">
         <v>127</v>
       </c>
@@ -1792,8 +1837,11 @@
       <c r="AJ20" s="2">
         <v>2422</v>
       </c>
-    </row>
-    <row r="21" spans="2:37">
+      <c r="AL20">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38">
       <c r="N21">
         <v>677</v>
       </c>
@@ -1804,7 +1852,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="2:37">
+    <row r="22" spans="2:38">
       <c r="N22">
         <v>2329</v>
       </c>
@@ -1818,21 +1866,21 @@
         <v>1848.69</v>
       </c>
     </row>
-    <row r="23" spans="2:37">
+    <row r="23" spans="2:38">
       <c r="N23">
         <v>1613</v>
       </c>
       <c r="AH23" s="3">
         <v>2867</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AJ23" s="6">
         <v>1444</v>
       </c>
       <c r="AK23">
         <v>1325</v>
       </c>
     </row>
-    <row r="24" spans="2:37">
+    <row r="24" spans="2:38">
       <c r="AJ24" s="2">
         <v>1119</v>
       </c>
@@ -1840,7 +1888,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="25" spans="2:37">
+    <row r="25" spans="2:38">
       <c r="AJ25" s="2">
         <v>991</v>
       </c>
@@ -1848,76 +1896,77 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="26" spans="2:37">
+    <row r="26" spans="2:38">
       <c r="AH26" s="1"/>
       <c r="AJ26" s="2">
         <v>1704</v>
       </c>
     </row>
-    <row r="27" spans="2:37">
+    <row r="27" spans="2:38">
       <c r="AH27" s="1"/>
       <c r="AJ27" s="2">
         <v>481</v>
       </c>
     </row>
-    <row r="28" spans="2:37">
-      <c r="AJ28" s="3">
+    <row r="28" spans="2:38">
+      <c r="AJ28" s="6">
         <v>1733</v>
       </c>
     </row>
-    <row r="29" spans="2:37">
-      <c r="AJ29" s="3">
+    <row r="29" spans="2:38">
+      <c r="AJ29" s="6">
         <v>3572</v>
       </c>
     </row>
-    <row r="30" spans="2:37">
-      <c r="AJ30" s="3">
+    <row r="30" spans="2:38">
+      <c r="AJ30" s="6">
         <v>1864</v>
       </c>
     </row>
-    <row r="33" spans="36:36">
+    <row r="33" spans="36:38">
       <c r="AJ33" s="1"/>
     </row>
-    <row r="34" spans="36:36">
+    <row r="34" spans="36:38">
       <c r="AJ34" s="1"/>
     </row>
-    <row r="35" spans="36:36">
+    <row r="35" spans="36:38">
       <c r="AJ35" s="1"/>
     </row>
-    <row r="36" spans="36:36">
+    <row r="36" spans="36:38">
       <c r="AJ36" s="1"/>
     </row>
-    <row r="37" spans="36:36">
+    <row r="37" spans="36:38">
       <c r="AJ37" s="1"/>
-    </row>
-    <row r="38" spans="36:36">
+      <c r="AL37" s="2"/>
+    </row>
+    <row r="38" spans="36:38">
       <c r="AJ38" s="1"/>
     </row>
-    <row r="39" spans="36:36">
+    <row r="39" spans="36:38">
       <c r="AJ39" s="1"/>
     </row>
-    <row r="41" spans="36:36">
+    <row r="41" spans="36:38">
       <c r="AJ41" s="1"/>
     </row>
-    <row r="42" spans="36:36">
+    <row r="42" spans="36:38">
       <c r="AJ42" s="1"/>
     </row>
-    <row r="43" spans="36:36">
+    <row r="43" spans="36:38">
       <c r="AJ43" s="1"/>
     </row>
-    <row r="44" spans="36:36">
+    <row r="44" spans="36:38">
       <c r="AJ44" s="1"/>
     </row>
-    <row r="45" spans="36:36">
+    <row r="45" spans="36:38">
       <c r="AJ45" s="1"/>
     </row>
-    <row r="46" spans="36:36">
+    <row r="46" spans="36:38">
       <c r="AJ46" s="1"/>
     </row>
-    <row r="47" spans="36:36">
+    <row r="47" spans="36:38">
       <c r="AJ47" s="1"/>
     </row>
-    <row r="48" spans="36:36">
+    <row r="48" spans="36:38">
       <c r="AJ48" s="1"/>
     </row>
     <row r="49" spans="36:36">
@@ -1952,7 +2001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1965,30 +2014,30 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="7">
         <v>43009</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6">
+      <c r="C1" s="8"/>
+      <c r="D1" s="7">
         <v>43010</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6">
+      <c r="E1" s="8"/>
+      <c r="F1" s="7">
         <v>43011</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6">
+      <c r="G1" s="8"/>
+      <c r="H1" s="7">
         <v>43012</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6">
+      <c r="I1" s="8"/>
+      <c r="J1" s="7">
         <v>43013</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6">
+      <c r="K1" s="8"/>
+      <c r="L1" s="7">
         <v>43014</v>
       </c>
-      <c r="M1" s="7"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" t="s">

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="4">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,15 +818,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:BE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AQ12" sqref="AQ12"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AW11" sqref="AW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:57">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,8 +906,44 @@
         <v>43027</v>
       </c>
       <c r="AM1" s="8"/>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="AN1" s="7">
+        <v>43028</v>
+      </c>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="7">
+        <v>43029</v>
+      </c>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="7">
+        <v>43030</v>
+      </c>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="7">
+        <v>43031</v>
+      </c>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="7">
+        <v>43032</v>
+      </c>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="7">
+        <v>43033</v>
+      </c>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="7">
+        <v>43034</v>
+      </c>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="7">
+        <v>43035</v>
+      </c>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="7">
+        <v>43036</v>
+      </c>
+      <c r="BE1" s="8"/>
+    </row>
+    <row r="2" spans="1:57">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1022,8 +1058,62 @@
       <c r="AM2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:39">
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57">
       <c r="B3" s="1">
         <v>1171</v>
       </c>
@@ -1098,8 +1188,11 @@
       <c r="AL3" s="1">
         <v>535</v>
       </c>
-    </row>
-    <row r="4" spans="1:39">
+      <c r="AN3" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
       <c r="B4" s="1">
         <v>2467</v>
       </c>
@@ -1169,7 +1262,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:57">
       <c r="B5" s="1">
         <v>507</v>
       </c>
@@ -1233,7 +1326,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:57">
       <c r="B6" s="1">
         <v>602</v>
       </c>
@@ -1288,7 +1381,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:57">
       <c r="B7" s="1">
         <v>523</v>
       </c>
@@ -1346,7 +1439,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:57">
       <c r="B8" s="1">
         <v>424</v>
       </c>
@@ -1407,7 +1500,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:57">
       <c r="B9" s="1">
         <v>1375</v>
       </c>
@@ -1460,7 +1553,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:57">
       <c r="B10" s="1">
         <v>584</v>
       </c>
@@ -1507,7 +1600,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:57">
       <c r="B11" s="1">
         <v>824</v>
       </c>
@@ -1544,7 +1637,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:57">
       <c r="B12" s="1">
         <v>1157</v>
       </c>
@@ -1573,7 +1666,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:57">
       <c r="B13" s="1">
         <v>150</v>
       </c>
@@ -1608,8 +1701,14 @@
       <c r="AM13">
         <v>2451</v>
       </c>
-    </row>
-    <row r="14" spans="1:39">
+      <c r="AN13">
+        <v>1448</v>
+      </c>
+      <c r="AP13">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57">
       <c r="B14" s="1">
         <v>922</v>
       </c>
@@ -1649,8 +1748,14 @@
       <c r="AM14">
         <v>1290</v>
       </c>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="AN14">
+        <v>2288</v>
+      </c>
+      <c r="AP14">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
       <c r="B15" s="1">
         <v>989</v>
       </c>
@@ -1693,7 +1798,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:57">
       <c r="F16">
         <v>1101</v>
       </c>
@@ -1973,19 +2078,16 @@
       <c r="AJ49" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+  <mergeCells count="28">
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="N1:O1"/>
@@ -1993,6 +2095,18 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -821,7 +821,7 @@
   <dimension ref="A1:BE49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AW11" sqref="AW11"/>
+      <selection activeCell="AW12" sqref="AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1191,6 +1191,9 @@
       <c r="AN3" s="1">
         <v>281</v>
       </c>
+      <c r="AR3" s="1">
+        <v>1322</v>
+      </c>
     </row>
     <row r="4" spans="1:57">
       <c r="B4" s="1">
@@ -1260,6 +1263,9 @@
       </c>
       <c r="AJ4" s="1">
         <v>438</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -1704,8 +1710,11 @@
       <c r="AN13">
         <v>1448</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" s="4">
         <v>2425</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>1980</v>
       </c>
     </row>
     <row r="14" spans="1:57">
@@ -1751,8 +1760,11 @@
       <c r="AN14">
         <v>2288</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" s="4">
         <v>2472</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>2275</v>
       </c>
     </row>
     <row r="15" spans="1:57">
@@ -1797,6 +1809,9 @@
       <c r="AM15">
         <v>2597</v>
       </c>
+      <c r="AR15" s="3">
+        <v>2938</v>
+      </c>
     </row>
     <row r="16" spans="1:57">
       <c r="F16">
@@ -1832,8 +1847,11 @@
       <c r="AM16">
         <v>2373</v>
       </c>
-    </row>
-    <row r="17" spans="2:38">
+      <c r="AR16" s="3">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="17" spans="2:44">
       <c r="B17">
         <v>904</v>
       </c>
@@ -1864,8 +1882,11 @@
       <c r="AL17">
         <v>2451</v>
       </c>
-    </row>
-    <row r="18" spans="2:38">
+      <c r="AR17" s="3">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="18" spans="2:44">
       <c r="B18">
         <v>580</v>
       </c>
@@ -1897,7 +1918,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="19" spans="2:38">
+    <row r="19" spans="2:44">
       <c r="F19">
         <v>116</v>
       </c>
@@ -1920,7 +1941,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="20" spans="2:38">
+    <row r="20" spans="2:44">
       <c r="F20">
         <v>127</v>
       </c>
@@ -1946,7 +1967,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="21" spans="2:38">
+    <row r="21" spans="2:44">
       <c r="N21">
         <v>677</v>
       </c>
@@ -1957,7 +1978,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="2:38">
+    <row r="22" spans="2:44">
       <c r="N22">
         <v>2329</v>
       </c>
@@ -1971,7 +1992,7 @@
         <v>1848.69</v>
       </c>
     </row>
-    <row r="23" spans="2:38">
+    <row r="23" spans="2:44">
       <c r="N23">
         <v>1613</v>
       </c>
@@ -1985,7 +2006,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="24" spans="2:38">
+    <row r="24" spans="2:44">
       <c r="AJ24" s="2">
         <v>1119</v>
       </c>
@@ -1993,7 +2014,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="25" spans="2:38">
+    <row r="25" spans="2:44">
       <c r="AJ25" s="2">
         <v>991</v>
       </c>
@@ -2001,29 +2022,29 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="26" spans="2:38">
+    <row r="26" spans="2:44">
       <c r="AH26" s="1"/>
       <c r="AJ26" s="2">
         <v>1704</v>
       </c>
     </row>
-    <row r="27" spans="2:38">
+    <row r="27" spans="2:44">
       <c r="AH27" s="1"/>
       <c r="AJ27" s="2">
         <v>481</v>
       </c>
     </row>
-    <row r="28" spans="2:38">
+    <row r="28" spans="2:44">
       <c r="AJ28" s="6">
         <v>1733</v>
       </c>
     </row>
-    <row r="29" spans="2:38">
+    <row r="29" spans="2:44">
       <c r="AJ29" s="6">
         <v>3572</v>
       </c>
     </row>
-    <row r="30" spans="2:38">
+    <row r="30" spans="2:44">
       <c r="AJ30" s="6">
         <v>1864</v>
       </c>
@@ -2079,6 +2100,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
@@ -2088,25 +2128,6 @@
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -821,7 +821,7 @@
   <dimension ref="A1:BE49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AW12" sqref="AW12"/>
+      <selection activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1715,6 +1715,12 @@
       </c>
       <c r="AR13" s="3">
         <v>1980</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>3241</v>
+      </c>
+      <c r="AU13">
+        <v>1573</v>
       </c>
     </row>
     <row r="14" spans="1:57">
@@ -1766,6 +1772,9 @@
       <c r="AR14" s="3">
         <v>2275</v>
       </c>
+      <c r="AT14">
+        <v>1102</v>
+      </c>
     </row>
     <row r="15" spans="1:57">
       <c r="B15" s="1">
@@ -1812,6 +1821,9 @@
       <c r="AR15" s="3">
         <v>2938</v>
       </c>
+      <c r="AT15">
+        <v>471</v>
+      </c>
     </row>
     <row r="16" spans="1:57">
       <c r="F16">
@@ -2100,25 +2112,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
@@ -2128,6 +2121,25 @@
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -821,7 +821,7 @@
   <dimension ref="A1:BE49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AV20" sqref="AV20"/>
+      <selection activeCell="AX14" sqref="AX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1818,8 +1818,8 @@
       <c r="AM15">
         <v>2597</v>
       </c>
-      <c r="AR15" s="3">
-        <v>2938</v>
+      <c r="AR15" s="2">
+        <v>2438</v>
       </c>
       <c r="AT15">
         <v>471</v>
@@ -1859,7 +1859,7 @@
       <c r="AM16">
         <v>2373</v>
       </c>
-      <c r="AR16" s="3">
+      <c r="AR16" s="2">
         <v>3569</v>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       <c r="AL17">
         <v>2451</v>
       </c>
-      <c r="AR17" s="3">
+      <c r="AR17" s="2">
         <v>1725</v>
       </c>
     </row>
@@ -2112,6 +2112,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
@@ -2121,25 +2140,6 @@
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -821,7 +821,7 @@
   <dimension ref="A1:BE49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AX14" sqref="AX14"/>
+      <selection activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1713,14 +1713,17 @@
       <c r="AP13" s="4">
         <v>2425</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AR13" s="2">
         <v>1980</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="AT13" s="2">
         <v>3241</v>
       </c>
       <c r="AU13">
         <v>1573</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>1318</v>
       </c>
     </row>
     <row r="14" spans="1:57">
@@ -1757,7 +1760,7 @@
       <c r="AJ14" s="2">
         <v>596.69000000000005</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AL14" s="4">
         <v>900</v>
       </c>
       <c r="AM14">
@@ -1769,11 +1772,14 @@
       <c r="AP14" s="4">
         <v>2472</v>
       </c>
-      <c r="AR14" s="3">
+      <c r="AR14" s="2">
         <v>2275</v>
       </c>
       <c r="AT14">
         <v>1102</v>
+      </c>
+      <c r="AV14">
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:57">
@@ -1812,7 +1818,7 @@
       <c r="AJ15" s="2">
         <v>629</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AL15" s="4">
         <v>1051</v>
       </c>
       <c r="AM15">
@@ -1823,6 +1829,9 @@
       </c>
       <c r="AT15">
         <v>471</v>
+      </c>
+      <c r="AV15">
+        <v>974</v>
       </c>
     </row>
     <row r="16" spans="1:57">
@@ -1853,7 +1862,7 @@
       <c r="AJ16" s="2">
         <v>623</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AL16" s="4">
         <v>982</v>
       </c>
       <c r="AM16">
@@ -1861,6 +1870,9 @@
       </c>
       <c r="AR16" s="2">
         <v>3569</v>
+      </c>
+      <c r="AV16">
+        <v>2300</v>
       </c>
     </row>
     <row r="17" spans="2:44">
@@ -2008,7 +2020,7 @@
       <c r="N23">
         <v>1613</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="AH23" s="2">
         <v>2867</v>
       </c>
       <c r="AJ23" s="6">
@@ -2112,25 +2124,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
@@ -2140,6 +2133,25 @@
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -821,7 +821,7 @@
   <dimension ref="A1:BE49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AT10" sqref="AT10"/>
+      <selection activeCell="AZ8" sqref="AZ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1724,6 +1724,9 @@
       </c>
       <c r="AV13" s="2">
         <v>1318</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>2285</v>
       </c>
     </row>
     <row r="14" spans="1:57">
@@ -1781,6 +1784,9 @@
       <c r="AV14">
         <v>822</v>
       </c>
+      <c r="AX14">
+        <v>2092</v>
+      </c>
     </row>
     <row r="15" spans="1:57">
       <c r="B15" s="1">
@@ -1833,6 +1839,9 @@
       <c r="AV15">
         <v>974</v>
       </c>
+      <c r="AX15">
+        <v>2163</v>
+      </c>
     </row>
     <row r="16" spans="1:57">
       <c r="F16">
@@ -1874,8 +1883,11 @@
       <c r="AV16">
         <v>2300</v>
       </c>
-    </row>
-    <row r="17" spans="2:44">
+      <c r="AX16">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="17" spans="2:50">
       <c r="B17">
         <v>904</v>
       </c>
@@ -1909,8 +1921,11 @@
       <c r="AR17" s="2">
         <v>1725</v>
       </c>
-    </row>
-    <row r="18" spans="2:44">
+      <c r="AX17" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="2:50">
       <c r="B18">
         <v>580</v>
       </c>
@@ -1941,8 +1956,11 @@
       <c r="AL18">
         <v>1290</v>
       </c>
-    </row>
-    <row r="19" spans="2:44">
+      <c r="AX18" s="3">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="19" spans="2:50">
       <c r="F19">
         <v>116</v>
       </c>
@@ -1965,7 +1983,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="20" spans="2:44">
+    <row r="20" spans="2:50">
       <c r="F20">
         <v>127</v>
       </c>
@@ -1991,7 +2009,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="21" spans="2:44">
+    <row r="21" spans="2:50">
       <c r="N21">
         <v>677</v>
       </c>
@@ -2002,7 +2020,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="2:44">
+    <row r="22" spans="2:50">
       <c r="N22">
         <v>2329</v>
       </c>
@@ -2016,7 +2034,7 @@
         <v>1848.69</v>
       </c>
     </row>
-    <row r="23" spans="2:44">
+    <row r="23" spans="2:50">
       <c r="N23">
         <v>1613</v>
       </c>
@@ -2030,7 +2048,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="24" spans="2:44">
+    <row r="24" spans="2:50">
       <c r="AJ24" s="2">
         <v>1119</v>
       </c>
@@ -2038,7 +2056,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="25" spans="2:44">
+    <row r="25" spans="2:50">
       <c r="AJ25" s="2">
         <v>991</v>
       </c>
@@ -2046,29 +2064,29 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="26" spans="2:44">
+    <row r="26" spans="2:50">
       <c r="AH26" s="1"/>
       <c r="AJ26" s="2">
         <v>1704</v>
       </c>
     </row>
-    <row r="27" spans="2:44">
+    <row r="27" spans="2:50">
       <c r="AH27" s="1"/>
       <c r="AJ27" s="2">
         <v>481</v>
       </c>
     </row>
-    <row r="28" spans="2:44">
+    <row r="28" spans="2:50">
       <c r="AJ28" s="6">
         <v>1733</v>
       </c>
     </row>
-    <row r="29" spans="2:44">
+    <row r="29" spans="2:50">
       <c r="AJ29" s="6">
         <v>3572</v>
       </c>
     </row>
-    <row r="30" spans="2:44">
+    <row r="30" spans="2:50">
       <c r="AJ30" s="6">
         <v>1864</v>
       </c>
@@ -2124,6 +2142,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
@@ -2133,25 +2170,6 @@
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -821,7 +821,7 @@
   <dimension ref="A1:BE49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AZ8" sqref="AZ8"/>
+      <selection activeCell="BE11" sqref="BE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1727,6 +1727,18 @@
       </c>
       <c r="AX13" s="2">
         <v>2285</v>
+      </c>
+      <c r="AZ13" s="6">
+        <v>2327</v>
+      </c>
+      <c r="BA13">
+        <v>500</v>
+      </c>
+      <c r="BB13">
+        <v>521</v>
+      </c>
+      <c r="BC13">
+        <v>2724</v>
       </c>
     </row>
     <row r="14" spans="1:57">
@@ -1787,6 +1799,18 @@
       <c r="AX14">
         <v>2092</v>
       </c>
+      <c r="AZ14" s="6">
+        <v>2280</v>
+      </c>
+      <c r="BA14">
+        <v>1000</v>
+      </c>
+      <c r="BB14">
+        <v>501</v>
+      </c>
+      <c r="BC14">
+        <v>1546</v>
+      </c>
     </row>
     <row r="15" spans="1:57">
       <c r="B15" s="1">
@@ -1842,6 +1866,18 @@
       <c r="AX15">
         <v>2163</v>
       </c>
+      <c r="AZ15">
+        <v>1000</v>
+      </c>
+      <c r="BA15">
+        <v>520</v>
+      </c>
+      <c r="BB15">
+        <v>450</v>
+      </c>
+      <c r="BC15">
+        <v>450</v>
+      </c>
     </row>
     <row r="16" spans="1:57">
       <c r="F16">
@@ -1886,8 +1922,20 @@
       <c r="AX16">
         <v>2088</v>
       </c>
-    </row>
-    <row r="17" spans="2:50">
+      <c r="AZ16">
+        <v>520</v>
+      </c>
+      <c r="BA16">
+        <v>1000</v>
+      </c>
+      <c r="BB16">
+        <v>1546</v>
+      </c>
+      <c r="BC16">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="2:55">
       <c r="B17">
         <v>904</v>
       </c>
@@ -1921,11 +1969,20 @@
       <c r="AR17" s="2">
         <v>1725</v>
       </c>
-      <c r="AX17" s="3">
+      <c r="AX17" s="2">
         <v>2024</v>
       </c>
-    </row>
-    <row r="18" spans="2:50">
+      <c r="AZ17">
+        <v>1000</v>
+      </c>
+      <c r="BB17">
+        <v>1580</v>
+      </c>
+      <c r="BC17">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="18" spans="2:55">
       <c r="B18">
         <v>580</v>
       </c>
@@ -1956,11 +2013,20 @@
       <c r="AL18">
         <v>1290</v>
       </c>
-      <c r="AX18" s="3">
+      <c r="AX18" s="2">
         <v>1573</v>
       </c>
-    </row>
-    <row r="19" spans="2:50">
+      <c r="AZ18" s="6">
+        <v>3442</v>
+      </c>
+      <c r="BB18">
+        <v>2724</v>
+      </c>
+      <c r="BC18">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="19" spans="2:55">
       <c r="F19">
         <v>116</v>
       </c>
@@ -1982,8 +2048,14 @@
       <c r="AL19">
         <v>1779</v>
       </c>
-    </row>
-    <row r="20" spans="2:50">
+      <c r="AZ19">
+        <v>1000</v>
+      </c>
+      <c r="BB19">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:55">
       <c r="F20">
         <v>127</v>
       </c>
@@ -2008,8 +2080,11 @@
       <c r="AL20">
         <v>818</v>
       </c>
-    </row>
-    <row r="21" spans="2:50">
+      <c r="AZ20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:55">
       <c r="N21">
         <v>677</v>
       </c>
@@ -2020,7 +2095,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="2:50">
+    <row r="22" spans="2:55">
       <c r="N22">
         <v>2329</v>
       </c>
@@ -2034,7 +2109,7 @@
         <v>1848.69</v>
       </c>
     </row>
-    <row r="23" spans="2:50">
+    <row r="23" spans="2:55">
       <c r="N23">
         <v>1613</v>
       </c>
@@ -2048,7 +2123,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="24" spans="2:50">
+    <row r="24" spans="2:55">
       <c r="AJ24" s="2">
         <v>1119</v>
       </c>
@@ -2056,7 +2131,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="25" spans="2:50">
+    <row r="25" spans="2:55">
       <c r="AJ25" s="2">
         <v>991</v>
       </c>
@@ -2064,29 +2139,29 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="26" spans="2:50">
+    <row r="26" spans="2:55">
       <c r="AH26" s="1"/>
       <c r="AJ26" s="2">
         <v>1704</v>
       </c>
     </row>
-    <row r="27" spans="2:50">
+    <row r="27" spans="2:55">
       <c r="AH27" s="1"/>
       <c r="AJ27" s="2">
         <v>481</v>
       </c>
     </row>
-    <row r="28" spans="2:50">
+    <row r="28" spans="2:55">
       <c r="AJ28" s="6">
         <v>1733</v>
       </c>
     </row>
-    <row r="29" spans="2:50">
+    <row r="29" spans="2:55">
       <c r="AJ29" s="6">
         <v>3572</v>
       </c>
     </row>
-    <row r="30" spans="2:50">
+    <row r="30" spans="2:55">
       <c r="AJ30" s="6">
         <v>1864</v>
       </c>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="4">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,15 +818,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE49"/>
+  <dimension ref="A1:BM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="BE11" sqref="BE11"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BG12" sqref="BG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,8 +942,24 @@
         <v>43036</v>
       </c>
       <c r="BE1" s="8"/>
-    </row>
-    <row r="2" spans="1:57">
+      <c r="BF1" s="7">
+        <v>43037</v>
+      </c>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="7">
+        <v>43038</v>
+      </c>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="7">
+        <v>43039</v>
+      </c>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="7">
+        <v>43040</v>
+      </c>
+      <c r="BM1" s="8"/>
+    </row>
+    <row r="2" spans="1:65">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1112,8 +1128,32 @@
       <c r="BE2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:57">
+      <c r="BF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65">
       <c r="B3" s="1">
         <v>1171</v>
       </c>
@@ -1195,7 +1235,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:65">
       <c r="B4" s="1">
         <v>2467</v>
       </c>
@@ -1268,7 +1308,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:65">
       <c r="B5" s="1">
         <v>507</v>
       </c>
@@ -1332,7 +1372,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:65">
       <c r="B6" s="1">
         <v>602</v>
       </c>
@@ -1387,7 +1427,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:65">
       <c r="B7" s="1">
         <v>523</v>
       </c>
@@ -1445,7 +1485,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:65">
       <c r="B8" s="1">
         <v>424</v>
       </c>
@@ -1506,7 +1546,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:65">
       <c r="B9" s="1">
         <v>1375</v>
       </c>
@@ -1559,7 +1599,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:65">
       <c r="B10" s="1">
         <v>584</v>
       </c>
@@ -1606,7 +1646,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:65">
       <c r="B11" s="1">
         <v>824</v>
       </c>
@@ -1643,7 +1683,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:65">
       <c r="B12" s="1">
         <v>1157</v>
       </c>
@@ -1672,7 +1712,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:65">
       <c r="B13" s="1">
         <v>150</v>
       </c>
@@ -1740,8 +1780,14 @@
       <c r="BC13">
         <v>2724</v>
       </c>
-    </row>
-    <row r="14" spans="1:57">
+      <c r="BD13">
+        <v>2000</v>
+      </c>
+      <c r="BE13">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65">
       <c r="B14" s="1">
         <v>922</v>
       </c>
@@ -1811,8 +1857,14 @@
       <c r="BC14">
         <v>1546</v>
       </c>
-    </row>
-    <row r="15" spans="1:57">
+      <c r="BD14">
+        <v>970</v>
+      </c>
+      <c r="BE14">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65">
       <c r="B15" s="1">
         <v>989</v>
       </c>
@@ -1878,8 +1930,14 @@
       <c r="BC15">
         <v>450</v>
       </c>
-    </row>
-    <row r="16" spans="1:57">
+      <c r="BD15">
+        <v>677</v>
+      </c>
+      <c r="BE15">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65">
       <c r="F16">
         <v>1101</v>
       </c>
@@ -1934,8 +1992,11 @@
       <c r="BC16">
         <v>900</v>
       </c>
-    </row>
-    <row r="17" spans="2:55">
+      <c r="BD16">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="17" spans="2:56">
       <c r="B17">
         <v>904</v>
       </c>
@@ -1981,8 +2042,11 @@
       <c r="BC17">
         <v>1580</v>
       </c>
-    </row>
-    <row r="18" spans="2:55">
+      <c r="BD17">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="18" spans="2:56">
       <c r="B18">
         <v>580</v>
       </c>
@@ -2025,8 +2089,11 @@
       <c r="BC18">
         <v>1472</v>
       </c>
-    </row>
-    <row r="19" spans="2:55">
+      <c r="BD18">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="19" spans="2:56">
       <c r="F19">
         <v>116</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="BB19">
         <v>1350</v>
       </c>
-    </row>
-    <row r="20" spans="2:55">
+      <c r="BD19" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:56">
       <c r="F20">
         <v>127</v>
       </c>
@@ -2084,7 +2154,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:55">
+    <row r="21" spans="2:56">
       <c r="N21">
         <v>677</v>
       </c>
@@ -2094,8 +2164,11 @@
       <c r="AH21">
         <v>678</v>
       </c>
-    </row>
-    <row r="22" spans="2:55">
+      <c r="BD21">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="22" spans="2:56">
       <c r="N22">
         <v>2329</v>
       </c>
@@ -2109,7 +2182,7 @@
         <v>1848.69</v>
       </c>
     </row>
-    <row r="23" spans="2:55">
+    <row r="23" spans="2:56">
       <c r="N23">
         <v>1613</v>
       </c>
@@ -2123,7 +2196,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="24" spans="2:55">
+    <row r="24" spans="2:56">
       <c r="AJ24" s="2">
         <v>1119</v>
       </c>
@@ -2131,7 +2204,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="25" spans="2:55">
+    <row r="25" spans="2:56">
       <c r="AJ25" s="2">
         <v>991</v>
       </c>
@@ -2139,29 +2212,29 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="26" spans="2:55">
+    <row r="26" spans="2:56">
       <c r="AH26" s="1"/>
       <c r="AJ26" s="2">
         <v>1704</v>
       </c>
     </row>
-    <row r="27" spans="2:55">
+    <row r="27" spans="2:56">
       <c r="AH27" s="1"/>
       <c r="AJ27" s="2">
         <v>481</v>
       </c>
     </row>
-    <row r="28" spans="2:55">
+    <row r="28" spans="2:56">
       <c r="AJ28" s="6">
         <v>1733</v>
       </c>
     </row>
-    <row r="29" spans="2:55">
+    <row r="29" spans="2:56">
       <c r="AJ29" s="6">
         <v>3572</v>
       </c>
     </row>
-    <row r="30" spans="2:55">
+    <row r="30" spans="2:56">
       <c r="AJ30" s="6">
         <v>1864</v>
       </c>
@@ -2216,26 +2289,11 @@
       <c r="AJ49" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
+  <mergeCells count="32">
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BH1:BI1"/>
+    <mergeCell ref="BJ1:BK1"/>
+    <mergeCell ref="BL1:BM1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
@@ -2245,6 +2303,25 @@
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -821,7 +821,7 @@
   <dimension ref="A1:BM49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BG12" sqref="BG12"/>
+      <selection activeCell="BL8" sqref="BL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1785,6 +1785,9 @@
       </c>
       <c r="BE13">
         <v>4773</v>
+      </c>
+      <c r="BF13" s="3">
+        <v>1903</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -1863,6 +1866,9 @@
       <c r="BE14">
         <v>3484</v>
       </c>
+      <c r="BF14" s="3">
+        <v>1865</v>
+      </c>
     </row>
     <row r="15" spans="1:65">
       <c r="B15" s="1">
@@ -1936,6 +1942,9 @@
       <c r="BE15">
         <v>953</v>
       </c>
+      <c r="BF15" s="3">
+        <v>1575</v>
+      </c>
     </row>
     <row r="16" spans="1:65">
       <c r="F16">
@@ -1994,6 +2003,9 @@
       </c>
       <c r="BD16">
         <v>854</v>
+      </c>
+      <c r="BF16" s="3">
+        <v>2451</v>
       </c>
     </row>
     <row r="17" spans="2:56">
@@ -2290,6 +2302,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -2298,30 +2334,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BL8" sqref="BL8"/>
+    <sheetView tabSelected="1" topLeftCell="AV10" workbookViewId="0">
+      <selection activeCell="BK28" sqref="BK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1786,8 +1786,14 @@
       <c r="BE13">
         <v>4773</v>
       </c>
-      <c r="BF13" s="3">
+      <c r="BF13" s="6">
         <v>1903</v>
+      </c>
+      <c r="BH13">
+        <v>1162</v>
+      </c>
+      <c r="BI13">
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -1866,8 +1872,14 @@
       <c r="BE14">
         <v>3484</v>
       </c>
-      <c r="BF14" s="3">
+      <c r="BF14" s="6">
         <v>1865</v>
+      </c>
+      <c r="BH14">
+        <v>458</v>
+      </c>
+      <c r="BI14">
+        <v>898</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -1942,8 +1954,14 @@
       <c r="BE15">
         <v>953</v>
       </c>
-      <c r="BF15" s="3">
+      <c r="BF15" s="6">
         <v>1575</v>
+      </c>
+      <c r="BH15">
+        <v>395</v>
+      </c>
+      <c r="BI15">
+        <v>887</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -2004,11 +2022,17 @@
       <c r="BD16">
         <v>854</v>
       </c>
-      <c r="BF16" s="3">
+      <c r="BF16" s="6">
         <v>2451</v>
       </c>
-    </row>
-    <row r="17" spans="2:56">
+      <c r="BH16">
+        <v>442</v>
+      </c>
+      <c r="BI16">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="17" spans="2:61">
       <c r="B17">
         <v>904</v>
       </c>
@@ -2057,8 +2081,14 @@
       <c r="BD17">
         <v>983</v>
       </c>
-    </row>
-    <row r="18" spans="2:56">
+      <c r="BH17">
+        <v>2108</v>
+      </c>
+      <c r="BI17">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:61">
       <c r="B18">
         <v>580</v>
       </c>
@@ -2104,8 +2134,11 @@
       <c r="BD18">
         <v>4773</v>
       </c>
-    </row>
-    <row r="19" spans="2:56">
+      <c r="BI18">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:61">
       <c r="F19">
         <v>116</v>
       </c>
@@ -2133,11 +2166,15 @@
       <c r="BB19">
         <v>1350</v>
       </c>
-      <c r="BD19" s="3">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:56">
+      <c r="BD19" s="2"/>
+      <c r="BH19">
+        <v>673</v>
+      </c>
+      <c r="BI19">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="20" spans="2:61">
       <c r="F20">
         <v>127</v>
       </c>
@@ -2165,8 +2202,11 @@
       <c r="AZ20">
         <v>500</v>
       </c>
-    </row>
-    <row r="21" spans="2:56">
+      <c r="BH20">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" spans="2:61">
       <c r="N21">
         <v>677</v>
       </c>
@@ -2179,8 +2219,14 @@
       <c r="BD21">
         <v>953</v>
       </c>
-    </row>
-    <row r="22" spans="2:56">
+      <c r="BH21">
+        <v>898</v>
+      </c>
+      <c r="BI21">
+        <v>780.29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:61">
       <c r="N22">
         <v>2329</v>
       </c>
@@ -2193,8 +2239,14 @@
       <c r="AK22">
         <v>1848.69</v>
       </c>
-    </row>
-    <row r="23" spans="2:56">
+      <c r="BH22">
+        <v>887</v>
+      </c>
+      <c r="BI22">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="23" spans="2:61">
       <c r="N23">
         <v>1613</v>
       </c>
@@ -2207,46 +2259,64 @@
       <c r="AK23">
         <v>1325</v>
       </c>
-    </row>
-    <row r="24" spans="2:56">
+      <c r="BH23">
+        <v>758</v>
+      </c>
+      <c r="BI23">
+        <v>11247.11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:61">
       <c r="AJ24" s="2">
         <v>1119</v>
       </c>
       <c r="AK24">
         <v>4295</v>
       </c>
-    </row>
-    <row r="25" spans="2:56">
+      <c r="BH24">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="25" spans="2:61">
       <c r="AJ25" s="2">
         <v>991</v>
       </c>
       <c r="AK25">
         <v>6784</v>
       </c>
-    </row>
-    <row r="26" spans="2:56">
+      <c r="BH25">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="26" spans="2:61">
       <c r="AH26" s="1"/>
       <c r="AJ26" s="2">
         <v>1704</v>
       </c>
-    </row>
-    <row r="27" spans="2:56">
+      <c r="BH26">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="27" spans="2:61">
       <c r="AH27" s="1"/>
       <c r="AJ27" s="2">
         <v>481</v>
       </c>
-    </row>
-    <row r="28" spans="2:56">
+      <c r="BH27">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="28" spans="2:61">
       <c r="AJ28" s="6">
         <v>1733</v>
       </c>
     </row>
-    <row r="29" spans="2:56">
+    <row r="29" spans="2:61">
       <c r="AJ29" s="6">
         <v>3572</v>
       </c>
     </row>
-    <row r="30" spans="2:56">
+    <row r="30" spans="2:61">
       <c r="AJ30" s="6">
         <v>1864</v>
       </c>
@@ -2302,30 +2372,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -2334,6 +2380,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV10" workbookViewId="0">
-      <selection activeCell="BK28" sqref="BK28"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BO13" sqref="BO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1794,6 +1794,9 @@
       </c>
       <c r="BI13">
         <v>673</v>
+      </c>
+      <c r="BK13">
+        <v>1600</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -1881,6 +1884,9 @@
       <c r="BI14">
         <v>898</v>
       </c>
+      <c r="BK14">
+        <v>701</v>
+      </c>
     </row>
     <row r="15" spans="1:65">
       <c r="B15" s="1">
@@ -2372,6 +2378,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -2380,30 +2410,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BO13" sqref="BO13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1195,19 +1195,19 @@
       <c r="X3">
         <v>1752</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="4">
         <v>932</v>
       </c>
       <c r="AA3">
         <v>1001</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="4">
         <v>955</v>
       </c>
       <c r="AC3">
         <v>4834</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3" s="4">
         <v>834</v>
       </c>
       <c r="AE3">
@@ -1219,10 +1219,10 @@
       <c r="AG3">
         <v>1601</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="4">
         <v>778</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="4">
         <v>573</v>
       </c>
       <c r="AL3" s="1">
@@ -1274,19 +1274,19 @@
       <c r="X4">
         <v>2185</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="4">
         <v>543</v>
       </c>
       <c r="AA4">
         <v>1308</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="4">
         <v>848</v>
       </c>
       <c r="AC4">
         <v>2431</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="4">
         <v>307</v>
       </c>
       <c r="AE4">
@@ -1298,10 +1298,10 @@
       <c r="AG4">
         <v>580</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="4">
         <v>1076</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="4">
         <v>438</v>
       </c>
       <c r="AR4" s="1">
@@ -1347,13 +1347,13 @@
       <c r="X5">
         <v>1340</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="4">
         <v>988</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="4">
         <v>1003</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="4">
         <v>440</v>
       </c>
       <c r="AE5">
@@ -1365,10 +1365,10 @@
       <c r="AG5">
         <v>115</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="4">
         <v>885</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="4">
         <v>832</v>
       </c>
     </row>
@@ -1405,25 +1405,25 @@
       <c r="V6">
         <v>5766</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="4">
         <v>851</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="4">
         <v>1492</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="4">
         <v>865</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="4">
         <v>1808</v>
       </c>
       <c r="AF6" s="1">
         <v>293</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="4">
         <v>411</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="4">
         <v>501</v>
       </c>
     </row>
@@ -1466,22 +1466,22 @@
       <c r="X7">
         <v>1144</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="4">
         <v>756</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="4">
         <v>727</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="4">
         <v>478</v>
       </c>
       <c r="AF7" s="1">
         <v>2004</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="4">
         <v>988</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="4">
         <v>327</v>
       </c>
     </row>
@@ -1524,25 +1524,25 @@
       <c r="V8">
         <v>3593</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="4">
         <v>3145</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="4">
         <v>1133</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="4">
         <v>524</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="4">
         <v>387</v>
       </c>
       <c r="AF8" s="1">
         <v>627</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" s="4">
         <v>747</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="4">
         <v>623</v>
       </c>
     </row>
@@ -1580,22 +1580,22 @@
       <c r="X9">
         <v>1408</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="4">
         <v>1460</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="4">
         <v>676</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="4">
         <v>383</v>
       </c>
       <c r="AF9" s="1">
         <v>730</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" s="4">
         <v>438</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="4">
         <v>696</v>
       </c>
     </row>
@@ -1627,22 +1627,22 @@
       <c r="P10">
         <v>1000</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="4">
         <v>2022</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="4">
         <v>1252</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="4">
         <v>730</v>
       </c>
       <c r="AF10" s="1">
         <v>1000</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10" s="4">
         <v>1067</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="4">
         <v>525</v>
       </c>
     </row>
@@ -1667,19 +1667,19 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="AB11" s="1">
+      <c r="AB11" s="4">
         <v>1070</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" s="4">
         <v>2061</v>
       </c>
       <c r="AF11" s="1">
         <v>700</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" s="4">
         <v>317</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="4">
         <v>1450</v>
       </c>
     </row>
@@ -1702,13 +1702,13 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="AD12" s="1">
+      <c r="AD12" s="4">
         <v>467</v>
       </c>
       <c r="AF12" s="1">
         <v>1424</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="4">
         <v>757</v>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="AD13" s="1">
+      <c r="AD13" s="4">
         <v>265</v>
       </c>
       <c r="AF13" s="1">
@@ -1821,7 +1821,7 @@
       <c r="AB14">
         <v>2431</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" s="4">
         <v>933</v>
       </c>
       <c r="AH14" s="2">
@@ -1909,7 +1909,7 @@
       <c r="AB15">
         <v>3074</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15" s="4">
         <v>509</v>
       </c>
       <c r="AF15" s="2">
@@ -2378,30 +2378,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -2410,6 +2386,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="9月" sheetId="1" r:id="rId1"/>
     <sheet name="10月" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="11月" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="12">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,38 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前欠款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,20 +134,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -124,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,6 +198,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,34 +534,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="13">
         <v>43003</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7">
+      <c r="C1" s="14"/>
+      <c r="D1" s="13">
         <v>43004</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7">
+      <c r="E1" s="14"/>
+      <c r="F1" s="13">
         <v>43005</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7">
+      <c r="G1" s="14"/>
+      <c r="H1" s="13">
         <v>43006</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7">
+      <c r="I1" s="14"/>
+      <c r="J1" s="13">
         <v>43007</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7">
+      <c r="K1" s="14"/>
+      <c r="L1" s="13">
         <v>43008</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="8"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -818,146 +889,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM49"/>
+  <dimension ref="A1:BO97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="13">
         <v>43009</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7">
+      <c r="C1" s="14"/>
+      <c r="D1" s="13">
         <v>43010</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7">
+      <c r="E1" s="14"/>
+      <c r="F1" s="13">
         <v>43011</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7">
+      <c r="G1" s="14"/>
+      <c r="H1" s="13">
         <v>43012</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7">
+      <c r="I1" s="14"/>
+      <c r="J1" s="13">
         <v>43013</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7">
+      <c r="K1" s="14"/>
+      <c r="L1" s="13">
         <v>43014</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="7">
+      <c r="M1" s="14"/>
+      <c r="N1" s="13">
         <v>43015</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="7">
+      <c r="O1" s="14"/>
+      <c r="P1" s="13">
         <v>43016</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="7">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="13">
         <v>43017</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="7">
+      <c r="S1" s="14"/>
+      <c r="T1" s="13">
         <v>43018</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="7">
+      <c r="U1" s="14"/>
+      <c r="V1" s="13">
         <v>43019</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="7">
+      <c r="W1" s="14"/>
+      <c r="X1" s="13">
         <v>43020</v>
       </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="7">
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="13">
         <v>43021</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="7">
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="13">
         <v>43022</v>
       </c>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="7">
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="13">
         <v>43023</v>
       </c>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="7">
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="13">
         <v>43024</v>
       </c>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="7">
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="13">
         <v>43025</v>
       </c>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="7">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="13">
         <v>43026</v>
       </c>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="7">
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="13">
         <v>43027</v>
       </c>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="7">
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="13">
         <v>43028</v>
       </c>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="7">
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="13">
         <v>43029</v>
       </c>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="7">
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="13">
         <v>43030</v>
       </c>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="7">
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="13">
         <v>43031</v>
       </c>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="7">
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="13">
         <v>43032</v>
       </c>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="7">
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="13">
         <v>43033</v>
       </c>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="7">
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="13">
         <v>43034</v>
       </c>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="7">
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="13">
         <v>43035</v>
       </c>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="7">
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="13">
         <v>43036</v>
       </c>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="7">
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="13">
         <v>43037</v>
       </c>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="7">
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="13">
         <v>43038</v>
       </c>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="7">
+      <c r="BI1" s="14"/>
+      <c r="BJ1" s="13">
         <v>43039</v>
       </c>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="7">
-        <v>43040</v>
-      </c>
-      <c r="BM1" s="8"/>
+      <c r="BK1" s="14"/>
+      <c r="BL1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM1" s="14"/>
     </row>
     <row r="2" spans="1:65">
       <c r="B2" t="s">
@@ -1146,17 +1220,9 @@
       <c r="BK2" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:65">
-      <c r="B3" s="1">
-        <v>1171</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="D3" s="2">
         <v>1112</v>
       </c>
@@ -1183,7 +1249,7 @@
       <c r="P3">
         <v>746</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="7">
         <v>1961</v>
       </c>
       <c r="T3" s="2">
@@ -1216,9 +1282,6 @@
       <c r="AF3" s="1">
         <v>859</v>
       </c>
-      <c r="AG3">
-        <v>1601</v>
-      </c>
       <c r="AH3" s="4">
         <v>778</v>
       </c>
@@ -1231,7 +1294,7 @@
       <c r="AN3" s="1">
         <v>281</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AR3" s="7">
         <v>1322</v>
       </c>
     </row>
@@ -1262,10 +1325,10 @@
       <c r="N4" s="2">
         <v>661</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="7">
         <v>1118</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="7">
         <v>721</v>
       </c>
       <c r="V4" s="2">
@@ -1295,16 +1358,13 @@
       <c r="AF4" s="1">
         <v>879</v>
       </c>
-      <c r="AG4">
-        <v>580</v>
-      </c>
       <c r="AH4" s="4">
         <v>1076</v>
       </c>
       <c r="AJ4" s="4">
         <v>438</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4" s="7">
         <v>868</v>
       </c>
     </row>
@@ -1335,10 +1395,10 @@
       <c r="N5" s="2">
         <v>777</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="7">
         <v>1448</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="7">
         <v>1011</v>
       </c>
       <c r="V5">
@@ -1362,15 +1422,13 @@
       <c r="AF5" s="1">
         <v>392</v>
       </c>
-      <c r="AG5">
-        <v>115</v>
-      </c>
       <c r="AH5" s="4">
         <v>885</v>
       </c>
       <c r="AJ5" s="4">
         <v>832</v>
       </c>
+      <c r="AR5" s="7"/>
     </row>
     <row r="6" spans="1:65">
       <c r="B6" s="1">
@@ -1399,7 +1457,7 @@
       <c r="N6" s="2">
         <v>1546</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="7">
         <v>130</v>
       </c>
       <c r="V6">
@@ -1457,9 +1515,7 @@
       <c r="P7">
         <v>1107</v>
       </c>
-      <c r="Q7">
-        <v>1000</v>
-      </c>
+      <c r="R7" s="7"/>
       <c r="V7">
         <v>4350</v>
       </c>
@@ -1515,9 +1571,6 @@
       <c r="P8" s="2">
         <v>1531</v>
       </c>
-      <c r="Q8">
-        <v>746</v>
-      </c>
       <c r="R8">
         <v>2149</v>
       </c>
@@ -1548,7 +1601,7 @@
     </row>
     <row r="9" spans="1:65">
       <c r="B9" s="1">
-        <v>1375</v>
+        <v>1335</v>
       </c>
       <c r="D9" s="2">
         <v>1149</v>
@@ -1574,9 +1627,6 @@
       <c r="P9" s="2">
         <v>937</v>
       </c>
-      <c r="Q9">
-        <v>2638</v>
-      </c>
       <c r="X9">
         <v>1408</v>
       </c>
@@ -1626,6 +1676,9 @@
       </c>
       <c r="P10">
         <v>1000</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1405</v>
       </c>
       <c r="Z10" s="4">
         <v>2022</v>
@@ -1734,69 +1787,6 @@
       </c>
       <c r="AF13" s="1">
         <v>234</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>2450</v>
-      </c>
-      <c r="AI13">
-        <v>249</v>
-      </c>
-      <c r="AL13">
-        <v>2373</v>
-      </c>
-      <c r="AM13">
-        <v>2451</v>
-      </c>
-      <c r="AN13">
-        <v>1448</v>
-      </c>
-      <c r="AP13" s="4">
-        <v>2425</v>
-      </c>
-      <c r="AR13" s="2">
-        <v>1980</v>
-      </c>
-      <c r="AT13" s="2">
-        <v>3241</v>
-      </c>
-      <c r="AU13">
-        <v>1573</v>
-      </c>
-      <c r="AV13" s="2">
-        <v>1318</v>
-      </c>
-      <c r="AX13" s="2">
-        <v>2285</v>
-      </c>
-      <c r="AZ13" s="6">
-        <v>2327</v>
-      </c>
-      <c r="BA13">
-        <v>500</v>
-      </c>
-      <c r="BB13">
-        <v>521</v>
-      </c>
-      <c r="BC13">
-        <v>2724</v>
-      </c>
-      <c r="BD13">
-        <v>2000</v>
-      </c>
-      <c r="BE13">
-        <v>4773</v>
-      </c>
-      <c r="BF13" s="6">
-        <v>1903</v>
-      </c>
-      <c r="BH13">
-        <v>1162</v>
-      </c>
-      <c r="BI13">
-        <v>673</v>
-      </c>
-      <c r="BK13">
-        <v>1600</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -1815,77 +1805,8 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="W14" s="3"/>
-      <c r="Z14">
-        <v>1308</v>
-      </c>
-      <c r="AB14">
-        <v>2431</v>
-      </c>
       <c r="AD14" s="4">
         <v>933</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>4081</v>
-      </c>
-      <c r="AI14">
-        <v>701</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>596.69000000000005</v>
-      </c>
-      <c r="AL14" s="4">
-        <v>900</v>
-      </c>
-      <c r="AM14">
-        <v>1290</v>
-      </c>
-      <c r="AN14">
-        <v>2288</v>
-      </c>
-      <c r="AP14" s="4">
-        <v>2472</v>
-      </c>
-      <c r="AR14" s="2">
-        <v>2275</v>
-      </c>
-      <c r="AT14">
-        <v>1102</v>
-      </c>
-      <c r="AV14">
-        <v>822</v>
-      </c>
-      <c r="AX14">
-        <v>2092</v>
-      </c>
-      <c r="AZ14" s="6">
-        <v>2280</v>
-      </c>
-      <c r="BA14">
-        <v>1000</v>
-      </c>
-      <c r="BB14">
-        <v>501</v>
-      </c>
-      <c r="BC14">
-        <v>1546</v>
-      </c>
-      <c r="BD14">
-        <v>970</v>
-      </c>
-      <c r="BE14">
-        <v>3484</v>
-      </c>
-      <c r="BF14" s="6">
-        <v>1865</v>
-      </c>
-      <c r="BH14">
-        <v>458</v>
-      </c>
-      <c r="BI14">
-        <v>898</v>
-      </c>
-      <c r="BK14">
-        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -1903,478 +1824,1220 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="Z15">
-        <v>5000</v>
-      </c>
-      <c r="AB15">
-        <v>3074</v>
-      </c>
       <c r="AD15" s="4">
         <v>509</v>
       </c>
-      <c r="AF15" s="2">
+    </row>
+    <row r="18" spans="2:66">
+      <c r="B18">
+        <f>SUM(B3:B15)</f>
+        <v>10484</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:AN18" si="0">SUM(D3:D15)</f>
+        <v>7580</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>9514</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>8050</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>5869</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>10215</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>6004</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>7887</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>5972</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>2504</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>20288</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>13230</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>9326</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>2309</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="0"/>
+        <v>7920</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="0"/>
+        <v>7265</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="0"/>
+        <v>9602</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="0"/>
+        <v>6276</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="0"/>
+        <v>9142</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="0"/>
+        <v>6707</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="0"/>
+        <v>6722</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" ref="AR18" si="1">SUM(AR3:AR15)</f>
+        <v>2190</v>
+      </c>
+      <c r="AT18">
+        <f>SUM(A18:AS18)</f>
+        <v>175872</v>
+      </c>
+    </row>
+    <row r="25" spans="2:66">
+      <c r="N25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="26" spans="2:66">
+      <c r="B26">
+        <v>904</v>
+      </c>
+      <c r="F26">
+        <v>1101</v>
+      </c>
+      <c r="G26">
+        <v>1101</v>
+      </c>
+      <c r="N26">
+        <v>488</v>
+      </c>
+      <c r="AH26" s="1"/>
+    </row>
+    <row r="27" spans="2:66">
+      <c r="B27">
+        <v>580</v>
+      </c>
+      <c r="F27">
+        <v>1900</v>
+      </c>
+      <c r="G27">
+        <v>367</v>
+      </c>
+      <c r="N27">
+        <v>850</v>
+      </c>
+      <c r="O27">
+        <v>1514</v>
+      </c>
+      <c r="AH27" s="1"/>
+    </row>
+    <row r="28" spans="2:66">
+      <c r="F28">
+        <v>124</v>
+      </c>
+      <c r="G28">
+        <v>1900</v>
+      </c>
+      <c r="N28">
+        <v>664</v>
+      </c>
+      <c r="O28">
+        <v>3942</v>
+      </c>
+      <c r="Z28">
+        <v>1308</v>
+      </c>
+      <c r="AB28">
+        <v>2431</v>
+      </c>
+      <c r="AD28">
+        <v>2177</v>
+      </c>
+      <c r="AF28" s="2">
         <v>1601</v>
       </c>
-      <c r="AH15">
+      <c r="AH28" s="2">
+        <v>2450</v>
+      </c>
+      <c r="AI28">
+        <v>249</v>
+      </c>
+      <c r="AL28">
+        <v>2373</v>
+      </c>
+      <c r="AM28">
+        <v>2451</v>
+      </c>
+      <c r="AN28">
+        <v>1448</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>2425</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>1980</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>3241</v>
+      </c>
+      <c r="AU28">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="29" spans="2:66">
+      <c r="F29">
+        <v>116</v>
+      </c>
+      <c r="N29">
+        <v>683</v>
+      </c>
+      <c r="O29">
+        <v>1517</v>
+      </c>
+      <c r="Z29">
+        <v>5000</v>
+      </c>
+      <c r="AB29">
+        <v>3074</v>
+      </c>
+      <c r="AD29">
+        <v>4099</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>589</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>4081</v>
+      </c>
+      <c r="AI29">
+        <v>701</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>596.69000000000005</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>900</v>
+      </c>
+      <c r="AM29">
+        <v>1290</v>
+      </c>
+      <c r="AN29">
+        <v>2288</v>
+      </c>
+      <c r="AP29" s="4">
+        <v>2472</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>2275</v>
+      </c>
+      <c r="AT29">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:66">
+      <c r="F30">
+        <v>127</v>
+      </c>
+      <c r="N30">
+        <v>677</v>
+      </c>
+      <c r="O30">
+        <v>1351</v>
+      </c>
+      <c r="Z30">
+        <v>1001</v>
+      </c>
+      <c r="AB30">
+        <v>1760</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>1810</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>987</v>
+      </c>
+      <c r="AH30">
         <v>2210</v>
       </c>
-      <c r="AI15">
+      <c r="AI30">
         <v>678</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AJ30" s="2">
         <v>629</v>
       </c>
-      <c r="AL15" s="4">
+      <c r="AL30" s="4">
         <v>1051</v>
       </c>
-      <c r="AM15">
+      <c r="AM30">
         <v>2597</v>
       </c>
-      <c r="AR15" s="2">
+      <c r="AR30" s="2">
         <v>2438</v>
       </c>
-      <c r="AT15">
+      <c r="AT30">
         <v>471</v>
       </c>
-      <c r="AV15">
+    </row>
+    <row r="31" spans="2:66">
+      <c r="N31">
+        <v>2329</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>3627</v>
+      </c>
+      <c r="AF31">
+        <v>1020</v>
+      </c>
+      <c r="AH31">
+        <v>963</v>
+      </c>
+      <c r="AI31">
+        <v>10000</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>623</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>982</v>
+      </c>
+      <c r="AM31">
+        <v>2373</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>3569</v>
+      </c>
+      <c r="BN31">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:66">
+      <c r="N32">
+        <v>1613</v>
+      </c>
+      <c r="AF32">
+        <v>580</v>
+      </c>
+      <c r="AH32">
+        <v>249</v>
+      </c>
+      <c r="AI32">
+        <v>3862</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>1325</v>
+      </c>
+      <c r="AL32">
+        <v>2451</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>1725</v>
+      </c>
+      <c r="AV32" s="2">
+        <v>1318</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>2285</v>
+      </c>
+      <c r="AZ32" s="6">
+        <v>2327</v>
+      </c>
+      <c r="BA32">
+        <v>500</v>
+      </c>
+      <c r="BB32">
+        <v>521</v>
+      </c>
+      <c r="BC32">
+        <v>2724</v>
+      </c>
+      <c r="BD32">
+        <v>2000</v>
+      </c>
+      <c r="BE32">
+        <v>4773</v>
+      </c>
+      <c r="BF32" s="6">
+        <v>1903</v>
+      </c>
+      <c r="BH32">
+        <v>1162</v>
+      </c>
+      <c r="BI32">
+        <v>673</v>
+      </c>
+      <c r="BJ32">
+        <v>1600</v>
+      </c>
+      <c r="BK32">
+        <v>1600</v>
+      </c>
+      <c r="BN32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="32:66">
+      <c r="AF33" s="2">
+        <v>115</v>
+      </c>
+      <c r="AH33">
+        <v>4158</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>2257</v>
+      </c>
+      <c r="AL33">
+        <v>1290</v>
+      </c>
+      <c r="AV33">
+        <v>822</v>
+      </c>
+      <c r="AX33">
+        <v>2092</v>
+      </c>
+      <c r="AZ33" s="6">
+        <v>2280</v>
+      </c>
+      <c r="BA33">
+        <v>1000</v>
+      </c>
+      <c r="BB33">
+        <v>501</v>
+      </c>
+      <c r="BC33">
+        <v>1546</v>
+      </c>
+      <c r="BD33">
+        <v>970</v>
+      </c>
+      <c r="BE33">
+        <v>3484</v>
+      </c>
+      <c r="BF33" s="6">
+        <v>1865</v>
+      </c>
+      <c r="BH33">
+        <v>458</v>
+      </c>
+      <c r="BI33">
+        <v>898</v>
+      </c>
+      <c r="BJ33">
+        <v>701</v>
+      </c>
+      <c r="BK33">
+        <v>701</v>
+      </c>
+      <c r="BN33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="32:66">
+      <c r="AJ34" s="2">
+        <v>2105</v>
+      </c>
+      <c r="AL34">
+        <v>1779</v>
+      </c>
+      <c r="AV34">
         <v>974</v>
       </c>
-      <c r="AX15">
+      <c r="AX34">
         <v>2163</v>
       </c>
-      <c r="AZ15">
+      <c r="AZ34">
         <v>1000</v>
       </c>
-      <c r="BA15">
+      <c r="BA34">
         <v>520</v>
       </c>
-      <c r="BB15">
+      <c r="BB34">
         <v>450</v>
       </c>
-      <c r="BC15">
+      <c r="BC34">
         <v>450</v>
       </c>
-      <c r="BD15">
+      <c r="BD34">
         <v>677</v>
       </c>
-      <c r="BE15">
+      <c r="BE34">
         <v>953</v>
       </c>
-      <c r="BF15" s="6">
+      <c r="BF34" s="6">
         <v>1575</v>
       </c>
-      <c r="BH15">
+      <c r="BH34">
         <v>395</v>
       </c>
-      <c r="BI15">
+      <c r="BI34">
         <v>887</v>
       </c>
-    </row>
-    <row r="16" spans="1:65">
-      <c r="F16">
-        <v>1101</v>
-      </c>
-      <c r="G16">
-        <v>1101</v>
-      </c>
-      <c r="N16">
-        <v>1039</v>
-      </c>
-      <c r="Z16">
-        <v>1001</v>
-      </c>
-      <c r="AB16">
-        <v>1760</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>589</v>
-      </c>
-      <c r="AH16">
-        <v>963</v>
-      </c>
-      <c r="AI16">
-        <v>10000</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>623</v>
-      </c>
-      <c r="AL16" s="4">
-        <v>982</v>
-      </c>
-      <c r="AM16">
-        <v>2373</v>
-      </c>
-      <c r="AR16" s="2">
-        <v>3569</v>
-      </c>
-      <c r="AV16">
+      <c r="BN34">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="32:66">
+      <c r="AH35">
+        <v>701</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>2422</v>
+      </c>
+      <c r="AL35">
+        <v>818</v>
+      </c>
+      <c r="AV35">
         <v>2300</v>
       </c>
-      <c r="AX16">
+      <c r="AX35">
         <v>2088</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ35">
         <v>520</v>
       </c>
-      <c r="BA16">
+      <c r="BA35">
         <v>1000</v>
       </c>
-      <c r="BB16">
+      <c r="BB35">
         <v>1546</v>
       </c>
-      <c r="BC16">
+      <c r="BC35">
         <v>900</v>
       </c>
-      <c r="BD16">
+      <c r="BD35">
         <v>854</v>
       </c>
-      <c r="BF16" s="6">
+      <c r="BF35" s="6">
         <v>2451</v>
       </c>
-      <c r="BH16">
+      <c r="BH35">
         <v>442</v>
       </c>
-      <c r="BI16">
+      <c r="BI35">
         <v>758</v>
       </c>
-    </row>
-    <row r="17" spans="2:61">
-      <c r="B17">
-        <v>904</v>
-      </c>
-      <c r="F17">
-        <v>1900</v>
-      </c>
-      <c r="G17">
-        <v>367</v>
-      </c>
-      <c r="N17">
-        <v>488</v>
-      </c>
-      <c r="AD17">
-        <v>2177</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>987</v>
-      </c>
-      <c r="AH17">
-        <v>249</v>
-      </c>
-      <c r="AI17">
-        <v>3862</v>
-      </c>
-      <c r="AJ17" s="2">
+      <c r="BN35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="32:66">
+      <c r="AH36">
+        <v>678</v>
+      </c>
+      <c r="AX36" s="2">
+        <v>2024</v>
+      </c>
+      <c r="AZ36">
+        <v>1000</v>
+      </c>
+      <c r="BB36">
+        <v>1580</v>
+      </c>
+      <c r="BC36">
+        <v>1580</v>
+      </c>
+      <c r="BD36">
+        <v>983</v>
+      </c>
+      <c r="BH36">
+        <v>2108</v>
+      </c>
+      <c r="BI36">
+        <v>1295</v>
+      </c>
+      <c r="BN36">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="32:66">
+      <c r="AH37" s="5">
+        <v>700</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>1810</v>
+      </c>
+      <c r="AK37">
+        <v>1848.69</v>
+      </c>
+      <c r="AX37" s="2">
+        <v>1573</v>
+      </c>
+      <c r="AZ37" s="6">
+        <v>3442</v>
+      </c>
+      <c r="BB37">
+        <v>2724</v>
+      </c>
+      <c r="BC37">
+        <v>1472</v>
+      </c>
+      <c r="BD37">
+        <v>4773</v>
+      </c>
+      <c r="BI37">
+        <v>1162</v>
+      </c>
+      <c r="BN37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="32:66">
+      <c r="AH38" s="2">
+        <v>2867</v>
+      </c>
+      <c r="AJ38" s="6">
+        <v>1444</v>
+      </c>
+      <c r="AK38">
         <v>1325</v>
       </c>
-      <c r="AL17">
-        <v>2451</v>
-      </c>
-      <c r="AR17" s="2">
-        <v>1725</v>
-      </c>
-      <c r="AX17" s="2">
-        <v>2024</v>
-      </c>
-      <c r="AZ17">
+      <c r="AZ38">
         <v>1000</v>
       </c>
-      <c r="BB17">
-        <v>1580</v>
-      </c>
-      <c r="BC17">
-        <v>1580</v>
-      </c>
-      <c r="BD17">
-        <v>983</v>
-      </c>
-      <c r="BH17">
-        <v>2108</v>
-      </c>
-      <c r="BI17">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="18" spans="2:61">
-      <c r="B18">
-        <v>580</v>
-      </c>
-      <c r="F18">
-        <v>124</v>
-      </c>
-      <c r="G18">
-        <v>1900</v>
-      </c>
-      <c r="N18">
-        <v>850</v>
-      </c>
-      <c r="O18">
-        <v>1514</v>
-      </c>
-      <c r="AD18">
-        <v>4099</v>
-      </c>
-      <c r="AF18">
-        <v>1020</v>
-      </c>
-      <c r="AH18">
-        <v>4158</v>
-      </c>
-      <c r="AJ18" s="2">
-        <v>2257</v>
-      </c>
-      <c r="AL18">
-        <v>1290</v>
-      </c>
-      <c r="AX18" s="2">
-        <v>1573</v>
-      </c>
-      <c r="AZ18" s="6">
-        <v>3442</v>
-      </c>
-      <c r="BB18">
-        <v>2724</v>
-      </c>
-      <c r="BC18">
-        <v>1472</v>
-      </c>
-      <c r="BD18">
-        <v>4773</v>
-      </c>
-      <c r="BI18">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="19" spans="2:61">
-      <c r="F19">
-        <v>116</v>
-      </c>
-      <c r="N19">
-        <v>664</v>
-      </c>
-      <c r="O19">
-        <v>3942</v>
-      </c>
-      <c r="AD19" s="4">
-        <v>1810</v>
-      </c>
-      <c r="AF19">
-        <v>580</v>
-      </c>
-      <c r="AJ19" s="2">
-        <v>2105</v>
-      </c>
-      <c r="AL19">
-        <v>1779</v>
-      </c>
-      <c r="AZ19">
-        <v>1000</v>
-      </c>
-      <c r="BB19">
+      <c r="BB38">
         <v>1350</v>
       </c>
-      <c r="BD19" s="2"/>
-      <c r="BH19">
+      <c r="BD38" s="2">
+        <v>2100</v>
+      </c>
+      <c r="BH38">
         <v>673</v>
       </c>
-      <c r="BI19">
+      <c r="BI38">
         <v>3314</v>
       </c>
-    </row>
-    <row r="20" spans="2:61">
-      <c r="F20">
-        <v>127</v>
-      </c>
-      <c r="N20">
-        <v>683</v>
-      </c>
-      <c r="O20">
-        <v>1517</v>
-      </c>
-      <c r="AD20" s="4">
-        <v>3627</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>115</v>
-      </c>
-      <c r="AH20">
-        <v>701</v>
-      </c>
-      <c r="AJ20" s="2">
-        <v>2422</v>
-      </c>
-      <c r="AL20">
-        <v>818</v>
-      </c>
-      <c r="AZ20">
+      <c r="BN38">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="32:66">
+      <c r="AJ39" s="2">
+        <v>1119</v>
+      </c>
+      <c r="AK39">
+        <v>4295</v>
+      </c>
+      <c r="AZ39">
         <v>500</v>
       </c>
-      <c r="BH20">
+      <c r="BH39">
         <v>785</v>
       </c>
-    </row>
-    <row r="21" spans="2:61">
-      <c r="N21">
-        <v>677</v>
-      </c>
-      <c r="O21">
-        <v>1351</v>
-      </c>
-      <c r="AH21">
-        <v>678</v>
-      </c>
-      <c r="BD21">
+      <c r="BN39">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="40" spans="32:66">
+      <c r="AJ40" s="2">
+        <v>991</v>
+      </c>
+      <c r="AK40">
+        <v>6784</v>
+      </c>
+      <c r="BD40">
         <v>953</v>
       </c>
-      <c r="BH21">
+      <c r="BH40">
         <v>898</v>
       </c>
-      <c r="BI21">
+      <c r="BI40">
         <v>780.29</v>
       </c>
     </row>
-    <row r="22" spans="2:61">
-      <c r="N22">
-        <v>2329</v>
-      </c>
-      <c r="AH22" s="5">
-        <v>700</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>1810</v>
-      </c>
-      <c r="AK22">
-        <v>1848.69</v>
-      </c>
-      <c r="BH22">
+    <row r="41" spans="32:66">
+      <c r="AJ41" s="2">
+        <v>1704</v>
+      </c>
+      <c r="BH41">
         <v>887</v>
       </c>
-      <c r="BI22">
+      <c r="BI41">
         <v>1990</v>
       </c>
     </row>
-    <row r="23" spans="2:61">
-      <c r="N23">
-        <v>1613</v>
-      </c>
-      <c r="AH23" s="2">
-        <v>2867</v>
-      </c>
-      <c r="AJ23" s="6">
-        <v>1444</v>
-      </c>
-      <c r="AK23">
-        <v>1325</v>
-      </c>
-      <c r="BH23">
+    <row r="42" spans="32:66">
+      <c r="AJ42" s="2">
+        <v>481</v>
+      </c>
+      <c r="BH42">
         <v>758</v>
       </c>
-      <c r="BI23">
+      <c r="BI42">
         <v>11247.11</v>
       </c>
     </row>
-    <row r="24" spans="2:61">
-      <c r="AJ24" s="2">
-        <v>1119</v>
-      </c>
-      <c r="AK24">
-        <v>4295</v>
-      </c>
-      <c r="BH24">
+    <row r="43" spans="32:66">
+      <c r="AJ43" s="6">
+        <v>1733</v>
+      </c>
+      <c r="BH43">
         <v>2420</v>
       </c>
     </row>
-    <row r="25" spans="2:61">
-      <c r="AJ25" s="2">
-        <v>991</v>
-      </c>
-      <c r="AK25">
-        <v>6784</v>
-      </c>
-      <c r="BH25">
+    <row r="44" spans="32:66">
+      <c r="AJ44" s="6">
+        <v>3572</v>
+      </c>
+      <c r="BH44">
         <v>2372</v>
       </c>
     </row>
-    <row r="26" spans="2:61">
-      <c r="AH26" s="1"/>
-      <c r="AJ26" s="2">
-        <v>1704</v>
-      </c>
-      <c r="BH26">
+    <row r="45" spans="32:66">
+      <c r="AJ45" s="6">
+        <v>1864</v>
+      </c>
+      <c r="BH45">
         <v>2315</v>
       </c>
     </row>
-    <row r="27" spans="2:61">
-      <c r="AH27" s="1"/>
-      <c r="AJ27" s="2">
-        <v>481</v>
-      </c>
-      <c r="BH27">
+    <row r="46" spans="32:66">
+      <c r="BH46">
         <v>3314</v>
       </c>
     </row>
-    <row r="28" spans="2:61">
-      <c r="AJ28" s="6">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="29" spans="2:61">
-      <c r="AJ29" s="6">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="30" spans="2:61">
-      <c r="AJ30" s="6">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="33" spans="36:38">
-      <c r="AJ33" s="1"/>
-    </row>
-    <row r="34" spans="36:38">
-      <c r="AJ34" s="1"/>
-    </row>
-    <row r="35" spans="36:38">
-      <c r="AJ35" s="1"/>
-    </row>
-    <row r="36" spans="36:38">
-      <c r="AJ36" s="1"/>
-    </row>
-    <row r="37" spans="36:38">
-      <c r="AJ37" s="1"/>
-      <c r="AL37" s="2"/>
-    </row>
-    <row r="38" spans="36:38">
-      <c r="AJ38" s="1"/>
-    </row>
-    <row r="39" spans="36:38">
-      <c r="AJ39" s="1"/>
-    </row>
-    <row r="41" spans="36:38">
-      <c r="AJ41" s="1"/>
-    </row>
-    <row r="42" spans="36:38">
-      <c r="AJ42" s="1"/>
-    </row>
-    <row r="43" spans="36:38">
-      <c r="AJ43" s="1"/>
-    </row>
-    <row r="44" spans="36:38">
-      <c r="AJ44" s="1"/>
-    </row>
-    <row r="45" spans="36:38">
-      <c r="AJ45" s="1"/>
-    </row>
-    <row r="46" spans="36:38">
-      <c r="AJ46" s="1"/>
-    </row>
-    <row r="47" spans="36:38">
-      <c r="AJ47" s="1"/>
-    </row>
-    <row r="48" spans="36:38">
+    <row r="48" spans="32:66">
       <c r="AJ48" s="1"/>
     </row>
-    <row r="49" spans="36:36">
+    <row r="49" spans="1:67">
       <c r="AJ49" s="1"/>
+    </row>
+    <row r="58" spans="1:67">
+      <c r="AG58" s="12">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:67">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <f>SUM(B3:B31)</f>
+        <v>22452</v>
+      </c>
+      <c r="D60">
+        <f>SUM(D3:D31)</f>
+        <v>15160</v>
+      </c>
+      <c r="F60">
+        <f>SUM(F3:F31)</f>
+        <v>22396</v>
+      </c>
+      <c r="H60">
+        <f>SUM(H3:H31)</f>
+        <v>16100</v>
+      </c>
+      <c r="J60">
+        <f>SUM(J3:J31)</f>
+        <v>11738</v>
+      </c>
+      <c r="L60">
+        <f>SUM(L3:L31)</f>
+        <v>20430</v>
+      </c>
+      <c r="N60">
+        <f>SUM(N3:N24)</f>
+        <v>12008</v>
+      </c>
+      <c r="P60">
+        <f>SUM(P3:P31)</f>
+        <v>15774</v>
+      </c>
+      <c r="R60">
+        <f>SUM(R3:R31)</f>
+        <v>11944</v>
+      </c>
+      <c r="T60">
+        <f>SUM(T3:T31)</f>
+        <v>5008</v>
+      </c>
+      <c r="V60">
+        <f>SUM(V3:V31)</f>
+        <v>40576</v>
+      </c>
+      <c r="X60">
+        <f>SUM(X3:X31)</f>
+        <v>26460</v>
+      </c>
+      <c r="Z60">
+        <f>SUM(Z3:Z31)</f>
+        <v>25961</v>
+      </c>
+      <c r="AB60">
+        <f>SUM(AB3:AB31)</f>
+        <v>23105</v>
+      </c>
+      <c r="AD60">
+        <f>SUM(AD3:AD31)</f>
+        <v>30917</v>
+      </c>
+      <c r="AF60">
+        <f>SUM(AF3:AF27)</f>
+        <v>18284</v>
+      </c>
+      <c r="AH60">
+        <f>SUM(AH3:AH27)</f>
+        <v>13414</v>
+      </c>
+      <c r="AJ60">
+        <f>SUM(AJ3:AJ46)</f>
+        <v>38119.69</v>
+      </c>
+      <c r="AL60">
+        <f>SUM(AL3:AL46)</f>
+        <v>12714</v>
+      </c>
+      <c r="AN60">
+        <f>SUM(AN3:AN46)</f>
+        <v>4298</v>
+      </c>
+      <c r="AP60">
+        <f>SUM(AP3:AP46)</f>
+        <v>4897</v>
+      </c>
+      <c r="AR60">
+        <f>SUM(AR3:AR46)</f>
+        <v>16367</v>
+      </c>
+      <c r="AT60">
+        <f>SUM(AT3:AT46)</f>
+        <v>180686</v>
+      </c>
+      <c r="AV60">
+        <f>SUM(AV3:AV27)</f>
+        <v>0</v>
+      </c>
+      <c r="AX60">
+        <f>SUM(AX3:AX27)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ60">
+        <f>SUM(AZ3:AZ27)</f>
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <f>SUM(BB3:BB27)</f>
+        <v>0</v>
+      </c>
+      <c r="BD60">
+        <f>SUM(BD3:BD27)</f>
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <f>SUM(BF3:BF27)</f>
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <f>SUM(BH3:BH27)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ60">
+        <f>SUM(BJ3:BJ27)</f>
+        <v>0</v>
+      </c>
+      <c r="BL60">
+        <f>SUM(A60:BK60)</f>
+        <v>588808.68999999994</v>
+      </c>
+      <c r="BM60">
+        <v>340145</v>
+      </c>
+      <c r="BN60">
+        <f>SUM(BN31:BN39)</f>
+        <v>6866.5</v>
+      </c>
+      <c r="BO60">
+        <f>BL60-BM60-BN60</f>
+        <v>241797.18999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:67">
+      <c r="AJ61" s="1"/>
+      <c r="BK61">
+        <f>BL61/1200/4.97</f>
+        <v>32.480382293762581</v>
+      </c>
+      <c r="BL61">
+        <v>193713</v>
+      </c>
+    </row>
+    <row r="62" spans="1:67">
+      <c r="AJ62" s="1"/>
+      <c r="BK62">
+        <f>BL62/1200/4.97</f>
+        <v>66.246762240107302</v>
+      </c>
+      <c r="BL62">
+        <f>BL60-BL61</f>
+        <v>395095.68999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:67">
+      <c r="AJ63" s="1"/>
+      <c r="BK63">
+        <f>SUM(BK61:BK62)</f>
+        <v>98.727144533869875</v>
+      </c>
+      <c r="BM63">
+        <f>BM60-BN60</f>
+        <v>333278.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:67">
+      <c r="AJ64" s="1"/>
+    </row>
+    <row r="67" spans="6:25">
+      <c r="V67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X67" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y67" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="6:25">
+      <c r="V68" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="W68" s="9">
+        <v>11695</v>
+      </c>
+      <c r="X68" s="10">
+        <v>4711</v>
+      </c>
+      <c r="Y68" s="8"/>
+    </row>
+    <row r="69" spans="6:25">
+      <c r="V69" s="8">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="W69" s="10">
+        <v>3996</v>
+      </c>
+      <c r="X69" s="10">
+        <v>4615</v>
+      </c>
+      <c r="Y69" s="8"/>
+    </row>
+    <row r="70" spans="6:25">
+      <c r="V70" s="8">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="W70" s="10">
+        <v>9326</v>
+      </c>
+      <c r="X70" s="10">
+        <v>7920</v>
+      </c>
+      <c r="Y70" s="8"/>
+    </row>
+    <row r="71" spans="6:25">
+      <c r="V71" s="8">
+        <v>10.14</v>
+      </c>
+      <c r="W71" s="10">
+        <v>7920</v>
+      </c>
+      <c r="X71" s="10">
+        <v>9602</v>
+      </c>
+      <c r="Y71" s="8"/>
+    </row>
+    <row r="72" spans="6:25">
+      <c r="V72" s="8">
+        <v>10.15</v>
+      </c>
+      <c r="W72" s="10">
+        <v>9602</v>
+      </c>
+      <c r="X72" s="9">
+        <v>10244</v>
+      </c>
+      <c r="Y72" s="8"/>
+    </row>
+    <row r="73" spans="6:25">
+      <c r="V73" s="8">
+        <v>10.16</v>
+      </c>
+      <c r="W73" s="9">
+        <v>9142</v>
+      </c>
+      <c r="X73" s="9">
+        <v>6704</v>
+      </c>
+      <c r="Y73" s="8"/>
+    </row>
+    <row r="74" spans="6:25">
+      <c r="V74" s="8">
+        <v>10.17</v>
+      </c>
+      <c r="W74" s="9">
+        <v>6707</v>
+      </c>
+      <c r="X74" s="10">
+        <v>6722</v>
+      </c>
+      <c r="Y74" s="8"/>
+    </row>
+    <row r="75" spans="6:25">
+      <c r="V75" s="8">
+        <v>10.18</v>
+      </c>
+      <c r="W75" s="10">
+        <v>6722</v>
+      </c>
+      <c r="X75" s="10">
+        <v>3996</v>
+      </c>
+      <c r="Y75" s="8"/>
+    </row>
+    <row r="76" spans="6:25">
+      <c r="V76" s="8">
+        <v>10.19</v>
+      </c>
+      <c r="W76" s="9">
+        <v>535</v>
+      </c>
+      <c r="X76" s="9">
+        <v>7039</v>
+      </c>
+      <c r="Y76" s="8"/>
+    </row>
+    <row r="77" spans="6:25">
+      <c r="F77">
+        <v>7580</v>
+      </c>
+      <c r="V77" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W77" s="9">
+        <v>281</v>
+      </c>
+      <c r="X77" s="9">
+        <v>1011</v>
+      </c>
+      <c r="Y77" s="8"/>
+    </row>
+    <row r="78" spans="6:25">
+      <c r="F78">
+        <v>9514</v>
+      </c>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="9">
+        <v>1215</v>
+      </c>
+      <c r="Y78" s="8"/>
+    </row>
+    <row r="79" spans="6:25">
+      <c r="F79">
+        <v>9004</v>
+      </c>
+      <c r="V79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="W79" s="8">
+        <f>SUM(W68:W77)</f>
+        <v>65926</v>
+      </c>
+      <c r="X79" s="8">
+        <f ca="1">SUM(X68:X79)</f>
+        <v>63779</v>
+      </c>
+      <c r="Y79" s="8">
+        <f ca="1">W79-X79</f>
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="80" spans="6:25">
+      <c r="F80">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82">
+        <v>10215</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88">
+        <v>7039</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93">
+        <v>9602</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94">
+        <v>10244</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95">
+        <v>6704</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96">
+        <v>6722</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97">
+        <v>2190</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2419,44 +3082,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
-        <v>43009</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7">
-        <v>43010</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7">
-        <v>43011</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7">
-        <v>43012</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7">
-        <v>43013</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7">
-        <v>43014</v>
-      </c>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="13">
+        <v>43040</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="13">
+        <v>43041</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="13">
+        <v>43042</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13">
+        <v>43043</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="13">
+        <v>43044</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="13">
+        <v>43045</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="13">
+        <v>43046</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13">
+        <v>43047</v>
+      </c>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="13">
+        <v>43048</v>
+      </c>
+      <c r="S1" s="14"/>
+      <c r="T1" s="13">
+        <v>43049</v>
+      </c>
+      <c r="U1" s="14"/>
+      <c r="V1" s="13">
+        <v>43050</v>
+      </c>
+      <c r="W1" s="14"/>
+      <c r="X1" s="13">
+        <v>43051</v>
+      </c>
+      <c r="Y1" s="14"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2493,82 +3180,116 @@
       <c r="M2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="B4">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="B5">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="B6">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16">
-        <v>904</v>
-      </c>
-      <c r="C16">
-        <v>1481</v>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="C9">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="C10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="C11">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="C12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="C13">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="B16" s="3">
+        <v>3448</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>580</v>
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3">
+        <v>3221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="17">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,12 +65,32 @@
     <t>总数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>工地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李泉城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计打款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +153,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -177,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,6 +251,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BO97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3041,6 +3073,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3049,30 +3105,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3082,220 +3114,495 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="13">
         <v>43040</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13">
+      <c r="D1" s="14"/>
+      <c r="E1" s="13">
         <v>43041</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13">
+      <c r="F1" s="14"/>
+      <c r="G1" s="13">
         <v>43042</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13">
+      <c r="H1" s="14"/>
+      <c r="I1" s="13">
         <v>43043</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13">
+      <c r="J1" s="14"/>
+      <c r="K1" s="13">
         <v>43044</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="13">
+      <c r="L1" s="14"/>
+      <c r="M1" s="13">
         <v>43045</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="13">
+      <c r="N1" s="14"/>
+      <c r="O1" s="13">
         <v>43046</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="13">
         <v>43047</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="13">
+      <c r="R1" s="14"/>
+      <c r="S1" s="13">
         <v>43048</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="13">
+      <c r="T1" s="14"/>
+      <c r="U1" s="13">
         <v>43049</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="13">
+      <c r="V1" s="14"/>
+      <c r="W1" s="13">
         <v>43050</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="13">
+      <c r="X1" s="14"/>
+      <c r="Y1" s="13">
         <v>43051</v>
       </c>
-      <c r="Y1" s="14"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="Z1" s="14"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2">
+        <v>11.3</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="T2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="U2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="V2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="W2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="X2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="C3" s="4">
         <v>575</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="B4">
+      <c r="D3" s="2">
+        <v>3448</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1335</v>
+      </c>
+      <c r="F3">
+        <v>1065</v>
+      </c>
+      <c r="G3">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="C4" s="4">
         <v>597</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="B5">
+      <c r="D4" s="2">
+        <v>4704</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1292</v>
+      </c>
+      <c r="G4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="C5" s="4">
         <v>428</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="B6">
+      <c r="D5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>371</v>
+      </c>
+      <c r="G5">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="C6" s="4">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="C9">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="C10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="C11">
-        <v>4704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="C12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="C13">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="B16" s="3">
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="D6" s="2">
+        <v>3221</v>
+      </c>
+      <c r="E6" s="4">
+        <v>584</v>
+      </c>
+      <c r="G6">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="E7" s="4">
+        <v>1440</v>
+      </c>
+      <c r="G7">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="E8" s="4">
+        <v>1037</v>
+      </c>
+      <c r="G8">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="E9" s="4">
+        <v>1226</v>
+      </c>
+      <c r="G9">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="E10" s="4">
+        <v>564</v>
+      </c>
+      <c r="G10">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="E11" s="4">
+        <v>759</v>
+      </c>
+      <c r="G11">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="E12" s="4">
+        <v>866</v>
+      </c>
+      <c r="G12">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="E13" s="4">
+        <v>671</v>
+      </c>
+      <c r="G13">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="E14" s="4">
+        <v>409</v>
+      </c>
+      <c r="G14">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="E15" s="4">
+        <v>685</v>
+      </c>
+      <c r="G15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="E16" s="4">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
       <c r="B17">
-        <v>4704</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3">
-        <v>3221</v>
+        <f>SUM(B2:B16)</f>
+        <v>50000</v>
+      </c>
+      <c r="E17" s="4">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15">
+        <f>B17-A43</f>
+        <v>32417</v>
+      </c>
+      <c r="E18" s="4">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" s="4">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" s="4">
+        <v>729.79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="E21" s="4">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="E22" s="4">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="E23" s="4">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="E24" s="4">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="E25" s="4">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="E26" s="4">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="E27" s="4">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="E28" s="4">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="E29" s="4">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="E30" s="4">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="E31" s="4">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="E32" s="4">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="E33" s="4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="E34" s="4">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="E35" s="4">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="E36" s="4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="E37" s="4">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="E38" s="4">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="E39" s="4">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43">
+        <f>SUM(G43:BR43)</f>
+        <v>17583</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="G43" s="2">
+        <f t="shared" ref="G43" si="0">SUM(G3:G42)</f>
+        <v>17583</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2">
+        <f t="shared" ref="I43" si="1">SUM(I3:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2">
+        <f t="shared" ref="K43" si="2">SUM(K3:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2">
+        <f t="shared" ref="M43" si="3">SUM(M3:M42)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2">
+        <f t="shared" ref="O43" si="4">SUM(O3:O42)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2">
+        <f t="shared" ref="Q43" si="5">SUM(Q3:Q42)</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2">
+        <f t="shared" ref="S43" si="6">SUM(S3:S42)</f>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" ref="D43:Y43" si="7">SUM(T3:T42)</f>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="18">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>合计打款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,14 +256,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,34 +579,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="15">
         <v>43003</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13">
+      <c r="C1" s="16"/>
+      <c r="D1" s="15">
         <v>43004</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13">
+      <c r="E1" s="16"/>
+      <c r="F1" s="15">
         <v>43005</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13">
+      <c r="G1" s="16"/>
+      <c r="H1" s="15">
         <v>43006</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13">
+      <c r="I1" s="16"/>
+      <c r="J1" s="15">
         <v>43007</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="13">
+      <c r="K1" s="16"/>
+      <c r="L1" s="15">
         <v>43008</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="14"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -936,134 +949,134 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="15">
         <v>43009</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13">
+      <c r="C1" s="16"/>
+      <c r="D1" s="15">
         <v>43010</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13">
+      <c r="E1" s="16"/>
+      <c r="F1" s="15">
         <v>43011</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13">
+      <c r="G1" s="16"/>
+      <c r="H1" s="15">
         <v>43012</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13">
+      <c r="I1" s="16"/>
+      <c r="J1" s="15">
         <v>43013</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="13">
+      <c r="K1" s="16"/>
+      <c r="L1" s="15">
         <v>43014</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="13">
+      <c r="M1" s="16"/>
+      <c r="N1" s="15">
         <v>43015</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13">
+      <c r="O1" s="16"/>
+      <c r="P1" s="15">
         <v>43016</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="13">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="15">
         <v>43017</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="13">
+      <c r="S1" s="16"/>
+      <c r="T1" s="15">
         <v>43018</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="13">
+      <c r="U1" s="16"/>
+      <c r="V1" s="15">
         <v>43019</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="13">
+      <c r="W1" s="16"/>
+      <c r="X1" s="15">
         <v>43020</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="13">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="15">
         <v>43021</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="13">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="15">
         <v>43022</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="13">
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="15">
         <v>43023</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="13">
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="15">
         <v>43024</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="13">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="15">
         <v>43025</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="13">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="15">
         <v>43026</v>
       </c>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="13">
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="15">
         <v>43027</v>
       </c>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="13">
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="15">
         <v>43028</v>
       </c>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="13">
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="15">
         <v>43029</v>
       </c>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="13">
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="15">
         <v>43030</v>
       </c>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="13">
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="15">
         <v>43031</v>
       </c>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="13">
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="15">
         <v>43032</v>
       </c>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="13">
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="15">
         <v>43033</v>
       </c>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="13">
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="15">
         <v>43034</v>
       </c>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="13">
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="15">
         <v>43035</v>
       </c>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="13">
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="15">
         <v>43036</v>
       </c>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="13">
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="15">
         <v>43037</v>
       </c>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="13">
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="15">
         <v>43038</v>
       </c>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="13">
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="15">
         <v>43039</v>
       </c>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="13" t="s">
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="BM1" s="14"/>
+      <c r="BM1" s="16"/>
     </row>
     <row r="2" spans="1:65">
       <c r="B2" t="s">
@@ -3114,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K73" sqref="K47:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3129,54 +3142,54 @@
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="15">
         <v>43040</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="13">
+      <c r="D1" s="16"/>
+      <c r="E1" s="15">
         <v>43041</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13">
+      <c r="F1" s="16"/>
+      <c r="G1" s="15">
         <v>43042</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="13">
+      <c r="H1" s="16"/>
+      <c r="I1" s="15">
         <v>43043</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="13">
+      <c r="J1" s="16"/>
+      <c r="K1" s="15">
         <v>43044</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13">
+      <c r="L1" s="16"/>
+      <c r="M1" s="15">
         <v>43045</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="13">
+      <c r="N1" s="16"/>
+      <c r="O1" s="15">
         <v>43046</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="13">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="15">
         <v>43047</v>
       </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13">
+      <c r="R1" s="16"/>
+      <c r="S1" s="15">
         <v>43048</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="13">
+      <c r="T1" s="16"/>
+      <c r="U1" s="15">
         <v>43049</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="13">
+      <c r="V1" s="16"/>
+      <c r="W1" s="15">
         <v>43050</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="13">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="15">
         <v>43051</v>
       </c>
-      <c r="Z1" s="14"/>
+      <c r="Z1" s="16"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2">
@@ -3274,6 +3287,18 @@
       <c r="G3">
         <v>2189</v>
       </c>
+      <c r="I3">
+        <v>579</v>
+      </c>
+      <c r="J3">
+        <v>1086</v>
+      </c>
+      <c r="K3">
+        <v>692</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1278</v>
+      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="C4" s="4">
@@ -3288,6 +3313,18 @@
       <c r="G4">
         <v>625</v>
       </c>
+      <c r="I4">
+        <v>391</v>
+      </c>
+      <c r="J4">
+        <v>962</v>
+      </c>
+      <c r="K4">
+        <v>1229</v>
+      </c>
+      <c r="L4" s="2">
+        <v>421</v>
+      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="C5" s="4">
@@ -3302,6 +3339,18 @@
       <c r="G5">
         <v>3133</v>
       </c>
+      <c r="I5">
+        <v>784</v>
+      </c>
+      <c r="J5">
+        <v>510</v>
+      </c>
+      <c r="K5">
+        <v>745</v>
+      </c>
+      <c r="L5" s="3">
+        <v>776</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="C6" s="4">
@@ -3316,13 +3365,43 @@
       <c r="G6">
         <v>2684</v>
       </c>
+      <c r="I6">
+        <v>1342</v>
+      </c>
+      <c r="J6">
+        <v>476</v>
+      </c>
+      <c r="K6">
+        <v>558</v>
+      </c>
+      <c r="L6" s="3">
+        <v>631</v>
+      </c>
     </row>
     <row r="7" spans="1:26">
+      <c r="A7">
+        <v>11.5</v>
+      </c>
+      <c r="B7">
+        <v>17583</v>
+      </c>
       <c r="E7" s="4">
         <v>1440</v>
       </c>
       <c r="G7">
         <v>766</v>
+      </c>
+      <c r="I7">
+        <v>1206</v>
+      </c>
+      <c r="J7">
+        <v>468</v>
+      </c>
+      <c r="K7">
+        <v>754</v>
+      </c>
+      <c r="L7" s="3">
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3332,6 +3411,18 @@
       <c r="G8">
         <v>1443</v>
       </c>
+      <c r="I8">
+        <v>2186</v>
+      </c>
+      <c r="J8">
+        <v>453</v>
+      </c>
+      <c r="K8">
+        <v>692</v>
+      </c>
+      <c r="L8" s="3">
+        <v>669</v>
+      </c>
     </row>
     <row r="9" spans="1:26">
       <c r="E9" s="4">
@@ -3340,6 +3431,18 @@
       <c r="G9">
         <v>842</v>
       </c>
+      <c r="I9">
+        <v>704</v>
+      </c>
+      <c r="J9">
+        <v>540</v>
+      </c>
+      <c r="K9">
+        <v>664</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2339</v>
+      </c>
     </row>
     <row r="10" spans="1:26">
       <c r="E10" s="4">
@@ -3348,6 +3451,18 @@
       <c r="G10">
         <v>543</v>
       </c>
+      <c r="I10">
+        <v>161</v>
+      </c>
+      <c r="J10">
+        <v>598</v>
+      </c>
+      <c r="K10">
+        <v>264</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2604</v>
+      </c>
     </row>
     <row r="11" spans="1:26">
       <c r="E11" s="4">
@@ -3356,6 +3471,18 @@
       <c r="G11">
         <v>721</v>
       </c>
+      <c r="I11">
+        <v>193</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1492</v>
+      </c>
+      <c r="K11">
+        <v>1085</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2466</v>
+      </c>
     </row>
     <row r="12" spans="1:26">
       <c r="E12" s="4">
@@ -3364,6 +3491,18 @@
       <c r="G12">
         <v>2642</v>
       </c>
+      <c r="I12">
+        <v>702</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2384</v>
+      </c>
+      <c r="K12">
+        <v>529</v>
+      </c>
+      <c r="L12">
+        <v>1694</v>
+      </c>
     </row>
     <row r="13" spans="1:26">
       <c r="E13" s="4">
@@ -3372,6 +3511,12 @@
       <c r="G13">
         <v>1153</v>
       </c>
+      <c r="I13">
+        <v>566</v>
+      </c>
+      <c r="K13">
+        <v>719</v>
+      </c>
     </row>
     <row r="14" spans="1:26">
       <c r="E14" s="4">
@@ -3380,6 +3525,12 @@
       <c r="G14">
         <v>647</v>
       </c>
+      <c r="I14">
+        <v>1025</v>
+      </c>
+      <c r="K14">
+        <v>1042</v>
+      </c>
     </row>
     <row r="15" spans="1:26">
       <c r="E15" s="4">
@@ -3388,102 +3539,181 @@
       <c r="G15">
         <v>195</v>
       </c>
+      <c r="I15">
+        <v>875</v>
+      </c>
+      <c r="K15">
+        <v>1269</v>
+      </c>
     </row>
     <row r="16" spans="1:26">
       <c r="E16" s="4">
         <v>861</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="I16">
+        <v>472</v>
+      </c>
+      <c r="K16">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>50000</v>
+        <v>67583</v>
       </c>
       <c r="E17" s="4">
         <v>983</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="I17">
+        <v>538</v>
+      </c>
+      <c r="K17">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>B17-A43</f>
-        <v>32417</v>
+        <v>9242</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="I18">
+        <v>1333</v>
+      </c>
+      <c r="K18">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19">
+        <f>B18/5.24</f>
+        <v>1763.740458015267</v>
+      </c>
       <c r="E19" s="4">
         <v>642</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="I19">
+        <v>657</v>
+      </c>
+      <c r="K19">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="E20" s="4">
         <v>729.79</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="I20">
+        <v>1889</v>
+      </c>
+      <c r="K20">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="E21" s="4">
         <v>853</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="I21">
+        <v>465</v>
+      </c>
+      <c r="K21">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="E22" s="4">
         <v>957</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="I22">
+        <v>550</v>
+      </c>
+      <c r="K22">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="E23" s="4">
         <v>388</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="I23">
+        <v>479</v>
+      </c>
+      <c r="K23">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="E24" s="4">
         <v>1076</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="I24">
+        <v>891</v>
+      </c>
+      <c r="K24">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="E25" s="4">
         <v>1255</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="K25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="E26" s="4">
         <v>755</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="K26">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="E27" s="4">
         <v>618</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="K27">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="E28" s="4">
         <v>1223</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="K28">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="E29" s="4">
         <v>1556</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="K29">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="E30" s="4">
         <v>992</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:11">
       <c r="E31" s="4">
         <v>1138</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:11">
       <c r="E32" s="4">
         <v>971</v>
       </c>
@@ -3526,7 +3756,7 @@
     <row r="43" spans="1:25">
       <c r="A43">
         <f>SUM(G43:BR43)</f>
-        <v>17583</v>
+        <v>58341</v>
       </c>
       <c r="C43" s="4"/>
       <c r="E43" s="4"/>
@@ -3536,57 +3766,210 @@
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2">
-        <f t="shared" ref="I43" si="1">SUM(I3:I42)</f>
-        <v>0</v>
+        <f>SUM(I3:I42)</f>
+        <v>17988</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2">
-        <f t="shared" ref="K43" si="2">SUM(K3:K42)</f>
-        <v>0</v>
+        <f t="shared" ref="K43" si="1">SUM(K3:K42)</f>
+        <v>22770</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2">
-        <f t="shared" ref="M43" si="3">SUM(M3:M42)</f>
+        <f t="shared" ref="M43" si="2">SUM(M3:M42)</f>
         <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2">
-        <f t="shared" ref="O43" si="4">SUM(O3:O42)</f>
+        <f t="shared" ref="O43" si="3">SUM(O3:O42)</f>
         <v>0</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2">
-        <f t="shared" ref="Q43" si="5">SUM(Q3:Q42)</f>
+        <f t="shared" ref="Q43" si="4">SUM(Q3:Q42)</f>
         <v>0</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2">
-        <f t="shared" ref="S43" si="6">SUM(S3:S42)</f>
+        <f t="shared" ref="S43" si="5">SUM(S3:S42)</f>
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" ref="D43:Y43" si="7">SUM(T3:T42)</f>
+        <f t="shared" ref="T43:Y43" si="6">SUM(T3:T42)</f>
         <v>0</v>
       </c>
       <c r="U43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="K47">
+        <v>95.49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="K48">
+        <v>276.82</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11">
+      <c r="K49">
+        <v>214.94</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11">
+      <c r="K50">
+        <v>244.6</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11">
+      <c r="K51">
+        <v>241.07</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11">
+      <c r="K52">
+        <v>135.96</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11">
+      <c r="K53">
+        <v>124.56</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54">
+        <v>268.27</v>
+      </c>
+    </row>
+    <row r="55" spans="11:11">
+      <c r="K55">
+        <v>138.12</v>
+      </c>
+    </row>
+    <row r="56" spans="11:11">
+      <c r="K56">
+        <v>213.17</v>
+      </c>
+    </row>
+    <row r="57" spans="11:11">
+      <c r="K57">
+        <v>103.93</v>
+      </c>
+    </row>
+    <row r="58" spans="11:11">
+      <c r="K58">
+        <v>141.26</v>
+      </c>
+    </row>
+    <row r="59" spans="11:11">
+      <c r="K59">
+        <v>204.72</v>
+      </c>
+    </row>
+    <row r="60" spans="11:11">
+      <c r="K60">
+        <v>249.32</v>
+      </c>
+    </row>
+    <row r="61" spans="11:11">
+      <c r="K61">
+        <v>130.26</v>
+      </c>
+    </row>
+    <row r="62" spans="11:11">
+      <c r="K62">
+        <v>191.16</v>
+      </c>
+    </row>
+    <row r="63" spans="11:11">
+      <c r="K63">
+        <v>70.34</v>
+      </c>
+    </row>
+    <row r="64" spans="11:11">
+      <c r="K64">
+        <v>168.57</v>
+      </c>
+    </row>
+    <row r="65" spans="10:12">
+      <c r="K65">
+        <v>160.71</v>
+      </c>
+    </row>
+    <row r="66" spans="10:12">
+      <c r="K66">
+        <v>135.96</v>
+      </c>
+    </row>
+    <row r="67" spans="10:12">
+      <c r="K67">
+        <v>241.46</v>
+      </c>
+    </row>
+    <row r="68" spans="10:12">
+      <c r="K68">
+        <v>146.37</v>
+      </c>
+    </row>
+    <row r="69" spans="10:12">
+      <c r="K69">
+        <v>109.63</v>
+      </c>
+    </row>
+    <row r="70" spans="10:12">
+      <c r="K70">
+        <v>148.13999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="10:12">
+      <c r="K71">
+        <v>135.96</v>
+      </c>
+    </row>
+    <row r="72" spans="10:12">
+      <c r="K72">
+        <v>130.46</v>
+      </c>
+    </row>
+    <row r="73" spans="10:12">
+      <c r="K73">
+        <v>51.87</v>
+      </c>
+    </row>
+    <row r="74" spans="10:12">
+      <c r="K74" s="14">
+        <v>332.81</v>
+      </c>
+    </row>
+    <row r="75" spans="10:12">
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75">
+        <f>SUM(K47:K73)</f>
+        <v>4473.12</v>
+      </c>
+      <c r="L75">
+        <f>K75*5.09</f>
+        <v>22768.180799999998</v>
       </c>
     </row>
   </sheetData>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3129,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="K73" sqref="K47:K73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3299,6 +3299,9 @@
       <c r="L3" s="2">
         <v>1278</v>
       </c>
+      <c r="N3" s="3">
+        <v>1774</v>
+      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="C4" s="4">
@@ -3325,6 +3328,9 @@
       <c r="L4" s="2">
         <v>421</v>
       </c>
+      <c r="N4" s="3">
+        <v>2656</v>
+      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="C5" s="4">
@@ -3348,8 +3354,11 @@
       <c r="K5">
         <v>745</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>776</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1159</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3374,7 +3383,7 @@
       <c r="K6">
         <v>558</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>631</v>
       </c>
     </row>
@@ -3400,7 +3409,7 @@
       <c r="K7">
         <v>754</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>565</v>
       </c>
     </row>
@@ -3420,7 +3429,7 @@
       <c r="K8">
         <v>692</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>669</v>
       </c>
     </row>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3086,30 +3086,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3118,6 +3094,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3130,7 +3130,7 @@
   <dimension ref="A1:Z75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3299,7 +3299,7 @@
       <c r="L3" s="2">
         <v>1278</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>1774</v>
       </c>
     </row>
@@ -3328,7 +3328,7 @@
       <c r="L4" s="2">
         <v>421</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>2656</v>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       <c r="L5" s="2">
         <v>776</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>1159</v>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       <c r="K9">
         <v>664</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>2339</v>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       <c r="K10">
         <v>264</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>2604</v>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       <c r="K11">
         <v>1085</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>2466</v>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       <c r="I12">
         <v>702</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>2384</v>
       </c>
       <c r="K12">
@@ -3983,18 +3983,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3086,6 +3086,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3094,30 +3118,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3130,7 +3130,7 @@
   <dimension ref="A1:Z75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3302,6 +3302,12 @@
       <c r="N3" s="2">
         <v>1774</v>
       </c>
+      <c r="O3">
+        <v>426</v>
+      </c>
+      <c r="P3" s="2">
+        <v>6956</v>
+      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="C4" s="4">
@@ -3331,6 +3337,9 @@
       <c r="N4" s="2">
         <v>2656</v>
       </c>
+      <c r="O4">
+        <v>1163</v>
+      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="C5" s="4">
@@ -3360,6 +3369,12 @@
       <c r="N5" s="2">
         <v>1159</v>
       </c>
+      <c r="O5">
+        <v>1750</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1114</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="C6" s="4">
@@ -3386,6 +3401,12 @@
       <c r="L6" s="2">
         <v>631</v>
       </c>
+      <c r="O6">
+        <v>383</v>
+      </c>
+      <c r="P6">
+        <v>1033</v>
+      </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
@@ -3412,6 +3433,9 @@
       <c r="L7" s="2">
         <v>565</v>
       </c>
+      <c r="O7">
+        <v>558</v>
+      </c>
     </row>
     <row r="8" spans="1:26">
       <c r="E8" s="4">
@@ -3590,7 +3614,7 @@
       </c>
       <c r="B18" s="13">
         <f>B17-A43</f>
-        <v>9242</v>
+        <v>4962</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -3605,7 +3629,7 @@
     <row r="19" spans="1:11">
       <c r="B19">
         <f>B18/5.24</f>
-        <v>1763.740458015267</v>
+        <v>946.94656488549617</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -3765,7 +3789,7 @@
     <row r="43" spans="1:25">
       <c r="A43">
         <f>SUM(G43:BR43)</f>
-        <v>58341</v>
+        <v>62621</v>
       </c>
       <c r="C43" s="4"/>
       <c r="E43" s="4"/>
@@ -3791,7 +3815,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2">
         <f t="shared" ref="O43" si="3">SUM(O3:O42)</f>
-        <v>0</v>
+        <v>4280</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2">
@@ -3983,18 +4007,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3086,30 +3086,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3118,6 +3094,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3130,7 +3130,7 @@
   <dimension ref="A1:Z75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3308,6 +3308,12 @@
       <c r="P3" s="2">
         <v>6956</v>
       </c>
+      <c r="Q3">
+        <v>1516</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1001</v>
+      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="C4" s="4">
@@ -3340,6 +3346,12 @@
       <c r="O4">
         <v>1163</v>
       </c>
+      <c r="Q4">
+        <v>3235.56</v>
+      </c>
+      <c r="R4">
+        <v>1281</v>
+      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="C5" s="4">
@@ -3375,6 +3387,12 @@
       <c r="P5" s="2">
         <v>1114</v>
       </c>
+      <c r="Q5">
+        <v>2899</v>
+      </c>
+      <c r="R5" s="2">
+        <v>477</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="C6" s="4">
@@ -3407,6 +3425,12 @@
       <c r="P6">
         <v>1033</v>
       </c>
+      <c r="Q6">
+        <v>1685</v>
+      </c>
+      <c r="R6">
+        <v>467</v>
+      </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
@@ -3436,6 +3460,9 @@
       <c r="O7">
         <v>558</v>
       </c>
+      <c r="Q7">
+        <v>547</v>
+      </c>
     </row>
     <row r="8" spans="1:26">
       <c r="E8" s="4">
@@ -3456,6 +3483,9 @@
       <c r="L8" s="2">
         <v>669</v>
       </c>
+      <c r="Q8">
+        <v>872</v>
+      </c>
     </row>
     <row r="9" spans="1:26">
       <c r="E9" s="4">
@@ -3476,6 +3506,9 @@
       <c r="L9" s="2">
         <v>2339</v>
       </c>
+      <c r="Q9">
+        <v>609</v>
+      </c>
     </row>
     <row r="10" spans="1:26">
       <c r="E10" s="4">
@@ -3496,6 +3529,9 @@
       <c r="L10" s="2">
         <v>2604</v>
       </c>
+      <c r="Q10">
+        <v>710</v>
+      </c>
     </row>
     <row r="11" spans="1:26">
       <c r="E11" s="4">
@@ -3516,6 +3552,9 @@
       <c r="L11" s="2">
         <v>2466</v>
       </c>
+      <c r="Q11">
+        <v>542</v>
+      </c>
     </row>
     <row r="12" spans="1:26">
       <c r="E12" s="4">
@@ -3536,6 +3575,9 @@
       <c r="L12">
         <v>1694</v>
       </c>
+      <c r="Q12">
+        <v>2160</v>
+      </c>
     </row>
     <row r="13" spans="1:26">
       <c r="E13" s="4">
@@ -3550,6 +3592,9 @@
       <c r="K13">
         <v>719</v>
       </c>
+      <c r="Q13">
+        <v>759</v>
+      </c>
     </row>
     <row r="14" spans="1:26">
       <c r="E14" s="4">
@@ -3564,6 +3609,9 @@
       <c r="K14">
         <v>1042</v>
       </c>
+      <c r="Q14">
+        <v>668</v>
+      </c>
     </row>
     <row r="15" spans="1:26">
       <c r="E15" s="4">
@@ -3578,6 +3626,9 @@
       <c r="K15">
         <v>1269</v>
       </c>
+      <c r="Q15">
+        <v>489</v>
+      </c>
     </row>
     <row r="16" spans="1:26">
       <c r="E16" s="4">
@@ -3589,8 +3640,11 @@
       <c r="K16">
         <v>663</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="Q16">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3607,14 +3661,17 @@
       <c r="K17">
         <v>973</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="Q17">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="13">
         <f>B17-A43</f>
-        <v>4962</v>
+        <v>-13020.559999999998</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -3626,10 +3683,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:17">
       <c r="B19">
         <f>B18/5.24</f>
-        <v>946.94656488549617</v>
+        <v>-2484.8396946564881</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -3641,7 +3698,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:17">
       <c r="E20" s="4">
         <v>729.79</v>
       </c>
@@ -3652,7 +3709,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:17">
       <c r="E21" s="4">
         <v>853</v>
       </c>
@@ -3663,7 +3720,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:17">
       <c r="E22" s="4">
         <v>957</v>
       </c>
@@ -3674,7 +3731,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:17">
       <c r="E23" s="4">
         <v>388</v>
       </c>
@@ -3685,7 +3742,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:17">
       <c r="E24" s="4">
         <v>1076</v>
       </c>
@@ -3696,7 +3753,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:17">
       <c r="E25" s="4">
         <v>1255</v>
       </c>
@@ -3704,7 +3761,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:17">
       <c r="E26" s="4">
         <v>755</v>
       </c>
@@ -3712,7 +3769,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:17">
       <c r="E27" s="4">
         <v>618</v>
       </c>
@@ -3720,7 +3777,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:17">
       <c r="E28" s="4">
         <v>1223</v>
       </c>
@@ -3728,7 +3785,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:17">
       <c r="E29" s="4">
         <v>1556</v>
       </c>
@@ -3736,17 +3793,17 @@
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:17">
       <c r="E30" s="4">
         <v>992</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:17">
       <c r="E31" s="4">
         <v>1138</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:17">
       <c r="E32" s="4">
         <v>971</v>
       </c>
@@ -3789,7 +3846,7 @@
     <row r="43" spans="1:25">
       <c r="A43">
         <f>SUM(G43:BR43)</f>
-        <v>62621</v>
+        <v>80603.56</v>
       </c>
       <c r="C43" s="4"/>
       <c r="E43" s="4"/>
@@ -3820,7 +3877,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2">
         <f t="shared" ref="Q43" si="4">SUM(Q3:Q42)</f>
-        <v>0</v>
+        <v>17982.559999999998</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2">
@@ -4007,18 +4064,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3086,6 +3086,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3094,30 +3118,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3130,7 +3130,7 @@
   <dimension ref="A1:Z75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3314,6 +3314,9 @@
       <c r="R3" s="2">
         <v>1001</v>
       </c>
+      <c r="S3">
+        <v>1485</v>
+      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="C4" s="4">
@@ -3352,6 +3355,9 @@
       <c r="R4">
         <v>1281</v>
       </c>
+      <c r="S4">
+        <v>359</v>
+      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="C5" s="4">
@@ -3393,6 +3399,9 @@
       <c r="R5" s="2">
         <v>477</v>
       </c>
+      <c r="S5">
+        <v>2356</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="C6" s="4">
@@ -3431,6 +3440,9 @@
       <c r="R6">
         <v>467</v>
       </c>
+      <c r="S6">
+        <v>1333</v>
+      </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
@@ -3463,8 +3475,17 @@
       <c r="Q7">
         <v>547</v>
       </c>
+      <c r="S7">
+        <v>1115</v>
+      </c>
     </row>
     <row r="8" spans="1:26">
+      <c r="A8">
+        <v>11.9</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
       <c r="E8" s="4">
         <v>1037</v>
       </c>
@@ -3485,6 +3506,9 @@
       </c>
       <c r="Q8">
         <v>872</v>
+      </c>
+      <c r="S8">
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3509,6 +3533,9 @@
       <c r="Q9">
         <v>609</v>
       </c>
+      <c r="S9">
+        <v>1092</v>
+      </c>
     </row>
     <row r="10" spans="1:26">
       <c r="E10" s="4">
@@ -3532,6 +3559,9 @@
       <c r="Q10">
         <v>710</v>
       </c>
+      <c r="S10">
+        <v>2296</v>
+      </c>
     </row>
     <row r="11" spans="1:26">
       <c r="E11" s="4">
@@ -3555,6 +3585,9 @@
       <c r="Q11">
         <v>542</v>
       </c>
+      <c r="S11">
+        <v>1053</v>
+      </c>
     </row>
     <row r="12" spans="1:26">
       <c r="E12" s="4">
@@ -3578,6 +3611,9 @@
       <c r="Q12">
         <v>2160</v>
       </c>
+      <c r="S12">
+        <v>1304</v>
+      </c>
     </row>
     <row r="13" spans="1:26">
       <c r="E13" s="4">
@@ -3595,6 +3631,9 @@
       <c r="Q13">
         <v>759</v>
       </c>
+      <c r="S13">
+        <v>1616</v>
+      </c>
     </row>
     <row r="14" spans="1:26">
       <c r="E14" s="4">
@@ -3612,6 +3651,9 @@
       <c r="Q14">
         <v>668</v>
       </c>
+      <c r="S14">
+        <v>1075</v>
+      </c>
     </row>
     <row r="15" spans="1:26">
       <c r="E15" s="4">
@@ -3629,6 +3671,9 @@
       <c r="Q15">
         <v>489</v>
       </c>
+      <c r="S15">
+        <v>1345</v>
+      </c>
     </row>
     <row r="16" spans="1:26">
       <c r="E16" s="4">
@@ -3643,14 +3688,17 @@
       <c r="Q16">
         <v>958</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>67583</v>
+        <v>117583</v>
       </c>
       <c r="E17" s="4">
         <v>983</v>
@@ -3664,14 +3712,17 @@
       <c r="Q17">
         <v>333</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="13">
         <f>B17-A43</f>
-        <v>-13020.559999999998</v>
+        <v>3241.4400000000023</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -3682,11 +3733,14 @@
       <c r="K18">
         <v>358</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="B19">
         <f>B18/5.24</f>
-        <v>-2484.8396946564881</v>
+        <v>618.59541984732869</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -3697,8 +3751,11 @@
       <c r="K19">
         <v>858</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="E20" s="4">
         <v>729.79</v>
       </c>
@@ -3708,8 +3765,11 @@
       <c r="K20">
         <v>818</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="E21" s="4">
         <v>853</v>
       </c>
@@ -3719,8 +3779,11 @@
       <c r="K21">
         <v>486</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="E22" s="4">
         <v>957</v>
       </c>
@@ -3730,8 +3793,11 @@
       <c r="K22">
         <v>1409</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="E23" s="4">
         <v>388</v>
       </c>
@@ -3741,8 +3807,11 @@
       <c r="K23">
         <v>1094</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="E24" s="4">
         <v>1076</v>
       </c>
@@ -3752,40 +3821,55 @@
       <c r="K24">
         <v>1245</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="E25" s="4">
         <v>1255</v>
       </c>
       <c r="K25">
         <v>1227</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="S25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="E26" s="4">
         <v>755</v>
       </c>
       <c r="K26">
         <v>692</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="S26">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="E27" s="4">
         <v>618</v>
       </c>
       <c r="K27">
         <v>634</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="S27">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="E28" s="4">
         <v>1223</v>
       </c>
       <c r="K28">
         <v>1368</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="S28">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="E29" s="4">
         <v>1556</v>
       </c>
@@ -3793,17 +3877,17 @@
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:19">
       <c r="E30" s="4">
         <v>992</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:19">
       <c r="E31" s="4">
         <v>1138</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:19">
       <c r="E32" s="4">
         <v>971</v>
       </c>
@@ -3846,7 +3930,7 @@
     <row r="43" spans="1:25">
       <c r="A43">
         <f>SUM(G43:BR43)</f>
-        <v>80603.56</v>
+        <v>114341.56</v>
       </c>
       <c r="C43" s="4"/>
       <c r="E43" s="4"/>
@@ -3882,7 +3966,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2">
         <f t="shared" ref="S43" si="5">SUM(S3:S42)</f>
-        <v>0</v>
+        <v>33738</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43:Y43" si="6">SUM(T3:T42)</f>
@@ -4064,18 +4148,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="17">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>合计打款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +173,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,9 +247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -579,34 +566,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="14">
         <v>43003</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15">
+      <c r="C1" s="15"/>
+      <c r="D1" s="14">
         <v>43004</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15">
+      <c r="E1" s="15"/>
+      <c r="F1" s="14">
         <v>43005</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15">
+      <c r="G1" s="15"/>
+      <c r="H1" s="14">
         <v>43006</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15">
+      <c r="I1" s="15"/>
+      <c r="J1" s="14">
         <v>43007</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="15">
+      <c r="K1" s="15"/>
+      <c r="L1" s="14">
         <v>43008</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -949,134 +936,134 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="14">
         <v>43009</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15">
+      <c r="C1" s="15"/>
+      <c r="D1" s="14">
         <v>43010</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15">
+      <c r="E1" s="15"/>
+      <c r="F1" s="14">
         <v>43011</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15">
+      <c r="G1" s="15"/>
+      <c r="H1" s="14">
         <v>43012</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15">
+      <c r="I1" s="15"/>
+      <c r="J1" s="14">
         <v>43013</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="15">
+      <c r="K1" s="15"/>
+      <c r="L1" s="14">
         <v>43014</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="15">
+      <c r="M1" s="15"/>
+      <c r="N1" s="14">
         <v>43015</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="15">
+      <c r="O1" s="15"/>
+      <c r="P1" s="14">
         <v>43016</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="15">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="14">
         <v>43017</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="15">
+      <c r="S1" s="15"/>
+      <c r="T1" s="14">
         <v>43018</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="15">
+      <c r="U1" s="15"/>
+      <c r="V1" s="14">
         <v>43019</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="15">
+      <c r="W1" s="15"/>
+      <c r="X1" s="14">
         <v>43020</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="15">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="14">
         <v>43021</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="15">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="14">
         <v>43022</v>
       </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="15">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="14">
         <v>43023</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="15">
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="14">
         <v>43024</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="15">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="14">
         <v>43025</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="15">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="14">
         <v>43026</v>
       </c>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="15">
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="14">
         <v>43027</v>
       </c>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="15">
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="14">
         <v>43028</v>
       </c>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="15">
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="14">
         <v>43029</v>
       </c>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="15">
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="14">
         <v>43030</v>
       </c>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="15">
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="14">
         <v>43031</v>
       </c>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="15">
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="14">
         <v>43032</v>
       </c>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="15">
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="14">
         <v>43033</v>
       </c>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="15">
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="14">
         <v>43034</v>
       </c>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="15">
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="14">
         <v>43035</v>
       </c>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="15">
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="14">
         <v>43036</v>
       </c>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="15">
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="14">
         <v>43037</v>
       </c>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="15">
+      <c r="BG1" s="15"/>
+      <c r="BH1" s="14">
         <v>43038</v>
       </c>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="15">
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="14">
         <v>43039</v>
       </c>
-      <c r="BK1" s="16"/>
-      <c r="BL1" s="15" t="s">
+      <c r="BK1" s="15"/>
+      <c r="BL1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="BM1" s="16"/>
+      <c r="BM1" s="15"/>
     </row>
     <row r="2" spans="1:65">
       <c r="B2" t="s">
@@ -3086,30 +3073,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3118,6 +3081,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3127,71 +3114,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="14">
         <v>43040</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="15">
+      <c r="D1" s="15"/>
+      <c r="E1" s="14">
         <v>43041</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15">
+      <c r="F1" s="15"/>
+      <c r="G1" s="14">
         <v>43042</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15">
+      <c r="H1" s="15"/>
+      <c r="I1" s="14">
         <v>43043</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="15">
+      <c r="J1" s="15"/>
+      <c r="K1" s="14">
         <v>43044</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="15">
+      <c r="L1" s="15"/>
+      <c r="M1" s="14">
         <v>43045</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="15">
+      <c r="N1" s="15"/>
+      <c r="O1" s="14">
         <v>43046</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="15">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="14">
         <v>43047</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="15">
+      <c r="R1" s="15"/>
+      <c r="S1" s="14">
         <v>43048</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="15">
+      <c r="T1" s="15"/>
+      <c r="U1" s="14">
         <v>43049</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="15">
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="14">
         <v>43050</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="15">
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="14">
         <v>43051</v>
       </c>
-      <c r="Z1" s="16"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AB1" s="15"/>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>11.3</v>
       </c>
@@ -3255,23 +3247,23 @@
       <c r="U2" t="s">
         <v>12</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>13</v>
       </c>
-      <c r="W2" t="s">
-        <v>12</v>
-      </c>
       <c r="X2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" t="s">
         <v>12</v>
       </c>
       <c r="Z2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="C3" s="4">
         <v>575</v>
       </c>
@@ -3315,10 +3307,27 @@
         <v>1001</v>
       </c>
       <c r="S3">
+        <v>2588</v>
+      </c>
+      <c r="U3">
         <v>1485</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="V3">
+        <f t="shared" ref="V3:V28" si="0">U3/5.85*5.39</f>
+        <v>1368.2307692307693</v>
+      </c>
+      <c r="X3">
+        <v>3439</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y22" si="1">X3/5.85*5.39</f>
+        <v>3168.5829059829061</v>
+      </c>
+      <c r="Z3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="C4" s="4">
         <v>597</v>
       </c>
@@ -3355,11 +3364,25 @@
       <c r="R4">
         <v>1281</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>359</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>330.77094017094015</v>
+      </c>
+      <c r="X4">
+        <v>1366</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>1258.5880341880343</v>
+      </c>
+      <c r="Z4">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="C5" s="4">
         <v>428</v>
       </c>
@@ -3399,11 +3422,25 @@
       <c r="R5" s="2">
         <v>477</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>2356</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>2170.7418803418805</v>
+      </c>
+      <c r="X5">
+        <v>1041</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>959.1435897435897</v>
+      </c>
+      <c r="Z5">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="C6" s="4">
         <v>3600</v>
       </c>
@@ -3440,11 +3477,25 @@
       <c r="R6">
         <v>467</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>1333</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>1228.1829059829058</v>
+      </c>
+      <c r="X6">
+        <v>1651</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>1521.1777777777777</v>
+      </c>
+      <c r="Z6">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>11.5</v>
       </c>
@@ -3475,11 +3526,25 @@
       <c r="Q7">
         <v>547</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>1115</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>1027.3247863247864</v>
+      </c>
+      <c r="X7">
+        <v>588</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>541.76410256410259</v>
+      </c>
+      <c r="Z7">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>11.9</v>
       </c>
@@ -3507,11 +3572,22 @@
       <c r="Q8">
         <v>872</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>313</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>288.38803418803417</v>
+      </c>
+      <c r="X8">
+        <v>576</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>530.70769230769235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="E9" s="4">
         <v>1226</v>
       </c>
@@ -3533,11 +3609,22 @@
       <c r="Q9">
         <v>609</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>1092</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>1006.1333333333333</v>
+      </c>
+      <c r="X9">
+        <v>466</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>429.35726495726493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="E10" s="4">
         <v>564</v>
       </c>
@@ -3559,11 +3646,22 @@
       <c r="Q10">
         <v>710</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>2296</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>2115.4598290598292</v>
+      </c>
+      <c r="X10">
+        <v>524</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>482.7965811965812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="E11" s="4">
         <v>759</v>
       </c>
@@ -3585,11 +3683,22 @@
       <c r="Q11">
         <v>542</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>1053</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>970.19999999999993</v>
+      </c>
+      <c r="X11">
+        <v>1485</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>1368.2307692307693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="E12" s="4">
         <v>866</v>
       </c>
@@ -3611,11 +3720,22 @@
       <c r="Q12">
         <v>2160</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>1304</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>1201.4632478632477</v>
+      </c>
+      <c r="X12">
+        <v>783</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>721.43076923076933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="E13" s="4">
         <v>671</v>
       </c>
@@ -3631,11 +3751,22 @@
       <c r="Q13">
         <v>759</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>1616</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>1488.9299145299146</v>
+      </c>
+      <c r="X13">
+        <v>1775</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>1635.4273504273506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="E14" s="4">
         <v>409</v>
       </c>
@@ -3651,11 +3782,22 @@
       <c r="Q14">
         <v>668</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>1075</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>990.47008547008545</v>
+      </c>
+      <c r="X14">
+        <v>937</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>863.32136752136751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="E15" s="4">
         <v>685</v>
       </c>
@@ -3671,11 +3813,22 @@
       <c r="Q15">
         <v>489</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>1345</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>1239.2393162393164</v>
+      </c>
+      <c r="X15">
+        <v>1108</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>1020.8752136752137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="E16" s="4">
         <v>861</v>
       </c>
@@ -3688,11 +3841,22 @@
       <c r="Q16">
         <v>958</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>2168</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>1997.5247863247864</v>
+      </c>
+      <c r="X16">
+        <v>1466</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>1350.7247863247862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3712,17 +3876,28 @@
       <c r="Q17">
         <v>333</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>2163</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>1992.9179487179488</v>
+      </c>
+      <c r="X17">
+        <v>1130</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>1041.1452991452993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="13">
         <f>B17-A43</f>
-        <v>3241.4400000000023</v>
+        <v>-17028.238632478635</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -3733,14 +3908,25 @@
       <c r="K18">
         <v>358</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>1336</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>1230.9470085470086</v>
+      </c>
+      <c r="X18">
+        <v>737</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>679.04786324786323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="B19">
-        <f>B18/5.24</f>
-        <v>618.59541984732869</v>
+        <f>B18/5.85</f>
+        <v>-2910.8100226459205</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -3751,11 +3937,22 @@
       <c r="K19">
         <v>858</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>1160</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>1068.7863247863247</v>
+      </c>
+      <c r="X19">
+        <v>852</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>785.00512820512824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="E20" s="4">
         <v>729.79</v>
       </c>
@@ -3765,11 +3962,22 @@
       <c r="K20">
         <v>818</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>1461</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>1346.1179487179486</v>
+      </c>
+      <c r="X20">
+        <v>850</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>783.16239316239307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="E21" s="4">
         <v>853</v>
       </c>
@@ -3779,11 +3987,22 @@
       <c r="K21">
         <v>486</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>1694</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>1560.7965811965812</v>
+      </c>
+      <c r="X21">
+        <v>615</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="1"/>
+        <v>566.64102564102564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="E22" s="4">
         <v>957</v>
       </c>
@@ -3793,11 +4012,22 @@
       <c r="K22">
         <v>1409</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>989</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>911.23247863247866</v>
+      </c>
+      <c r="X22">
+        <v>681</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="1"/>
+        <v>627.45128205128208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="E23" s="4">
         <v>388</v>
       </c>
@@ -3807,11 +4037,15 @@
       <c r="K23">
         <v>1094</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>1386</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>1277.0153846153846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="E24" s="4">
         <v>1076</v>
       </c>
@@ -3821,55 +4055,75 @@
       <c r="K24">
         <v>1245</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>1019</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>938.8735042735043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="E25" s="4">
         <v>1255</v>
       </c>
       <c r="K25">
         <v>1227</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>1026</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>945.32307692307688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="E26" s="4">
         <v>755</v>
       </c>
       <c r="K26">
         <v>692</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>1466</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>1350.7247863247862</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="E27" s="4">
         <v>618</v>
       </c>
       <c r="K27">
         <v>634</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>402</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>370.38974358974355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="E28" s="4">
         <v>1223</v>
       </c>
       <c r="K28">
         <v>1368</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>726</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>668.91282051282053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="E29" s="4">
         <v>1556</v>
       </c>
@@ -3877,65 +4131,65 @@
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:25">
       <c r="E30" s="4">
         <v>992</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:25">
       <c r="E31" s="4">
         <v>1138</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:25">
       <c r="E32" s="4">
         <v>971</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:27">
       <c r="E33" s="4">
         <v>425</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:27">
       <c r="E34" s="4">
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:27">
       <c r="E35" s="4">
         <v>1028</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:27">
       <c r="E36" s="4">
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:27">
       <c r="E37" s="4">
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:27">
       <c r="E38" s="4">
         <v>941</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:27">
       <c r="E39" s="4">
         <v>722</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:27">
       <c r="A43">
-        <f>SUM(G43:BR43)</f>
-        <v>114341.56</v>
+        <f>SUM(G43:BT43)</f>
+        <v>134611.23863247863</v>
       </c>
       <c r="C43" s="4"/>
       <c r="E43" s="4"/>
       <c r="G43" s="2">
-        <f t="shared" ref="G43" si="0">SUM(G3:G42)</f>
+        <f t="shared" ref="G43" si="2">SUM(G3:G42)</f>
         <v>17583</v>
       </c>
       <c r="H43" s="2"/>
@@ -3945,221 +4199,64 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2">
-        <f t="shared" ref="K43" si="1">SUM(K3:K42)</f>
+        <f t="shared" ref="K43" si="3">SUM(K3:K42)</f>
         <v>22770</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2">
-        <f t="shared" ref="M43" si="2">SUM(M3:M42)</f>
+        <f t="shared" ref="M43" si="4">SUM(M3:M42)</f>
         <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2">
-        <f t="shared" ref="O43" si="3">SUM(O3:O42)</f>
+        <f t="shared" ref="O43" si="5">SUM(O3:O42)</f>
         <v>4280</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2">
-        <f t="shared" ref="Q43" si="4">SUM(Q3:Q42)</f>
+        <f t="shared" ref="Q43" si="6">SUM(Q3:Q42)</f>
         <v>17982.559999999998</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2">
-        <f t="shared" ref="S43" si="5">SUM(S3:S42)</f>
-        <v>33738</v>
+        <f t="shared" ref="S43" si="7">SUM(S3:S42)</f>
+        <v>2588</v>
       </c>
       <c r="T43">
-        <f t="shared" ref="T43:Y43" si="6">SUM(T3:T42)</f>
+        <f t="shared" ref="T43:AA43" si="8">SUM(T3:T42)</f>
         <v>0</v>
       </c>
-      <c r="U43">
-        <f t="shared" si="6"/>
+      <c r="V43">
+        <f>SUM(V3:V42)</f>
+        <v>31085.097435897442</v>
+      </c>
+      <c r="W43">
+        <f>SUM(W3:W42)</f>
         <v>0</v>
       </c>
-      <c r="V43">
-        <f t="shared" si="6"/>
+      <c r="Y43">
+        <f>SUM(Y3:Y42)</f>
+        <v>20334.581196581203</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="8"/>
         <v>0</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
-      <c r="K47">
-        <v>95.49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25">
-      <c r="K48">
-        <v>276.82</v>
-      </c>
-    </row>
-    <row r="49" spans="11:11">
-      <c r="K49">
-        <v>214.94</v>
-      </c>
-    </row>
-    <row r="50" spans="11:11">
-      <c r="K50">
-        <v>244.6</v>
-      </c>
-    </row>
-    <row r="51" spans="11:11">
-      <c r="K51">
-        <v>241.07</v>
-      </c>
-    </row>
-    <row r="52" spans="11:11">
-      <c r="K52">
-        <v>135.96</v>
-      </c>
-    </row>
-    <row r="53" spans="11:11">
-      <c r="K53">
-        <v>124.56</v>
-      </c>
-    </row>
-    <row r="54" spans="11:11">
-      <c r="K54">
-        <v>268.27</v>
-      </c>
-    </row>
-    <row r="55" spans="11:11">
-      <c r="K55">
-        <v>138.12</v>
-      </c>
-    </row>
-    <row r="56" spans="11:11">
-      <c r="K56">
-        <v>213.17</v>
-      </c>
-    </row>
-    <row r="57" spans="11:11">
-      <c r="K57">
-        <v>103.93</v>
-      </c>
-    </row>
-    <row r="58" spans="11:11">
-      <c r="K58">
-        <v>141.26</v>
-      </c>
-    </row>
-    <row r="59" spans="11:11">
-      <c r="K59">
-        <v>204.72</v>
-      </c>
-    </row>
-    <row r="60" spans="11:11">
-      <c r="K60">
-        <v>249.32</v>
-      </c>
-    </row>
-    <row r="61" spans="11:11">
-      <c r="K61">
-        <v>130.26</v>
-      </c>
-    </row>
-    <row r="62" spans="11:11">
-      <c r="K62">
-        <v>191.16</v>
-      </c>
-    </row>
-    <row r="63" spans="11:11">
-      <c r="K63">
-        <v>70.34</v>
-      </c>
-    </row>
-    <row r="64" spans="11:11">
-      <c r="K64">
-        <v>168.57</v>
-      </c>
-    </row>
-    <row r="65" spans="10:12">
-      <c r="K65">
-        <v>160.71</v>
-      </c>
-    </row>
-    <row r="66" spans="10:12">
-      <c r="K66">
-        <v>135.96</v>
-      </c>
-    </row>
-    <row r="67" spans="10:12">
-      <c r="K67">
-        <v>241.46</v>
-      </c>
-    </row>
-    <row r="68" spans="10:12">
-      <c r="K68">
-        <v>146.37</v>
-      </c>
-    </row>
-    <row r="69" spans="10:12">
-      <c r="K69">
-        <v>109.63</v>
-      </c>
-    </row>
-    <row r="70" spans="10:12">
-      <c r="K70">
-        <v>148.13999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="10:12">
-      <c r="K71">
-        <v>135.96</v>
-      </c>
-    </row>
-    <row r="72" spans="10:12">
-      <c r="K72">
-        <v>130.46</v>
-      </c>
-    </row>
-    <row r="73" spans="10:12">
-      <c r="K73">
-        <v>51.87</v>
-      </c>
-    </row>
-    <row r="74" spans="10:12">
-      <c r="K74" s="14">
-        <v>332.81</v>
-      </c>
-    </row>
-    <row r="75" spans="10:12">
-      <c r="J75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75">
-        <f>SUM(K47:K73)</f>
-        <v>4473.12</v>
-      </c>
-      <c r="L75">
-        <f>K75*5.09</f>
-        <v>22768.180799999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3073,6 +3073,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3081,30 +3105,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3116,8 +3116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3378,7 +3378,7 @@
         <f t="shared" si="1"/>
         <v>1258.5880341880343</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="3">
         <v>827</v>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
         <f t="shared" si="1"/>
         <v>959.1435897435897</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="3">
         <v>1189</v>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
         <f t="shared" si="1"/>
         <v>1521.1777777777777</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="3">
         <v>947</v>
       </c>
     </row>
@@ -4245,18 +4245,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3073,30 +3073,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3105,6 +3081,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3114,10 +3114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3125,7 +3125,7 @@
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3181,9 +3181,10 @@
       <c r="AA1" s="14">
         <v>43051</v>
       </c>
-      <c r="AB1" s="15"/>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="15"/>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>11.3</v>
       </c>
@@ -3259,11 +3260,11 @@
       <c r="AA2" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="C3" s="4">
         <v>575</v>
       </c>
@@ -3326,8 +3327,18 @@
       <c r="Z3">
         <v>708</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AA3">
+        <v>1350</v>
+      </c>
+      <c r="AB3">
+        <f>AA3/5.85*5.73</f>
+        <v>1322.3076923076924</v>
+      </c>
+      <c r="AC3">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="C4" s="4">
         <v>597</v>
       </c>
@@ -3378,11 +3389,18 @@
         <f t="shared" si="1"/>
         <v>1258.5880341880343</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="2">
         <v>827</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AA4">
+        <v>2173</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB26" si="2">AA4/5.85*5.73</f>
+        <v>2128.4256410256412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="C5" s="4">
         <v>428</v>
       </c>
@@ -3436,11 +3454,18 @@
         <f t="shared" si="1"/>
         <v>959.1435897435897</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="2">
         <v>1189</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AA5">
+        <v>1876</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="2"/>
+        <v>1837.5179487179489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="C6" s="4">
         <v>3600</v>
       </c>
@@ -3491,11 +3516,18 @@
         <f t="shared" si="1"/>
         <v>1521.1777777777777</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="2">
         <v>947</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AA6">
+        <v>2123</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="2"/>
+        <v>2079.4512820512823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>11.5</v>
       </c>
@@ -3543,8 +3575,15 @@
       <c r="Z7">
         <v>2010</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AA7">
+        <v>946</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="2"/>
+        <v>926.59487179487201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>11.9</v>
       </c>
@@ -3586,8 +3625,21 @@
         <f t="shared" si="1"/>
         <v>530.70769230769235</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AA8">
+        <v>710</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>695.43589743589757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9">
+        <v>11.12</v>
+      </c>
+      <c r="B9">
+        <v>30000</v>
+      </c>
       <c r="E9" s="4">
         <v>1226</v>
       </c>
@@ -3623,8 +3675,15 @@
         <f t="shared" si="1"/>
         <v>429.35726495726493</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AA9">
+        <v>709</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>694.45641025641032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="E10" s="4">
         <v>564</v>
       </c>
@@ -3660,8 +3719,15 @@
         <f t="shared" si="1"/>
         <v>482.7965811965812</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AA10">
+        <v>571</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>559.28717948717963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="E11" s="4">
         <v>759</v>
       </c>
@@ -3697,8 +3763,15 @@
         <f t="shared" si="1"/>
         <v>1368.2307692307693</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AA11">
+        <v>1487</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>1456.4974358974362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="E12" s="4">
         <v>866</v>
       </c>
@@ -3734,8 +3807,15 @@
         <f t="shared" si="1"/>
         <v>721.43076923076933</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AA12">
+        <v>877</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>859.0102564102566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="E13" s="4">
         <v>671</v>
       </c>
@@ -3765,8 +3845,15 @@
         <f t="shared" si="1"/>
         <v>1635.4273504273506</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AA13">
+        <v>506</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="2"/>
+        <v>495.62051282051289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="E14" s="4">
         <v>409</v>
       </c>
@@ -3796,8 +3883,15 @@
         <f t="shared" si="1"/>
         <v>863.32136752136751</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AA14">
+        <v>1188</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="2"/>
+        <v>1163.6307692307694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="E15" s="4">
         <v>685</v>
       </c>
@@ -3827,8 +3921,15 @@
         <f t="shared" si="1"/>
         <v>1020.8752136752137</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AA15">
+        <v>1150</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>1126.4102564102566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="E16" s="4">
         <v>861</v>
       </c>
@@ -3855,14 +3956,21 @@
         <f t="shared" si="1"/>
         <v>1350.7247863247862</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="AA16">
+        <v>750</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>734.61538461538464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>117583</v>
+        <v>147583</v>
       </c>
       <c r="E17" s="4">
         <v>983</v>
@@ -3890,14 +3998,21 @@
         <f t="shared" si="1"/>
         <v>1041.1452991452993</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="AA17">
+        <v>1286</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="2"/>
+        <v>1259.6205128205129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="13">
         <f>B17-A43</f>
-        <v>-17028.238632478635</v>
+        <v>-12563.469401709415</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -3922,11 +4037,18 @@
         <f t="shared" si="1"/>
         <v>679.04786324786323</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="AA18">
+        <v>1073</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="2"/>
+        <v>1050.9897435897437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="B19">
         <f>B18/5.85</f>
-        <v>-2910.8100226459205</v>
+        <v>-2147.6016071298145</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -3951,8 +4073,15 @@
         <f t="shared" si="1"/>
         <v>785.00512820512824</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="AA19">
+        <v>983</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="2"/>
+        <v>962.83589743589755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="E20" s="4">
         <v>729.79</v>
       </c>
@@ -3976,8 +4105,15 @@
         <f t="shared" si="1"/>
         <v>783.16239316239307</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="AA20">
+        <v>1443</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="2"/>
+        <v>1413.4000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="E21" s="4">
         <v>853</v>
       </c>
@@ -4001,8 +4137,15 @@
         <f t="shared" si="1"/>
         <v>566.64102564102564</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="AA21">
+        <v>1228</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="2"/>
+        <v>1202.8102564102567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="E22" s="4">
         <v>957</v>
       </c>
@@ -4026,8 +4169,15 @@
         <f t="shared" si="1"/>
         <v>627.45128205128208</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="AA22">
+        <v>1014</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="2"/>
+        <v>993.20000000000016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="E23" s="4">
         <v>388</v>
       </c>
@@ -4044,8 +4194,15 @@
         <f t="shared" si="0"/>
         <v>1277.0153846153846</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="AA23">
+        <v>587</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="2"/>
+        <v>574.9589743589745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="E24" s="4">
         <v>1076</v>
       </c>
@@ -4062,8 +4219,15 @@
         <f t="shared" si="0"/>
         <v>938.8735042735043</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="AA24">
+        <v>680</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="2"/>
+        <v>666.05128205128221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="E25" s="4">
         <v>1255</v>
       </c>
@@ -4077,8 +4241,15 @@
         <f t="shared" si="0"/>
         <v>945.32307692307688</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="AA25">
+        <v>657</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="2"/>
+        <v>643.52307692307704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="E26" s="4">
         <v>755</v>
       </c>
@@ -4092,8 +4263,15 @@
         <f t="shared" si="0"/>
         <v>1350.7247863247862</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="AA26">
+        <v>703</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="2"/>
+        <v>688.57948717948727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="E27" s="4">
         <v>618</v>
       </c>
@@ -4108,7 +4286,7 @@
         <v>370.38974358974355</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:28">
       <c r="E28" s="4">
         <v>1223</v>
       </c>
@@ -4123,7 +4301,7 @@
         <v>668.91282051282053</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:28">
       <c r="E29" s="4">
         <v>1556</v>
       </c>
@@ -4131,65 +4309,65 @@
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:28">
       <c r="E30" s="4">
         <v>992</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:28">
       <c r="E31" s="4">
         <v>1138</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:28">
       <c r="E32" s="4">
         <v>971</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:28">
       <c r="E33" s="4">
         <v>425</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:28">
       <c r="E34" s="4">
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:28">
       <c r="E35" s="4">
         <v>1028</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:28">
       <c r="E36" s="4">
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:28">
       <c r="E37" s="4">
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:28">
       <c r="E38" s="4">
         <v>941</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:28">
       <c r="E39" s="4">
         <v>722</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:28">
       <c r="A43">
-        <f>SUM(G43:BT43)</f>
-        <v>134611.23863247863</v>
+        <f>SUM(G43:BU43)</f>
+        <v>160146.46940170942</v>
       </c>
       <c r="C43" s="4"/>
       <c r="E43" s="4"/>
       <c r="G43" s="2">
-        <f t="shared" ref="G43" si="2">SUM(G3:G42)</f>
+        <f t="shared" ref="G43" si="3">SUM(G3:G42)</f>
         <v>17583</v>
       </c>
       <c r="H43" s="2"/>
@@ -4199,31 +4377,31 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2">
-        <f t="shared" ref="K43" si="3">SUM(K3:K42)</f>
+        <f t="shared" ref="K43" si="4">SUM(K3:K42)</f>
         <v>22770</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2">
-        <f t="shared" ref="M43" si="4">SUM(M3:M42)</f>
+        <f t="shared" ref="M43" si="5">SUM(M3:M42)</f>
         <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2">
-        <f t="shared" ref="O43" si="5">SUM(O3:O42)</f>
+        <f t="shared" ref="O43" si="6">SUM(O3:O42)</f>
         <v>4280</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2">
-        <f t="shared" ref="Q43" si="6">SUM(Q3:Q42)</f>
+        <f t="shared" ref="Q43" si="7">SUM(Q3:Q42)</f>
         <v>17982.559999999998</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2">
-        <f t="shared" ref="S43" si="7">SUM(S3:S42)</f>
+        <f t="shared" ref="S43" si="8">SUM(S3:S42)</f>
         <v>2588</v>
       </c>
       <c r="T43">
-        <f t="shared" ref="T43:AA43" si="8">SUM(T3:T42)</f>
+        <f t="shared" ref="T43:AA43" si="9">SUM(T3:T42)</f>
         <v>0</v>
       </c>
       <c r="V43">
@@ -4238,25 +4416,25 @@
         <f>SUM(Y3:Y42)</f>
         <v>20334.581196581203</v>
       </c>
-      <c r="AA43">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="AB43">
+        <f>SUM(AB3:AB42)</f>
+        <v>25535.23076923077</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="17">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3073,6 +3073,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3081,30 +3105,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3114,10 +3114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3125,7 +3125,7 @@
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3183,8 +3183,23 @@
       </c>
       <c r="AB1" s="14"/>
       <c r="AC1" s="15"/>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="14">
+        <v>43052</v>
+      </c>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="14">
+        <v>43053</v>
+      </c>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="14">
+        <v>43054</v>
+      </c>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="15"/>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2">
         <v>11.3</v>
       </c>
@@ -3263,8 +3278,26 @@
       <c r="AC2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="C3" s="4">
         <v>575</v>
       </c>
@@ -3335,10 +3368,17 @@
         <v>1322.3076923076924</v>
       </c>
       <c r="AC3">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>1027</v>
+      </c>
+      <c r="AD3">
+        <v>687</v>
+      </c>
+      <c r="AE3">
+        <f>AD3/5.85*5.65</f>
+        <v>663.51282051282055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="C4" s="4">
         <v>597</v>
       </c>
@@ -3399,8 +3439,15 @@
         <f t="shared" ref="AB4:AB26" si="2">AA4/5.85*5.73</f>
         <v>2128.4256410256412</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>842</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE32" si="3">AD4/5.85*5.65</f>
+        <v>813.21367521367529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="C5" s="4">
         <v>428</v>
       </c>
@@ -3464,8 +3511,15 @@
         <f t="shared" si="2"/>
         <v>1837.5179487179489</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>399</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="3"/>
+        <v>385.35897435897436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="C6" s="4">
         <v>3600</v>
       </c>
@@ -3526,8 +3580,15 @@
         <f t="shared" si="2"/>
         <v>2079.4512820512823</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>1322</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="3"/>
+        <v>1276.8034188034189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7">
         <v>11.5</v>
       </c>
@@ -3582,8 +3643,15 @@
         <f t="shared" si="2"/>
         <v>926.59487179487201</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>1083</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="3"/>
+        <v>1045.9743589743591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8">
         <v>11.9</v>
       </c>
@@ -3632,8 +3700,15 @@
         <f t="shared" si="2"/>
         <v>695.43589743589757</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>2588</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="3"/>
+        <v>2499.5213675213677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9">
         <v>11.12</v>
       </c>
@@ -3682,8 +3757,15 @@
         <f t="shared" si="2"/>
         <v>694.45641025641032</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>3101</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="3"/>
+        <v>2994.9829059829062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="E10" s="4">
         <v>564</v>
       </c>
@@ -3726,8 +3808,15 @@
         <f t="shared" si="2"/>
         <v>559.28717948717963</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>3049</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="3"/>
+        <v>2944.7606837606841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="E11" s="4">
         <v>759</v>
       </c>
@@ -3770,8 +3859,15 @@
         <f t="shared" si="2"/>
         <v>1456.4974358974362</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>306</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="3"/>
+        <v>295.5384615384616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
       <c r="E12" s="4">
         <v>866</v>
       </c>
@@ -3814,8 +3910,15 @@
         <f t="shared" si="2"/>
         <v>859.0102564102566</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>1512</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="3"/>
+        <v>1460.3076923076924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
       <c r="E13" s="4">
         <v>671</v>
       </c>
@@ -3852,8 +3955,15 @@
         <f t="shared" si="2"/>
         <v>495.62051282051289</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>1459</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="3"/>
+        <v>1409.1196581196582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
       <c r="E14" s="4">
         <v>409</v>
       </c>
@@ -3890,8 +4000,15 @@
         <f t="shared" si="2"/>
         <v>1163.6307692307694</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>1488</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="3"/>
+        <v>1437.1282051282053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="E15" s="4">
         <v>685</v>
       </c>
@@ -3928,8 +4045,15 @@
         <f t="shared" si="2"/>
         <v>1126.4102564102566</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>823</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="3"/>
+        <v>794.86324786324792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
       <c r="E16" s="4">
         <v>861</v>
       </c>
@@ -3963,8 +4087,15 @@
         <f t="shared" si="2"/>
         <v>734.61538461538464</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AD16">
+        <v>1502</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="3"/>
+        <v>1450.649572649573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4005,14 +4136,21 @@
         <f t="shared" si="2"/>
         <v>1259.6205128205129</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AD17">
+        <v>545</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="3"/>
+        <v>526.36752136752148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="13">
         <f>B17-A43</f>
-        <v>-12563.469401709415</v>
+        <v>-43647.161709401727</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -4044,11 +4182,18 @@
         <f t="shared" si="2"/>
         <v>1050.9897435897437</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AD18">
+        <v>1246</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="3"/>
+        <v>1203.4017094017095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="B19">
         <f>B18/5.85</f>
-        <v>-2147.6016071298145</v>
+        <v>-7461.0532836584152</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -4080,8 +4225,15 @@
         <f t="shared" si="2"/>
         <v>962.83589743589755</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AD19">
+        <v>906</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="3"/>
+        <v>875.02564102564122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="E20" s="4">
         <v>729.79</v>
       </c>
@@ -4112,8 +4264,15 @@
         <f t="shared" si="2"/>
         <v>1413.4000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AD20">
+        <v>1308</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="3"/>
+        <v>1263.2820512820513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="E21" s="4">
         <v>853</v>
       </c>
@@ -4144,8 +4303,15 @@
         <f t="shared" si="2"/>
         <v>1202.8102564102567</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AD21">
+        <v>819</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="3"/>
+        <v>791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="E22" s="4">
         <v>957</v>
       </c>
@@ -4176,8 +4342,15 @@
         <f t="shared" si="2"/>
         <v>993.20000000000016</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AD22">
+        <v>1029</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="3"/>
+        <v>993.82051282051293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="E23" s="4">
         <v>388</v>
       </c>
@@ -4201,8 +4374,15 @@
         <f t="shared" si="2"/>
         <v>574.9589743589745</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AD23">
+        <v>1349</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="3"/>
+        <v>1302.880341880342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="E24" s="4">
         <v>1076</v>
       </c>
@@ -4226,8 +4406,15 @@
         <f t="shared" si="2"/>
         <v>666.05128205128221</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AD24">
+        <v>1837</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="3"/>
+        <v>1774.1965811965815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="E25" s="4">
         <v>1255</v>
       </c>
@@ -4248,8 +4435,15 @@
         <f t="shared" si="2"/>
         <v>643.52307692307704</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AD25">
+        <v>294</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="3"/>
+        <v>283.94871794871801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="E26" s="4">
         <v>755</v>
       </c>
@@ -4270,8 +4464,15 @@
         <f t="shared" si="2"/>
         <v>688.57948717948727</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AD26">
+        <v>295</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="3"/>
+        <v>284.91452991452996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="E27" s="4">
         <v>618</v>
       </c>
@@ -4285,8 +4486,15 @@
         <f t="shared" si="0"/>
         <v>370.38974358974355</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AD27">
+        <v>872</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="3"/>
+        <v>842.18803418803429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="E28" s="4">
         <v>1223</v>
       </c>
@@ -4300,74 +4508,109 @@
         <f t="shared" si="0"/>
         <v>668.91282051282053</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AD28">
+        <v>119</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="3"/>
+        <v>114.93162393162395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="E29" s="4">
         <v>1556</v>
       </c>
       <c r="K29">
         <v>703</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AD29">
+        <v>194</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="3"/>
+        <v>187.36752136752139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="E30" s="4">
         <v>992</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AD30">
+        <v>265</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="3"/>
+        <v>255.94017094017096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="E31" s="4">
         <v>1138</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AD31">
+        <v>177</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="3"/>
+        <v>170.94871794871798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="E32" s="4">
         <v>971</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AD32">
+        <v>768</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="3"/>
+        <v>741.74358974358984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="E33" s="4">
         <v>425</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:31">
       <c r="E34" s="4">
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:31">
       <c r="E35" s="4">
         <v>1028</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:31">
       <c r="E36" s="4">
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:31">
       <c r="E37" s="4">
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:31">
       <c r="E38" s="4">
         <v>941</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:31">
       <c r="E39" s="4">
         <v>722</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:31">
       <c r="A43">
         <f>SUM(G43:BU43)</f>
-        <v>160146.46940170942</v>
+        <v>191230.16170940173</v>
       </c>
       <c r="C43" s="4"/>
       <c r="E43" s="4"/>
       <c r="G43" s="2">
-        <f t="shared" ref="G43" si="3">SUM(G3:G42)</f>
+        <f t="shared" ref="G43" si="4">SUM(G3:G42)</f>
         <v>17583</v>
       </c>
       <c r="H43" s="2"/>
@@ -4377,31 +4620,31 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2">
-        <f t="shared" ref="K43" si="4">SUM(K3:K42)</f>
+        <f t="shared" ref="K43" si="5">SUM(K3:K42)</f>
         <v>22770</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2">
-        <f t="shared" ref="M43" si="5">SUM(M3:M42)</f>
+        <f t="shared" ref="M43" si="6">SUM(M3:M42)</f>
         <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2">
-        <f t="shared" ref="O43" si="6">SUM(O3:O42)</f>
+        <f t="shared" ref="O43" si="7">SUM(O3:O42)</f>
         <v>4280</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2">
-        <f t="shared" ref="Q43" si="7">SUM(Q3:Q42)</f>
+        <f t="shared" ref="Q43" si="8">SUM(Q3:Q42)</f>
         <v>17982.559999999998</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2">
-        <f t="shared" ref="S43" si="8">SUM(S3:S42)</f>
+        <f t="shared" ref="S43" si="9">SUM(S3:S42)</f>
         <v>2588</v>
       </c>
       <c r="T43">
-        <f t="shared" ref="T43:AA43" si="9">SUM(T3:T42)</f>
+        <f t="shared" ref="T43" si="10">SUM(T3:T42)</f>
         <v>0</v>
       </c>
       <c r="V43">
@@ -4420,21 +4663,28 @@
         <f>SUM(AB3:AB42)</f>
         <v>25535.23076923077</v>
       </c>
+      <c r="AE43">
+        <f>SUM(AE3:AE42)</f>
+        <v>31083.692307692312</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="17">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3114,10 +3114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL43"/>
+  <dimension ref="A1:AR43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3125,7 +3125,7 @@
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3198,8 +3198,18 @@
       </c>
       <c r="AK1" s="14"/>
       <c r="AL1" s="15"/>
-    </row>
-    <row r="2" spans="1:38">
+      <c r="AM1" s="14">
+        <v>43055</v>
+      </c>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="14">
+        <v>43056</v>
+      </c>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="15"/>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2">
         <v>11.3</v>
       </c>
@@ -3296,8 +3306,20 @@
       <c r="AL2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:38">
+      <c r="AM2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
       <c r="C3" s="4">
         <v>575</v>
       </c>
@@ -3377,8 +3399,14 @@
         <f>AD3/5.85*5.65</f>
         <v>663.51282051282055</v>
       </c>
-    </row>
-    <row r="4" spans="1:38">
+      <c r="AJ3">
+        <v>918</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
       <c r="C4" s="4">
         <v>597</v>
       </c>
@@ -3446,8 +3474,14 @@
         <f t="shared" ref="AE4:AE32" si="3">AD4/5.85*5.65</f>
         <v>813.21367521367529</v>
       </c>
-    </row>
-    <row r="5" spans="1:38">
+      <c r="AJ4">
+        <v>666</v>
+      </c>
+      <c r="AO4">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
       <c r="C5" s="4">
         <v>428</v>
       </c>
@@ -3518,8 +3552,14 @@
         <f t="shared" si="3"/>
         <v>385.35897435897436</v>
       </c>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="AJ5">
+        <v>1341</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
       <c r="C6" s="4">
         <v>3600</v>
       </c>
@@ -3587,8 +3627,14 @@
         <f t="shared" si="3"/>
         <v>1276.8034188034189</v>
       </c>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="AJ6">
+        <v>608</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
       <c r="A7">
         <v>11.5</v>
       </c>
@@ -3650,8 +3696,11 @@
         <f t="shared" si="3"/>
         <v>1045.9743589743591</v>
       </c>
-    </row>
-    <row r="8" spans="1:38">
+      <c r="AJ7">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
       <c r="A8">
         <v>11.9</v>
       </c>
@@ -3708,7 +3757,7 @@
         <v>2499.5213675213677</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:44">
       <c r="A9">
         <v>11.12</v>
       </c>
@@ -3765,7 +3814,7 @@
         <v>2994.9829059829062</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:44">
       <c r="E10" s="4">
         <v>564</v>
       </c>
@@ -3816,7 +3865,7 @@
         <v>2944.7606837606841</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:44">
       <c r="E11" s="4">
         <v>759</v>
       </c>
@@ -3867,7 +3916,7 @@
         <v>295.5384615384616</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:44">
       <c r="E12" s="4">
         <v>866</v>
       </c>
@@ -3918,7 +3967,7 @@
         <v>1460.3076923076924</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:44">
       <c r="E13" s="4">
         <v>671</v>
       </c>
@@ -3963,7 +4012,7 @@
         <v>1409.1196581196582</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:44">
       <c r="E14" s="4">
         <v>409</v>
       </c>
@@ -4008,7 +4057,7 @@
         <v>1437.1282051282053</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:44">
       <c r="E15" s="4">
         <v>685</v>
       </c>
@@ -4053,7 +4102,7 @@
         <v>794.86324786324792</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:44">
       <c r="E16" s="4">
         <v>861</v>
       </c>
@@ -4669,7 +4718,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="18">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>合计打款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.17矫正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3114,14 +3118,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR43"/>
+  <dimension ref="A1:AR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3402,8 +3407,15 @@
       <c r="AJ3">
         <v>918</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="2">
         <v>3178</v>
+      </c>
+      <c r="AP3">
+        <v>1722</v>
+      </c>
+      <c r="AQ3">
+        <f>AP3/5.85*5.65</f>
+        <v>1663.1282051282053</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -3480,6 +3492,13 @@
       <c r="AO4">
         <v>8.36</v>
       </c>
+      <c r="AP4">
+        <v>1335</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ40" si="4">AP4/5.85*5.65</f>
+        <v>1289.3589743589746</v>
+      </c>
     </row>
     <row r="5" spans="1:44">
       <c r="C5" s="4">
@@ -3558,6 +3577,13 @@
       <c r="AO5" s="3">
         <v>2031</v>
       </c>
+      <c r="AP5">
+        <v>762</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="4"/>
+        <v>735.94871794871813</v>
+      </c>
     </row>
     <row r="6" spans="1:44">
       <c r="C6" s="4">
@@ -3630,8 +3656,15 @@
       <c r="AJ6">
         <v>608</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AO6" s="2">
         <v>3666</v>
+      </c>
+      <c r="AP6">
+        <v>126</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="4"/>
+        <v>121.69230769230771</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -3699,6 +3732,13 @@
       <c r="AJ7">
         <v>775</v>
       </c>
+      <c r="AP7">
+        <v>878</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="4"/>
+        <v>847.98290598290612</v>
+      </c>
     </row>
     <row r="8" spans="1:44">
       <c r="A8">
@@ -3756,6 +3796,13 @@
         <f t="shared" si="3"/>
         <v>2499.5213675213677</v>
       </c>
+      <c r="AP8">
+        <v>996</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="4"/>
+        <v>961.94871794871813</v>
+      </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9">
@@ -3813,8 +3860,21 @@
         <f t="shared" si="3"/>
         <v>2994.9829059829062</v>
       </c>
+      <c r="AP9">
+        <v>963</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="4"/>
+        <v>930.07692307692309</v>
+      </c>
     </row>
     <row r="10" spans="1:44">
+      <c r="A10">
+        <v>11.16</v>
+      </c>
+      <c r="B10">
+        <v>39733</v>
+      </c>
       <c r="E10" s="4">
         <v>564</v>
       </c>
@@ -3864,8 +3924,21 @@
         <f t="shared" si="3"/>
         <v>2944.7606837606841</v>
       </c>
+      <c r="AP10">
+        <v>1590</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="4"/>
+        <v>1535.6410256410259</v>
+      </c>
     </row>
     <row r="11" spans="1:44">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>3914.1617094017301</v>
+      </c>
       <c r="E11" s="4">
         <v>759</v>
       </c>
@@ -3915,8 +3988,21 @@
         <f t="shared" si="3"/>
         <v>295.5384615384616</v>
       </c>
+      <c r="AP11">
+        <v>332</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="4"/>
+        <v>320.64957264957269</v>
+      </c>
     </row>
     <row r="12" spans="1:44">
+      <c r="A12">
+        <v>11.18</v>
+      </c>
+      <c r="B12">
+        <v>50850</v>
+      </c>
       <c r="E12" s="4">
         <v>866</v>
       </c>
@@ -3966,6 +4052,13 @@
         <f t="shared" si="3"/>
         <v>1460.3076923076924</v>
       </c>
+      <c r="AP12">
+        <v>1332</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="4"/>
+        <v>1286.4615384615386</v>
+      </c>
     </row>
     <row r="13" spans="1:44">
       <c r="E13" s="4">
@@ -4011,6 +4104,13 @@
         <f t="shared" si="3"/>
         <v>1409.1196581196582</v>
       </c>
+      <c r="AP13">
+        <v>1808</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="4"/>
+        <v>1746.1880341880344</v>
+      </c>
     </row>
     <row r="14" spans="1:44">
       <c r="E14" s="4">
@@ -4056,6 +4156,13 @@
         <f t="shared" si="3"/>
         <v>1437.1282051282053</v>
       </c>
+      <c r="AP14">
+        <v>319</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="4"/>
+        <v>308.09401709401715</v>
+      </c>
     </row>
     <row r="15" spans="1:44">
       <c r="E15" s="4">
@@ -4101,6 +4208,13 @@
         <f t="shared" si="3"/>
         <v>794.86324786324792</v>
       </c>
+      <c r="AP15">
+        <v>259</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="4"/>
+        <v>250.14529914529919</v>
+      </c>
     </row>
     <row r="16" spans="1:44">
       <c r="E16" s="4">
@@ -4143,14 +4257,21 @@
         <f t="shared" si="3"/>
         <v>1450.649572649573</v>
       </c>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AP16">
+        <v>314</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="4"/>
+        <v>303.26495726495727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>147583</v>
+        <v>242080.16170940173</v>
       </c>
       <c r="E17" s="4">
         <v>983</v>
@@ -4192,14 +4313,21 @@
         <f t="shared" si="3"/>
         <v>526.36752136752148</v>
       </c>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AP17">
+        <v>317</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="4"/>
+        <v>306.16239316239324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="13">
-        <f>B17-A43</f>
-        <v>-43647.161709401727</v>
+        <f>B17-A50</f>
+        <v>28499.179487179499</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -4238,11 +4366,18 @@
         <f t="shared" si="3"/>
         <v>1203.4017094017095</v>
       </c>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AP18">
+        <v>219</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="4"/>
+        <v>211.51282051282053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
       <c r="B19">
-        <f>B18/5.85</f>
-        <v>-7461.0532836584152</v>
+        <f>B18/5.65</f>
+        <v>5044.1025641025662</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -4281,8 +4416,15 @@
         <f t="shared" si="3"/>
         <v>875.02564102564122</v>
       </c>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="AP19">
+        <v>471</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="4"/>
+        <v>454.89743589743591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="E20" s="4">
         <v>729.79</v>
       </c>
@@ -4320,8 +4462,15 @@
         <f t="shared" si="3"/>
         <v>1263.2820512820513</v>
       </c>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AP20">
+        <v>441</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="4"/>
+        <v>425.92307692307696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
       <c r="E21" s="4">
         <v>853</v>
       </c>
@@ -4359,8 +4508,15 @@
         <f t="shared" si="3"/>
         <v>791</v>
       </c>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AP21">
+        <v>359</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="4"/>
+        <v>346.72649572649578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
       <c r="E22" s="4">
         <v>957</v>
       </c>
@@ -4398,8 +4554,15 @@
         <f t="shared" si="3"/>
         <v>993.82051282051293</v>
       </c>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AP22">
+        <v>367</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="4"/>
+        <v>354.45299145299151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
       <c r="E23" s="4">
         <v>388</v>
       </c>
@@ -4430,8 +4593,15 @@
         <f t="shared" si="3"/>
         <v>1302.880341880342</v>
       </c>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="AP23">
+        <v>1076</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="4"/>
+        <v>1039.2136752136753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
       <c r="E24" s="4">
         <v>1076</v>
       </c>
@@ -4462,8 +4632,15 @@
         <f t="shared" si="3"/>
         <v>1774.1965811965815</v>
       </c>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="AP24">
+        <v>419</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="4"/>
+        <v>404.67521367521368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
       <c r="E25" s="4">
         <v>1255</v>
       </c>
@@ -4491,8 +4668,15 @@
         <f t="shared" si="3"/>
         <v>283.94871794871801</v>
       </c>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AP25">
+        <v>262</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="4"/>
+        <v>253.04273504273507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
       <c r="E26" s="4">
         <v>755</v>
       </c>
@@ -4520,8 +4704,15 @@
         <f t="shared" si="3"/>
         <v>284.91452991452996</v>
       </c>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="AP26">
+        <v>274</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="4"/>
+        <v>264.63247863247869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
       <c r="E27" s="4">
         <v>618</v>
       </c>
@@ -4542,8 +4733,15 @@
         <f t="shared" si="3"/>
         <v>842.18803418803429</v>
       </c>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AP27">
+        <v>351</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="4"/>
+        <v>339.00000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
       <c r="E28" s="4">
         <v>1223</v>
       </c>
@@ -4564,8 +4762,15 @@
         <f t="shared" si="3"/>
         <v>114.93162393162395</v>
       </c>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AP28">
+        <v>349</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="4"/>
+        <v>337.0683760683761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
       <c r="E29" s="4">
         <v>1556</v>
       </c>
@@ -4579,8 +4784,15 @@
         <f t="shared" si="3"/>
         <v>187.36752136752139</v>
       </c>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AP29">
+        <v>876</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="4"/>
+        <v>846.0512820512821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="E30" s="4">
         <v>992</v>
       </c>
@@ -4591,8 +4803,15 @@
         <f t="shared" si="3"/>
         <v>255.94017094017096</v>
       </c>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AP30">
+        <v>309</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="4"/>
+        <v>298.43589743589746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
       <c r="E31" s="4">
         <v>1138</v>
       </c>
@@ -4603,8 +4822,15 @@
         <f t="shared" si="3"/>
         <v>170.94871794871798</v>
       </c>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AP31">
+        <v>462</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="4"/>
+        <v>446.20512820512823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="E32" s="4">
         <v>971</v>
       </c>
@@ -4615,106 +4841,175 @@
         <f t="shared" si="3"/>
         <v>741.74358974358984</v>
       </c>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AP32">
+        <v>292</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="4"/>
+        <v>282.01709401709405</v>
+      </c>
+    </row>
+    <row r="33" spans="5:43">
       <c r="E33" s="4">
         <v>425</v>
       </c>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AP33">
+        <v>837</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="4"/>
+        <v>808.38461538461559</v>
+      </c>
+    </row>
+    <row r="34" spans="5:43">
       <c r="E34" s="4">
         <v>532</v>
       </c>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AP34">
+        <v>311</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="4"/>
+        <v>300.36752136752142</v>
+      </c>
+    </row>
+    <row r="35" spans="5:43">
       <c r="E35" s="4">
         <v>1028</v>
       </c>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="AP35">
+        <v>265</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="4"/>
+        <v>255.94017094017096</v>
+      </c>
+    </row>
+    <row r="36" spans="5:43">
       <c r="E36" s="4">
         <v>415</v>
       </c>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AP36">
+        <v>194</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="4"/>
+        <v>187.36752136752139</v>
+      </c>
+    </row>
+    <row r="37" spans="5:43">
       <c r="E37" s="4">
         <v>564</v>
       </c>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AP37">
+        <v>304</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="4"/>
+        <v>293.60683760683764</v>
+      </c>
+    </row>
+    <row r="38" spans="5:43">
       <c r="E38" s="4">
         <v>941</v>
       </c>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="AP38">
+        <v>299</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="4"/>
+        <v>288.77777777777783</v>
+      </c>
+    </row>
+    <row r="39" spans="5:43">
       <c r="E39" s="4">
         <v>722</v>
       </c>
-    </row>
-    <row r="43" spans="1:31">
-      <c r="A43">
-        <f>SUM(G43:BU43)</f>
-        <v>191230.16170940173</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="G43" s="2">
-        <f t="shared" ref="G43" si="4">SUM(G3:G42)</f>
+      <c r="AP39">
+        <v>355</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" si="4"/>
+        <v>342.86324786324792</v>
+      </c>
+    </row>
+    <row r="40" spans="5:43">
+      <c r="AP40">
+        <v>997</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" si="4"/>
+        <v>962.91452991453002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43">
+      <c r="A50">
+        <f>SUM(G50:BU50)</f>
+        <v>213580.98222222223</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="G50" s="2">
+        <f>SUM(G3:G49)</f>
         <v>17583</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2">
-        <f>SUM(I3:I42)</f>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2">
+        <f>SUM(I3:I49)</f>
         <v>17988</v>
       </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2">
-        <f t="shared" ref="K43" si="5">SUM(K3:K42)</f>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2">
+        <f>SUM(K3:K49)</f>
         <v>22770</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2">
-        <f t="shared" ref="M43" si="6">SUM(M3:M42)</f>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2">
+        <f>SUM(M3:M49)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2">
-        <f t="shared" ref="O43" si="7">SUM(O3:O42)</f>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2">
+        <f>SUM(O3:O49)</f>
         <v>4280</v>
       </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2">
-        <f t="shared" ref="Q43" si="8">SUM(Q3:Q42)</f>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2">
+        <f>SUM(Q3:Q49)</f>
         <v>17982.559999999998</v>
       </c>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2">
-        <f t="shared" ref="S43" si="9">SUM(S3:S42)</f>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2">
+        <f>SUM(S3:S49)</f>
         <v>2588</v>
       </c>
-      <c r="T43">
-        <f t="shared" ref="T43" si="10">SUM(T3:T42)</f>
+      <c r="T50">
+        <f>SUM(T3:T49)</f>
         <v>0</v>
       </c>
-      <c r="V43">
-        <f>SUM(V3:V42)</f>
+      <c r="V50">
+        <f>SUM(V3:V49)</f>
         <v>31085.097435897442</v>
       </c>
-      <c r="W43">
-        <f>SUM(W3:W42)</f>
+      <c r="W50">
+        <f>SUM(W3:W49)</f>
         <v>0</v>
       </c>
-      <c r="Y43">
-        <f>SUM(Y3:Y42)</f>
+      <c r="Y50">
+        <f>SUM(Y3:Y49)</f>
         <v>20334.581196581203</v>
       </c>
-      <c r="AB43">
-        <f>SUM(AB3:AB42)</f>
+      <c r="AB50">
+        <f>SUM(AB3:AB49)</f>
         <v>25535.23076923077</v>
       </c>
-      <c r="AE43">
-        <f>SUM(AE3:AE42)</f>
+      <c r="AE50">
+        <f>SUM(AE3:AE49)</f>
         <v>31083.692307692312</v>
+      </c>
+      <c r="AQ50">
+        <f>SUM(AQ3:AQ49)</f>
+        <v>22350.820512820508</v>
       </c>
     </row>
   </sheetData>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="18">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3118,10 +3118,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR50"/>
+  <dimension ref="A1:BD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AW18" sqref="AW18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3130,7 +3130,7 @@
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:56">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3213,8 +3213,28 @@
       </c>
       <c r="AQ1" s="14"/>
       <c r="AR1" s="15"/>
-    </row>
-    <row r="2" spans="1:44">
+      <c r="AS1" s="14">
+        <v>43057</v>
+      </c>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="14">
+        <v>43058</v>
+      </c>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="14">
+        <v>43059</v>
+      </c>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="14">
+        <v>43060</v>
+      </c>
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="15"/>
+    </row>
+    <row r="2" spans="1:56">
       <c r="A2">
         <v>11.3</v>
       </c>
@@ -3323,8 +3343,32 @@
       <c r="AR2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:44">
+      <c r="AS2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56">
       <c r="C3" s="4">
         <v>575</v>
       </c>
@@ -3417,8 +3461,18 @@
         <f>AP3/5.85*5.65</f>
         <v>1663.1282051282053</v>
       </c>
-    </row>
-    <row r="4" spans="1:44">
+      <c r="AS3">
+        <v>2224</v>
+      </c>
+      <c r="AT3">
+        <f>AS3/5.85*5.65</f>
+        <v>2147.965811965812</v>
+      </c>
+      <c r="AU3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56">
       <c r="C4" s="4">
         <v>597</v>
       </c>
@@ -3499,8 +3553,18 @@
         <f t="shared" ref="AQ4:AQ40" si="4">AP4/5.85*5.65</f>
         <v>1289.3589743589746</v>
       </c>
-    </row>
-    <row r="5" spans="1:44">
+      <c r="AS4">
+        <v>443</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" ref="AT4:AT37" si="5">AS4/5.85*5.65</f>
+        <v>427.85470085470087</v>
+      </c>
+      <c r="AU4">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56">
       <c r="C5" s="4">
         <v>428</v>
       </c>
@@ -3584,8 +3648,18 @@
         <f t="shared" si="4"/>
         <v>735.94871794871813</v>
       </c>
-    </row>
-    <row r="6" spans="1:44">
+      <c r="AS5">
+        <v>1405</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="5"/>
+        <v>1356.9658119658122</v>
+      </c>
+      <c r="AU5">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56">
       <c r="C6" s="4">
         <v>3600</v>
       </c>
@@ -3666,8 +3740,18 @@
         <f t="shared" si="4"/>
         <v>121.69230769230771</v>
       </c>
-    </row>
-    <row r="7" spans="1:44">
+      <c r="AS6">
+        <v>393</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="5"/>
+        <v>379.5641025641026</v>
+      </c>
+      <c r="AU6">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56">
       <c r="A7">
         <v>11.5</v>
       </c>
@@ -3739,8 +3823,18 @@
         <f t="shared" si="4"/>
         <v>847.98290598290612</v>
       </c>
-    </row>
-    <row r="8" spans="1:44">
+      <c r="AS7">
+        <v>1029</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="5"/>
+        <v>993.82051282051293</v>
+      </c>
+      <c r="AU7">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56">
       <c r="A8">
         <v>11.9</v>
       </c>
@@ -3803,8 +3897,18 @@
         <f t="shared" si="4"/>
         <v>961.94871794871813</v>
       </c>
-    </row>
-    <row r="9" spans="1:44">
+      <c r="AS8">
+        <v>1556</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="5"/>
+        <v>1502.8034188034189</v>
+      </c>
+      <c r="AU8">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56">
       <c r="A9">
         <v>11.12</v>
       </c>
@@ -3867,8 +3971,15 @@
         <f t="shared" si="4"/>
         <v>930.07692307692309</v>
       </c>
-    </row>
-    <row r="10" spans="1:44">
+      <c r="AS9">
+        <v>2515</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="5"/>
+        <v>2429.0170940170947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56">
       <c r="A10">
         <v>11.16</v>
       </c>
@@ -3931,8 +4042,15 @@
         <f t="shared" si="4"/>
         <v>1535.6410256410259</v>
       </c>
-    </row>
-    <row r="11" spans="1:44">
+      <c r="AS10">
+        <v>971</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="5"/>
+        <v>937.80341880341894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3995,8 +4113,15 @@
         <f t="shared" si="4"/>
         <v>320.64957264957269</v>
       </c>
-    </row>
-    <row r="12" spans="1:44">
+      <c r="AS11">
+        <v>833</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="5"/>
+        <v>804.52136752136767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56">
       <c r="A12">
         <v>11.18</v>
       </c>
@@ -4059,8 +4184,15 @@
         <f t="shared" si="4"/>
         <v>1286.4615384615386</v>
       </c>
-    </row>
-    <row r="13" spans="1:44">
+      <c r="AS12">
+        <v>1296</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="5"/>
+        <v>1251.6923076923078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56">
       <c r="E13" s="4">
         <v>671</v>
       </c>
@@ -4111,8 +4243,15 @@
         <f t="shared" si="4"/>
         <v>1746.1880341880344</v>
       </c>
-    </row>
-    <row r="14" spans="1:44">
+      <c r="AS13">
+        <v>1150</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="5"/>
+        <v>1110.6837606837607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56">
       <c r="E14" s="4">
         <v>409</v>
       </c>
@@ -4163,8 +4302,15 @@
         <f t="shared" si="4"/>
         <v>308.09401709401715</v>
       </c>
-    </row>
-    <row r="15" spans="1:44">
+      <c r="AS14">
+        <v>1048</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="5"/>
+        <v>1012.1709401709403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56">
       <c r="E15" s="4">
         <v>685</v>
       </c>
@@ -4215,8 +4361,15 @@
         <f t="shared" si="4"/>
         <v>250.14529914529919</v>
       </c>
-    </row>
-    <row r="16" spans="1:44">
+      <c r="AS15">
+        <v>1196</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="5"/>
+        <v>1155.1111111111113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56">
       <c r="E16" s="4">
         <v>861</v>
       </c>
@@ -4264,8 +4417,15 @@
         <f t="shared" si="4"/>
         <v>303.26495726495727</v>
       </c>
-    </row>
-    <row r="17" spans="1:43">
+      <c r="AS16">
+        <v>1035</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="5"/>
+        <v>999.61538461538476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4320,14 +4480,21 @@
         <f t="shared" si="4"/>
         <v>306.16239316239324</v>
       </c>
-    </row>
-    <row r="18" spans="1:43">
+      <c r="AS17">
+        <v>1684</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="5"/>
+        <v>1626.4273504273506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>28499.179487179499</v>
+        <v>-8049.0769230769074</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -4373,11 +4540,18 @@
         <f t="shared" si="4"/>
         <v>211.51282051282053</v>
       </c>
-    </row>
-    <row r="19" spans="1:43">
+      <c r="AS18">
+        <v>884</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="5"/>
+        <v>853.77777777777783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46">
       <c r="B19">
         <f>B18/5.65</f>
-        <v>5044.1025641025662</v>
+        <v>-1424.6153846153818</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -4423,8 +4597,15 @@
         <f t="shared" si="4"/>
         <v>454.89743589743591</v>
       </c>
-    </row>
-    <row r="20" spans="1:43">
+      <c r="AS19">
+        <v>877</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="5"/>
+        <v>847.01709401709422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46">
       <c r="E20" s="4">
         <v>729.79</v>
       </c>
@@ -4469,8 +4650,15 @@
         <f t="shared" si="4"/>
         <v>425.92307692307696</v>
       </c>
-    </row>
-    <row r="21" spans="1:43">
+      <c r="AS20">
+        <v>938</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="5"/>
+        <v>905.93162393162402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46">
       <c r="E21" s="4">
         <v>853</v>
       </c>
@@ -4515,8 +4703,15 @@
         <f t="shared" si="4"/>
         <v>346.72649572649578</v>
       </c>
-    </row>
-    <row r="22" spans="1:43">
+      <c r="AS21">
+        <v>637</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="5"/>
+        <v>615.22222222222229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46">
       <c r="E22" s="4">
         <v>957</v>
       </c>
@@ -4561,8 +4756,15 @@
         <f t="shared" si="4"/>
         <v>354.45299145299151</v>
       </c>
-    </row>
-    <row r="23" spans="1:43">
+      <c r="AS22">
+        <v>1353</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="5"/>
+        <v>1306.7435897435898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46">
       <c r="E23" s="4">
         <v>388</v>
       </c>
@@ -4600,8 +4802,15 @@
         <f t="shared" si="4"/>
         <v>1039.2136752136753</v>
       </c>
-    </row>
-    <row r="24" spans="1:43">
+      <c r="AS23">
+        <v>1011</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="5"/>
+        <v>976.43589743589746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46">
       <c r="E24" s="4">
         <v>1076</v>
       </c>
@@ -4639,8 +4848,15 @@
         <f t="shared" si="4"/>
         <v>404.67521367521368</v>
       </c>
-    </row>
-    <row r="25" spans="1:43">
+      <c r="AS24">
+        <v>1152</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="5"/>
+        <v>1112.6153846153848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46">
       <c r="E25" s="4">
         <v>1255</v>
       </c>
@@ -4675,8 +4891,15 @@
         <f t="shared" si="4"/>
         <v>253.04273504273507</v>
       </c>
-    </row>
-    <row r="26" spans="1:43">
+      <c r="AS25">
+        <v>1378</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="5"/>
+        <v>1330.8888888888891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46">
       <c r="E26" s="4">
         <v>755</v>
       </c>
@@ -4711,8 +4934,15 @@
         <f t="shared" si="4"/>
         <v>264.63247863247869</v>
       </c>
-    </row>
-    <row r="27" spans="1:43">
+      <c r="AS26">
+        <v>624</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="5"/>
+        <v>602.66666666666674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46">
       <c r="E27" s="4">
         <v>618</v>
       </c>
@@ -4740,8 +4970,15 @@
         <f t="shared" si="4"/>
         <v>339.00000000000006</v>
       </c>
-    </row>
-    <row r="28" spans="1:43">
+      <c r="AS27">
+        <v>722</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="5"/>
+        <v>697.31623931623938</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46">
       <c r="E28" s="4">
         <v>1223</v>
       </c>
@@ -4769,8 +5006,15 @@
         <f t="shared" si="4"/>
         <v>337.0683760683761</v>
       </c>
-    </row>
-    <row r="29" spans="1:43">
+      <c r="AS28">
+        <v>1612</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="5"/>
+        <v>1556.8888888888891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46">
       <c r="E29" s="4">
         <v>1556</v>
       </c>
@@ -4791,8 +5035,15 @@
         <f t="shared" si="4"/>
         <v>846.0512820512821</v>
       </c>
-    </row>
-    <row r="30" spans="1:43">
+      <c r="AS29">
+        <v>1395</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="5"/>
+        <v>1347.3076923076926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46">
       <c r="E30" s="4">
         <v>992</v>
       </c>
@@ -4810,8 +5061,15 @@
         <f t="shared" si="4"/>
         <v>298.43589743589746</v>
       </c>
-    </row>
-    <row r="31" spans="1:43">
+      <c r="AS30">
+        <v>871</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="5"/>
+        <v>841.22222222222229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46">
       <c r="E31" s="4">
         <v>1138</v>
       </c>
@@ -4829,8 +5087,15 @@
         <f t="shared" si="4"/>
         <v>446.20512820512823</v>
       </c>
-    </row>
-    <row r="32" spans="1:43">
+      <c r="AS31">
+        <v>847</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="5"/>
+        <v>818.0427350427351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46">
       <c r="E32" s="4">
         <v>971</v>
       </c>
@@ -4848,8 +5113,15 @@
         <f t="shared" si="4"/>
         <v>282.01709401709405</v>
       </c>
-    </row>
-    <row r="33" spans="5:43">
+      <c r="AS32">
+        <v>988</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="5"/>
+        <v>954.22222222222229</v>
+      </c>
+    </row>
+    <row r="33" spans="5:46">
       <c r="E33" s="4">
         <v>425</v>
       </c>
@@ -4860,8 +5132,15 @@
         <f t="shared" si="4"/>
         <v>808.38461538461559</v>
       </c>
-    </row>
-    <row r="34" spans="5:43">
+      <c r="AS33">
+        <v>704</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="5"/>
+        <v>679.93162393162402</v>
+      </c>
+    </row>
+    <row r="34" spans="5:46">
       <c r="E34" s="4">
         <v>532</v>
       </c>
@@ -4872,8 +5151,15 @@
         <f t="shared" si="4"/>
         <v>300.36752136752142</v>
       </c>
-    </row>
-    <row r="35" spans="5:43">
+      <c r="AS34">
+        <v>1043</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="5"/>
+        <v>1007.3418803418805</v>
+      </c>
+    </row>
+    <row r="35" spans="5:46">
       <c r="E35" s="4">
         <v>1028</v>
       </c>
@@ -4884,8 +5170,15 @@
         <f t="shared" si="4"/>
         <v>255.94017094017096</v>
       </c>
-    </row>
-    <row r="36" spans="5:43">
+      <c r="AS35">
+        <v>1371</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="5"/>
+        <v>1324.1282051282053</v>
+      </c>
+    </row>
+    <row r="36" spans="5:46">
       <c r="E36" s="4">
         <v>415</v>
       </c>
@@ -4896,8 +5189,15 @@
         <f t="shared" si="4"/>
         <v>187.36752136752139</v>
       </c>
-    </row>
-    <row r="37" spans="5:43">
+      <c r="AS36">
+        <v>402</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="5"/>
+        <v>388.25641025641028</v>
+      </c>
+    </row>
+    <row r="37" spans="5:46">
       <c r="E37" s="4">
         <v>564</v>
       </c>
@@ -4908,8 +5208,15 @@
         <f t="shared" si="4"/>
         <v>293.60683760683764</v>
       </c>
-    </row>
-    <row r="38" spans="5:43">
+      <c r="AS37">
+        <v>255</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="5"/>
+        <v>246.2820512820513</v>
+      </c>
+    </row>
+    <row r="38" spans="5:46">
       <c r="E38" s="4">
         <v>941</v>
       </c>
@@ -4921,7 +5228,7 @@
         <v>288.77777777777783</v>
       </c>
     </row>
-    <row r="39" spans="5:43">
+    <row r="39" spans="5:46">
       <c r="E39" s="4">
         <v>722</v>
       </c>
@@ -4933,7 +5240,7 @@
         <v>342.86324786324792</v>
       </c>
     </row>
-    <row r="40" spans="5:43">
+    <row r="40" spans="5:46">
       <c r="AP40">
         <v>997</v>
       </c>
@@ -4942,10 +5249,10 @@
         <v>962.91452991453002</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:46">
       <c r="A50">
         <f>SUM(G50:BU50)</f>
-        <v>213580.98222222223</v>
+        <v>250129.23863247863</v>
       </c>
       <c r="C50" s="4"/>
       <c r="E50" s="4"/>
@@ -5011,26 +5318,34 @@
         <f>SUM(AQ3:AQ49)</f>
         <v>22350.820512820508</v>
       </c>
+      <c r="AT50">
+        <f>SUM(AT3:AT49)</f>
+        <v>36548.256410256421</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
+  <mergeCells count="21">
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3077,30 +3077,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3109,6 +3085,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3120,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AW18" sqref="AW18"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3471,6 +3471,16 @@
       <c r="AU3">
         <v>782</v>
       </c>
+      <c r="AV3">
+        <v>311</v>
+      </c>
+      <c r="AW3">
+        <f>AV3/5.85*5.65</f>
+        <v>300.36752136752142</v>
+      </c>
+      <c r="AX3">
+        <v>1989</v>
+      </c>
     </row>
     <row r="4" spans="1:56">
       <c r="C4" s="4">
@@ -3563,6 +3573,13 @@
       <c r="AU4">
         <v>1237</v>
       </c>
+      <c r="AV4">
+        <v>1775</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" ref="AW4:AW12" si="6">AV4/5.85*5.65</f>
+        <v>1714.3162393162397</v>
+      </c>
     </row>
     <row r="5" spans="1:56">
       <c r="C5" s="4">
@@ -3638,7 +3655,7 @@
       <c r="AJ5">
         <v>1341</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="2">
         <v>2031</v>
       </c>
       <c r="AP5">
@@ -3658,6 +3675,13 @@
       <c r="AU5">
         <v>843</v>
       </c>
+      <c r="AV5">
+        <v>1239</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="6"/>
+        <v>1196.6410256410256</v>
+      </c>
     </row>
     <row r="6" spans="1:56">
       <c r="C6" s="4">
@@ -3750,6 +3774,13 @@
       <c r="AU6">
         <v>1053</v>
       </c>
+      <c r="AV6">
+        <v>1051</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" si="6"/>
+        <v>1015.0683760683761</v>
+      </c>
     </row>
     <row r="7" spans="1:56">
       <c r="A7">
@@ -3833,6 +3864,13 @@
       <c r="AU7">
         <v>2522</v>
       </c>
+      <c r="AV7">
+        <v>1324</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="6"/>
+        <v>1278.735042735043</v>
+      </c>
     </row>
     <row r="8" spans="1:56">
       <c r="A8">
@@ -3907,6 +3945,13 @@
       <c r="AU8">
         <v>2339</v>
       </c>
+      <c r="AV8">
+        <v>386</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="6"/>
+        <v>372.80341880341888</v>
+      </c>
     </row>
     <row r="9" spans="1:56">
       <c r="A9">
@@ -3978,6 +4023,13 @@
         <f t="shared" si="5"/>
         <v>2429.0170940170947</v>
       </c>
+      <c r="AV9">
+        <v>1062</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="6"/>
+        <v>1025.6923076923078</v>
+      </c>
     </row>
     <row r="10" spans="1:56">
       <c r="A10">
@@ -4049,6 +4101,13 @@
         <f t="shared" si="5"/>
         <v>937.80341880341894</v>
       </c>
+      <c r="AV10">
+        <v>656</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="6"/>
+        <v>633.57264957264965</v>
+      </c>
     </row>
     <row r="11" spans="1:56">
       <c r="A11" t="s">
@@ -4120,6 +4179,13 @@
         <f t="shared" si="5"/>
         <v>804.52136752136767</v>
       </c>
+      <c r="AV11">
+        <v>1162</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="6"/>
+        <v>1122.2735042735044</v>
+      </c>
     </row>
     <row r="12" spans="1:56">
       <c r="A12">
@@ -4191,6 +4257,13 @@
         <f t="shared" si="5"/>
         <v>1251.6923076923078</v>
       </c>
+      <c r="AV12">
+        <v>1060</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="6"/>
+        <v>1023.7606837606838</v>
+      </c>
     </row>
     <row r="13" spans="1:56">
       <c r="E13" s="4">
@@ -4494,7 +4567,7 @@
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>-8049.0769230769074</v>
+        <v>-17732.307692307688</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -4551,7 +4624,7 @@
     <row r="19" spans="1:46">
       <c r="B19">
         <f>B18/5.65</f>
-        <v>-1424.6153846153818</v>
+        <v>-3138.4615384615377</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -5249,10 +5322,10 @@
         <v>962.91452991453002</v>
       </c>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:49">
       <c r="A50">
         <f>SUM(G50:BU50)</f>
-        <v>250129.23863247863</v>
+        <v>259812.46940170942</v>
       </c>
       <c r="C50" s="4"/>
       <c r="E50" s="4"/>
@@ -5322,20 +5395,13 @@
         <f>SUM(AT3:AT49)</f>
         <v>36548.256410256421</v>
       </c>
+      <c r="AW50">
+        <f>SUM(AW3:AW49)</f>
+        <v>9683.2307692307695</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AY1:BA1"/>
@@ -5346,6 +5412,17 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>11.17矫正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +262,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3077,6 +3084,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3085,30 +3116,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3120,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3478,8 +3485,15 @@
         <f>AV3/5.85*5.65</f>
         <v>300.36752136752142</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="3">
         <v>1989</v>
+      </c>
+      <c r="AY3">
+        <v>1150</v>
+      </c>
+      <c r="AZ3">
+        <f>AY3/5.85*5.65</f>
+        <v>1110.6837606837607</v>
       </c>
     </row>
     <row r="4" spans="1:56">
@@ -3580,6 +3594,13 @@
         <f t="shared" ref="AW4:AW12" si="6">AV4/5.85*5.65</f>
         <v>1714.3162393162397</v>
       </c>
+      <c r="AY4">
+        <v>1153</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" ref="AZ4:AZ28" si="7">AY4/5.85*5.65</f>
+        <v>1113.5811965811968</v>
+      </c>
     </row>
     <row r="5" spans="1:56">
       <c r="C5" s="4">
@@ -3682,6 +3703,13 @@
         <f t="shared" si="6"/>
         <v>1196.6410256410256</v>
       </c>
+      <c r="AY5">
+        <v>378</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="7"/>
+        <v>365.07692307692309</v>
+      </c>
     </row>
     <row r="6" spans="1:56">
       <c r="C6" s="4">
@@ -3781,6 +3809,13 @@
         <f t="shared" si="6"/>
         <v>1015.0683760683761</v>
       </c>
+      <c r="AY6">
+        <v>2479</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="7"/>
+        <v>2394.2478632478633</v>
+      </c>
     </row>
     <row r="7" spans="1:56">
       <c r="A7">
@@ -3871,6 +3906,13 @@
         <f t="shared" si="6"/>
         <v>1278.735042735043</v>
       </c>
+      <c r="AY7">
+        <v>1047</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="7"/>
+        <v>1011.2051282051283</v>
+      </c>
     </row>
     <row r="8" spans="1:56">
       <c r="A8">
@@ -3952,6 +3994,13 @@
         <f t="shared" si="6"/>
         <v>372.80341880341888</v>
       </c>
+      <c r="AY8">
+        <v>552</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="7"/>
+        <v>533.1282051282052</v>
+      </c>
     </row>
     <row r="9" spans="1:56">
       <c r="A9">
@@ -4030,6 +4079,13 @@
         <f t="shared" si="6"/>
         <v>1025.6923076923078</v>
       </c>
+      <c r="AY9">
+        <v>1379</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="7"/>
+        <v>1331.8547008547009</v>
+      </c>
     </row>
     <row r="10" spans="1:56">
       <c r="A10">
@@ -4108,6 +4164,13 @@
         <f t="shared" si="6"/>
         <v>633.57264957264965</v>
       </c>
+      <c r="AY10">
+        <v>328</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="7"/>
+        <v>316.78632478632483</v>
+      </c>
     </row>
     <row r="11" spans="1:56">
       <c r="A11" t="s">
@@ -4186,6 +4249,13 @@
         <f t="shared" si="6"/>
         <v>1122.2735042735044</v>
       </c>
+      <c r="AY11">
+        <v>389</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="7"/>
+        <v>375.70085470085473</v>
+      </c>
     </row>
     <row r="12" spans="1:56">
       <c r="A12">
@@ -4264,8 +4334,21 @@
         <f t="shared" si="6"/>
         <v>1023.7606837606838</v>
       </c>
+      <c r="AY12">
+        <v>1180</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="7"/>
+        <v>1139.6581196581199</v>
+      </c>
     </row>
     <row r="13" spans="1:56">
+      <c r="A13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>56500</v>
+      </c>
       <c r="E13" s="4">
         <v>671</v>
       </c>
@@ -4323,6 +4406,13 @@
         <f t="shared" si="5"/>
         <v>1110.6837606837607</v>
       </c>
+      <c r="AY13">
+        <v>672</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="7"/>
+        <v>649.02564102564111</v>
+      </c>
     </row>
     <row r="14" spans="1:56">
       <c r="E14" s="4">
@@ -4382,6 +4472,13 @@
         <f t="shared" si="5"/>
         <v>1012.1709401709403</v>
       </c>
+      <c r="AY14">
+        <v>773</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="7"/>
+        <v>746.57264957264965</v>
+      </c>
     </row>
     <row r="15" spans="1:56">
       <c r="E15" s="4">
@@ -4441,6 +4538,13 @@
         <f t="shared" si="5"/>
         <v>1155.1111111111113</v>
       </c>
+      <c r="AY15">
+        <v>644</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="7"/>
+        <v>621.982905982906</v>
+      </c>
     </row>
     <row r="16" spans="1:56">
       <c r="E16" s="4">
@@ -4497,14 +4601,21 @@
         <f t="shared" si="5"/>
         <v>999.61538461538476</v>
       </c>
-    </row>
-    <row r="17" spans="1:46">
+      <c r="AY16">
+        <v>396</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="7"/>
+        <v>382.46153846153851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>242080.16170940173</v>
+        <v>298580.16170940176</v>
       </c>
       <c r="E17" s="4">
         <v>983</v>
@@ -4560,14 +4671,21 @@
         <f t="shared" si="5"/>
         <v>1626.4273504273506</v>
       </c>
-    </row>
-    <row r="18" spans="1:46">
+      <c r="AY17">
+        <v>274</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="7"/>
+        <v>264.63247863247869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>-17732.307692307688</v>
+        <v>13029.769230769249</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -4620,11 +4738,18 @@
         <f t="shared" si="5"/>
         <v>853.77777777777783</v>
       </c>
-    </row>
-    <row r="19" spans="1:46">
+      <c r="AY18">
+        <v>1304</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="7"/>
+        <v>1259.4188034188035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
       <c r="B19">
         <f>B18/5.65</f>
-        <v>-3138.4615384615377</v>
+        <v>2306.1538461538494</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -4677,8 +4802,15 @@
         <f t="shared" si="5"/>
         <v>847.01709401709422</v>
       </c>
-    </row>
-    <row r="20" spans="1:46">
+      <c r="AY19">
+        <v>732</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="7"/>
+        <v>706.97435897435912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
       <c r="E20" s="4">
         <v>729.79</v>
       </c>
@@ -4730,8 +4862,15 @@
         <f t="shared" si="5"/>
         <v>905.93162393162402</v>
       </c>
-    </row>
-    <row r="21" spans="1:46">
+      <c r="AY20">
+        <v>663</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" si="7"/>
+        <v>640.33333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
       <c r="E21" s="4">
         <v>853</v>
       </c>
@@ -4783,8 +4922,15 @@
         <f t="shared" si="5"/>
         <v>615.22222222222229</v>
       </c>
-    </row>
-    <row r="22" spans="1:46">
+      <c r="AY21">
+        <v>755</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="7"/>
+        <v>729.18803418803429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52">
       <c r="E22" s="4">
         <v>957</v>
       </c>
@@ -4836,8 +4982,15 @@
         <f t="shared" si="5"/>
         <v>1306.7435897435898</v>
       </c>
-    </row>
-    <row r="23" spans="1:46">
+      <c r="AY22">
+        <v>2903</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="7"/>
+        <v>2803.7521367521372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
       <c r="E23" s="4">
         <v>388</v>
       </c>
@@ -4882,8 +5035,15 @@
         <f t="shared" si="5"/>
         <v>976.43589743589746</v>
       </c>
-    </row>
-    <row r="24" spans="1:46">
+      <c r="AY23">
+        <v>762</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="7"/>
+        <v>735.94871794871813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
       <c r="E24" s="4">
         <v>1076</v>
       </c>
@@ -4928,8 +5088,15 @@
         <f t="shared" si="5"/>
         <v>1112.6153846153848</v>
       </c>
-    </row>
-    <row r="25" spans="1:46">
+      <c r="AY24">
+        <v>786</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="7"/>
+        <v>759.1282051282052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
       <c r="E25" s="4">
         <v>1255</v>
       </c>
@@ -4971,8 +5138,15 @@
         <f t="shared" si="5"/>
         <v>1330.8888888888891</v>
       </c>
-    </row>
-    <row r="26" spans="1:46">
+      <c r="AY25">
+        <v>1564</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="7"/>
+        <v>1510.5299145299148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
       <c r="E26" s="4">
         <v>755</v>
       </c>
@@ -5014,8 +5188,15 @@
         <f t="shared" si="5"/>
         <v>602.66666666666674</v>
       </c>
-    </row>
-    <row r="27" spans="1:46">
+      <c r="AY26">
+        <v>510</v>
+      </c>
+      <c r="AZ26">
+        <f t="shared" si="7"/>
+        <v>492.5641025641026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
       <c r="E27" s="4">
         <v>618</v>
       </c>
@@ -5050,8 +5231,15 @@
         <f t="shared" si="5"/>
         <v>697.31623931623938</v>
       </c>
-    </row>
-    <row r="28" spans="1:46">
+      <c r="AY27">
+        <v>1382</v>
+      </c>
+      <c r="AZ27">
+        <f t="shared" si="7"/>
+        <v>1334.7521367521369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52">
       <c r="E28" s="4">
         <v>1223</v>
       </c>
@@ -5086,8 +5274,15 @@
         <f t="shared" si="5"/>
         <v>1556.8888888888891</v>
       </c>
-    </row>
-    <row r="29" spans="1:46">
+      <c r="AY28">
+        <v>2494</v>
+      </c>
+      <c r="AZ28">
+        <f t="shared" si="7"/>
+        <v>2408.735042735043</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
       <c r="E29" s="4">
         <v>1556</v>
       </c>
@@ -5116,7 +5311,7 @@
         <v>1347.3076923076926</v>
       </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:52">
       <c r="E30" s="4">
         <v>992</v>
       </c>
@@ -5142,7 +5337,7 @@
         <v>841.22222222222229</v>
       </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:52">
       <c r="E31" s="4">
         <v>1138</v>
       </c>
@@ -5168,7 +5363,7 @@
         <v>818.0427350427351</v>
       </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:52">
       <c r="E32" s="4">
         <v>971</v>
       </c>
@@ -5322,10 +5517,10 @@
         <v>962.91452991453002</v>
       </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:52">
       <c r="A50">
         <f>SUM(G50:BU50)</f>
-        <v>259812.46940170942</v>
+        <v>285550.39247863251</v>
       </c>
       <c r="C50" s="4"/>
       <c r="E50" s="4"/>
@@ -5399,9 +5594,24 @@
         <f>SUM(AW3:AW49)</f>
         <v>9683.2307692307695</v>
       </c>
+      <c r="AZ50">
+        <f>SUM(AZ3:AZ49)</f>
+        <v>25737.923076923082</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AY1:BA1"/>
@@ -5412,17 +5622,6 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="19">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,14 +257,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,34 +577,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="15">
         <v>43003</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14">
+      <c r="C1" s="16"/>
+      <c r="D1" s="15">
         <v>43004</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14">
+      <c r="E1" s="16"/>
+      <c r="F1" s="15">
         <v>43005</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14">
+      <c r="G1" s="16"/>
+      <c r="H1" s="15">
         <v>43006</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="14">
+      <c r="I1" s="16"/>
+      <c r="J1" s="15">
         <v>43007</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="14">
+      <c r="K1" s="16"/>
+      <c r="L1" s="15">
         <v>43008</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -947,134 +947,134 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="15">
         <v>43009</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14">
+      <c r="C1" s="16"/>
+      <c r="D1" s="15">
         <v>43010</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14">
+      <c r="E1" s="16"/>
+      <c r="F1" s="15">
         <v>43011</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14">
+      <c r="G1" s="16"/>
+      <c r="H1" s="15">
         <v>43012</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="14">
+      <c r="I1" s="16"/>
+      <c r="J1" s="15">
         <v>43013</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="14">
+      <c r="K1" s="16"/>
+      <c r="L1" s="15">
         <v>43014</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="14">
+      <c r="M1" s="16"/>
+      <c r="N1" s="15">
         <v>43015</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="14">
+      <c r="O1" s="16"/>
+      <c r="P1" s="15">
         <v>43016</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="14">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="15">
         <v>43017</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="14">
+      <c r="S1" s="16"/>
+      <c r="T1" s="15">
         <v>43018</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="14">
+      <c r="U1" s="16"/>
+      <c r="V1" s="15">
         <v>43019</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="14">
+      <c r="W1" s="16"/>
+      <c r="X1" s="15">
         <v>43020</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="14">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="15">
         <v>43021</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="14">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="15">
         <v>43022</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="14">
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="15">
         <v>43023</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="14">
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="15">
         <v>43024</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="14">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="15">
         <v>43025</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="14">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="15">
         <v>43026</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="14">
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="15">
         <v>43027</v>
       </c>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="14">
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="15">
         <v>43028</v>
       </c>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="14">
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="15">
         <v>43029</v>
       </c>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="14">
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="15">
         <v>43030</v>
       </c>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="14">
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="15">
         <v>43031</v>
       </c>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="14">
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="15">
         <v>43032</v>
       </c>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="14">
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="15">
         <v>43033</v>
       </c>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="14">
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="15">
         <v>43034</v>
       </c>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="14">
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="15">
         <v>43035</v>
       </c>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="14">
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="15">
         <v>43036</v>
       </c>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="14">
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="15">
         <v>43037</v>
       </c>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="14">
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="15">
         <v>43038</v>
       </c>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="14">
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="15">
         <v>43039</v>
       </c>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="14" t="s">
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="BM1" s="15"/>
+      <c r="BM1" s="16"/>
     </row>
     <row r="2" spans="1:65">
       <c r="B2" t="s">
@@ -3084,30 +3084,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3116,6 +3092,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3125,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD50"/>
+  <dimension ref="A1:BJ50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3137,111 +3137,121 @@
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:62">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="15">
         <v>43040</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14">
+      <c r="D1" s="16"/>
+      <c r="E1" s="15">
         <v>43041</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="14">
+      <c r="F1" s="16"/>
+      <c r="G1" s="15">
         <v>43042</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14">
+      <c r="H1" s="16"/>
+      <c r="I1" s="15">
         <v>43043</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="14">
+      <c r="J1" s="16"/>
+      <c r="K1" s="15">
         <v>43044</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="14">
+      <c r="L1" s="16"/>
+      <c r="M1" s="15">
         <v>43045</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14">
+      <c r="N1" s="16"/>
+      <c r="O1" s="15">
         <v>43046</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="14">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="15">
         <v>43047</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="14">
+      <c r="R1" s="16"/>
+      <c r="S1" s="15">
         <v>43048</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="14">
+      <c r="T1" s="16"/>
+      <c r="U1" s="15">
         <v>43049</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="14">
+      <c r="V1" s="15"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="15">
         <v>43050</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="14">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="15">
         <v>43051</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="14">
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="15">
         <v>43052</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="14">
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="15">
         <v>43053</v>
       </c>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="14">
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="15">
         <v>43054</v>
       </c>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="14">
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="15">
         <v>43055</v>
       </c>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="14">
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="15">
         <v>43056</v>
       </c>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="14">
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="15">
         <v>43057</v>
       </c>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="14">
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="15">
         <v>43058</v>
       </c>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="14">
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="15">
         <v>43059</v>
       </c>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="14">
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="15">
         <v>43060</v>
       </c>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="15"/>
-    </row>
-    <row r="2" spans="1:56">
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="15">
+        <v>43061</v>
+      </c>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="15">
+        <v>43062</v>
+      </c>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="16"/>
+    </row>
+    <row r="2" spans="1:62">
       <c r="A2">
         <v>11.3</v>
       </c>
@@ -3374,8 +3384,20 @@
       <c r="BD2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:56">
+      <c r="BE2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62">
       <c r="C3" s="4">
         <v>575</v>
       </c>
@@ -3485,7 +3507,7 @@
         <f>AV3/5.85*5.65</f>
         <v>300.36752136752142</v>
       </c>
-      <c r="AX3" s="3">
+      <c r="AX3" s="2">
         <v>1989</v>
       </c>
       <c r="AY3">
@@ -3495,8 +3517,25 @@
         <f>AY3/5.85*5.65</f>
         <v>1110.6837606837607</v>
       </c>
-    </row>
-    <row r="4" spans="1:56">
+      <c r="BB3">
+        <v>599</v>
+      </c>
+      <c r="BC3">
+        <f>BB3/5.85*5.65</f>
+        <v>578.52136752136755</v>
+      </c>
+      <c r="BD3">
+        <v>3765</v>
+      </c>
+      <c r="BE3">
+        <v>642</v>
+      </c>
+      <c r="BF3">
+        <f>BE3/5.85*5.65</f>
+        <v>620.0512820512821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62">
       <c r="C4" s="4">
         <v>597</v>
       </c>
@@ -3601,8 +3640,25 @@
         <f t="shared" ref="AZ4:AZ28" si="7">AY4/5.85*5.65</f>
         <v>1113.5811965811968</v>
       </c>
-    </row>
-    <row r="5" spans="1:56">
+      <c r="BB4">
+        <v>2425</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" ref="BC4:BC25" si="8">BB4/5.85*5.65</f>
+        <v>2342.0940170940175</v>
+      </c>
+      <c r="BD4">
+        <v>853</v>
+      </c>
+      <c r="BE4">
+        <v>820</v>
+      </c>
+      <c r="BF4">
+        <f t="shared" ref="BF4:BF11" si="9">BE4/5.85*5.65</f>
+        <v>791.96581196581212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62">
       <c r="C5" s="4">
         <v>428</v>
       </c>
@@ -3710,8 +3766,22 @@
         <f t="shared" si="7"/>
         <v>365.07692307692309</v>
       </c>
-    </row>
-    <row r="6" spans="1:56">
+      <c r="BB5">
+        <v>762</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" si="8"/>
+        <v>735.94871794871813</v>
+      </c>
+      <c r="BE5">
+        <v>1161</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" si="9"/>
+        <v>1121.3076923076924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62">
       <c r="C6" s="4">
         <v>3600</v>
       </c>
@@ -3816,8 +3886,22 @@
         <f t="shared" si="7"/>
         <v>2394.2478632478633</v>
       </c>
-    </row>
-    <row r="7" spans="1:56">
+      <c r="BB6">
+        <v>316</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" si="8"/>
+        <v>305.19658119658123</v>
+      </c>
+      <c r="BE6">
+        <v>523.16</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" si="9"/>
+        <v>505.27418803418806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62">
       <c r="A7">
         <v>11.5</v>
       </c>
@@ -3913,8 +3997,22 @@
         <f t="shared" si="7"/>
         <v>1011.2051282051283</v>
       </c>
-    </row>
-    <row r="8" spans="1:56">
+      <c r="BB7">
+        <v>1125</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="8"/>
+        <v>1086.5384615384617</v>
+      </c>
+      <c r="BE7">
+        <v>59</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="9"/>
+        <v>56.982905982905997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62">
       <c r="A8">
         <v>11.9</v>
       </c>
@@ -4001,8 +4099,22 @@
         <f t="shared" si="7"/>
         <v>533.1282051282052</v>
       </c>
-    </row>
-    <row r="9" spans="1:56">
+      <c r="BB8">
+        <v>787</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="8"/>
+        <v>760.0940170940172</v>
+      </c>
+      <c r="BE8">
+        <v>400</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="9"/>
+        <v>386.32478632478632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62">
       <c r="A9">
         <v>11.12</v>
       </c>
@@ -4086,8 +4198,22 @@
         <f t="shared" si="7"/>
         <v>1331.8547008547009</v>
       </c>
-    </row>
-    <row r="10" spans="1:56">
+      <c r="BB9">
+        <v>394</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="8"/>
+        <v>380.52991452991455</v>
+      </c>
+      <c r="BE9">
+        <v>1445</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="9"/>
+        <v>1395.5982905982908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62">
       <c r="A10">
         <v>11.16</v>
       </c>
@@ -4171,8 +4297,22 @@
         <f t="shared" si="7"/>
         <v>316.78632478632483</v>
       </c>
-    </row>
-    <row r="11" spans="1:56">
+      <c r="BB10">
+        <v>334</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="8"/>
+        <v>322.58119658119659</v>
+      </c>
+      <c r="BE10">
+        <v>242</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" si="9"/>
+        <v>233.72649572649576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4256,8 +4396,22 @@
         <f t="shared" si="7"/>
         <v>375.70085470085473</v>
       </c>
-    </row>
-    <row r="12" spans="1:56">
+      <c r="BB11">
+        <v>380</v>
+      </c>
+      <c r="BC11">
+        <f t="shared" si="8"/>
+        <v>367.00854700854711</v>
+      </c>
+      <c r="BE11">
+        <v>463</v>
+      </c>
+      <c r="BF11">
+        <f t="shared" si="9"/>
+        <v>447.17094017094024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62">
       <c r="A12">
         <v>11.18</v>
       </c>
@@ -4341,9 +4495,16 @@
         <f t="shared" si="7"/>
         <v>1139.6581196581199</v>
       </c>
-    </row>
-    <row r="13" spans="1:56">
-      <c r="A13" s="16" t="s">
+      <c r="BB12">
+        <v>1317</v>
+      </c>
+      <c r="BC12">
+        <f t="shared" si="8"/>
+        <v>1271.9743589743591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62">
+      <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B13">
@@ -4413,8 +4574,15 @@
         <f t="shared" si="7"/>
         <v>649.02564102564111</v>
       </c>
-    </row>
-    <row r="14" spans="1:56">
+      <c r="BB13">
+        <v>546</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="8"/>
+        <v>527.33333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62">
       <c r="E14" s="4">
         <v>409</v>
       </c>
@@ -4479,8 +4647,15 @@
         <f t="shared" si="7"/>
         <v>746.57264957264965</v>
       </c>
-    </row>
-    <row r="15" spans="1:56">
+      <c r="BB14">
+        <v>844</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" si="8"/>
+        <v>815.14529914529919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62">
       <c r="E15" s="4">
         <v>685</v>
       </c>
@@ -4545,8 +4720,15 @@
         <f t="shared" si="7"/>
         <v>621.982905982906</v>
       </c>
-    </row>
-    <row r="16" spans="1:56">
+      <c r="BB15">
+        <v>1090</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="8"/>
+        <v>1052.735042735043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62">
       <c r="E16" s="4">
         <v>861</v>
       </c>
@@ -4608,8 +4790,15 @@
         <f t="shared" si="7"/>
         <v>382.46153846153851</v>
       </c>
-    </row>
-    <row r="17" spans="1:52">
+      <c r="BB16">
+        <v>1356</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="8"/>
+        <v>1309.6410256410256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4678,14 +4867,21 @@
         <f t="shared" si="7"/>
         <v>264.63247863247869</v>
       </c>
-    </row>
-    <row r="18" spans="1:52">
+      <c r="BB17">
+        <v>825</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" si="8"/>
+        <v>796.79487179487182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>13029.769230769249</v>
+        <v>-11484.624615384557</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -4745,11 +4941,18 @@
         <f t="shared" si="7"/>
         <v>1259.4188034188035</v>
       </c>
-    </row>
-    <row r="19" spans="1:52">
+      <c r="BB18">
+        <v>376</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" si="8"/>
+        <v>363.14529914529919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55">
       <c r="B19">
         <f>B18/5.65</f>
-        <v>2306.1538461538494</v>
+        <v>-2032.6769230769125</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -4809,8 +5012,15 @@
         <f t="shared" si="7"/>
         <v>706.97435897435912</v>
       </c>
-    </row>
-    <row r="20" spans="1:52">
+      <c r="BB19">
+        <v>807</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" si="8"/>
+        <v>779.41025641025647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55">
       <c r="E20" s="4">
         <v>729.79</v>
       </c>
@@ -4869,8 +5079,15 @@
         <f t="shared" si="7"/>
         <v>640.33333333333337</v>
       </c>
-    </row>
-    <row r="21" spans="1:52">
+      <c r="BB20">
+        <v>1543</v>
+      </c>
+      <c r="BC20">
+        <f t="shared" si="8"/>
+        <v>1490.2478632478635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55">
       <c r="E21" s="4">
         <v>853</v>
       </c>
@@ -4929,8 +5146,15 @@
         <f t="shared" si="7"/>
         <v>729.18803418803429</v>
       </c>
-    </row>
-    <row r="22" spans="1:52">
+      <c r="BB21">
+        <v>366</v>
+      </c>
+      <c r="BC21">
+        <f t="shared" si="8"/>
+        <v>353.48717948717956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55">
       <c r="E22" s="4">
         <v>957</v>
       </c>
@@ -4989,8 +5213,15 @@
         <f t="shared" si="7"/>
         <v>2803.7521367521372</v>
       </c>
-    </row>
-    <row r="23" spans="1:52">
+      <c r="BB22">
+        <v>1278</v>
+      </c>
+      <c r="BC22">
+        <f t="shared" si="8"/>
+        <v>1234.3076923076926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55">
       <c r="E23" s="4">
         <v>388</v>
       </c>
@@ -5042,8 +5273,15 @@
         <f t="shared" si="7"/>
         <v>735.94871794871813</v>
       </c>
-    </row>
-    <row r="24" spans="1:52">
+      <c r="BB23">
+        <v>718</v>
+      </c>
+      <c r="BC23">
+        <f t="shared" si="8"/>
+        <v>693.45299145299157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55">
       <c r="E24" s="4">
         <v>1076</v>
       </c>
@@ -5095,8 +5333,15 @@
         <f t="shared" si="7"/>
         <v>759.1282051282052</v>
       </c>
-    </row>
-    <row r="25" spans="1:52">
+      <c r="BB24">
+        <v>210</v>
+      </c>
+      <c r="BC24">
+        <f t="shared" si="8"/>
+        <v>202.82051282051285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55">
       <c r="E25" s="4">
         <v>1255</v>
       </c>
@@ -5145,8 +5390,15 @@
         <f t="shared" si="7"/>
         <v>1510.5299145299148</v>
       </c>
-    </row>
-    <row r="26" spans="1:52">
+      <c r="BB25">
+        <v>1229</v>
+      </c>
+      <c r="BC25">
+        <f t="shared" si="8"/>
+        <v>1186.982905982906</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55">
       <c r="E26" s="4">
         <v>755</v>
       </c>
@@ -5196,7 +5448,7 @@
         <v>492.5641025641026</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:55">
       <c r="E27" s="4">
         <v>618</v>
       </c>
@@ -5239,7 +5491,7 @@
         <v>1334.7521367521369</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:55">
       <c r="E28" s="4">
         <v>1223</v>
       </c>
@@ -5282,7 +5534,7 @@
         <v>2408.735042735043</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:55">
       <c r="E29" s="4">
         <v>1556</v>
       </c>
@@ -5311,7 +5563,7 @@
         <v>1347.3076923076926</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:55">
       <c r="E30" s="4">
         <v>992</v>
       </c>
@@ -5337,7 +5589,7 @@
         <v>841.22222222222229</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:55">
       <c r="E31" s="4">
         <v>1138</v>
       </c>
@@ -5363,7 +5615,7 @@
         <v>818.0427350427351</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:55">
       <c r="E32" s="4">
         <v>971</v>
       </c>
@@ -5517,10 +5769,10 @@
         <v>962.91452991453002</v>
       </c>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:58">
       <c r="A50">
         <f>SUM(G50:BU50)</f>
-        <v>285550.39247863251</v>
+        <v>310064.78632478631</v>
       </c>
       <c r="C50" s="4"/>
       <c r="E50" s="4"/>
@@ -5598,20 +5850,19 @@
         <f>SUM(AZ3:AZ49)</f>
         <v>25737.923076923082</v>
       </c>
+      <c r="BC50">
+        <f>SUM(BC3:BC49)</f>
+        <v>18955.991452991453</v>
+      </c>
+      <c r="BF50">
+        <f>SUM(BF3:BF49)</f>
+        <v>5558.4023931623942</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
+  <mergeCells count="23">
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AY1:BA1"/>
@@ -5622,6 +5873,17 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3125,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ50"/>
+  <dimension ref="A1:BV50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3137,7 +3137,7 @@
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:74">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3250,8 +3250,28 @@
       </c>
       <c r="BI1" s="15"/>
       <c r="BJ1" s="16"/>
-    </row>
-    <row r="2" spans="1:62">
+      <c r="BK1" s="15">
+        <v>43063</v>
+      </c>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="15">
+        <v>43064</v>
+      </c>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="15">
+        <v>43065</v>
+      </c>
+      <c r="BR1" s="15"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="15">
+        <v>43066</v>
+      </c>
+      <c r="BU1" s="15"/>
+      <c r="BV1" s="16"/>
+    </row>
+    <row r="2" spans="1:74">
       <c r="A2">
         <v>11.3</v>
       </c>
@@ -3396,8 +3416,32 @@
       <c r="BJ2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:62">
+      <c r="BK2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74">
       <c r="C3" s="4">
         <v>575</v>
       </c>
@@ -3534,8 +3578,35 @@
         <f>BE3/5.85*5.65</f>
         <v>620.0512820512821</v>
       </c>
-    </row>
-    <row r="4" spans="1:62">
+      <c r="BK3">
+        <v>790</v>
+      </c>
+      <c r="BL3">
+        <f>BK3/5.85*5.65</f>
+        <v>762.991452991453</v>
+      </c>
+      <c r="BN3">
+        <v>1116</v>
+      </c>
+      <c r="BO3">
+        <f>BN3/5.85*5.65</f>
+        <v>1077.846153846154</v>
+      </c>
+      <c r="BS3">
+        <v>2280</v>
+      </c>
+      <c r="BT3">
+        <v>457</v>
+      </c>
+      <c r="BU3">
+        <f>BT3/5.85*5.65</f>
+        <v>441.37606837606842</v>
+      </c>
+      <c r="BV3">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74">
       <c r="C4" s="4">
         <v>597</v>
       </c>
@@ -3657,8 +3728,22 @@
         <f t="shared" ref="BF4:BF11" si="9">BE4/5.85*5.65</f>
         <v>791.96581196581212</v>
       </c>
-    </row>
-    <row r="5" spans="1:62">
+      <c r="BK4">
+        <v>902</v>
+      </c>
+      <c r="BL4">
+        <f t="shared" ref="BL4:BL11" si="10">BK4/5.85*5.65</f>
+        <v>871.1623931623933</v>
+      </c>
+      <c r="BT4">
+        <v>449</v>
+      </c>
+      <c r="BU4">
+        <f>BT4/5.85*5.65</f>
+        <v>433.64957264957275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74">
       <c r="C5" s="4">
         <v>428</v>
       </c>
@@ -3780,8 +3865,15 @@
         <f t="shared" si="9"/>
         <v>1121.3076923076924</v>
       </c>
-    </row>
-    <row r="6" spans="1:62">
+      <c r="BK5">
+        <v>714</v>
+      </c>
+      <c r="BL5">
+        <f t="shared" si="10"/>
+        <v>689.58974358974365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74">
       <c r="C6" s="4">
         <v>3600</v>
       </c>
@@ -3900,8 +3992,15 @@
         <f t="shared" si="9"/>
         <v>505.27418803418806</v>
       </c>
-    </row>
-    <row r="7" spans="1:62">
+      <c r="BK6">
+        <v>1638</v>
+      </c>
+      <c r="BL6">
+        <f t="shared" si="10"/>
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74">
       <c r="A7">
         <v>11.5</v>
       </c>
@@ -4011,8 +4110,15 @@
         <f t="shared" si="9"/>
         <v>56.982905982905997</v>
       </c>
-    </row>
-    <row r="8" spans="1:62">
+      <c r="BK7">
+        <v>346</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" si="10"/>
+        <v>334.17094017094018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74">
       <c r="A8">
         <v>11.9</v>
       </c>
@@ -4113,8 +4219,15 @@
         <f t="shared" si="9"/>
         <v>386.32478632478632</v>
       </c>
-    </row>
-    <row r="9" spans="1:62">
+      <c r="BK8">
+        <v>829</v>
+      </c>
+      <c r="BL8">
+        <f t="shared" si="10"/>
+        <v>800.65811965811986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74">
       <c r="A9">
         <v>11.12</v>
       </c>
@@ -4212,8 +4325,15 @@
         <f t="shared" si="9"/>
         <v>1395.5982905982908</v>
       </c>
-    </row>
-    <row r="10" spans="1:62">
+      <c r="BK9">
+        <v>1398</v>
+      </c>
+      <c r="BL9">
+        <f t="shared" si="10"/>
+        <v>1350.2051282051284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74">
       <c r="A10">
         <v>11.16</v>
       </c>
@@ -4311,8 +4431,15 @@
         <f t="shared" si="9"/>
         <v>233.72649572649576</v>
       </c>
-    </row>
-    <row r="11" spans="1:62">
+      <c r="BK10">
+        <v>1370</v>
+      </c>
+      <c r="BL10">
+        <f t="shared" si="10"/>
+        <v>1323.1623931623933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4410,8 +4537,15 @@
         <f t="shared" si="9"/>
         <v>447.17094017094024</v>
       </c>
-    </row>
-    <row r="12" spans="1:62">
+      <c r="BK11">
+        <v>1192</v>
+      </c>
+      <c r="BL11">
+        <f t="shared" si="10"/>
+        <v>1151.2478632478635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74">
       <c r="A12">
         <v>11.18</v>
       </c>
@@ -4503,7 +4637,7 @@
         <v>1271.9743589743591</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:74">
       <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
@@ -4582,7 +4716,13 @@
         <v>527.33333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:74">
+      <c r="A14">
+        <v>11.27</v>
+      </c>
+      <c r="B14">
+        <v>9076</v>
+      </c>
       <c r="E14" s="4">
         <v>409</v>
       </c>
@@ -4655,7 +4795,7 @@
         <v>815.14529914529919</v>
       </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:74">
       <c r="E15" s="4">
         <v>685</v>
       </c>
@@ -4728,7 +4868,7 @@
         <v>1052.735042735043</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:74">
       <c r="E16" s="4">
         <v>861</v>
       </c>
@@ -4804,7 +4944,7 @@
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>298580.16170940176</v>
+        <v>307656.16170940176</v>
       </c>
       <c r="E17" s="4">
         <v>983</v>
@@ -4881,7 +5021,7 @@
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>-11484.624615384557</v>
+        <v>-13226.68444444437</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -4952,7 +5092,7 @@
     <row r="19" spans="1:55">
       <c r="B19">
         <f>B18/5.65</f>
-        <v>-2032.6769230769125</v>
+        <v>-2341.0060963618353</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -5769,10 +5909,10 @@
         <v>962.91452991453002</v>
       </c>
     </row>
-    <row r="50" spans="1:58">
+    <row r="50" spans="1:73">
       <c r="A50">
         <f>SUM(G50:BU50)</f>
-        <v>310064.78632478631</v>
+        <v>320882.84615384613</v>
       </c>
       <c r="C50" s="4"/>
       <c r="E50" s="4"/>
@@ -5858,32 +5998,52 @@
         <f>SUM(BF3:BF49)</f>
         <v>5558.4023931623942</v>
       </c>
+      <c r="BL50">
+        <f>SUM(BL3:BL49)</f>
+        <v>8865.1880341880369</v>
+      </c>
+      <c r="BO50">
+        <f>SUM(BO3:BO49)</f>
+        <v>1077.846153846154</v>
+      </c>
+      <c r="BR50">
+        <f>SUM(BR3:BR49)</f>
+        <v>0</v>
+      </c>
+      <c r="BU50">
+        <f>SUM(BU3:BU49)</f>
+        <v>875.02564102564111</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="27">
     <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AY1:BA1"/>
     <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="19">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3084,6 +3084,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3092,30 +3116,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3125,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV50"/>
+  <dimension ref="A1:CN50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3137,7 +3137,7 @@
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:92">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3270,8 +3270,38 @@
       </c>
       <c r="BU1" s="15"/>
       <c r="BV1" s="16"/>
-    </row>
-    <row r="2" spans="1:74">
+      <c r="BW1" s="15">
+        <v>43067</v>
+      </c>
+      <c r="BX1" s="15"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="15">
+        <v>43068</v>
+      </c>
+      <c r="CA1" s="15"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="15">
+        <v>43069</v>
+      </c>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="15">
+        <v>43070</v>
+      </c>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="15">
+        <v>43071</v>
+      </c>
+      <c r="CJ1" s="15"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="15">
+        <v>43072</v>
+      </c>
+      <c r="CM1" s="15"/>
+      <c r="CN1" s="16"/>
+    </row>
+    <row r="2" spans="1:92">
       <c r="A2">
         <v>11.3</v>
       </c>
@@ -3440,8 +3470,44 @@
       <c r="BV2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:74">
+      <c r="BW2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:92">
       <c r="C3" s="4">
         <v>575</v>
       </c>
@@ -3605,8 +3671,18 @@
       <c r="BV3">
         <v>1171</v>
       </c>
-    </row>
-    <row r="4" spans="1:74">
+      <c r="BW3">
+        <v>2368</v>
+      </c>
+      <c r="BX3">
+        <f>BW3/5.85*5.65</f>
+        <v>2287.0427350427353</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:92">
       <c r="C4" s="4">
         <v>597</v>
       </c>
@@ -3743,7 +3819,7 @@
         <v>433.64957264957275</v>
       </c>
     </row>
-    <row r="5" spans="1:74">
+    <row r="5" spans="1:92">
       <c r="C5" s="4">
         <v>428</v>
       </c>
@@ -3873,7 +3949,7 @@
         <v>689.58974358974365</v>
       </c>
     </row>
-    <row r="6" spans="1:74">
+    <row r="6" spans="1:92">
       <c r="C6" s="4">
         <v>3600</v>
       </c>
@@ -4000,7 +4076,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="7" spans="1:74">
+    <row r="7" spans="1:92">
       <c r="A7">
         <v>11.5</v>
       </c>
@@ -4118,7 +4194,7 @@
         <v>334.17094017094018</v>
       </c>
     </row>
-    <row r="8" spans="1:74">
+    <row r="8" spans="1:92">
       <c r="A8">
         <v>11.9</v>
       </c>
@@ -4227,7 +4303,7 @@
         <v>800.65811965811986</v>
       </c>
     </row>
-    <row r="9" spans="1:74">
+    <row r="9" spans="1:92">
       <c r="A9">
         <v>11.12</v>
       </c>
@@ -4333,7 +4409,7 @@
         <v>1350.2051282051284</v>
       </c>
     </row>
-    <row r="10" spans="1:74">
+    <row r="10" spans="1:92">
       <c r="A10">
         <v>11.16</v>
       </c>
@@ -4439,7 +4515,7 @@
         <v>1323.1623931623933</v>
       </c>
     </row>
-    <row r="11" spans="1:74">
+    <row r="11" spans="1:92">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4545,7 +4621,7 @@
         <v>1151.2478632478635</v>
       </c>
     </row>
-    <row r="12" spans="1:74">
+    <row r="12" spans="1:92">
       <c r="A12">
         <v>11.18</v>
       </c>
@@ -4637,7 +4713,7 @@
         <v>1271.9743589743591</v>
       </c>
     </row>
-    <row r="13" spans="1:74">
+    <row r="13" spans="1:92">
       <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
@@ -4716,7 +4792,7 @@
         <v>527.33333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:74">
+    <row r="14" spans="1:92">
       <c r="A14">
         <v>11.27</v>
       </c>
@@ -4795,7 +4871,7 @@
         <v>815.14529914529919</v>
       </c>
     </row>
-    <row r="15" spans="1:74">
+    <row r="15" spans="1:92">
       <c r="E15" s="4">
         <v>685</v>
       </c>
@@ -4868,7 +4944,7 @@
         <v>1052.735042735043</v>
       </c>
     </row>
-    <row r="16" spans="1:74">
+    <row r="16" spans="1:92">
       <c r="E16" s="4">
         <v>861</v>
       </c>
@@ -5909,7 +5985,7 @@
         <v>962.91452991453002</v>
       </c>
     </row>
-    <row r="50" spans="1:73">
+    <row r="50" spans="1:76">
       <c r="A50">
         <f>SUM(G50:BU50)</f>
         <v>320882.84615384613</v>
@@ -6014,20 +6090,19 @@
         <f>SUM(BU3:BU49)</f>
         <v>875.02564102564111</v>
       </c>
+      <c r="BX50">
+        <f>SUM(BX3:BX49)</f>
+        <v>2287.0427350427353</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="33">
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
     <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
@@ -6044,6 +6119,17 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3084,30 +3084,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3116,6 +3092,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3127,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CN50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>-13226.68444444437</v>
+        <v>-15513.727179487119</v>
       </c>
       <c r="E18" s="4">
         <v>854</v>
@@ -5168,7 +5168,7 @@
     <row r="19" spans="1:55">
       <c r="B19">
         <f>B18/5.65</f>
-        <v>-2341.0060963618353</v>
+        <v>-2745.7924211481627</v>
       </c>
       <c r="E19" s="4">
         <v>642</v>
@@ -5987,8 +5987,8 @@
     </row>
     <row r="50" spans="1:76">
       <c r="A50">
-        <f>SUM(G50:BU50)</f>
-        <v>320882.84615384613</v>
+        <f>SUM(G50:DU50)</f>
+        <v>323169.88888888888</v>
       </c>
       <c r="C50" s="4"/>
       <c r="E50" s="4"/>
@@ -6097,12 +6097,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
@@ -6119,17 +6124,12 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="1" r:id="rId1"/>
     <sheet name="10月" sheetId="2" r:id="rId2"/>
     <sheet name="11月" sheetId="3" r:id="rId3"/>
+    <sheet name="12月" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +92,18 @@
   </si>
   <si>
     <t>11.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3125,10 +3138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CN50"/>
+  <dimension ref="A1:CE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3137,7 +3150,7 @@
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92">
+    <row r="1" spans="1:83">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3285,23 +3298,8 @@
       </c>
       <c r="CD1" s="15"/>
       <c r="CE1" s="16"/>
-      <c r="CF1" s="15">
-        <v>43070</v>
-      </c>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="16"/>
-      <c r="CI1" s="15">
-        <v>43071</v>
-      </c>
-      <c r="CJ1" s="15"/>
-      <c r="CK1" s="16"/>
-      <c r="CL1" s="15">
-        <v>43072</v>
-      </c>
-      <c r="CM1" s="15"/>
-      <c r="CN1" s="16"/>
-    </row>
-    <row r="2" spans="1:92">
+    </row>
+    <row r="2" spans="1:83">
       <c r="A2">
         <v>11.3</v>
       </c>
@@ -3488,26 +3486,8 @@
       <c r="CE2" t="s">
         <v>13</v>
       </c>
-      <c r="CF2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:92">
+    </row>
+    <row r="3" spans="1:83">
       <c r="C3" s="4">
         <v>575</v>
       </c>
@@ -3557,14 +3537,14 @@
         <v>1485</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V28" si="0">U3/5.85*5.39</f>
+        <f>U3/5.85*5.39</f>
         <v>1368.2307692307693</v>
       </c>
       <c r="X3">
         <v>3439</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y22" si="1">X3/5.85*5.39</f>
+        <f>X3/5.85*5.39</f>
         <v>3168.5829059829061</v>
       </c>
       <c r="Z3">
@@ -3681,8 +3661,20 @@
       <c r="BY3" s="3">
         <v>1807</v>
       </c>
-    </row>
-    <row r="4" spans="1:92">
+      <c r="BZ3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CC3">
+        <v>1661</v>
+      </c>
+      <c r="CE3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:83">
       <c r="C4" s="4">
         <v>597</v>
       </c>
@@ -3723,14 +3715,14 @@
         <v>359</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
+        <f>U4/5.85*5.39</f>
         <v>330.77094017094015</v>
       </c>
       <c r="X4">
         <v>1366</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="1"/>
+        <f>X4/5.85*5.39</f>
         <v>1258.5880341880343</v>
       </c>
       <c r="Z4" s="2">
@@ -3740,14 +3732,14 @@
         <v>2173</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB26" si="2">AA4/5.85*5.73</f>
+        <f>AA4/5.85*5.73</f>
         <v>2128.4256410256412</v>
       </c>
       <c r="AD4">
         <v>842</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE32" si="3">AD4/5.85*5.65</f>
+        <f>AD4/5.85*5.65</f>
         <v>813.21367521367529</v>
       </c>
       <c r="AJ4">
@@ -3760,14 +3752,14 @@
         <v>1335</v>
       </c>
       <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ40" si="4">AP4/5.85*5.65</f>
+        <f>AP4/5.85*5.65</f>
         <v>1289.3589743589746</v>
       </c>
       <c r="AS4">
         <v>443</v>
       </c>
       <c r="AT4">
-        <f t="shared" ref="AT4:AT37" si="5">AS4/5.85*5.65</f>
+        <f>AS4/5.85*5.65</f>
         <v>427.85470085470087</v>
       </c>
       <c r="AU4">
@@ -3777,21 +3769,21 @@
         <v>1775</v>
       </c>
       <c r="AW4">
-        <f t="shared" ref="AW4:AW12" si="6">AV4/5.85*5.65</f>
+        <f>AV4/5.85*5.65</f>
         <v>1714.3162393162397</v>
       </c>
       <c r="AY4">
         <v>1153</v>
       </c>
       <c r="AZ4">
-        <f t="shared" ref="AZ4:AZ28" si="7">AY4/5.85*5.65</f>
+        <f>AY4/5.85*5.65</f>
         <v>1113.5811965811968</v>
       </c>
       <c r="BB4">
         <v>2425</v>
       </c>
       <c r="BC4">
-        <f t="shared" ref="BC4:BC25" si="8">BB4/5.85*5.65</f>
+        <f>BB4/5.85*5.65</f>
         <v>2342.0940170940175</v>
       </c>
       <c r="BD4">
@@ -3801,14 +3793,14 @@
         <v>820</v>
       </c>
       <c r="BF4">
-        <f t="shared" ref="BF4:BF11" si="9">BE4/5.85*5.65</f>
+        <f>BE4/5.85*5.65</f>
         <v>791.96581196581212</v>
       </c>
       <c r="BK4">
         <v>902</v>
       </c>
       <c r="BL4">
-        <f t="shared" ref="BL4:BL11" si="10">BK4/5.85*5.65</f>
+        <f>BK4/5.85*5.65</f>
         <v>871.1623931623933</v>
       </c>
       <c r="BT4">
@@ -3818,8 +3810,14 @@
         <f>BT4/5.85*5.65</f>
         <v>433.64957264957275</v>
       </c>
-    </row>
-    <row r="5" spans="1:92">
+      <c r="CC4">
+        <v>1210</v>
+      </c>
+      <c r="CE4">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:83">
       <c r="C5" s="4">
         <v>428</v>
       </c>
@@ -3863,14 +3861,14 @@
         <v>2356</v>
       </c>
       <c r="V5">
-        <f t="shared" si="0"/>
+        <f>U5/5.85*5.39</f>
         <v>2170.7418803418805</v>
       </c>
       <c r="X5">
         <v>1041</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="1"/>
+        <f>X5/5.85*5.39</f>
         <v>959.1435897435897</v>
       </c>
       <c r="Z5" s="2">
@@ -3880,14 +3878,14 @@
         <v>1876</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="2"/>
+        <f>AA5/5.85*5.73</f>
         <v>1837.5179487179489</v>
       </c>
       <c r="AD5">
         <v>399</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="3"/>
+        <f>AD5/5.85*5.65</f>
         <v>385.35897435897436</v>
       </c>
       <c r="AJ5">
@@ -3900,14 +3898,14 @@
         <v>762</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="4"/>
+        <f>AP5/5.85*5.65</f>
         <v>735.94871794871813</v>
       </c>
       <c r="AS5">
         <v>1405</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="5"/>
+        <f>AS5/5.85*5.65</f>
         <v>1356.9658119658122</v>
       </c>
       <c r="AU5">
@@ -3917,39 +3915,45 @@
         <v>1239</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="6"/>
+        <f>AV5/5.85*5.65</f>
         <v>1196.6410256410256</v>
       </c>
       <c r="AY5">
         <v>378</v>
       </c>
       <c r="AZ5">
-        <f t="shared" si="7"/>
+        <f>AY5/5.85*5.65</f>
         <v>365.07692307692309</v>
       </c>
       <c r="BB5">
         <v>762</v>
       </c>
       <c r="BC5">
-        <f t="shared" si="8"/>
+        <f>BB5/5.85*5.65</f>
         <v>735.94871794871813</v>
       </c>
       <c r="BE5">
         <v>1161</v>
       </c>
       <c r="BF5">
-        <f t="shared" si="9"/>
+        <f>BE5/5.85*5.65</f>
         <v>1121.3076923076924</v>
       </c>
       <c r="BK5">
         <v>714</v>
       </c>
       <c r="BL5">
-        <f t="shared" si="10"/>
+        <f>BK5/5.85*5.65</f>
         <v>689.58974358974365</v>
       </c>
-    </row>
-    <row r="6" spans="1:92">
+      <c r="CC5">
+        <v>866</v>
+      </c>
+      <c r="CE5">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:83">
       <c r="C6" s="4">
         <v>3600</v>
       </c>
@@ -3990,14 +3994,14 @@
         <v>1333</v>
       </c>
       <c r="V6">
-        <f t="shared" si="0"/>
+        <f>U6/5.85*5.39</f>
         <v>1228.1829059829058</v>
       </c>
       <c r="X6">
         <v>1651</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="1"/>
+        <f>X6/5.85*5.39</f>
         <v>1521.1777777777777</v>
       </c>
       <c r="Z6" s="2">
@@ -4007,14 +4011,14 @@
         <v>2123</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="2"/>
+        <f>AA6/5.85*5.73</f>
         <v>2079.4512820512823</v>
       </c>
       <c r="AD6">
         <v>1322</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="3"/>
+        <f>AD6/5.85*5.65</f>
         <v>1276.8034188034189</v>
       </c>
       <c r="AJ6">
@@ -4027,14 +4031,14 @@
         <v>126</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="4"/>
+        <f>AP6/5.85*5.65</f>
         <v>121.69230769230771</v>
       </c>
       <c r="AS6">
         <v>393</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="5"/>
+        <f>AS6/5.85*5.65</f>
         <v>379.5641025641026</v>
       </c>
       <c r="AU6">
@@ -4044,39 +4048,42 @@
         <v>1051</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="6"/>
+        <f>AV6/5.85*5.65</f>
         <v>1015.0683760683761</v>
       </c>
       <c r="AY6">
         <v>2479</v>
       </c>
       <c r="AZ6">
-        <f t="shared" si="7"/>
+        <f>AY6/5.85*5.65</f>
         <v>2394.2478632478633</v>
       </c>
       <c r="BB6">
         <v>316</v>
       </c>
       <c r="BC6">
-        <f t="shared" si="8"/>
+        <f>BB6/5.85*5.65</f>
         <v>305.19658119658123</v>
       </c>
       <c r="BE6">
         <v>523.16</v>
       </c>
       <c r="BF6">
-        <f t="shared" si="9"/>
+        <f>BE6/5.85*5.65</f>
         <v>505.27418803418806</v>
       </c>
       <c r="BK6">
         <v>1638</v>
       </c>
       <c r="BL6">
-        <f t="shared" si="10"/>
+        <f>BK6/5.85*5.65</f>
         <v>1582</v>
       </c>
-    </row>
-    <row r="7" spans="1:92">
+      <c r="CC6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:83">
       <c r="A7">
         <v>11.5</v>
       </c>
@@ -4111,14 +4118,14 @@
         <v>1115</v>
       </c>
       <c r="V7">
-        <f t="shared" si="0"/>
+        <f>U7/5.85*5.39</f>
         <v>1027.3247863247864</v>
       </c>
       <c r="X7">
         <v>588</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="1"/>
+        <f>X7/5.85*5.39</f>
         <v>541.76410256410259</v>
       </c>
       <c r="Z7">
@@ -4128,14 +4135,14 @@
         <v>946</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="2"/>
+        <f>AA7/5.85*5.73</f>
         <v>926.59487179487201</v>
       </c>
       <c r="AD7">
         <v>1083</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="3"/>
+        <f>AD7/5.85*5.65</f>
         <v>1045.9743589743591</v>
       </c>
       <c r="AJ7">
@@ -4145,14 +4152,14 @@
         <v>878</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="4"/>
+        <f>AP7/5.85*5.65</f>
         <v>847.98290598290612</v>
       </c>
       <c r="AS7">
         <v>1029</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="5"/>
+        <f>AS7/5.85*5.65</f>
         <v>993.82051282051293</v>
       </c>
       <c r="AU7">
@@ -4162,39 +4169,39 @@
         <v>1324</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="6"/>
+        <f>AV7/5.85*5.65</f>
         <v>1278.735042735043</v>
       </c>
       <c r="AY7">
         <v>1047</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="7"/>
+        <f>AY7/5.85*5.65</f>
         <v>1011.2051282051283</v>
       </c>
       <c r="BB7">
         <v>1125</v>
       </c>
       <c r="BC7">
-        <f t="shared" si="8"/>
+        <f>BB7/5.85*5.65</f>
         <v>1086.5384615384617</v>
       </c>
       <c r="BE7">
         <v>59</v>
       </c>
       <c r="BF7">
-        <f t="shared" si="9"/>
+        <f>BE7/5.85*5.65</f>
         <v>56.982905982905997</v>
       </c>
       <c r="BK7">
         <v>346</v>
       </c>
       <c r="BL7">
-        <f t="shared" si="10"/>
+        <f>BK7/5.85*5.65</f>
         <v>334.17094017094018</v>
       </c>
     </row>
-    <row r="8" spans="1:92">
+    <row r="8" spans="1:83">
       <c r="A8">
         <v>11.9</v>
       </c>
@@ -4226,42 +4233,42 @@
         <v>313</v>
       </c>
       <c r="V8">
-        <f t="shared" si="0"/>
+        <f>U8/5.85*5.39</f>
         <v>288.38803418803417</v>
       </c>
       <c r="X8">
         <v>576</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="1"/>
+        <f>X8/5.85*5.39</f>
         <v>530.70769230769235</v>
       </c>
       <c r="AA8">
         <v>710</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="2"/>
+        <f>AA8/5.85*5.73</f>
         <v>695.43589743589757</v>
       </c>
       <c r="AD8">
         <v>2588</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="3"/>
+        <f>AD8/5.85*5.65</f>
         <v>2499.5213675213677</v>
       </c>
       <c r="AP8">
         <v>996</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="4"/>
+        <f>AP8/5.85*5.65</f>
         <v>961.94871794871813</v>
       </c>
       <c r="AS8">
         <v>1556</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="5"/>
+        <f>AS8/5.85*5.65</f>
         <v>1502.8034188034189</v>
       </c>
       <c r="AU8">
@@ -4271,39 +4278,39 @@
         <v>386</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="6"/>
+        <f>AV8/5.85*5.65</f>
         <v>372.80341880341888</v>
       </c>
       <c r="AY8">
         <v>552</v>
       </c>
       <c r="AZ8">
-        <f t="shared" si="7"/>
+        <f>AY8/5.85*5.65</f>
         <v>533.1282051282052</v>
       </c>
       <c r="BB8">
         <v>787</v>
       </c>
       <c r="BC8">
-        <f t="shared" si="8"/>
+        <f>BB8/5.85*5.65</f>
         <v>760.0940170940172</v>
       </c>
       <c r="BE8">
         <v>400</v>
       </c>
       <c r="BF8">
-        <f t="shared" si="9"/>
+        <f>BE8/5.85*5.65</f>
         <v>386.32478632478632</v>
       </c>
       <c r="BK8">
         <v>829</v>
       </c>
       <c r="BL8">
-        <f t="shared" si="10"/>
+        <f>BK8/5.85*5.65</f>
         <v>800.65811965811986</v>
       </c>
     </row>
-    <row r="9" spans="1:92">
+    <row r="9" spans="1:83">
       <c r="A9">
         <v>11.12</v>
       </c>
@@ -4335,81 +4342,81 @@
         <v>1092</v>
       </c>
       <c r="V9">
-        <f t="shared" si="0"/>
+        <f>U9/5.85*5.39</f>
         <v>1006.1333333333333</v>
       </c>
       <c r="X9">
         <v>466</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="1"/>
+        <f>X9/5.85*5.39</f>
         <v>429.35726495726493</v>
       </c>
       <c r="AA9">
         <v>709</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="2"/>
+        <f>AA9/5.85*5.73</f>
         <v>694.45641025641032</v>
       </c>
       <c r="AD9">
         <v>3101</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="3"/>
+        <f>AD9/5.85*5.65</f>
         <v>2994.9829059829062</v>
       </c>
       <c r="AP9">
         <v>963</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="4"/>
+        <f>AP9/5.85*5.65</f>
         <v>930.07692307692309</v>
       </c>
       <c r="AS9">
         <v>2515</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="5"/>
+        <f>AS9/5.85*5.65</f>
         <v>2429.0170940170947</v>
       </c>
       <c r="AV9">
         <v>1062</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="6"/>
+        <f>AV9/5.85*5.65</f>
         <v>1025.6923076923078</v>
       </c>
       <c r="AY9">
         <v>1379</v>
       </c>
       <c r="AZ9">
-        <f t="shared" si="7"/>
+        <f>AY9/5.85*5.65</f>
         <v>1331.8547008547009</v>
       </c>
       <c r="BB9">
         <v>394</v>
       </c>
       <c r="BC9">
-        <f t="shared" si="8"/>
+        <f>BB9/5.85*5.65</f>
         <v>380.52991452991455</v>
       </c>
       <c r="BE9">
         <v>1445</v>
       </c>
       <c r="BF9">
-        <f t="shared" si="9"/>
+        <f>BE9/5.85*5.65</f>
         <v>1395.5982905982908</v>
       </c>
       <c r="BK9">
         <v>1398</v>
       </c>
       <c r="BL9">
-        <f t="shared" si="10"/>
+        <f>BK9/5.85*5.65</f>
         <v>1350.2051282051284</v>
       </c>
     </row>
-    <row r="10" spans="1:92">
+    <row r="10" spans="1:83">
       <c r="A10">
         <v>11.16</v>
       </c>
@@ -4441,81 +4448,81 @@
         <v>2296</v>
       </c>
       <c r="V10">
-        <f t="shared" si="0"/>
+        <f>U10/5.85*5.39</f>
         <v>2115.4598290598292</v>
       </c>
       <c r="X10">
         <v>524</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="1"/>
+        <f>X10/5.85*5.39</f>
         <v>482.7965811965812</v>
       </c>
       <c r="AA10">
         <v>571</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="2"/>
+        <f>AA10/5.85*5.73</f>
         <v>559.28717948717963</v>
       </c>
       <c r="AD10">
         <v>3049</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="3"/>
+        <f>AD10/5.85*5.65</f>
         <v>2944.7606837606841</v>
       </c>
       <c r="AP10">
         <v>1590</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="4"/>
+        <f>AP10/5.85*5.65</f>
         <v>1535.6410256410259</v>
       </c>
       <c r="AS10">
         <v>971</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="5"/>
+        <f>AS10/5.85*5.65</f>
         <v>937.80341880341894</v>
       </c>
       <c r="AV10">
         <v>656</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="6"/>
+        <f>AV10/5.85*5.65</f>
         <v>633.57264957264965</v>
       </c>
       <c r="AY10">
         <v>328</v>
       </c>
       <c r="AZ10">
-        <f t="shared" si="7"/>
+        <f>AY10/5.85*5.65</f>
         <v>316.78632478632483</v>
       </c>
       <c r="BB10">
         <v>334</v>
       </c>
       <c r="BC10">
-        <f t="shared" si="8"/>
+        <f>BB10/5.85*5.65</f>
         <v>322.58119658119659</v>
       </c>
       <c r="BE10">
         <v>242</v>
       </c>
       <c r="BF10">
-        <f t="shared" si="9"/>
+        <f>BE10/5.85*5.65</f>
         <v>233.72649572649576</v>
       </c>
       <c r="BK10">
         <v>1370</v>
       </c>
       <c r="BL10">
-        <f t="shared" si="10"/>
+        <f>BK10/5.85*5.65</f>
         <v>1323.1623931623933</v>
       </c>
     </row>
-    <row r="11" spans="1:92">
+    <row r="11" spans="1:83">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4547,81 +4554,81 @@
         <v>1053</v>
       </c>
       <c r="V11">
-        <f t="shared" si="0"/>
+        <f>U11/5.85*5.39</f>
         <v>970.19999999999993</v>
       </c>
       <c r="X11">
         <v>1485</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="1"/>
+        <f>X11/5.85*5.39</f>
         <v>1368.2307692307693</v>
       </c>
       <c r="AA11">
         <v>1487</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
+        <f>AA11/5.85*5.73</f>
         <v>1456.4974358974362</v>
       </c>
       <c r="AD11">
         <v>306</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="3"/>
+        <f>AD11/5.85*5.65</f>
         <v>295.5384615384616</v>
       </c>
       <c r="AP11">
         <v>332</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="4"/>
+        <f>AP11/5.85*5.65</f>
         <v>320.64957264957269</v>
       </c>
       <c r="AS11">
         <v>833</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="5"/>
+        <f>AS11/5.85*5.65</f>
         <v>804.52136752136767</v>
       </c>
       <c r="AV11">
         <v>1162</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="6"/>
+        <f>AV11/5.85*5.65</f>
         <v>1122.2735042735044</v>
       </c>
       <c r="AY11">
         <v>389</v>
       </c>
       <c r="AZ11">
-        <f t="shared" si="7"/>
+        <f>AY11/5.85*5.65</f>
         <v>375.70085470085473</v>
       </c>
       <c r="BB11">
         <v>380</v>
       </c>
       <c r="BC11">
-        <f t="shared" si="8"/>
+        <f>BB11/5.85*5.65</f>
         <v>367.00854700854711</v>
       </c>
       <c r="BE11">
         <v>463</v>
       </c>
       <c r="BF11">
-        <f t="shared" si="9"/>
+        <f>BE11/5.85*5.65</f>
         <v>447.17094017094024</v>
       </c>
       <c r="BK11">
         <v>1192</v>
       </c>
       <c r="BL11">
-        <f t="shared" si="10"/>
+        <f>BK11/5.85*5.65</f>
         <v>1151.2478632478635</v>
       </c>
     </row>
-    <row r="12" spans="1:92">
+    <row r="12" spans="1:83">
       <c r="A12">
         <v>11.18</v>
       </c>
@@ -4653,67 +4660,67 @@
         <v>1304</v>
       </c>
       <c r="V12">
-        <f t="shared" si="0"/>
+        <f>U12/5.85*5.39</f>
         <v>1201.4632478632477</v>
       </c>
       <c r="X12">
         <v>783</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="1"/>
+        <f>X12/5.85*5.39</f>
         <v>721.43076923076933</v>
       </c>
       <c r="AA12">
         <v>877</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
+        <f>AA12/5.85*5.73</f>
         <v>859.0102564102566</v>
       </c>
       <c r="AD12">
         <v>1512</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="3"/>
+        <f>AD12/5.85*5.65</f>
         <v>1460.3076923076924</v>
       </c>
       <c r="AP12">
         <v>1332</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="4"/>
+        <f>AP12/5.85*5.65</f>
         <v>1286.4615384615386</v>
       </c>
       <c r="AS12">
         <v>1296</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="5"/>
+        <f>AS12/5.85*5.65</f>
         <v>1251.6923076923078</v>
       </c>
       <c r="AV12">
         <v>1060</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="6"/>
+        <f>AV12/5.85*5.65</f>
         <v>1023.7606837606838</v>
       </c>
       <c r="AY12">
         <v>1180</v>
       </c>
       <c r="AZ12">
-        <f t="shared" si="7"/>
+        <f>AY12/5.85*5.65</f>
         <v>1139.6581196581199</v>
       </c>
       <c r="BB12">
         <v>1317</v>
       </c>
       <c r="BC12">
-        <f t="shared" si="8"/>
+        <f>BB12/5.85*5.65</f>
         <v>1271.9743589743591</v>
       </c>
     </row>
-    <row r="13" spans="1:92">
+    <row r="13" spans="1:83">
       <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
@@ -4739,60 +4746,60 @@
         <v>1616</v>
       </c>
       <c r="V13">
-        <f t="shared" si="0"/>
+        <f>U13/5.85*5.39</f>
         <v>1488.9299145299146</v>
       </c>
       <c r="X13">
         <v>1775</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="1"/>
+        <f>X13/5.85*5.39</f>
         <v>1635.4273504273506</v>
       </c>
       <c r="AA13">
         <v>506</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="2"/>
+        <f>AA13/5.85*5.73</f>
         <v>495.62051282051289</v>
       </c>
       <c r="AD13">
         <v>1459</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="3"/>
+        <f>AD13/5.85*5.65</f>
         <v>1409.1196581196582</v>
       </c>
       <c r="AP13">
         <v>1808</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="4"/>
+        <f>AP13/5.85*5.65</f>
         <v>1746.1880341880344</v>
       </c>
       <c r="AS13">
         <v>1150</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="5"/>
+        <f>AS13/5.85*5.65</f>
         <v>1110.6837606837607</v>
       </c>
       <c r="AY13">
         <v>672</v>
       </c>
       <c r="AZ13">
-        <f t="shared" si="7"/>
+        <f>AY13/5.85*5.65</f>
         <v>649.02564102564111</v>
       </c>
       <c r="BB13">
         <v>546</v>
       </c>
       <c r="BC13">
-        <f t="shared" si="8"/>
+        <f>BB13/5.85*5.65</f>
         <v>527.33333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:92">
+    <row r="14" spans="1:83">
       <c r="A14">
         <v>11.27</v>
       </c>
@@ -4818,60 +4825,60 @@
         <v>1075</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
+        <f>U14/5.85*5.39</f>
         <v>990.47008547008545</v>
       </c>
       <c r="X14">
         <v>937</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="1"/>
+        <f>X14/5.85*5.39</f>
         <v>863.32136752136751</v>
       </c>
       <c r="AA14">
         <v>1188</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="2"/>
+        <f>AA14/5.85*5.73</f>
         <v>1163.6307692307694</v>
       </c>
       <c r="AD14">
         <v>1488</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="3"/>
+        <f>AD14/5.85*5.65</f>
         <v>1437.1282051282053</v>
       </c>
       <c r="AP14">
         <v>319</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="4"/>
+        <f>AP14/5.85*5.65</f>
         <v>308.09401709401715</v>
       </c>
       <c r="AS14">
         <v>1048</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="5"/>
+        <f>AS14/5.85*5.65</f>
         <v>1012.1709401709403</v>
       </c>
       <c r="AY14">
         <v>773</v>
       </c>
       <c r="AZ14">
-        <f t="shared" si="7"/>
+        <f>AY14/5.85*5.65</f>
         <v>746.57264957264965</v>
       </c>
       <c r="BB14">
         <v>844</v>
       </c>
       <c r="BC14">
-        <f t="shared" si="8"/>
+        <f>BB14/5.85*5.65</f>
         <v>815.14529914529919</v>
       </c>
     </row>
-    <row r="15" spans="1:92">
+    <row r="15" spans="1:83">
       <c r="E15" s="4">
         <v>685</v>
       </c>
@@ -4891,60 +4898,60 @@
         <v>1345</v>
       </c>
       <c r="V15">
-        <f t="shared" si="0"/>
+        <f>U15/5.85*5.39</f>
         <v>1239.2393162393164</v>
       </c>
       <c r="X15">
         <v>1108</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="1"/>
+        <f>X15/5.85*5.39</f>
         <v>1020.8752136752137</v>
       </c>
       <c r="AA15">
         <v>1150</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="2"/>
+        <f>AA15/5.85*5.73</f>
         <v>1126.4102564102566</v>
       </c>
       <c r="AD15">
         <v>823</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="3"/>
+        <f>AD15/5.85*5.65</f>
         <v>794.86324786324792</v>
       </c>
       <c r="AP15">
         <v>259</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="4"/>
+        <f>AP15/5.85*5.65</f>
         <v>250.14529914529919</v>
       </c>
       <c r="AS15">
         <v>1196</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="5"/>
+        <f>AS15/5.85*5.65</f>
         <v>1155.1111111111113</v>
       </c>
       <c r="AY15">
         <v>644</v>
       </c>
       <c r="AZ15">
-        <f t="shared" si="7"/>
+        <f>AY15/5.85*5.65</f>
         <v>621.982905982906</v>
       </c>
       <c r="BB15">
         <v>1090</v>
       </c>
       <c r="BC15">
-        <f t="shared" si="8"/>
+        <f>BB15/5.85*5.65</f>
         <v>1052.735042735043</v>
       </c>
     </row>
-    <row r="16" spans="1:92">
+    <row r="16" spans="1:83">
       <c r="E16" s="4">
         <v>861</v>
       </c>
@@ -4961,56 +4968,56 @@
         <v>2168</v>
       </c>
       <c r="V16">
-        <f t="shared" si="0"/>
+        <f>U16/5.85*5.39</f>
         <v>1997.5247863247864</v>
       </c>
       <c r="X16">
         <v>1466</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="1"/>
+        <f>X16/5.85*5.39</f>
         <v>1350.7247863247862</v>
       </c>
       <c r="AA16">
         <v>750</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="2"/>
+        <f>AA16/5.85*5.73</f>
         <v>734.61538461538464</v>
       </c>
       <c r="AD16">
         <v>1502</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="3"/>
+        <f>AD16/5.85*5.65</f>
         <v>1450.649572649573</v>
       </c>
       <c r="AP16">
         <v>314</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="4"/>
+        <f>AP16/5.85*5.65</f>
         <v>303.26495726495727</v>
       </c>
       <c r="AS16">
         <v>1035</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="5"/>
+        <f>AS16/5.85*5.65</f>
         <v>999.61538461538476</v>
       </c>
       <c r="AY16">
         <v>396</v>
       </c>
       <c r="AZ16">
-        <f t="shared" si="7"/>
+        <f>AY16/5.85*5.65</f>
         <v>382.46153846153851</v>
       </c>
       <c r="BB16">
         <v>1356</v>
       </c>
       <c r="BC16">
-        <f t="shared" si="8"/>
+        <f>BB16/5.85*5.65</f>
         <v>1309.6410256410256</v>
       </c>
     </row>
@@ -5038,56 +5045,56 @@
         <v>2163</v>
       </c>
       <c r="V17">
-        <f t="shared" si="0"/>
+        <f>U17/5.85*5.39</f>
         <v>1992.9179487179488</v>
       </c>
       <c r="X17">
         <v>1130</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="1"/>
+        <f>X17/5.85*5.39</f>
         <v>1041.1452991452993</v>
       </c>
       <c r="AA17">
         <v>1286</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="2"/>
+        <f>AA17/5.85*5.73</f>
         <v>1259.6205128205129</v>
       </c>
       <c r="AD17">
         <v>545</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="3"/>
+        <f>AD17/5.85*5.65</f>
         <v>526.36752136752148</v>
       </c>
       <c r="AP17">
         <v>317</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="4"/>
+        <f>AP17/5.85*5.65</f>
         <v>306.16239316239324</v>
       </c>
       <c r="AS17">
         <v>1684</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="5"/>
+        <f>AS17/5.85*5.65</f>
         <v>1626.4273504273506</v>
       </c>
       <c r="AY17">
         <v>274</v>
       </c>
       <c r="AZ17">
-        <f t="shared" si="7"/>
+        <f>AY17/5.85*5.65</f>
         <v>264.63247863247869</v>
       </c>
       <c r="BB17">
         <v>825</v>
       </c>
       <c r="BC17">
-        <f t="shared" si="8"/>
+        <f>BB17/5.85*5.65</f>
         <v>796.79487179487182</v>
       </c>
     </row>
@@ -5112,56 +5119,56 @@
         <v>1336</v>
       </c>
       <c r="V18">
-        <f t="shared" si="0"/>
+        <f>U18/5.85*5.39</f>
         <v>1230.9470085470086</v>
       </c>
       <c r="X18">
         <v>737</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="1"/>
+        <f>X18/5.85*5.39</f>
         <v>679.04786324786323</v>
       </c>
       <c r="AA18">
         <v>1073</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="2"/>
+        <f>AA18/5.85*5.73</f>
         <v>1050.9897435897437</v>
       </c>
       <c r="AD18">
         <v>1246</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="3"/>
+        <f>AD18/5.85*5.65</f>
         <v>1203.4017094017095</v>
       </c>
       <c r="AP18">
         <v>219</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="4"/>
+        <f>AP18/5.85*5.65</f>
         <v>211.51282051282053</v>
       </c>
       <c r="AS18">
         <v>884</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="5"/>
+        <f>AS18/5.85*5.65</f>
         <v>853.77777777777783</v>
       </c>
       <c r="AY18">
         <v>1304</v>
       </c>
       <c r="AZ18">
-        <f t="shared" si="7"/>
+        <f>AY18/5.85*5.65</f>
         <v>1259.4188034188035</v>
       </c>
       <c r="BB18">
         <v>376</v>
       </c>
       <c r="BC18">
-        <f t="shared" si="8"/>
+        <f>BB18/5.85*5.65</f>
         <v>363.14529914529919</v>
       </c>
     </row>
@@ -5183,56 +5190,56 @@
         <v>1160</v>
       </c>
       <c r="V19">
-        <f t="shared" si="0"/>
+        <f>U19/5.85*5.39</f>
         <v>1068.7863247863247</v>
       </c>
       <c r="X19">
         <v>852</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="1"/>
+        <f>X19/5.85*5.39</f>
         <v>785.00512820512824</v>
       </c>
       <c r="AA19">
         <v>983</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="2"/>
+        <f>AA19/5.85*5.73</f>
         <v>962.83589743589755</v>
       </c>
       <c r="AD19">
         <v>906</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="3"/>
+        <f>AD19/5.85*5.65</f>
         <v>875.02564102564122</v>
       </c>
       <c r="AP19">
         <v>471</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="4"/>
+        <f>AP19/5.85*5.65</f>
         <v>454.89743589743591</v>
       </c>
       <c r="AS19">
         <v>877</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="5"/>
+        <f>AS19/5.85*5.65</f>
         <v>847.01709401709422</v>
       </c>
       <c r="AY19">
         <v>732</v>
       </c>
       <c r="AZ19">
-        <f t="shared" si="7"/>
+        <f>AY19/5.85*5.65</f>
         <v>706.97435897435912</v>
       </c>
       <c r="BB19">
         <v>807</v>
       </c>
       <c r="BC19">
-        <f t="shared" si="8"/>
+        <f>BB19/5.85*5.65</f>
         <v>779.41025641025647</v>
       </c>
     </row>
@@ -5250,56 +5257,56 @@
         <v>1461</v>
       </c>
       <c r="V20">
-        <f t="shared" si="0"/>
+        <f>U20/5.85*5.39</f>
         <v>1346.1179487179486</v>
       </c>
       <c r="X20">
         <v>850</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="1"/>
+        <f>X20/5.85*5.39</f>
         <v>783.16239316239307</v>
       </c>
       <c r="AA20">
         <v>1443</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="2"/>
+        <f>AA20/5.85*5.73</f>
         <v>1413.4000000000003</v>
       </c>
       <c r="AD20">
         <v>1308</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="3"/>
+        <f>AD20/5.85*5.65</f>
         <v>1263.2820512820513</v>
       </c>
       <c r="AP20">
         <v>441</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="4"/>
+        <f>AP20/5.85*5.65</f>
         <v>425.92307692307696</v>
       </c>
       <c r="AS20">
         <v>938</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="5"/>
+        <f>AS20/5.85*5.65</f>
         <v>905.93162393162402</v>
       </c>
       <c r="AY20">
         <v>663</v>
       </c>
       <c r="AZ20">
-        <f t="shared" si="7"/>
+        <f>AY20/5.85*5.65</f>
         <v>640.33333333333337</v>
       </c>
       <c r="BB20">
         <v>1543</v>
       </c>
       <c r="BC20">
-        <f t="shared" si="8"/>
+        <f>BB20/5.85*5.65</f>
         <v>1490.2478632478635</v>
       </c>
     </row>
@@ -5317,56 +5324,56 @@
         <v>1694</v>
       </c>
       <c r="V21">
-        <f t="shared" si="0"/>
+        <f>U21/5.85*5.39</f>
         <v>1560.7965811965812</v>
       </c>
       <c r="X21">
         <v>615</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="1"/>
+        <f>X21/5.85*5.39</f>
         <v>566.64102564102564</v>
       </c>
       <c r="AA21">
         <v>1228</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="2"/>
+        <f>AA21/5.85*5.73</f>
         <v>1202.8102564102567</v>
       </c>
       <c r="AD21">
         <v>819</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="3"/>
+        <f>AD21/5.85*5.65</f>
         <v>791</v>
       </c>
       <c r="AP21">
         <v>359</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="4"/>
+        <f>AP21/5.85*5.65</f>
         <v>346.72649572649578</v>
       </c>
       <c r="AS21">
         <v>637</v>
       </c>
       <c r="AT21">
-        <f t="shared" si="5"/>
+        <f>AS21/5.85*5.65</f>
         <v>615.22222222222229</v>
       </c>
       <c r="AY21">
         <v>755</v>
       </c>
       <c r="AZ21">
-        <f t="shared" si="7"/>
+        <f>AY21/5.85*5.65</f>
         <v>729.18803418803429</v>
       </c>
       <c r="BB21">
         <v>366</v>
       </c>
       <c r="BC21">
-        <f t="shared" si="8"/>
+        <f>BB21/5.85*5.65</f>
         <v>353.48717948717956</v>
       </c>
     </row>
@@ -5384,56 +5391,56 @@
         <v>989</v>
       </c>
       <c r="V22">
-        <f t="shared" si="0"/>
+        <f>U22/5.85*5.39</f>
         <v>911.23247863247866</v>
       </c>
       <c r="X22">
         <v>681</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="1"/>
+        <f>X22/5.85*5.39</f>
         <v>627.45128205128208</v>
       </c>
       <c r="AA22">
         <v>1014</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="2"/>
+        <f>AA22/5.85*5.73</f>
         <v>993.20000000000016</v>
       </c>
       <c r="AD22">
         <v>1029</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="3"/>
+        <f>AD22/5.85*5.65</f>
         <v>993.82051282051293</v>
       </c>
       <c r="AP22">
         <v>367</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="4"/>
+        <f>AP22/5.85*5.65</f>
         <v>354.45299145299151</v>
       </c>
       <c r="AS22">
         <v>1353</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="5"/>
+        <f>AS22/5.85*5.65</f>
         <v>1306.7435897435898</v>
       </c>
       <c r="AY22">
         <v>2903</v>
       </c>
       <c r="AZ22">
-        <f t="shared" si="7"/>
+        <f>AY22/5.85*5.65</f>
         <v>2803.7521367521372</v>
       </c>
       <c r="BB22">
         <v>1278</v>
       </c>
       <c r="BC22">
-        <f t="shared" si="8"/>
+        <f>BB22/5.85*5.65</f>
         <v>1234.3076923076926</v>
       </c>
     </row>
@@ -5451,49 +5458,49 @@
         <v>1386</v>
       </c>
       <c r="V23">
-        <f t="shared" si="0"/>
+        <f>U23/5.85*5.39</f>
         <v>1277.0153846153846</v>
       </c>
       <c r="AA23">
         <v>587</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="2"/>
+        <f>AA23/5.85*5.73</f>
         <v>574.9589743589745</v>
       </c>
       <c r="AD23">
         <v>1349</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="3"/>
+        <f>AD23/5.85*5.65</f>
         <v>1302.880341880342</v>
       </c>
       <c r="AP23">
         <v>1076</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="4"/>
+        <f>AP23/5.85*5.65</f>
         <v>1039.2136752136753</v>
       </c>
       <c r="AS23">
         <v>1011</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="5"/>
+        <f>AS23/5.85*5.65</f>
         <v>976.43589743589746</v>
       </c>
       <c r="AY23">
         <v>762</v>
       </c>
       <c r="AZ23">
-        <f t="shared" si="7"/>
+        <f>AY23/5.85*5.65</f>
         <v>735.94871794871813</v>
       </c>
       <c r="BB23">
         <v>718</v>
       </c>
       <c r="BC23">
-        <f t="shared" si="8"/>
+        <f>BB23/5.85*5.65</f>
         <v>693.45299145299157</v>
       </c>
     </row>
@@ -5511,49 +5518,49 @@
         <v>1019</v>
       </c>
       <c r="V24">
-        <f t="shared" si="0"/>
+        <f>U24/5.85*5.39</f>
         <v>938.8735042735043</v>
       </c>
       <c r="AA24">
         <v>680</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="2"/>
+        <f>AA24/5.85*5.73</f>
         <v>666.05128205128221</v>
       </c>
       <c r="AD24">
         <v>1837</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="3"/>
+        <f>AD24/5.85*5.65</f>
         <v>1774.1965811965815</v>
       </c>
       <c r="AP24">
         <v>419</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="4"/>
+        <f>AP24/5.85*5.65</f>
         <v>404.67521367521368</v>
       </c>
       <c r="AS24">
         <v>1152</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="5"/>
+        <f>AS24/5.85*5.65</f>
         <v>1112.6153846153848</v>
       </c>
       <c r="AY24">
         <v>786</v>
       </c>
       <c r="AZ24">
-        <f t="shared" si="7"/>
+        <f>AY24/5.85*5.65</f>
         <v>759.1282051282052</v>
       </c>
       <c r="BB24">
         <v>210</v>
       </c>
       <c r="BC24">
-        <f t="shared" si="8"/>
+        <f>BB24/5.85*5.65</f>
         <v>202.82051282051285</v>
       </c>
     </row>
@@ -5568,49 +5575,49 @@
         <v>1026</v>
       </c>
       <c r="V25">
-        <f t="shared" si="0"/>
+        <f>U25/5.85*5.39</f>
         <v>945.32307692307688</v>
       </c>
       <c r="AA25">
         <v>657</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="2"/>
+        <f>AA25/5.85*5.73</f>
         <v>643.52307692307704</v>
       </c>
       <c r="AD25">
         <v>294</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="3"/>
+        <f>AD25/5.85*5.65</f>
         <v>283.94871794871801</v>
       </c>
       <c r="AP25">
         <v>262</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="4"/>
+        <f>AP25/5.85*5.65</f>
         <v>253.04273504273507</v>
       </c>
       <c r="AS25">
         <v>1378</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="5"/>
+        <f>AS25/5.85*5.65</f>
         <v>1330.8888888888891</v>
       </c>
       <c r="AY25">
         <v>1564</v>
       </c>
       <c r="AZ25">
-        <f t="shared" si="7"/>
+        <f>AY25/5.85*5.65</f>
         <v>1510.5299145299148</v>
       </c>
       <c r="BB25">
         <v>1229</v>
       </c>
       <c r="BC25">
-        <f t="shared" si="8"/>
+        <f>BB25/5.85*5.65</f>
         <v>1186.982905982906</v>
       </c>
     </row>
@@ -5625,42 +5632,42 @@
         <v>1466</v>
       </c>
       <c r="V26">
-        <f t="shared" si="0"/>
+        <f>U26/5.85*5.39</f>
         <v>1350.7247863247862</v>
       </c>
       <c r="AA26">
         <v>703</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="2"/>
+        <f>AA26/5.85*5.73</f>
         <v>688.57948717948727</v>
       </c>
       <c r="AD26">
         <v>295</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="3"/>
+        <f>AD26/5.85*5.65</f>
         <v>284.91452991452996</v>
       </c>
       <c r="AP26">
         <v>274</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="4"/>
+        <f>AP26/5.85*5.65</f>
         <v>264.63247863247869</v>
       </c>
       <c r="AS26">
         <v>624</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="5"/>
+        <f>AS26/5.85*5.65</f>
         <v>602.66666666666674</v>
       </c>
       <c r="AY26">
         <v>510</v>
       </c>
       <c r="AZ26">
-        <f t="shared" si="7"/>
+        <f>AY26/5.85*5.65</f>
         <v>492.5641025641026</v>
       </c>
     </row>
@@ -5675,35 +5682,35 @@
         <v>402</v>
       </c>
       <c r="V27">
-        <f t="shared" si="0"/>
+        <f>U27/5.85*5.39</f>
         <v>370.38974358974355</v>
       </c>
       <c r="AD27">
         <v>872</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="3"/>
+        <f>AD27/5.85*5.65</f>
         <v>842.18803418803429</v>
       </c>
       <c r="AP27">
         <v>351</v>
       </c>
       <c r="AQ27">
-        <f t="shared" si="4"/>
+        <f>AP27/5.85*5.65</f>
         <v>339.00000000000006</v>
       </c>
       <c r="AS27">
         <v>722</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="5"/>
+        <f>AS27/5.85*5.65</f>
         <v>697.31623931623938</v>
       </c>
       <c r="AY27">
         <v>1382</v>
       </c>
       <c r="AZ27">
-        <f t="shared" si="7"/>
+        <f>AY27/5.85*5.65</f>
         <v>1334.7521367521369</v>
       </c>
     </row>
@@ -5718,35 +5725,35 @@
         <v>726</v>
       </c>
       <c r="V28">
-        <f t="shared" si="0"/>
+        <f>U28/5.85*5.39</f>
         <v>668.91282051282053</v>
       </c>
       <c r="AD28">
         <v>119</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="3"/>
+        <f>AD28/5.85*5.65</f>
         <v>114.93162393162395</v>
       </c>
       <c r="AP28">
         <v>349</v>
       </c>
       <c r="AQ28">
-        <f t="shared" si="4"/>
+        <f>AP28/5.85*5.65</f>
         <v>337.0683760683761</v>
       </c>
       <c r="AS28">
         <v>1612</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="5"/>
+        <f>AS28/5.85*5.65</f>
         <v>1556.8888888888891</v>
       </c>
       <c r="AY28">
         <v>2494</v>
       </c>
       <c r="AZ28">
-        <f t="shared" si="7"/>
+        <f>AY28/5.85*5.65</f>
         <v>2408.735042735043</v>
       </c>
     </row>
@@ -5761,21 +5768,21 @@
         <v>194</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="3"/>
+        <f>AD29/5.85*5.65</f>
         <v>187.36752136752139</v>
       </c>
       <c r="AP29">
         <v>876</v>
       </c>
       <c r="AQ29">
-        <f t="shared" si="4"/>
+        <f>AP29/5.85*5.65</f>
         <v>846.0512820512821</v>
       </c>
       <c r="AS29">
         <v>1395</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="5"/>
+        <f>AS29/5.85*5.65</f>
         <v>1347.3076923076926</v>
       </c>
     </row>
@@ -5787,21 +5794,21 @@
         <v>265</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="3"/>
+        <f>AD30/5.85*5.65</f>
         <v>255.94017094017096</v>
       </c>
       <c r="AP30">
         <v>309</v>
       </c>
       <c r="AQ30">
-        <f t="shared" si="4"/>
+        <f>AP30/5.85*5.65</f>
         <v>298.43589743589746</v>
       </c>
       <c r="AS30">
         <v>871</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="5"/>
+        <f>AS30/5.85*5.65</f>
         <v>841.22222222222229</v>
       </c>
     </row>
@@ -5813,21 +5820,21 @@
         <v>177</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="3"/>
+        <f>AD31/5.85*5.65</f>
         <v>170.94871794871798</v>
       </c>
       <c r="AP31">
         <v>462</v>
       </c>
       <c r="AQ31">
-        <f t="shared" si="4"/>
+        <f>AP31/5.85*5.65</f>
         <v>446.20512820512823</v>
       </c>
       <c r="AS31">
         <v>847</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="5"/>
+        <f>AS31/5.85*5.65</f>
         <v>818.0427350427351</v>
       </c>
     </row>
@@ -5839,21 +5846,21 @@
         <v>768</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="3"/>
+        <f>AD32/5.85*5.65</f>
         <v>741.74358974358984</v>
       </c>
       <c r="AP32">
         <v>292</v>
       </c>
       <c r="AQ32">
-        <f t="shared" si="4"/>
+        <f>AP32/5.85*5.65</f>
         <v>282.01709401709405</v>
       </c>
       <c r="AS32">
         <v>988</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="5"/>
+        <f>AS32/5.85*5.65</f>
         <v>954.22222222222229</v>
       </c>
     </row>
@@ -5865,14 +5872,14 @@
         <v>837</v>
       </c>
       <c r="AQ33">
-        <f t="shared" si="4"/>
+        <f>AP33/5.85*5.65</f>
         <v>808.38461538461559</v>
       </c>
       <c r="AS33">
         <v>704</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="5"/>
+        <f>AS33/5.85*5.65</f>
         <v>679.93162393162402</v>
       </c>
     </row>
@@ -5884,14 +5891,14 @@
         <v>311</v>
       </c>
       <c r="AQ34">
-        <f t="shared" si="4"/>
+        <f>AP34/5.85*5.65</f>
         <v>300.36752136752142</v>
       </c>
       <c r="AS34">
         <v>1043</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="5"/>
+        <f>AS34/5.85*5.65</f>
         <v>1007.3418803418805</v>
       </c>
     </row>
@@ -5903,14 +5910,14 @@
         <v>265</v>
       </c>
       <c r="AQ35">
-        <f t="shared" si="4"/>
+        <f>AP35/5.85*5.65</f>
         <v>255.94017094017096</v>
       </c>
       <c r="AS35">
         <v>1371</v>
       </c>
       <c r="AT35">
-        <f t="shared" si="5"/>
+        <f>AS35/5.85*5.65</f>
         <v>1324.1282051282053</v>
       </c>
     </row>
@@ -5922,14 +5929,14 @@
         <v>194</v>
       </c>
       <c r="AQ36">
-        <f t="shared" si="4"/>
+        <f>AP36/5.85*5.65</f>
         <v>187.36752136752139</v>
       </c>
       <c r="AS36">
         <v>402</v>
       </c>
       <c r="AT36">
-        <f t="shared" si="5"/>
+        <f>AS36/5.85*5.65</f>
         <v>388.25641025641028</v>
       </c>
     </row>
@@ -5941,14 +5948,14 @@
         <v>304</v>
       </c>
       <c r="AQ37">
-        <f t="shared" si="4"/>
+        <f>AP37/5.85*5.65</f>
         <v>293.60683760683764</v>
       </c>
       <c r="AS37">
         <v>255</v>
       </c>
       <c r="AT37">
-        <f t="shared" si="5"/>
+        <f>AS37/5.85*5.65</f>
         <v>246.2820512820513</v>
       </c>
     </row>
@@ -5960,7 +5967,7 @@
         <v>299</v>
       </c>
       <c r="AQ38">
-        <f t="shared" si="4"/>
+        <f>AP38/5.85*5.65</f>
         <v>288.77777777777783</v>
       </c>
     </row>
@@ -5972,7 +5979,7 @@
         <v>355</v>
       </c>
       <c r="AQ39">
-        <f t="shared" si="4"/>
+        <f>AP39/5.85*5.65</f>
         <v>342.86324786324792</v>
       </c>
     </row>
@@ -5981,7 +5988,7 @@
         <v>997</v>
       </c>
       <c r="AQ40">
-        <f t="shared" si="4"/>
+        <f>AP40/5.85*5.65</f>
         <v>962.91452991453002</v>
       </c>
     </row>
@@ -6096,7 +6103,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="30">
     <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="AS1:AU1"/>
@@ -6124,15 +6131,223 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="CL1:CN1"/>
     <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15">
+        <v>43070</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15">
+        <v>43071</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15">
+        <v>43072</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>-15513.73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="14"/>
+      <c r="E3">
+        <v>1306</v>
+      </c>
+      <c r="H3">
+        <v>494</v>
+      </c>
+      <c r="I3">
+        <v>1425</v>
+      </c>
+      <c r="J3">
+        <f>I3/5.85*5.6</f>
+        <v>1364.102564102564</v>
+      </c>
+      <c r="K3">
+        <v>5502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="14"/>
+      <c r="K4" s="3">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="14"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="14"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="14"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="14"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B2:B16)</f>
+        <v>-15513.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13">
+        <f>B17-A50</f>
+        <v>-16877.832564102562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="14"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="14"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="14"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="14"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="14"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="14"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="14"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="14"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="14"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="14"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="14"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="14"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <f>SUM(C50:DU50)</f>
+        <v>1364.102564102564</v>
+      </c>
+      <c r="J50">
+        <f>SUM(J2:J49)</f>
+        <v>1364.102564102564</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3097,6 +3097,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3105,30 +3129,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3537,14 +3537,14 @@
         <v>1485</v>
       </c>
       <c r="V3">
-        <f>U3/5.85*5.39</f>
+        <f t="shared" ref="V3:V28" si="0">U3/5.85*5.39</f>
         <v>1368.2307692307693</v>
       </c>
       <c r="X3">
         <v>3439</v>
       </c>
       <c r="Y3">
-        <f>X3/5.85*5.39</f>
+        <f t="shared" ref="Y3:Y22" si="1">X3/5.85*5.39</f>
         <v>3168.5829059829061</v>
       </c>
       <c r="Z3">
@@ -3554,7 +3554,7 @@
         <v>1350</v>
       </c>
       <c r="AB3">
-        <f>AA3/5.85*5.73</f>
+        <f t="shared" ref="AB3:AB26" si="2">AA3/5.85*5.73</f>
         <v>1322.3076923076924</v>
       </c>
       <c r="AC3">
@@ -3564,7 +3564,7 @@
         <v>687</v>
       </c>
       <c r="AE3">
-        <f>AD3/5.85*5.65</f>
+        <f t="shared" ref="AE3:AE32" si="3">AD3/5.85*5.65</f>
         <v>663.51282051282055</v>
       </c>
       <c r="AJ3">
@@ -3577,14 +3577,14 @@
         <v>1722</v>
       </c>
       <c r="AQ3">
-        <f>AP3/5.85*5.65</f>
+        <f t="shared" ref="AQ3:AQ40" si="4">AP3/5.85*5.65</f>
         <v>1663.1282051282053</v>
       </c>
       <c r="AS3">
         <v>2224</v>
       </c>
       <c r="AT3">
-        <f>AS3/5.85*5.65</f>
+        <f t="shared" ref="AT3:AT37" si="5">AS3/5.85*5.65</f>
         <v>2147.965811965812</v>
       </c>
       <c r="AU3">
@@ -3594,7 +3594,7 @@
         <v>311</v>
       </c>
       <c r="AW3">
-        <f>AV3/5.85*5.65</f>
+        <f t="shared" ref="AW3:AW12" si="6">AV3/5.85*5.65</f>
         <v>300.36752136752142</v>
       </c>
       <c r="AX3" s="2">
@@ -3604,14 +3604,14 @@
         <v>1150</v>
       </c>
       <c r="AZ3">
-        <f>AY3/5.85*5.65</f>
+        <f t="shared" ref="AZ3:AZ28" si="7">AY3/5.85*5.65</f>
         <v>1110.6837606837607</v>
       </c>
       <c r="BB3">
         <v>599</v>
       </c>
       <c r="BC3">
-        <f>BB3/5.85*5.65</f>
+        <f t="shared" ref="BC3:BC25" si="8">BB3/5.85*5.65</f>
         <v>578.52136752136755</v>
       </c>
       <c r="BD3">
@@ -3621,14 +3621,14 @@
         <v>642</v>
       </c>
       <c r="BF3">
-        <f>BE3/5.85*5.65</f>
+        <f t="shared" ref="BF3:BF11" si="9">BE3/5.85*5.65</f>
         <v>620.0512820512821</v>
       </c>
       <c r="BK3">
         <v>790</v>
       </c>
       <c r="BL3">
-        <f>BK3/5.85*5.65</f>
+        <f t="shared" ref="BL3:BL11" si="10">BK3/5.85*5.65</f>
         <v>762.991452991453</v>
       </c>
       <c r="BN3">
@@ -3715,14 +3715,14 @@
         <v>359</v>
       </c>
       <c r="V4">
-        <f>U4/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>330.77094017094015</v>
       </c>
       <c r="X4">
         <v>1366</v>
       </c>
       <c r="Y4">
-        <f>X4/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>1258.5880341880343</v>
       </c>
       <c r="Z4" s="2">
@@ -3732,14 +3732,14 @@
         <v>2173</v>
       </c>
       <c r="AB4">
-        <f>AA4/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>2128.4256410256412</v>
       </c>
       <c r="AD4">
         <v>842</v>
       </c>
       <c r="AE4">
-        <f>AD4/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>813.21367521367529</v>
       </c>
       <c r="AJ4">
@@ -3752,14 +3752,14 @@
         <v>1335</v>
       </c>
       <c r="AQ4">
-        <f>AP4/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>1289.3589743589746</v>
       </c>
       <c r="AS4">
         <v>443</v>
       </c>
       <c r="AT4">
-        <f>AS4/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>427.85470085470087</v>
       </c>
       <c r="AU4">
@@ -3769,21 +3769,21 @@
         <v>1775</v>
       </c>
       <c r="AW4">
-        <f>AV4/5.85*5.65</f>
+        <f t="shared" si="6"/>
         <v>1714.3162393162397</v>
       </c>
       <c r="AY4">
         <v>1153</v>
       </c>
       <c r="AZ4">
-        <f>AY4/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>1113.5811965811968</v>
       </c>
       <c r="BB4">
         <v>2425</v>
       </c>
       <c r="BC4">
-        <f>BB4/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>2342.0940170940175</v>
       </c>
       <c r="BD4">
@@ -3793,14 +3793,14 @@
         <v>820</v>
       </c>
       <c r="BF4">
-        <f>BE4/5.85*5.65</f>
+        <f t="shared" si="9"/>
         <v>791.96581196581212</v>
       </c>
       <c r="BK4">
         <v>902</v>
       </c>
       <c r="BL4">
-        <f>BK4/5.85*5.65</f>
+        <f t="shared" si="10"/>
         <v>871.1623931623933</v>
       </c>
       <c r="BT4">
@@ -3861,14 +3861,14 @@
         <v>2356</v>
       </c>
       <c r="V5">
-        <f>U5/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>2170.7418803418805</v>
       </c>
       <c r="X5">
         <v>1041</v>
       </c>
       <c r="Y5">
-        <f>X5/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>959.1435897435897</v>
       </c>
       <c r="Z5" s="2">
@@ -3878,14 +3878,14 @@
         <v>1876</v>
       </c>
       <c r="AB5">
-        <f>AA5/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>1837.5179487179489</v>
       </c>
       <c r="AD5">
         <v>399</v>
       </c>
       <c r="AE5">
-        <f>AD5/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>385.35897435897436</v>
       </c>
       <c r="AJ5">
@@ -3898,14 +3898,14 @@
         <v>762</v>
       </c>
       <c r="AQ5">
-        <f>AP5/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>735.94871794871813</v>
       </c>
       <c r="AS5">
         <v>1405</v>
       </c>
       <c r="AT5">
-        <f>AS5/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1356.9658119658122</v>
       </c>
       <c r="AU5">
@@ -3915,35 +3915,35 @@
         <v>1239</v>
       </c>
       <c r="AW5">
-        <f>AV5/5.85*5.65</f>
+        <f t="shared" si="6"/>
         <v>1196.6410256410256</v>
       </c>
       <c r="AY5">
         <v>378</v>
       </c>
       <c r="AZ5">
-        <f>AY5/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>365.07692307692309</v>
       </c>
       <c r="BB5">
         <v>762</v>
       </c>
       <c r="BC5">
-        <f>BB5/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>735.94871794871813</v>
       </c>
       <c r="BE5">
         <v>1161</v>
       </c>
       <c r="BF5">
-        <f>BE5/5.85*5.65</f>
+        <f t="shared" si="9"/>
         <v>1121.3076923076924</v>
       </c>
       <c r="BK5">
         <v>714</v>
       </c>
       <c r="BL5">
-        <f>BK5/5.85*5.65</f>
+        <f t="shared" si="10"/>
         <v>689.58974358974365</v>
       </c>
       <c r="CC5">
@@ -3994,14 +3994,14 @@
         <v>1333</v>
       </c>
       <c r="V6">
-        <f>U6/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1228.1829059829058</v>
       </c>
       <c r="X6">
         <v>1651</v>
       </c>
       <c r="Y6">
-        <f>X6/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>1521.1777777777777</v>
       </c>
       <c r="Z6" s="2">
@@ -4011,14 +4011,14 @@
         <v>2123</v>
       </c>
       <c r="AB6">
-        <f>AA6/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>2079.4512820512823</v>
       </c>
       <c r="AD6">
         <v>1322</v>
       </c>
       <c r="AE6">
-        <f>AD6/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>1276.8034188034189</v>
       </c>
       <c r="AJ6">
@@ -4031,14 +4031,14 @@
         <v>126</v>
       </c>
       <c r="AQ6">
-        <f>AP6/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>121.69230769230771</v>
       </c>
       <c r="AS6">
         <v>393</v>
       </c>
       <c r="AT6">
-        <f>AS6/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>379.5641025641026</v>
       </c>
       <c r="AU6">
@@ -4048,35 +4048,35 @@
         <v>1051</v>
       </c>
       <c r="AW6">
-        <f>AV6/5.85*5.65</f>
+        <f t="shared" si="6"/>
         <v>1015.0683760683761</v>
       </c>
       <c r="AY6">
         <v>2479</v>
       </c>
       <c r="AZ6">
-        <f>AY6/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>2394.2478632478633</v>
       </c>
       <c r="BB6">
         <v>316</v>
       </c>
       <c r="BC6">
-        <f>BB6/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>305.19658119658123</v>
       </c>
       <c r="BE6">
         <v>523.16</v>
       </c>
       <c r="BF6">
-        <f>BE6/5.85*5.65</f>
+        <f t="shared" si="9"/>
         <v>505.27418803418806</v>
       </c>
       <c r="BK6">
         <v>1638</v>
       </c>
       <c r="BL6">
-        <f>BK6/5.85*5.65</f>
+        <f t="shared" si="10"/>
         <v>1582</v>
       </c>
       <c r="CC6">
@@ -4118,14 +4118,14 @@
         <v>1115</v>
       </c>
       <c r="V7">
-        <f>U7/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1027.3247863247864</v>
       </c>
       <c r="X7">
         <v>588</v>
       </c>
       <c r="Y7">
-        <f>X7/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>541.76410256410259</v>
       </c>
       <c r="Z7">
@@ -4135,14 +4135,14 @@
         <v>946</v>
       </c>
       <c r="AB7">
-        <f>AA7/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>926.59487179487201</v>
       </c>
       <c r="AD7">
         <v>1083</v>
       </c>
       <c r="AE7">
-        <f>AD7/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>1045.9743589743591</v>
       </c>
       <c r="AJ7">
@@ -4152,14 +4152,14 @@
         <v>878</v>
       </c>
       <c r="AQ7">
-        <f>AP7/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>847.98290598290612</v>
       </c>
       <c r="AS7">
         <v>1029</v>
       </c>
       <c r="AT7">
-        <f>AS7/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>993.82051282051293</v>
       </c>
       <c r="AU7">
@@ -4169,35 +4169,35 @@
         <v>1324</v>
       </c>
       <c r="AW7">
-        <f>AV7/5.85*5.65</f>
+        <f t="shared" si="6"/>
         <v>1278.735042735043</v>
       </c>
       <c r="AY7">
         <v>1047</v>
       </c>
       <c r="AZ7">
-        <f>AY7/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>1011.2051282051283</v>
       </c>
       <c r="BB7">
         <v>1125</v>
       </c>
       <c r="BC7">
-        <f>BB7/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>1086.5384615384617</v>
       </c>
       <c r="BE7">
         <v>59</v>
       </c>
       <c r="BF7">
-        <f>BE7/5.85*5.65</f>
+        <f t="shared" si="9"/>
         <v>56.982905982905997</v>
       </c>
       <c r="BK7">
         <v>346</v>
       </c>
       <c r="BL7">
-        <f>BK7/5.85*5.65</f>
+        <f t="shared" si="10"/>
         <v>334.17094017094018</v>
       </c>
     </row>
@@ -4233,42 +4233,42 @@
         <v>313</v>
       </c>
       <c r="V8">
-        <f>U8/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>288.38803418803417</v>
       </c>
       <c r="X8">
         <v>576</v>
       </c>
       <c r="Y8">
-        <f>X8/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>530.70769230769235</v>
       </c>
       <c r="AA8">
         <v>710</v>
       </c>
       <c r="AB8">
-        <f>AA8/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>695.43589743589757</v>
       </c>
       <c r="AD8">
         <v>2588</v>
       </c>
       <c r="AE8">
-        <f>AD8/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>2499.5213675213677</v>
       </c>
       <c r="AP8">
         <v>996</v>
       </c>
       <c r="AQ8">
-        <f>AP8/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>961.94871794871813</v>
       </c>
       <c r="AS8">
         <v>1556</v>
       </c>
       <c r="AT8">
-        <f>AS8/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1502.8034188034189</v>
       </c>
       <c r="AU8">
@@ -4278,35 +4278,35 @@
         <v>386</v>
       </c>
       <c r="AW8">
-        <f>AV8/5.85*5.65</f>
+        <f t="shared" si="6"/>
         <v>372.80341880341888</v>
       </c>
       <c r="AY8">
         <v>552</v>
       </c>
       <c r="AZ8">
-        <f>AY8/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>533.1282051282052</v>
       </c>
       <c r="BB8">
         <v>787</v>
       </c>
       <c r="BC8">
-        <f>BB8/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>760.0940170940172</v>
       </c>
       <c r="BE8">
         <v>400</v>
       </c>
       <c r="BF8">
-        <f>BE8/5.85*5.65</f>
+        <f t="shared" si="9"/>
         <v>386.32478632478632</v>
       </c>
       <c r="BK8">
         <v>829</v>
       </c>
       <c r="BL8">
-        <f>BK8/5.85*5.65</f>
+        <f t="shared" si="10"/>
         <v>800.65811965811986</v>
       </c>
     </row>
@@ -4342,77 +4342,77 @@
         <v>1092</v>
       </c>
       <c r="V9">
-        <f>U9/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1006.1333333333333</v>
       </c>
       <c r="X9">
         <v>466</v>
       </c>
       <c r="Y9">
-        <f>X9/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>429.35726495726493</v>
       </c>
       <c r="AA9">
         <v>709</v>
       </c>
       <c r="AB9">
-        <f>AA9/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>694.45641025641032</v>
       </c>
       <c r="AD9">
         <v>3101</v>
       </c>
       <c r="AE9">
-        <f>AD9/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>2994.9829059829062</v>
       </c>
       <c r="AP9">
         <v>963</v>
       </c>
       <c r="AQ9">
-        <f>AP9/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>930.07692307692309</v>
       </c>
       <c r="AS9">
         <v>2515</v>
       </c>
       <c r="AT9">
-        <f>AS9/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>2429.0170940170947</v>
       </c>
       <c r="AV9">
         <v>1062</v>
       </c>
       <c r="AW9">
-        <f>AV9/5.85*5.65</f>
+        <f t="shared" si="6"/>
         <v>1025.6923076923078</v>
       </c>
       <c r="AY9">
         <v>1379</v>
       </c>
       <c r="AZ9">
-        <f>AY9/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>1331.8547008547009</v>
       </c>
       <c r="BB9">
         <v>394</v>
       </c>
       <c r="BC9">
-        <f>BB9/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>380.52991452991455</v>
       </c>
       <c r="BE9">
         <v>1445</v>
       </c>
       <c r="BF9">
-        <f>BE9/5.85*5.65</f>
+        <f t="shared" si="9"/>
         <v>1395.5982905982908</v>
       </c>
       <c r="BK9">
         <v>1398</v>
       </c>
       <c r="BL9">
-        <f>BK9/5.85*5.65</f>
+        <f t="shared" si="10"/>
         <v>1350.2051282051284</v>
       </c>
     </row>
@@ -4448,77 +4448,77 @@
         <v>2296</v>
       </c>
       <c r="V10">
-        <f>U10/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>2115.4598290598292</v>
       </c>
       <c r="X10">
         <v>524</v>
       </c>
       <c r="Y10">
-        <f>X10/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>482.7965811965812</v>
       </c>
       <c r="AA10">
         <v>571</v>
       </c>
       <c r="AB10">
-        <f>AA10/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>559.28717948717963</v>
       </c>
       <c r="AD10">
         <v>3049</v>
       </c>
       <c r="AE10">
-        <f>AD10/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>2944.7606837606841</v>
       </c>
       <c r="AP10">
         <v>1590</v>
       </c>
       <c r="AQ10">
-        <f>AP10/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>1535.6410256410259</v>
       </c>
       <c r="AS10">
         <v>971</v>
       </c>
       <c r="AT10">
-        <f>AS10/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>937.80341880341894</v>
       </c>
       <c r="AV10">
         <v>656</v>
       </c>
       <c r="AW10">
-        <f>AV10/5.85*5.65</f>
+        <f t="shared" si="6"/>
         <v>633.57264957264965</v>
       </c>
       <c r="AY10">
         <v>328</v>
       </c>
       <c r="AZ10">
-        <f>AY10/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>316.78632478632483</v>
       </c>
       <c r="BB10">
         <v>334</v>
       </c>
       <c r="BC10">
-        <f>BB10/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>322.58119658119659</v>
       </c>
       <c r="BE10">
         <v>242</v>
       </c>
       <c r="BF10">
-        <f>BE10/5.85*5.65</f>
+        <f t="shared" si="9"/>
         <v>233.72649572649576</v>
       </c>
       <c r="BK10">
         <v>1370</v>
       </c>
       <c r="BL10">
-        <f>BK10/5.85*5.65</f>
+        <f t="shared" si="10"/>
         <v>1323.1623931623933</v>
       </c>
     </row>
@@ -4554,77 +4554,77 @@
         <v>1053</v>
       </c>
       <c r="V11">
-        <f>U11/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>970.19999999999993</v>
       </c>
       <c r="X11">
         <v>1485</v>
       </c>
       <c r="Y11">
-        <f>X11/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>1368.2307692307693</v>
       </c>
       <c r="AA11">
         <v>1487</v>
       </c>
       <c r="AB11">
-        <f>AA11/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>1456.4974358974362</v>
       </c>
       <c r="AD11">
         <v>306</v>
       </c>
       <c r="AE11">
-        <f>AD11/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>295.5384615384616</v>
       </c>
       <c r="AP11">
         <v>332</v>
       </c>
       <c r="AQ11">
-        <f>AP11/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>320.64957264957269</v>
       </c>
       <c r="AS11">
         <v>833</v>
       </c>
       <c r="AT11">
-        <f>AS11/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>804.52136752136767</v>
       </c>
       <c r="AV11">
         <v>1162</v>
       </c>
       <c r="AW11">
-        <f>AV11/5.85*5.65</f>
+        <f t="shared" si="6"/>
         <v>1122.2735042735044</v>
       </c>
       <c r="AY11">
         <v>389</v>
       </c>
       <c r="AZ11">
-        <f>AY11/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>375.70085470085473</v>
       </c>
       <c r="BB11">
         <v>380</v>
       </c>
       <c r="BC11">
-        <f>BB11/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>367.00854700854711</v>
       </c>
       <c r="BE11">
         <v>463</v>
       </c>
       <c r="BF11">
-        <f>BE11/5.85*5.65</f>
+        <f t="shared" si="9"/>
         <v>447.17094017094024</v>
       </c>
       <c r="BK11">
         <v>1192</v>
       </c>
       <c r="BL11">
-        <f>BK11/5.85*5.65</f>
+        <f t="shared" si="10"/>
         <v>1151.2478632478635</v>
       </c>
     </row>
@@ -4660,63 +4660,63 @@
         <v>1304</v>
       </c>
       <c r="V12">
-        <f>U12/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1201.4632478632477</v>
       </c>
       <c r="X12">
         <v>783</v>
       </c>
       <c r="Y12">
-        <f>X12/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>721.43076923076933</v>
       </c>
       <c r="AA12">
         <v>877</v>
       </c>
       <c r="AB12">
-        <f>AA12/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>859.0102564102566</v>
       </c>
       <c r="AD12">
         <v>1512</v>
       </c>
       <c r="AE12">
-        <f>AD12/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>1460.3076923076924</v>
       </c>
       <c r="AP12">
         <v>1332</v>
       </c>
       <c r="AQ12">
-        <f>AP12/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>1286.4615384615386</v>
       </c>
       <c r="AS12">
         <v>1296</v>
       </c>
       <c r="AT12">
-        <f>AS12/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1251.6923076923078</v>
       </c>
       <c r="AV12">
         <v>1060</v>
       </c>
       <c r="AW12">
-        <f>AV12/5.85*5.65</f>
+        <f t="shared" si="6"/>
         <v>1023.7606837606838</v>
       </c>
       <c r="AY12">
         <v>1180</v>
       </c>
       <c r="AZ12">
-        <f>AY12/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>1139.6581196581199</v>
       </c>
       <c r="BB12">
         <v>1317</v>
       </c>
       <c r="BC12">
-        <f>BB12/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>1271.9743589743591</v>
       </c>
     </row>
@@ -4746,56 +4746,56 @@
         <v>1616</v>
       </c>
       <c r="V13">
-        <f>U13/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1488.9299145299146</v>
       </c>
       <c r="X13">
         <v>1775</v>
       </c>
       <c r="Y13">
-        <f>X13/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>1635.4273504273506</v>
       </c>
       <c r="AA13">
         <v>506</v>
       </c>
       <c r="AB13">
-        <f>AA13/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>495.62051282051289</v>
       </c>
       <c r="AD13">
         <v>1459</v>
       </c>
       <c r="AE13">
-        <f>AD13/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>1409.1196581196582</v>
       </c>
       <c r="AP13">
         <v>1808</v>
       </c>
       <c r="AQ13">
-        <f>AP13/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>1746.1880341880344</v>
       </c>
       <c r="AS13">
         <v>1150</v>
       </c>
       <c r="AT13">
-        <f>AS13/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1110.6837606837607</v>
       </c>
       <c r="AY13">
         <v>672</v>
       </c>
       <c r="AZ13">
-        <f>AY13/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>649.02564102564111</v>
       </c>
       <c r="BB13">
         <v>546</v>
       </c>
       <c r="BC13">
-        <f>BB13/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>527.33333333333337</v>
       </c>
     </row>
@@ -4825,56 +4825,56 @@
         <v>1075</v>
       </c>
       <c r="V14">
-        <f>U14/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>990.47008547008545</v>
       </c>
       <c r="X14">
         <v>937</v>
       </c>
       <c r="Y14">
-        <f>X14/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>863.32136752136751</v>
       </c>
       <c r="AA14">
         <v>1188</v>
       </c>
       <c r="AB14">
-        <f>AA14/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>1163.6307692307694</v>
       </c>
       <c r="AD14">
         <v>1488</v>
       </c>
       <c r="AE14">
-        <f>AD14/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>1437.1282051282053</v>
       </c>
       <c r="AP14">
         <v>319</v>
       </c>
       <c r="AQ14">
-        <f>AP14/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>308.09401709401715</v>
       </c>
       <c r="AS14">
         <v>1048</v>
       </c>
       <c r="AT14">
-        <f>AS14/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1012.1709401709403</v>
       </c>
       <c r="AY14">
         <v>773</v>
       </c>
       <c r="AZ14">
-        <f>AY14/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>746.57264957264965</v>
       </c>
       <c r="BB14">
         <v>844</v>
       </c>
       <c r="BC14">
-        <f>BB14/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>815.14529914529919</v>
       </c>
     </row>
@@ -4898,56 +4898,56 @@
         <v>1345</v>
       </c>
       <c r="V15">
-        <f>U15/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1239.2393162393164</v>
       </c>
       <c r="X15">
         <v>1108</v>
       </c>
       <c r="Y15">
-        <f>X15/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>1020.8752136752137</v>
       </c>
       <c r="AA15">
         <v>1150</v>
       </c>
       <c r="AB15">
-        <f>AA15/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>1126.4102564102566</v>
       </c>
       <c r="AD15">
         <v>823</v>
       </c>
       <c r="AE15">
-        <f>AD15/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>794.86324786324792</v>
       </c>
       <c r="AP15">
         <v>259</v>
       </c>
       <c r="AQ15">
-        <f>AP15/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>250.14529914529919</v>
       </c>
       <c r="AS15">
         <v>1196</v>
       </c>
       <c r="AT15">
-        <f>AS15/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1155.1111111111113</v>
       </c>
       <c r="AY15">
         <v>644</v>
       </c>
       <c r="AZ15">
-        <f>AY15/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>621.982905982906</v>
       </c>
       <c r="BB15">
         <v>1090</v>
       </c>
       <c r="BC15">
-        <f>BB15/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>1052.735042735043</v>
       </c>
     </row>
@@ -4968,56 +4968,56 @@
         <v>2168</v>
       </c>
       <c r="V16">
-        <f>U16/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1997.5247863247864</v>
       </c>
       <c r="X16">
         <v>1466</v>
       </c>
       <c r="Y16">
-        <f>X16/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>1350.7247863247862</v>
       </c>
       <c r="AA16">
         <v>750</v>
       </c>
       <c r="AB16">
-        <f>AA16/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>734.61538461538464</v>
       </c>
       <c r="AD16">
         <v>1502</v>
       </c>
       <c r="AE16">
-        <f>AD16/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>1450.649572649573</v>
       </c>
       <c r="AP16">
         <v>314</v>
       </c>
       <c r="AQ16">
-        <f>AP16/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>303.26495726495727</v>
       </c>
       <c r="AS16">
         <v>1035</v>
       </c>
       <c r="AT16">
-        <f>AS16/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>999.61538461538476</v>
       </c>
       <c r="AY16">
         <v>396</v>
       </c>
       <c r="AZ16">
-        <f>AY16/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>382.46153846153851</v>
       </c>
       <c r="BB16">
         <v>1356</v>
       </c>
       <c r="BC16">
-        <f>BB16/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>1309.6410256410256</v>
       </c>
     </row>
@@ -5045,56 +5045,56 @@
         <v>2163</v>
       </c>
       <c r="V17">
-        <f>U17/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1992.9179487179488</v>
       </c>
       <c r="X17">
         <v>1130</v>
       </c>
       <c r="Y17">
-        <f>X17/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>1041.1452991452993</v>
       </c>
       <c r="AA17">
         <v>1286</v>
       </c>
       <c r="AB17">
-        <f>AA17/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>1259.6205128205129</v>
       </c>
       <c r="AD17">
         <v>545</v>
       </c>
       <c r="AE17">
-        <f>AD17/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>526.36752136752148</v>
       </c>
       <c r="AP17">
         <v>317</v>
       </c>
       <c r="AQ17">
-        <f>AP17/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>306.16239316239324</v>
       </c>
       <c r="AS17">
         <v>1684</v>
       </c>
       <c r="AT17">
-        <f>AS17/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1626.4273504273506</v>
       </c>
       <c r="AY17">
         <v>274</v>
       </c>
       <c r="AZ17">
-        <f>AY17/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>264.63247863247869</v>
       </c>
       <c r="BB17">
         <v>825</v>
       </c>
       <c r="BC17">
-        <f>BB17/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>796.79487179487182</v>
       </c>
     </row>
@@ -5119,56 +5119,56 @@
         <v>1336</v>
       </c>
       <c r="V18">
-        <f>U18/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1230.9470085470086</v>
       </c>
       <c r="X18">
         <v>737</v>
       </c>
       <c r="Y18">
-        <f>X18/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>679.04786324786323</v>
       </c>
       <c r="AA18">
         <v>1073</v>
       </c>
       <c r="AB18">
-        <f>AA18/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>1050.9897435897437</v>
       </c>
       <c r="AD18">
         <v>1246</v>
       </c>
       <c r="AE18">
-        <f>AD18/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>1203.4017094017095</v>
       </c>
       <c r="AP18">
         <v>219</v>
       </c>
       <c r="AQ18">
-        <f>AP18/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>211.51282051282053</v>
       </c>
       <c r="AS18">
         <v>884</v>
       </c>
       <c r="AT18">
-        <f>AS18/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>853.77777777777783</v>
       </c>
       <c r="AY18">
         <v>1304</v>
       </c>
       <c r="AZ18">
-        <f>AY18/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>1259.4188034188035</v>
       </c>
       <c r="BB18">
         <v>376</v>
       </c>
       <c r="BC18">
-        <f>BB18/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>363.14529914529919</v>
       </c>
     </row>
@@ -5190,56 +5190,56 @@
         <v>1160</v>
       </c>
       <c r="V19">
-        <f>U19/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1068.7863247863247</v>
       </c>
       <c r="X19">
         <v>852</v>
       </c>
       <c r="Y19">
-        <f>X19/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>785.00512820512824</v>
       </c>
       <c r="AA19">
         <v>983</v>
       </c>
       <c r="AB19">
-        <f>AA19/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>962.83589743589755</v>
       </c>
       <c r="AD19">
         <v>906</v>
       </c>
       <c r="AE19">
-        <f>AD19/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>875.02564102564122</v>
       </c>
       <c r="AP19">
         <v>471</v>
       </c>
       <c r="AQ19">
-        <f>AP19/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>454.89743589743591</v>
       </c>
       <c r="AS19">
         <v>877</v>
       </c>
       <c r="AT19">
-        <f>AS19/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>847.01709401709422</v>
       </c>
       <c r="AY19">
         <v>732</v>
       </c>
       <c r="AZ19">
-        <f>AY19/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>706.97435897435912</v>
       </c>
       <c r="BB19">
         <v>807</v>
       </c>
       <c r="BC19">
-        <f>BB19/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>779.41025641025647</v>
       </c>
     </row>
@@ -5257,56 +5257,56 @@
         <v>1461</v>
       </c>
       <c r="V20">
-        <f>U20/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1346.1179487179486</v>
       </c>
       <c r="X20">
         <v>850</v>
       </c>
       <c r="Y20">
-        <f>X20/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>783.16239316239307</v>
       </c>
       <c r="AA20">
         <v>1443</v>
       </c>
       <c r="AB20">
-        <f>AA20/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>1413.4000000000003</v>
       </c>
       <c r="AD20">
         <v>1308</v>
       </c>
       <c r="AE20">
-        <f>AD20/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>1263.2820512820513</v>
       </c>
       <c r="AP20">
         <v>441</v>
       </c>
       <c r="AQ20">
-        <f>AP20/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>425.92307692307696</v>
       </c>
       <c r="AS20">
         <v>938</v>
       </c>
       <c r="AT20">
-        <f>AS20/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>905.93162393162402</v>
       </c>
       <c r="AY20">
         <v>663</v>
       </c>
       <c r="AZ20">
-        <f>AY20/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>640.33333333333337</v>
       </c>
       <c r="BB20">
         <v>1543</v>
       </c>
       <c r="BC20">
-        <f>BB20/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>1490.2478632478635</v>
       </c>
     </row>
@@ -5324,56 +5324,56 @@
         <v>1694</v>
       </c>
       <c r="V21">
-        <f>U21/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1560.7965811965812</v>
       </c>
       <c r="X21">
         <v>615</v>
       </c>
       <c r="Y21">
-        <f>X21/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>566.64102564102564</v>
       </c>
       <c r="AA21">
         <v>1228</v>
       </c>
       <c r="AB21">
-        <f>AA21/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>1202.8102564102567</v>
       </c>
       <c r="AD21">
         <v>819</v>
       </c>
       <c r="AE21">
-        <f>AD21/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>791</v>
       </c>
       <c r="AP21">
         <v>359</v>
       </c>
       <c r="AQ21">
-        <f>AP21/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>346.72649572649578</v>
       </c>
       <c r="AS21">
         <v>637</v>
       </c>
       <c r="AT21">
-        <f>AS21/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>615.22222222222229</v>
       </c>
       <c r="AY21">
         <v>755</v>
       </c>
       <c r="AZ21">
-        <f>AY21/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>729.18803418803429</v>
       </c>
       <c r="BB21">
         <v>366</v>
       </c>
       <c r="BC21">
-        <f>BB21/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>353.48717948717956</v>
       </c>
     </row>
@@ -5391,56 +5391,56 @@
         <v>989</v>
       </c>
       <c r="V22">
-        <f>U22/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>911.23247863247866</v>
       </c>
       <c r="X22">
         <v>681</v>
       </c>
       <c r="Y22">
-        <f>X22/5.85*5.39</f>
+        <f t="shared" si="1"/>
         <v>627.45128205128208</v>
       </c>
       <c r="AA22">
         <v>1014</v>
       </c>
       <c r="AB22">
-        <f>AA22/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>993.20000000000016</v>
       </c>
       <c r="AD22">
         <v>1029</v>
       </c>
       <c r="AE22">
-        <f>AD22/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>993.82051282051293</v>
       </c>
       <c r="AP22">
         <v>367</v>
       </c>
       <c r="AQ22">
-        <f>AP22/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>354.45299145299151</v>
       </c>
       <c r="AS22">
         <v>1353</v>
       </c>
       <c r="AT22">
-        <f>AS22/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1306.7435897435898</v>
       </c>
       <c r="AY22">
         <v>2903</v>
       </c>
       <c r="AZ22">
-        <f>AY22/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>2803.7521367521372</v>
       </c>
       <c r="BB22">
         <v>1278</v>
       </c>
       <c r="BC22">
-        <f>BB22/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>1234.3076923076926</v>
       </c>
     </row>
@@ -5458,49 +5458,49 @@
         <v>1386</v>
       </c>
       <c r="V23">
-        <f>U23/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1277.0153846153846</v>
       </c>
       <c r="AA23">
         <v>587</v>
       </c>
       <c r="AB23">
-        <f>AA23/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>574.9589743589745</v>
       </c>
       <c r="AD23">
         <v>1349</v>
       </c>
       <c r="AE23">
-        <f>AD23/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>1302.880341880342</v>
       </c>
       <c r="AP23">
         <v>1076</v>
       </c>
       <c r="AQ23">
-        <f>AP23/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>1039.2136752136753</v>
       </c>
       <c r="AS23">
         <v>1011</v>
       </c>
       <c r="AT23">
-        <f>AS23/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>976.43589743589746</v>
       </c>
       <c r="AY23">
         <v>762</v>
       </c>
       <c r="AZ23">
-        <f>AY23/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>735.94871794871813</v>
       </c>
       <c r="BB23">
         <v>718</v>
       </c>
       <c r="BC23">
-        <f>BB23/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>693.45299145299157</v>
       </c>
     </row>
@@ -5518,49 +5518,49 @@
         <v>1019</v>
       </c>
       <c r="V24">
-        <f>U24/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>938.8735042735043</v>
       </c>
       <c r="AA24">
         <v>680</v>
       </c>
       <c r="AB24">
-        <f>AA24/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>666.05128205128221</v>
       </c>
       <c r="AD24">
         <v>1837</v>
       </c>
       <c r="AE24">
-        <f>AD24/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>1774.1965811965815</v>
       </c>
       <c r="AP24">
         <v>419</v>
       </c>
       <c r="AQ24">
-        <f>AP24/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>404.67521367521368</v>
       </c>
       <c r="AS24">
         <v>1152</v>
       </c>
       <c r="AT24">
-        <f>AS24/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1112.6153846153848</v>
       </c>
       <c r="AY24">
         <v>786</v>
       </c>
       <c r="AZ24">
-        <f>AY24/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>759.1282051282052</v>
       </c>
       <c r="BB24">
         <v>210</v>
       </c>
       <c r="BC24">
-        <f>BB24/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>202.82051282051285</v>
       </c>
     </row>
@@ -5575,49 +5575,49 @@
         <v>1026</v>
       </c>
       <c r="V25">
-        <f>U25/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>945.32307692307688</v>
       </c>
       <c r="AA25">
         <v>657</v>
       </c>
       <c r="AB25">
-        <f>AA25/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>643.52307692307704</v>
       </c>
       <c r="AD25">
         <v>294</v>
       </c>
       <c r="AE25">
-        <f>AD25/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>283.94871794871801</v>
       </c>
       <c r="AP25">
         <v>262</v>
       </c>
       <c r="AQ25">
-        <f>AP25/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>253.04273504273507</v>
       </c>
       <c r="AS25">
         <v>1378</v>
       </c>
       <c r="AT25">
-        <f>AS25/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1330.8888888888891</v>
       </c>
       <c r="AY25">
         <v>1564</v>
       </c>
       <c r="AZ25">
-        <f>AY25/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>1510.5299145299148</v>
       </c>
       <c r="BB25">
         <v>1229</v>
       </c>
       <c r="BC25">
-        <f>BB25/5.85*5.65</f>
+        <f t="shared" si="8"/>
         <v>1186.982905982906</v>
       </c>
     </row>
@@ -5632,42 +5632,42 @@
         <v>1466</v>
       </c>
       <c r="V26">
-        <f>U26/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>1350.7247863247862</v>
       </c>
       <c r="AA26">
         <v>703</v>
       </c>
       <c r="AB26">
-        <f>AA26/5.85*5.73</f>
+        <f t="shared" si="2"/>
         <v>688.57948717948727</v>
       </c>
       <c r="AD26">
         <v>295</v>
       </c>
       <c r="AE26">
-        <f>AD26/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>284.91452991452996</v>
       </c>
       <c r="AP26">
         <v>274</v>
       </c>
       <c r="AQ26">
-        <f>AP26/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>264.63247863247869</v>
       </c>
       <c r="AS26">
         <v>624</v>
       </c>
       <c r="AT26">
-        <f>AS26/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>602.66666666666674</v>
       </c>
       <c r="AY26">
         <v>510</v>
       </c>
       <c r="AZ26">
-        <f>AY26/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>492.5641025641026</v>
       </c>
     </row>
@@ -5682,35 +5682,35 @@
         <v>402</v>
       </c>
       <c r="V27">
-        <f>U27/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>370.38974358974355</v>
       </c>
       <c r="AD27">
         <v>872</v>
       </c>
       <c r="AE27">
-        <f>AD27/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>842.18803418803429</v>
       </c>
       <c r="AP27">
         <v>351</v>
       </c>
       <c r="AQ27">
-        <f>AP27/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>339.00000000000006</v>
       </c>
       <c r="AS27">
         <v>722</v>
       </c>
       <c r="AT27">
-        <f>AS27/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>697.31623931623938</v>
       </c>
       <c r="AY27">
         <v>1382</v>
       </c>
       <c r="AZ27">
-        <f>AY27/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>1334.7521367521369</v>
       </c>
     </row>
@@ -5725,35 +5725,35 @@
         <v>726</v>
       </c>
       <c r="V28">
-        <f>U28/5.85*5.39</f>
+        <f t="shared" si="0"/>
         <v>668.91282051282053</v>
       </c>
       <c r="AD28">
         <v>119</v>
       </c>
       <c r="AE28">
-        <f>AD28/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>114.93162393162395</v>
       </c>
       <c r="AP28">
         <v>349</v>
       </c>
       <c r="AQ28">
-        <f>AP28/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>337.0683760683761</v>
       </c>
       <c r="AS28">
         <v>1612</v>
       </c>
       <c r="AT28">
-        <f>AS28/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1556.8888888888891</v>
       </c>
       <c r="AY28">
         <v>2494</v>
       </c>
       <c r="AZ28">
-        <f>AY28/5.85*5.65</f>
+        <f t="shared" si="7"/>
         <v>2408.735042735043</v>
       </c>
     </row>
@@ -5768,21 +5768,21 @@
         <v>194</v>
       </c>
       <c r="AE29">
-        <f>AD29/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>187.36752136752139</v>
       </c>
       <c r="AP29">
         <v>876</v>
       </c>
       <c r="AQ29">
-        <f>AP29/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>846.0512820512821</v>
       </c>
       <c r="AS29">
         <v>1395</v>
       </c>
       <c r="AT29">
-        <f>AS29/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1347.3076923076926</v>
       </c>
     </row>
@@ -5794,21 +5794,21 @@
         <v>265</v>
       </c>
       <c r="AE30">
-        <f>AD30/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>255.94017094017096</v>
       </c>
       <c r="AP30">
         <v>309</v>
       </c>
       <c r="AQ30">
-        <f>AP30/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>298.43589743589746</v>
       </c>
       <c r="AS30">
         <v>871</v>
       </c>
       <c r="AT30">
-        <f>AS30/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>841.22222222222229</v>
       </c>
     </row>
@@ -5820,21 +5820,21 @@
         <v>177</v>
       </c>
       <c r="AE31">
-        <f>AD31/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>170.94871794871798</v>
       </c>
       <c r="AP31">
         <v>462</v>
       </c>
       <c r="AQ31">
-        <f>AP31/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>446.20512820512823</v>
       </c>
       <c r="AS31">
         <v>847</v>
       </c>
       <c r="AT31">
-        <f>AS31/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>818.0427350427351</v>
       </c>
     </row>
@@ -5846,21 +5846,21 @@
         <v>768</v>
       </c>
       <c r="AE32">
-        <f>AD32/5.85*5.65</f>
+        <f t="shared" si="3"/>
         <v>741.74358974358984</v>
       </c>
       <c r="AP32">
         <v>292</v>
       </c>
       <c r="AQ32">
-        <f>AP32/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>282.01709401709405</v>
       </c>
       <c r="AS32">
         <v>988</v>
       </c>
       <c r="AT32">
-        <f>AS32/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>954.22222222222229</v>
       </c>
     </row>
@@ -5872,14 +5872,14 @@
         <v>837</v>
       </c>
       <c r="AQ33">
-        <f>AP33/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>808.38461538461559</v>
       </c>
       <c r="AS33">
         <v>704</v>
       </c>
       <c r="AT33">
-        <f>AS33/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>679.93162393162402</v>
       </c>
     </row>
@@ -5891,14 +5891,14 @@
         <v>311</v>
       </c>
       <c r="AQ34">
-        <f>AP34/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>300.36752136752142</v>
       </c>
       <c r="AS34">
         <v>1043</v>
       </c>
       <c r="AT34">
-        <f>AS34/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1007.3418803418805</v>
       </c>
     </row>
@@ -5910,14 +5910,14 @@
         <v>265</v>
       </c>
       <c r="AQ35">
-        <f>AP35/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>255.94017094017096</v>
       </c>
       <c r="AS35">
         <v>1371</v>
       </c>
       <c r="AT35">
-        <f>AS35/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>1324.1282051282053</v>
       </c>
     </row>
@@ -5929,14 +5929,14 @@
         <v>194</v>
       </c>
       <c r="AQ36">
-        <f>AP36/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>187.36752136752139</v>
       </c>
       <c r="AS36">
         <v>402</v>
       </c>
       <c r="AT36">
-        <f>AS36/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>388.25641025641028</v>
       </c>
     </row>
@@ -5948,14 +5948,14 @@
         <v>304</v>
       </c>
       <c r="AQ37">
-        <f>AP37/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>293.60683760683764</v>
       </c>
       <c r="AS37">
         <v>255</v>
       </c>
       <c r="AT37">
-        <f>AS37/5.85*5.65</f>
+        <f t="shared" si="5"/>
         <v>246.2820512820513</v>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
         <v>299</v>
       </c>
       <c r="AQ38">
-        <f>AP38/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>288.77777777777783</v>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
         <v>355</v>
       </c>
       <c r="AQ39">
-        <f>AP39/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>342.86324786324792</v>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
         <v>997</v>
       </c>
       <c r="AQ40">
-        <f>AP40/5.85*5.65</f>
+        <f t="shared" si="4"/>
         <v>962.91452991453002</v>
       </c>
     </row>
@@ -6104,17 +6104,9 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
     <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
@@ -6131,9 +6123,17 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6143,10 +6143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6154,7 +6154,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6176,8 +6176,28 @@
       </c>
       <c r="J1" s="15"/>
       <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="15">
+        <v>43073</v>
+      </c>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15">
+        <v>43074</v>
+      </c>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="15">
+        <v>43075</v>
+      </c>
+      <c r="S1" s="15"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="15">
+        <v>43076</v>
+      </c>
+      <c r="V1" s="15"/>
+      <c r="W1" s="16"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -6202,8 +6222,32 @@
       <c r="K2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="14"/>
       <c r="E3">
         <v>1306</v>
@@ -6221,47 +6265,63 @@
       <c r="K3">
         <v>5502</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>326</v>
+      </c>
+      <c r="M3">
+        <f>L3/5.85*5.65</f>
+        <v>314.85470085470087</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="14"/>
       <c r="K4" s="3">
         <v>1620</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4" s="3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="14"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:23">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:23">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:23">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:23">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:23">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:23">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:23">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:23">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:23">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:23">
       <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:2">
@@ -6279,7 +6339,7 @@
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>-16877.832564102562</v>
+        <v>-17192.687264957265</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6330,21 +6390,29 @@
     <row r="34" spans="1:1">
       <c r="A34" s="14"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:13">
       <c r="A50">
         <f>SUM(C50:DU50)</f>
-        <v>1364.102564102564</v>
+        <v>1678.9572649572649</v>
       </c>
       <c r="J50">
         <f>SUM(J2:J49)</f>
         <v>1364.102564102564</v>
       </c>
+      <c r="M50">
+        <f>SUM(M2:M49)</f>
+        <v>314.85470085470087</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="23">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3097,30 +3101,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3129,6 +3109,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6104,6 +6108,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
@@ -6111,29 +6138,6 @@
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6145,8 +6149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6272,8 +6276,24 @@
         <f>L3/5.85*5.65</f>
         <v>314.85470085470087</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>1027</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3">
+        <v>1426</v>
+      </c>
+      <c r="S3">
+        <f>R3/5.85*5.65</f>
+        <v>1377.2478632478635</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1300</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -6281,8 +6301,15 @@
       <c r="K4" s="3">
         <v>1620</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>801</v>
+      </c>
+      <c r="R4">
+        <v>492</v>
+      </c>
+      <c r="S4">
+        <f>R4/5.85*5.65</f>
+        <v>475.17948717948718</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -6339,7 +6366,7 @@
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>-17192.687264957265</v>
+        <v>-19045.114615384613</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6390,10 +6417,10 @@
     <row r="34" spans="1:1">
       <c r="A34" s="14"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:19">
       <c r="A50">
         <f>SUM(C50:DU50)</f>
-        <v>1678.9572649572649</v>
+        <v>3531.3846153846152</v>
       </c>
       <c r="J50">
         <f>SUM(J2:J49)</f>
@@ -6402,6 +6429,14 @@
       <c r="M50">
         <f>SUM(M2:M49)</f>
         <v>314.85470085470087</v>
+      </c>
+      <c r="P50">
+        <f>SUM(P2:P49)</f>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f>SUM(S2:S49)</f>
+        <v>1852.4273504273506</v>
       </c>
     </row>
   </sheetData>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3101,6 +3101,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3109,30 +3133,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6108,17 +6108,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AM1:AO1"/>
@@ -6126,18 +6127,17 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6149,8 +6149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6295,6 +6295,16 @@
       <c r="T3" s="3">
         <v>1300</v>
       </c>
+      <c r="U3">
+        <v>315</v>
+      </c>
+      <c r="V3">
+        <f>U3/5.85*5.65</f>
+        <v>304.23076923076923</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1104</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="14"/>
@@ -6311,6 +6321,9 @@
         <f>R4/5.85*5.65</f>
         <v>475.17948717948718</v>
       </c>
+      <c r="W4">
+        <v>5945</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="14"/>
@@ -6366,7 +6379,7 @@
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>-19045.114615384613</v>
+        <v>-19349.345384615382</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6417,10 +6430,10 @@
     <row r="34" spans="1:1">
       <c r="A34" s="14"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:22">
       <c r="A50">
         <f>SUM(C50:DU50)</f>
-        <v>3531.3846153846152</v>
+        <v>3835.6153846153843</v>
       </c>
       <c r="J50">
         <f>SUM(J2:J49)</f>
@@ -6437,6 +6450,10 @@
       <c r="S50">
         <f>SUM(S2:S49)</f>
         <v>1852.4273504273506</v>
+      </c>
+      <c r="V50">
+        <f>SUM(V2:V49)</f>
+        <v>304.23076923076923</v>
       </c>
     </row>
   </sheetData>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="24">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6147,10 +6151,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6158,7 +6162,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6200,8 +6204,18 @@
       </c>
       <c r="V1" s="15"/>
       <c r="W1" s="16"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="15">
+        <v>43077</v>
+      </c>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="15">
+        <v>43078</v>
+      </c>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="16"/>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -6250,9 +6264,26 @@
       <c r="W2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="14"/>
+      <c r="X2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="14">
+        <v>12.8</v>
+      </c>
+      <c r="B3">
+        <v>5343</v>
+      </c>
       <c r="E3">
         <v>1306</v>
       </c>
@@ -6292,7 +6323,7 @@
         <f>R3/5.85*5.65</f>
         <v>1377.2478632478635</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>1300</v>
       </c>
       <c r="U3">
@@ -6302,12 +6333,37 @@
         <f>U3/5.85*5.65</f>
         <v>304.23076923076923</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="2">
         <v>1104</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="14"/>
+      <c r="X3">
+        <v>175</v>
+      </c>
+      <c r="Y3">
+        <f>X3/5.85*5.65</f>
+        <v>169.01709401709402</v>
+      </c>
+      <c r="Z3">
+        <v>5041</v>
+      </c>
+      <c r="AA3">
+        <v>3200</v>
+      </c>
+      <c r="AB3">
+        <f>AA3/5.85*5.65</f>
+        <v>3090.5982905982905</v>
+      </c>
+      <c r="AC3">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>2408.73</v>
+      </c>
       <c r="K4" s="3">
         <v>1620</v>
       </c>
@@ -6324,44 +6380,47 @@
       <c r="W4">
         <v>5945</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="AC4">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="14"/>
       <c r="N5">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:29">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:29">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:29">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:29">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:29">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:29">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:29">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:29">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:29">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:29">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:29">
       <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:2">
@@ -6370,7 +6429,7 @@
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>-15513.73</v>
+        <v>-7762</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6379,7 +6438,7 @@
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>-19349.345384615382</v>
+        <v>-14857.23076923077</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6430,10 +6489,10 @@
     <row r="34" spans="1:1">
       <c r="A34" s="14"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:28">
       <c r="A50">
         <f>SUM(C50:DU50)</f>
-        <v>3835.6153846153843</v>
+        <v>7095.2307692307695</v>
       </c>
       <c r="J50">
         <f>SUM(J2:J49)</f>
@@ -6455,16 +6514,26 @@
         <f>SUM(V2:V49)</f>
         <v>304.23076923076923</v>
       </c>
+      <c r="Y50">
+        <f>SUM(Y2:Y49)</f>
+        <v>169.01709401709402</v>
+      </c>
+      <c r="AB50">
+        <f>SUM(AB2:AB49)</f>
+        <v>3090.5982905982905</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="I1:K1"/>
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="24">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3105,30 +3105,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3137,6 +3113,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6112,6 +6112,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
@@ -6119,29 +6142,6 @@
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6151,10 +6151,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6162,7 +6162,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6214,8 +6214,18 @@
       </c>
       <c r="AB1" s="15"/>
       <c r="AC1" s="16"/>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="15">
+        <v>43079</v>
+      </c>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="15">
+        <v>43080</v>
+      </c>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="16"/>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -6276,8 +6286,20 @@
       <c r="AC2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="14">
         <v>12.8</v>
       </c>
@@ -6356,15 +6378,18 @@
       <c r="AC3">
         <v>3011</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AF3">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B4">
         <v>2408.73</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>1620</v>
       </c>
       <c r="N4" s="2">
@@ -6383,44 +6408,47 @@
       <c r="AC4">
         <v>551</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AF4" s="3">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="14"/>
       <c r="N5">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:35">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:35">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:35">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:35">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:35">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:35">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:35">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:35">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:35">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:35">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:35">
       <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:2">
@@ -6524,16 +6552,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3105,6 +3105,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3113,30 +3137,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6112,17 +6112,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AM1:AO1"/>
@@ -6130,18 +6131,17 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6153,8 +6153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6381,6 +6381,16 @@
       <c r="AF3">
         <v>2187</v>
       </c>
+      <c r="AG3">
+        <v>332</v>
+      </c>
+      <c r="AH3">
+        <f>AG3/5.85*5.65</f>
+        <v>320.64957264957269</v>
+      </c>
+      <c r="AI3">
+        <v>5824</v>
+      </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="14" t="s">
@@ -6408,8 +6418,18 @@
       <c r="AC4">
         <v>551</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF4" s="2">
         <v>2940</v>
+      </c>
+      <c r="AG4">
+        <v>965</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH8" si="0">AG4/5.85*5.65</f>
+        <v>932.008547008547</v>
+      </c>
+      <c r="AI4">
+        <v>4437</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -6417,15 +6437,43 @@
       <c r="N5">
         <v>800</v>
       </c>
+      <c r="AG5">
+        <v>849</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>819.97435897435912</v>
+      </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="14"/>
+      <c r="AG6">
+        <v>2230</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>2153.7606837606841</v>
+      </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="14"/>
+      <c r="AG7">
+        <v>924</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>892.41025641025647</v>
+      </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="14"/>
+      <c r="AG8">
+        <v>1474</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>1423.6068376068379</v>
+      </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="14"/>
@@ -6466,7 +6514,7 @@
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>-14857.23076923077</v>
+        <v>-21399.641025641027</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6517,10 +6565,10 @@
     <row r="34" spans="1:1">
       <c r="A34" s="14"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:34">
       <c r="A50">
         <f>SUM(C50:DU50)</f>
-        <v>7095.2307692307695</v>
+        <v>13637.641025641027</v>
       </c>
       <c r="J50">
         <f>SUM(J2:J49)</f>
@@ -6550,20 +6598,28 @@
         <f>SUM(AB2:AB49)</f>
         <v>3090.5982905982905</v>
       </c>
+      <c r="AE50">
+        <f>SUM(AE2:AE49)</f>
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <f>SUM(AH2:AH49)</f>
+        <v>6542.4102564102568</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="26">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>12.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6151,10 +6159,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI50"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6162,7 +6170,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6224,8 +6232,18 @@
       </c>
       <c r="AH1" s="15"/>
       <c r="AI1" s="16"/>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="15">
+        <v>43081</v>
+      </c>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="15">
+        <v>43082</v>
+      </c>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="16"/>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -6298,8 +6316,20 @@
       <c r="AI2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="14">
         <v>12.8</v>
       </c>
@@ -6391,8 +6421,24 @@
       <c r="AI3">
         <v>5824</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3">
+        <v>1179</v>
+      </c>
+      <c r="AN3">
+        <f>AM3/5.85*5.65</f>
+        <v>1138.6923076923078</v>
+      </c>
+      <c r="AO3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
@@ -6431,9 +6477,24 @@
       <c r="AI4">
         <v>4437</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="14"/>
+      <c r="AM4">
+        <v>464</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" ref="AN4:AN8" si="1">AM4/5.85*5.65</f>
+        <v>448.13675213675219</v>
+      </c>
+      <c r="AO4">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>4133</v>
+      </c>
       <c r="N5">
         <v>800</v>
       </c>
@@ -6444,8 +6505,15 @@
         <f t="shared" si="0"/>
         <v>819.97435897435912</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AM5">
+        <v>1214</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="1"/>
+        <v>1172.4957264957266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="14"/>
       <c r="AG6">
         <v>2230</v>
@@ -6454,8 +6522,15 @@
         <f t="shared" si="0"/>
         <v>2153.7606837606841</v>
       </c>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AM6">
+        <v>726</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="1"/>
+        <v>701.1794871794873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="14"/>
       <c r="AG7">
         <v>924</v>
@@ -6464,8 +6539,15 @@
         <f t="shared" si="0"/>
         <v>892.41025641025647</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AM7">
+        <v>1663</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="1"/>
+        <v>1606.1452991452993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="14"/>
       <c r="AG8">
         <v>1474</v>
@@ -6474,29 +6556,36 @@
         <f t="shared" si="0"/>
         <v>1423.6068376068379</v>
       </c>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AM8">
+        <v>618</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="1"/>
+        <v>596.87179487179492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:41">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:41">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:41">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:41">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:41">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:41">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:41">
       <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:2">
@@ -6505,7 +6594,7 @@
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>-7762</v>
+        <v>-3629</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6514,7 +6603,7 @@
       </c>
       <c r="B18" s="13">
         <f>B17-A50</f>
-        <v>-21399.641025641027</v>
+        <v>-22930.162393162394</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6565,10 +6654,10 @@
     <row r="34" spans="1:1">
       <c r="A34" s="14"/>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:40">
       <c r="A50">
         <f>SUM(C50:DU50)</f>
-        <v>13637.641025641027</v>
+        <v>19301.162393162394</v>
       </c>
       <c r="J50">
         <f>SUM(J2:J49)</f>
@@ -6606,20 +6695,30 @@
         <f>SUM(AH2:AH49)</f>
         <v>6542.4102564102568</v>
       </c>
+      <c r="AK50">
+        <f>SUM(AK2:AK49)</f>
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <f>SUM(AN2:AN49)</f>
+        <v>5663.5213675213681</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="30">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,22 @@
   </si>
   <si>
     <t>12.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +310,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3113,30 +3132,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3145,6 +3140,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6120,6 +6139,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
@@ -6127,29 +6169,6 @@
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6159,10 +6178,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:BM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BL18" sqref="BL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6170,7 +6189,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6242,8 +6261,48 @@
       </c>
       <c r="AN1" s="15"/>
       <c r="AO1" s="16"/>
-    </row>
-    <row r="2" spans="1:41">
+      <c r="AP1" s="15">
+        <v>43083</v>
+      </c>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="15">
+        <v>43084</v>
+      </c>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="15">
+        <v>43085</v>
+      </c>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="15">
+        <v>43086</v>
+      </c>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="15">
+        <v>43087</v>
+      </c>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="15">
+        <v>43088</v>
+      </c>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="15">
+        <v>43089</v>
+      </c>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="15">
+        <v>43090</v>
+      </c>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="16"/>
+    </row>
+    <row r="2" spans="1:65">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -6328,8 +6387,56 @@
       <c r="AO2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:41">
+      <c r="AP2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65">
       <c r="A3" s="14">
         <v>12.8</v>
       </c>
@@ -6437,13 +6544,46 @@
       <c r="AO3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="4" spans="1:41">
+      <c r="AP3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>3806</v>
+      </c>
+      <c r="AT3">
+        <f>AS3/5.85*5.5</f>
+        <v>3578.2905982905986</v>
+      </c>
+      <c r="AU3">
+        <v>3666</v>
+      </c>
+      <c r="AV3">
+        <v>771</v>
+      </c>
+      <c r="AW3">
+        <f>AV3/5.85*5.5</f>
+        <v>724.87179487179492</v>
+      </c>
+      <c r="AX3">
+        <v>3302</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>1104</v>
+      </c>
+      <c r="AZ3">
+        <f>AY3/5.85*5.5</f>
+        <v>1037.948717948718</v>
+      </c>
+      <c r="BA3">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65">
       <c r="A4" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="B4">
-        <v>2408.73</v>
       </c>
       <c r="K4" s="2">
         <v>1620</v>
@@ -6471,7 +6611,7 @@
         <v>965</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AH8" si="0">AG4/5.85*5.65</f>
+        <f t="shared" ref="AH4:AH9" si="0">AG4/5.85*5.65</f>
         <v>932.008547008547</v>
       </c>
       <c r="AI4">
@@ -6481,133 +6621,405 @@
         <v>464</v>
       </c>
       <c r="AN4">
-        <f t="shared" ref="AN4:AN8" si="1">AM4/5.85*5.65</f>
+        <f t="shared" ref="AN4:AN9" si="1">AM4/5.85*5.65</f>
         <v>448.13675213675219</v>
       </c>
       <c r="AO4">
         <v>2574</v>
       </c>
-    </row>
-    <row r="5" spans="1:41">
+      <c r="AS4" s="1">
+        <v>1834</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" ref="AT4:AT16" si="2">AS4/5.85*5.5</f>
+        <v>1724.2735042735042</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>1241</v>
+      </c>
+      <c r="AV4">
+        <v>1296</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" ref="AW4:AW13" si="3">AV4/5.85*5.5</f>
+        <v>1218.4615384615386</v>
+      </c>
+      <c r="AX4">
+        <v>3363</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>773</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" ref="AZ4:AZ16" si="4">AY4/5.85*5.5</f>
+        <v>726.75213675213672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65">
       <c r="A5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="17">
+        <v>4289.6400000000003</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AS5" s="1">
+        <v>452</v>
+      </c>
+      <c r="AT5">
+        <f>AS5/5.85*5.5</f>
+        <v>424.95726495726501</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>819</v>
+      </c>
+      <c r="AV5">
+        <v>1007</v>
+      </c>
+      <c r="AW5">
+        <f>AV5/5.85*5.5</f>
+        <v>946.75213675213672</v>
+      </c>
+      <c r="AX5">
+        <v>792</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>1086</v>
+      </c>
+      <c r="AZ5">
+        <f>AY5/5.85*5.5</f>
+        <v>1021.0256410256411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65">
+      <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4133</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>800</v>
       </c>
-      <c r="AG5">
+      <c r="AG6">
         <v>849</v>
       </c>
-      <c r="AH5">
+      <c r="AH6">
         <f t="shared" si="0"/>
         <v>819.97435897435912</v>
       </c>
-      <c r="AM5">
+      <c r="AM6">
         <v>1214</v>
       </c>
-      <c r="AN5">
+      <c r="AN6">
         <f t="shared" si="1"/>
         <v>1172.4957264957266</v>
       </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="14"/>
-      <c r="AG6">
+      <c r="AS6">
+        <v>1124</v>
+      </c>
+      <c r="AT6">
+        <f>AS6/5.85*5.5</f>
+        <v>1056.7521367521367</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>1202</v>
+      </c>
+      <c r="AV6">
+        <v>1739</v>
+      </c>
+      <c r="AW6">
+        <f>AV6/5.85*5.5</f>
+        <v>1634.9572649572651</v>
+      </c>
+      <c r="AX6">
+        <v>730</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>640</v>
+      </c>
+      <c r="AZ6">
+        <f>AY6/5.85*5.5</f>
+        <v>601.70940170940173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65">
+      <c r="A7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="17">
+        <v>16171.64</v>
+      </c>
+      <c r="AG7">
         <v>2230</v>
       </c>
-      <c r="AH6">
+      <c r="AH7">
         <f t="shared" si="0"/>
         <v>2153.7606837606841</v>
       </c>
-      <c r="AM6">
+      <c r="AM7">
         <v>726</v>
       </c>
-      <c r="AN6">
+      <c r="AN7">
         <f t="shared" si="1"/>
         <v>701.1794871794873</v>
       </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="14"/>
-      <c r="AG7">
+      <c r="AS7">
+        <v>927</v>
+      </c>
+      <c r="AT7">
+        <f>AS7/5.85*5.5</f>
+        <v>871.53846153846166</v>
+      </c>
+      <c r="AV7">
+        <v>900</v>
+      </c>
+      <c r="AW7">
+        <f>AV7/5.85*5.5</f>
+        <v>846.1538461538463</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>692</v>
+      </c>
+      <c r="AZ7">
+        <f>AY7/5.85*5.5</f>
+        <v>650.59829059829065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65">
+      <c r="A8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>10726</v>
+      </c>
+      <c r="AG8">
         <v>924</v>
       </c>
-      <c r="AH7">
+      <c r="AH8">
         <f t="shared" si="0"/>
         <v>892.41025641025647</v>
       </c>
-      <c r="AM7">
+      <c r="AM8">
         <v>1663</v>
       </c>
-      <c r="AN7">
+      <c r="AN8">
         <f t="shared" si="1"/>
         <v>1606.1452991452993</v>
       </c>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="A8" s="14"/>
-      <c r="AG8">
+      <c r="AS8">
+        <v>216</v>
+      </c>
+      <c r="AT8">
+        <f>AS8/5.85*5.5</f>
+        <v>203.07692307692309</v>
+      </c>
+      <c r="AV8">
+        <v>504</v>
+      </c>
+      <c r="AW8">
+        <f>AV8/5.85*5.5</f>
+        <v>473.84615384615387</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>831</v>
+      </c>
+      <c r="AZ8">
+        <f>AY8/5.85*5.5</f>
+        <v>781.28205128205138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65">
+      <c r="A9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>8543</v>
+      </c>
+      <c r="AG9">
         <v>1474</v>
       </c>
-      <c r="AH8">
+      <c r="AH9">
         <f t="shared" si="0"/>
         <v>1423.6068376068379</v>
       </c>
-      <c r="AM8">
+      <c r="AM9">
         <v>618</v>
       </c>
-      <c r="AN8">
+      <c r="AN9">
         <f t="shared" si="1"/>
         <v>596.87179487179492</v>
       </c>
-    </row>
-    <row r="9" spans="1:41">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:41">
+      <c r="AS9">
+        <v>2285</v>
+      </c>
+      <c r="AT9">
+        <f>AS9/5.85*5.5</f>
+        <v>2148.2905982905986</v>
+      </c>
+      <c r="AV9">
+        <v>491</v>
+      </c>
+      <c r="AW9">
+        <f>AV9/5.85*5.5</f>
+        <v>461.62393162393164</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>781</v>
+      </c>
+      <c r="AZ9">
+        <f>AY9/5.85*5.5</f>
+        <v>734.27350427350427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65">
       <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:41">
+      <c r="AS10">
+        <v>975</v>
+      </c>
+      <c r="AT10">
+        <f>AS10/5.85*5.5</f>
+        <v>916.66666666666674</v>
+      </c>
+      <c r="AV10">
+        <v>705</v>
+      </c>
+      <c r="AW10">
+        <f>AV10/5.85*5.5</f>
+        <v>662.82051282051293</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>570</v>
+      </c>
+      <c r="AZ10">
+        <f>AY10/5.85*5.5</f>
+        <v>535.89743589743591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65">
       <c r="A11" s="14"/>
-    </row>
-    <row r="12" spans="1:41">
+      <c r="AS11">
+        <v>477</v>
+      </c>
+      <c r="AT11">
+        <f>AS11/5.85*5.5</f>
+        <v>448.46153846153851</v>
+      </c>
+      <c r="AV11">
+        <v>1340</v>
+      </c>
+      <c r="AW11">
+        <f>AV11/5.85*5.5</f>
+        <v>1259.8290598290598</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>512</v>
+      </c>
+      <c r="AZ11">
+        <f>AY11/5.85*5.5</f>
+        <v>481.36752136752136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65">
       <c r="A12" s="14"/>
-    </row>
-    <row r="13" spans="1:41">
+      <c r="AS12">
+        <v>473</v>
+      </c>
+      <c r="AT12">
+        <f>AS12/5.85*5.5</f>
+        <v>444.70085470085473</v>
+      </c>
+      <c r="AV12">
+        <v>334</v>
+      </c>
+      <c r="AW12">
+        <f>AV12/5.85*5.5</f>
+        <v>314.01709401709405</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>684</v>
+      </c>
+      <c r="AZ12">
+        <f>AY12/5.85*5.5</f>
+        <v>643.07692307692309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65">
       <c r="A13" s="14"/>
-    </row>
-    <row r="14" spans="1:41">
+      <c r="AS13">
+        <v>1543</v>
+      </c>
+      <c r="AT13">
+        <f>AS13/5.85*5.5</f>
+        <v>1450.6837606837607</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>1632</v>
+      </c>
+      <c r="AZ13">
+        <f>AY13/5.85*5.5</f>
+        <v>1534.3589743589746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65">
       <c r="A14" s="14"/>
-    </row>
-    <row r="15" spans="1:41">
+      <c r="AS14">
+        <v>3075</v>
+      </c>
+      <c r="AT14">
+        <f>AS14/5.85*5.5</f>
+        <v>2891.0256410256411</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>2120</v>
+      </c>
+      <c r="AZ14">
+        <f>AY14/5.85*5.5</f>
+        <v>1993.1623931623933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65">
       <c r="A15" s="14"/>
-    </row>
-    <row r="16" spans="1:41">
+      <c r="AS15">
+        <v>314</v>
+      </c>
+      <c r="AT15">
+        <f>AS15/5.85*5.5</f>
+        <v>295.21367521367523</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>528</v>
+      </c>
+      <c r="AZ15">
+        <f>AY15/5.85*5.5</f>
+        <v>496.41025641025647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65">
       <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f>SUM(B2:B16)</f>
-        <v>-3629</v>
-      </c>
+      <c r="A17" s="14"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B2:B17)</f>
+        <v>33692.550000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="13">
-        <f>B17-A50</f>
-        <v>-22930.162393162394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14"/>
+      <c r="B19" s="13">
+        <f>B18-A51</f>
+        <v>-21843.740598290591</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="14"/>
@@ -6654,58 +7066,91 @@
     <row r="34" spans="1:1">
       <c r="A34" s="14"/>
     </row>
-    <row r="50" spans="1:40">
-      <c r="A50">
-        <f>SUM(C50:DU50)</f>
-        <v>19301.162393162394</v>
-      </c>
-      <c r="J50">
-        <f>SUM(J2:J49)</f>
+    <row r="35" spans="1:1">
+      <c r="A35" s="14"/>
+    </row>
+    <row r="51" spans="1:52">
+      <c r="A51">
+        <f>SUM(C51:DU51)</f>
+        <v>55536.290598290594</v>
+      </c>
+      <c r="J51">
+        <f>SUM(J2:J50)</f>
         <v>1364.102564102564</v>
       </c>
-      <c r="M50">
-        <f>SUM(M2:M49)</f>
+      <c r="M51">
+        <f>SUM(M2:M50)</f>
         <v>314.85470085470087</v>
       </c>
-      <c r="P50">
-        <f>SUM(P2:P49)</f>
+      <c r="P51">
+        <f>SUM(P2:P50)</f>
         <v>0</v>
       </c>
-      <c r="S50">
-        <f>SUM(S2:S49)</f>
+      <c r="S51">
+        <f>SUM(S2:S50)</f>
         <v>1852.4273504273506</v>
       </c>
-      <c r="V50">
-        <f>SUM(V2:V49)</f>
+      <c r="V51">
+        <f>SUM(V2:V50)</f>
         <v>304.23076923076923</v>
       </c>
-      <c r="Y50">
-        <f>SUM(Y2:Y49)</f>
+      <c r="Y51">
+        <f>SUM(Y2:Y50)</f>
         <v>169.01709401709402</v>
       </c>
-      <c r="AB50">
-        <f>SUM(AB2:AB49)</f>
+      <c r="AB51">
+        <f>SUM(AB2:AB50)</f>
         <v>3090.5982905982905</v>
       </c>
-      <c r="AE50">
-        <f>SUM(AE2:AE49)</f>
+      <c r="AE51">
+        <f>SUM(AE2:AE50)</f>
         <v>0</v>
       </c>
-      <c r="AH50">
-        <f>SUM(AH2:AH49)</f>
+      <c r="AH51">
+        <f>SUM(AH2:AH50)</f>
         <v>6542.4102564102568</v>
       </c>
-      <c r="AK50">
-        <f>SUM(AK2:AK49)</f>
+      <c r="AK51">
+        <f>SUM(AK2:AK50)</f>
         <v>0</v>
       </c>
-      <c r="AN50">
-        <f>SUM(AN2:AN49)</f>
+      <c r="AN51">
+        <f>SUM(AN2:AN50)</f>
         <v>5663.5213675213681</v>
       </c>
+      <c r="AQ51">
+        <f>SUM(AQ2:AQ50)</f>
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <f>SUM(AT2:AT50)</f>
+        <v>16453.931623931625</v>
+      </c>
+      <c r="AW51">
+        <f>SUM(AW2:AW50)</f>
+        <v>8543.3333333333339</v>
+      </c>
+      <c r="AZ51">
+        <f>SUM(AZ2:AZ50)</f>
+        <v>11237.863247863246</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="21">
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="C1:E1"/>
@@ -6713,12 +7158,6 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -305,14 +305,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,34 +625,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="16">
         <v>43003</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15">
+      <c r="C1" s="17"/>
+      <c r="D1" s="16">
         <v>43004</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15">
+      <c r="E1" s="17"/>
+      <c r="F1" s="16">
         <v>43005</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15">
+      <c r="G1" s="17"/>
+      <c r="H1" s="16">
         <v>43006</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15">
+      <c r="I1" s="17"/>
+      <c r="J1" s="16">
         <v>43007</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="15">
+      <c r="K1" s="17"/>
+      <c r="L1" s="16">
         <v>43008</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -995,134 +995,134 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="16">
         <v>43009</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15">
+      <c r="C1" s="17"/>
+      <c r="D1" s="16">
         <v>43010</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15">
+      <c r="E1" s="17"/>
+      <c r="F1" s="16">
         <v>43011</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15">
+      <c r="G1" s="17"/>
+      <c r="H1" s="16">
         <v>43012</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15">
+      <c r="I1" s="17"/>
+      <c r="J1" s="16">
         <v>43013</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="15">
+      <c r="K1" s="17"/>
+      <c r="L1" s="16">
         <v>43014</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="15">
+      <c r="M1" s="17"/>
+      <c r="N1" s="16">
         <v>43015</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="15">
+      <c r="O1" s="17"/>
+      <c r="P1" s="16">
         <v>43016</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="15">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="16">
         <v>43017</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="15">
+      <c r="S1" s="17"/>
+      <c r="T1" s="16">
         <v>43018</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="15">
+      <c r="U1" s="17"/>
+      <c r="V1" s="16">
         <v>43019</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="15">
+      <c r="W1" s="17"/>
+      <c r="X1" s="16">
         <v>43020</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="15">
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="16">
         <v>43021</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="15">
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="16">
         <v>43022</v>
       </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="15">
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="16">
         <v>43023</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="15">
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="16">
         <v>43024</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="15">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="16">
         <v>43025</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="15">
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="16">
         <v>43026</v>
       </c>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="15">
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="16">
         <v>43027</v>
       </c>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="15">
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="16">
         <v>43028</v>
       </c>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="15">
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="16">
         <v>43029</v>
       </c>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="15">
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="16">
         <v>43030</v>
       </c>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="15">
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="16">
         <v>43031</v>
       </c>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="15">
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="16">
         <v>43032</v>
       </c>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="15">
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="16">
         <v>43033</v>
       </c>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="15">
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="16">
         <v>43034</v>
       </c>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="15">
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="16">
         <v>43035</v>
       </c>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="15">
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="16">
         <v>43036</v>
       </c>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="15">
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="16">
         <v>43037</v>
       </c>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="15">
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="16">
         <v>43038</v>
       </c>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="15">
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="16">
         <v>43039</v>
       </c>
-      <c r="BK1" s="16"/>
-      <c r="BL1" s="15" t="s">
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="BM1" s="16"/>
+      <c r="BM1" s="17"/>
     </row>
     <row r="2" spans="1:65">
       <c r="B2" t="s">
@@ -3132,6 +3132,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3140,30 +3164,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3192,147 +3192,147 @@
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="16">
         <v>43040</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="15">
+      <c r="D1" s="17"/>
+      <c r="E1" s="16">
         <v>43041</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15">
+      <c r="F1" s="17"/>
+      <c r="G1" s="16">
         <v>43042</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15">
+      <c r="H1" s="17"/>
+      <c r="I1" s="16">
         <v>43043</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="15">
+      <c r="J1" s="17"/>
+      <c r="K1" s="16">
         <v>43044</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="15">
+      <c r="L1" s="17"/>
+      <c r="M1" s="16">
         <v>43045</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="15">
+      <c r="N1" s="17"/>
+      <c r="O1" s="16">
         <v>43046</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="15">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="16">
         <v>43047</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="15">
+      <c r="R1" s="17"/>
+      <c r="S1" s="16">
         <v>43048</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="15">
+      <c r="T1" s="17"/>
+      <c r="U1" s="16">
         <v>43049</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="15">
+      <c r="V1" s="16"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="16">
         <v>43050</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="15">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="16">
         <v>43051</v>
       </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="15">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="16">
         <v>43052</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="15">
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="16">
         <v>43053</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="15">
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="16">
         <v>43054</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="15">
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="16">
         <v>43055</v>
       </c>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="15">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="16">
         <v>43056</v>
       </c>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="15">
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="16">
         <v>43057</v>
       </c>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="15">
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="16">
         <v>43058</v>
       </c>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="15">
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="16">
         <v>43059</v>
       </c>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="15">
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="16">
         <v>43060</v>
       </c>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="15">
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="16">
         <v>43061</v>
       </c>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="15">
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="16">
         <v>43062</v>
       </c>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="15">
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="16">
         <v>43063</v>
       </c>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="16"/>
-      <c r="BN1" s="15">
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="17"/>
+      <c r="BN1" s="16">
         <v>43064</v>
       </c>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="15">
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="16">
         <v>43065</v>
       </c>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="16"/>
-      <c r="BT1" s="15">
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="16">
         <v>43066</v>
       </c>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="16"/>
-      <c r="BW1" s="15">
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="16">
         <v>43067</v>
       </c>
-      <c r="BX1" s="15"/>
-      <c r="BY1" s="16"/>
-      <c r="BZ1" s="15">
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="17"/>
+      <c r="BZ1" s="16">
         <v>43068</v>
       </c>
-      <c r="CA1" s="15"/>
-      <c r="CB1" s="16"/>
-      <c r="CC1" s="15">
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="17"/>
+      <c r="CC1" s="16">
         <v>43069</v>
       </c>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="17"/>
     </row>
     <row r="2" spans="1:83">
       <c r="A2">
@@ -6139,17 +6139,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AM1:AO1"/>
@@ -6157,18 +6158,17 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6181,7 +6181,7 @@
   <dimension ref="A1:BM51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BL18" sqref="BL18"/>
+      <selection activeCell="BD5" sqref="BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6196,111 +6196,111 @@
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="16">
         <v>43070</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15">
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16">
         <v>43071</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15">
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16">
         <v>43072</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="15">
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="16">
         <v>43073</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="15">
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="16">
         <v>43074</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="15">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="16">
         <v>43075</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="15">
+      <c r="S1" s="16"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="16">
         <v>43076</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="15">
+      <c r="V1" s="16"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="16">
         <v>43077</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="15">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="16">
         <v>43078</v>
       </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="15">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="16">
         <v>43079</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="15">
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="16">
         <v>43080</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="15">
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="16">
         <v>43081</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="15">
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="16">
         <v>43082</v>
       </c>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="15">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="16">
         <v>43083</v>
       </c>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="15">
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="16">
         <v>43084</v>
       </c>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="15">
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="16">
         <v>43085</v>
       </c>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="15">
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="16">
         <v>43086</v>
       </c>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="15">
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="16">
         <v>43087</v>
       </c>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="15">
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="16">
         <v>43088</v>
       </c>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="15">
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="16">
         <v>43089</v>
       </c>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="15">
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="16">
         <v>43090</v>
       </c>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="17"/>
     </row>
     <row r="2" spans="1:65">
       <c r="A2" s="14" t="s">
@@ -6580,6 +6580,9 @@
       <c r="BA3">
         <v>3395</v>
       </c>
+      <c r="BD3">
+        <v>5457</v>
+      </c>
     </row>
     <row r="4" spans="1:65">
       <c r="A4" s="14" t="s">
@@ -6631,7 +6634,7 @@
         <v>1834</v>
       </c>
       <c r="AT4">
-        <f t="shared" ref="AT4:AT16" si="2">AS4/5.85*5.5</f>
+        <f t="shared" ref="AT4" si="2">AS4/5.85*5.5</f>
         <v>1724.2735042735042</v>
       </c>
       <c r="AU4" s="3">
@@ -6641,7 +6644,7 @@
         <v>1296</v>
       </c>
       <c r="AW4">
-        <f t="shared" ref="AW4:AW13" si="3">AV4/5.85*5.5</f>
+        <f t="shared" ref="AW4" si="3">AV4/5.85*5.5</f>
         <v>1218.4615384615386</v>
       </c>
       <c r="AX4">
@@ -6651,15 +6654,18 @@
         <v>773</v>
       </c>
       <c r="AZ4">
-        <f t="shared" ref="AZ4:AZ16" si="4">AY4/5.85*5.5</f>
+        <f t="shared" ref="AZ4" si="4">AY4/5.85*5.5</f>
         <v>726.75213675213672</v>
+      </c>
+      <c r="BD4">
+        <v>5657</v>
       </c>
     </row>
     <row r="5" spans="1:65">
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>4289.6400000000003</v>
       </c>
       <c r="K5" s="2"/>
@@ -6669,7 +6675,7 @@
         <v>452</v>
       </c>
       <c r="AT5">
-        <f>AS5/5.85*5.5</f>
+        <f t="shared" ref="AT5:AT15" si="5">AS5/5.85*5.5</f>
         <v>424.95726495726501</v>
       </c>
       <c r="AU5" s="3">
@@ -6679,7 +6685,7 @@
         <v>1007</v>
       </c>
       <c r="AW5">
-        <f>AV5/5.85*5.5</f>
+        <f t="shared" ref="AW5:AW12" si="6">AV5/5.85*5.5</f>
         <v>946.75213675213672</v>
       </c>
       <c r="AX5">
@@ -6689,7 +6695,7 @@
         <v>1086</v>
       </c>
       <c r="AZ5">
-        <f>AY5/5.85*5.5</f>
+        <f t="shared" ref="AZ5:AZ15" si="7">AY5/5.85*5.5</f>
         <v>1021.0256410256411</v>
       </c>
     </row>
@@ -6721,7 +6727,7 @@
         <v>1124</v>
       </c>
       <c r="AT6">
-        <f>AS6/5.85*5.5</f>
+        <f t="shared" si="5"/>
         <v>1056.7521367521367</v>
       </c>
       <c r="AU6" s="3">
@@ -6731,7 +6737,7 @@
         <v>1739</v>
       </c>
       <c r="AW6">
-        <f>AV6/5.85*5.5</f>
+        <f t="shared" si="6"/>
         <v>1634.9572649572651</v>
       </c>
       <c r="AX6">
@@ -6741,7 +6747,7 @@
         <v>640</v>
       </c>
       <c r="AZ6">
-        <f>AY6/5.85*5.5</f>
+        <f t="shared" si="7"/>
         <v>601.70940170940173</v>
       </c>
     </row>
@@ -6749,7 +6755,7 @@
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>16171.64</v>
       </c>
       <c r="AG7">
@@ -6770,21 +6776,21 @@
         <v>927</v>
       </c>
       <c r="AT7">
-        <f>AS7/5.85*5.5</f>
+        <f t="shared" si="5"/>
         <v>871.53846153846166</v>
       </c>
       <c r="AV7">
         <v>900</v>
       </c>
       <c r="AW7">
-        <f>AV7/5.85*5.5</f>
+        <f t="shared" si="6"/>
         <v>846.1538461538463</v>
       </c>
       <c r="AY7" s="1">
         <v>692</v>
       </c>
       <c r="AZ7">
-        <f>AY7/5.85*5.5</f>
+        <f t="shared" si="7"/>
         <v>650.59829059829065</v>
       </c>
     </row>
@@ -6813,21 +6819,21 @@
         <v>216</v>
       </c>
       <c r="AT8">
-        <f>AS8/5.85*5.5</f>
+        <f t="shared" si="5"/>
         <v>203.07692307692309</v>
       </c>
       <c r="AV8">
         <v>504</v>
       </c>
       <c r="AW8">
-        <f>AV8/5.85*5.5</f>
+        <f t="shared" si="6"/>
         <v>473.84615384615387</v>
       </c>
       <c r="AY8" s="1">
         <v>831</v>
       </c>
       <c r="AZ8">
-        <f>AY8/5.85*5.5</f>
+        <f t="shared" si="7"/>
         <v>781.28205128205138</v>
       </c>
     </row>
@@ -6856,21 +6862,21 @@
         <v>2285</v>
       </c>
       <c r="AT9">
-        <f>AS9/5.85*5.5</f>
+        <f t="shared" si="5"/>
         <v>2148.2905982905986</v>
       </c>
       <c r="AV9">
         <v>491</v>
       </c>
       <c r="AW9">
-        <f>AV9/5.85*5.5</f>
+        <f t="shared" si="6"/>
         <v>461.62393162393164</v>
       </c>
       <c r="AY9" s="1">
         <v>781</v>
       </c>
       <c r="AZ9">
-        <f>AY9/5.85*5.5</f>
+        <f t="shared" si="7"/>
         <v>734.27350427350427</v>
       </c>
     </row>
@@ -6880,21 +6886,21 @@
         <v>975</v>
       </c>
       <c r="AT10">
-        <f>AS10/5.85*5.5</f>
+        <f t="shared" si="5"/>
         <v>916.66666666666674</v>
       </c>
       <c r="AV10">
         <v>705</v>
       </c>
       <c r="AW10">
-        <f>AV10/5.85*5.5</f>
+        <f t="shared" si="6"/>
         <v>662.82051282051293</v>
       </c>
       <c r="AY10" s="1">
         <v>570</v>
       </c>
       <c r="AZ10">
-        <f>AY10/5.85*5.5</f>
+        <f t="shared" si="7"/>
         <v>535.89743589743591</v>
       </c>
     </row>
@@ -6904,21 +6910,21 @@
         <v>477</v>
       </c>
       <c r="AT11">
-        <f>AS11/5.85*5.5</f>
+        <f t="shared" si="5"/>
         <v>448.46153846153851</v>
       </c>
       <c r="AV11">
         <v>1340</v>
       </c>
       <c r="AW11">
-        <f>AV11/5.85*5.5</f>
+        <f t="shared" si="6"/>
         <v>1259.8290598290598</v>
       </c>
       <c r="AY11" s="1">
         <v>512</v>
       </c>
       <c r="AZ11">
-        <f>AY11/5.85*5.5</f>
+        <f t="shared" si="7"/>
         <v>481.36752136752136</v>
       </c>
     </row>
@@ -6928,21 +6934,21 @@
         <v>473</v>
       </c>
       <c r="AT12">
-        <f>AS12/5.85*5.5</f>
+        <f t="shared" si="5"/>
         <v>444.70085470085473</v>
       </c>
       <c r="AV12">
         <v>334</v>
       </c>
       <c r="AW12">
-        <f>AV12/5.85*5.5</f>
+        <f t="shared" si="6"/>
         <v>314.01709401709405</v>
       </c>
       <c r="AY12" s="1">
         <v>684</v>
       </c>
       <c r="AZ12">
-        <f>AY12/5.85*5.5</f>
+        <f t="shared" si="7"/>
         <v>643.07692307692309</v>
       </c>
     </row>
@@ -6952,14 +6958,14 @@
         <v>1543</v>
       </c>
       <c r="AT13">
-        <f>AS13/5.85*5.5</f>
+        <f t="shared" si="5"/>
         <v>1450.6837606837607</v>
       </c>
       <c r="AY13" s="1">
         <v>1632</v>
       </c>
       <c r="AZ13">
-        <f>AY13/5.85*5.5</f>
+        <f t="shared" si="7"/>
         <v>1534.3589743589746</v>
       </c>
     </row>
@@ -6969,14 +6975,14 @@
         <v>3075</v>
       </c>
       <c r="AT14">
-        <f>AS14/5.85*5.5</f>
+        <f t="shared" si="5"/>
         <v>2891.0256410256411</v>
       </c>
       <c r="AY14" s="1">
         <v>2120</v>
       </c>
       <c r="AZ14">
-        <f>AY14/5.85*5.5</f>
+        <f t="shared" si="7"/>
         <v>1993.1623931623933</v>
       </c>
     </row>
@@ -6986,14 +6992,14 @@
         <v>314</v>
       </c>
       <c r="AT15">
-        <f>AS15/5.85*5.5</f>
+        <f t="shared" si="5"/>
         <v>295.21367521367523</v>
       </c>
       <c r="AY15" s="1">
         <v>528</v>
       </c>
       <c r="AZ15">
-        <f>AY15/5.85*5.5</f>
+        <f t="shared" si="7"/>
         <v>496.41025641025647</v>
       </c>
     </row>
@@ -7137,6 +7143,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="BK1:BM1"/>
@@ -7145,19 +7164,6 @@
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AY1:BA1"/>
     <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="35">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,26 @@
   </si>
   <si>
     <t>12.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刁工地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王工地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3132,30 +3152,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3164,6 +3160,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6139,6 +6159,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
@@ -6146,29 +6189,6 @@
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6180,8 +6200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BD5" sqref="BD5"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BK13" sqref="BK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6424,10 +6444,13 @@
         <v>13</v>
       </c>
       <c r="BH2" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>33</v>
       </c>
       <c r="BJ2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="BK2" t="s">
         <v>12</v>
@@ -6583,6 +6606,18 @@
       <c r="BD3">
         <v>5457</v>
       </c>
+      <c r="BE3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>193.68</v>
+      </c>
+      <c r="BJ3">
+        <v>3656</v>
+      </c>
     </row>
     <row r="4" spans="1:65">
       <c r="A4" s="14" t="s">
@@ -6659,6 +6694,9 @@
       </c>
       <c r="BD4">
         <v>5657</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>180.35</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -6698,6 +6736,9 @@
         <f t="shared" ref="AZ5:AZ15" si="7">AY5/5.85*5.5</f>
         <v>1021.0256410256411</v>
       </c>
+      <c r="BH5" s="1">
+        <v>150.77000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:65">
       <c r="A6" s="14" t="s">
@@ -6750,6 +6791,9 @@
         <f t="shared" si="7"/>
         <v>601.70940170940173</v>
       </c>
+      <c r="BH6" s="1">
+        <v>125.82</v>
+      </c>
     </row>
     <row r="7" spans="1:65">
       <c r="A7" s="14" t="s">
@@ -6793,6 +6837,9 @@
         <f t="shared" si="7"/>
         <v>650.59829059829065</v>
       </c>
+      <c r="BH7" s="1">
+        <v>143.25</v>
+      </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" s="14" t="s">
@@ -6836,6 +6883,9 @@
         <f t="shared" si="7"/>
         <v>781.28205128205138</v>
       </c>
+      <c r="BH8" s="1">
+        <v>88.89</v>
+      </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" s="14" t="s">
@@ -6878,6 +6928,9 @@
       <c r="AZ9">
         <f t="shared" si="7"/>
         <v>734.27350427350427</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>190.26</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -6903,6 +6956,9 @@
         <f t="shared" si="7"/>
         <v>535.89743589743591</v>
       </c>
+      <c r="BH10" s="1">
+        <v>173.17</v>
+      </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" s="14"/>
@@ -6927,6 +6983,9 @@
         <f t="shared" si="7"/>
         <v>481.36752136752136</v>
       </c>
+      <c r="BH11" s="1">
+        <v>84.28</v>
+      </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" s="14"/>
@@ -6951,6 +7010,9 @@
         <f t="shared" si="7"/>
         <v>643.07692307692309</v>
       </c>
+      <c r="BH12" s="1">
+        <v>186.67</v>
+      </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="14"/>
@@ -6968,6 +7030,9 @@
         <f t="shared" si="7"/>
         <v>1534.3589743589746</v>
       </c>
+      <c r="BH13" s="1">
+        <v>392.48</v>
+      </c>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" s="14"/>
@@ -6985,6 +7050,9 @@
         <f t="shared" si="7"/>
         <v>1993.1623931623933</v>
       </c>
+      <c r="BH14" s="1">
+        <v>254.36</v>
+      </c>
     </row>
     <row r="15" spans="1:65">
       <c r="A15" s="14"/>
@@ -7002,14 +7070,23 @@
         <f t="shared" si="7"/>
         <v>496.41025641025647</v>
       </c>
+      <c r="BH15" s="1">
+        <v>417.27</v>
+      </c>
     </row>
     <row r="16" spans="1:65">
       <c r="A16" s="14"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="BH16" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60">
       <c r="A17" s="14"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="BH17" s="1">
+        <v>59.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60">
       <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
@@ -7017,8 +7094,11 @@
         <f>SUM(B2:B17)</f>
         <v>33692.550000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="BH18" s="1">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60">
       <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
@@ -7026,54 +7106,107 @@
         <f>B18-A51</f>
         <v>-21843.740598290591</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="BH19" s="1">
+        <v>251.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60">
       <c r="A20" s="14"/>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="BH20" s="1">
+        <v>193.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60">
       <c r="A21" s="14"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="BH21" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60">
       <c r="A22" s="14"/>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="BH22" s="1">
+        <v>110.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60">
       <c r="A23" s="14"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="BH23" s="1">
+        <v>105.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60">
       <c r="A24" s="14"/>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="BH24" s="1">
+        <v>108.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60">
       <c r="A25" s="14"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="BH25" s="1">
+        <v>81.37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60">
       <c r="A26" s="14"/>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="BH26" s="1">
+        <v>128.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60">
       <c r="A27" s="14"/>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="BH27" s="1">
+        <v>203.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60">
       <c r="A28" s="14"/>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="BH28" s="1">
+        <v>141.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60">
       <c r="A29" s="14"/>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="BH29" s="1">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60">
       <c r="A30" s="14"/>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="BH30" s="1">
+        <v>79.489999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60">
       <c r="A31" s="14"/>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="BH31" s="1">
+        <v>250.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60">
       <c r="A32" s="14"/>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="BH32" s="1">
+        <v>166.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60">
       <c r="A33" s="14"/>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="BH33" s="1">
+        <v>113.17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:60">
       <c r="A34" s="14"/>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="BH34">
+        <f>SUM(BH3:BH33)</f>
+        <v>4888.6899999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60">
       <c r="A35" s="14"/>
+      <c r="BH35">
+        <f>BH34*4.9</f>
+        <v>23954.580999999998</v>
+      </c>
     </row>
     <row r="51" spans="1:52">
       <c r="A51">
@@ -7143,19 +7276,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
     <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="BK1:BM1"/>
@@ -7164,6 +7284,19 @@
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AY1:BA1"/>
     <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="38">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12.18 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6200,8 +6212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BK13" sqref="BK13"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BL51" sqref="BL51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6612,11 +6624,25 @@
       <c r="BG3" t="s">
         <v>31</v>
       </c>
-      <c r="BH3" s="1">
+      <c r="BH3" s="2">
         <v>193.68</v>
+      </c>
+      <c r="BI3">
+        <f>BH3*4.9</f>
+        <v>949.03200000000015</v>
       </c>
       <c r="BJ3">
         <v>3656</v>
+      </c>
+      <c r="BK3">
+        <v>105.82</v>
+      </c>
+      <c r="BL3">
+        <f>BK3*4.9</f>
+        <v>518.51800000000003</v>
+      </c>
+      <c r="BM3">
+        <v>2750</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -6695,8 +6721,22 @@
       <c r="BD4">
         <v>5657</v>
       </c>
-      <c r="BH4" s="1">
+      <c r="BH4" s="2">
         <v>180.35</v>
+      </c>
+      <c r="BI4">
+        <f t="shared" ref="BI4:BI33" si="5">BH4*4.9</f>
+        <v>883.71500000000003</v>
+      </c>
+      <c r="BK4">
+        <v>141.03</v>
+      </c>
+      <c r="BL4">
+        <f t="shared" ref="BL4:BL14" si="6">BK4*4.9</f>
+        <v>691.04700000000003</v>
+      </c>
+      <c r="BM4">
+        <v>2484</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -6713,7 +6753,7 @@
         <v>452</v>
       </c>
       <c r="AT5">
-        <f t="shared" ref="AT5:AT15" si="5">AS5/5.85*5.5</f>
+        <f t="shared" ref="AT5:AT15" si="7">AS5/5.85*5.5</f>
         <v>424.95726495726501</v>
       </c>
       <c r="AU5" s="3">
@@ -6723,7 +6763,7 @@
         <v>1007</v>
       </c>
       <c r="AW5">
-        <f t="shared" ref="AW5:AW12" si="6">AV5/5.85*5.5</f>
+        <f t="shared" ref="AW5:AW12" si="8">AV5/5.85*5.5</f>
         <v>946.75213675213672</v>
       </c>
       <c r="AX5">
@@ -6733,11 +6773,25 @@
         <v>1086</v>
       </c>
       <c r="AZ5">
-        <f t="shared" ref="AZ5:AZ15" si="7">AY5/5.85*5.5</f>
+        <f t="shared" ref="AZ5:AZ15" si="9">AY5/5.85*5.5</f>
         <v>1021.0256410256411</v>
       </c>
-      <c r="BH5" s="1">
+      <c r="BH5" s="2">
         <v>150.77000000000001</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" si="5"/>
+        <v>738.77300000000014</v>
+      </c>
+      <c r="BK5">
+        <v>148.38</v>
+      </c>
+      <c r="BL5">
+        <f t="shared" si="6"/>
+        <v>727.06200000000001</v>
+      </c>
+      <c r="BM5">
+        <v>2660</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -6768,7 +6822,7 @@
         <v>1124</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1056.7521367521367</v>
       </c>
       <c r="AU6" s="3">
@@ -6778,7 +6832,7 @@
         <v>1739</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1634.9572649572651</v>
       </c>
       <c r="AX6">
@@ -6788,11 +6842,25 @@
         <v>640</v>
       </c>
       <c r="AZ6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>601.70940170940173</v>
       </c>
-      <c r="BH6" s="1">
+      <c r="BH6" s="2">
         <v>125.82</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" si="5"/>
+        <v>616.51800000000003</v>
+      </c>
+      <c r="BK6">
+        <v>383.08</v>
+      </c>
+      <c r="BL6">
+        <f t="shared" si="6"/>
+        <v>1877.0920000000001</v>
+      </c>
+      <c r="BM6">
+        <v>2667</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -6820,25 +6888,36 @@
         <v>927</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>871.53846153846166</v>
       </c>
       <c r="AV7">
         <v>900</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>846.1538461538463</v>
       </c>
       <c r="AY7" s="1">
         <v>692</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>650.59829059829065</v>
       </c>
-      <c r="BH7" s="1">
+      <c r="BH7" s="2">
         <v>143.25</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="5"/>
+        <v>701.92500000000007</v>
+      </c>
+      <c r="BK7">
+        <v>255.73</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" si="6"/>
+        <v>1253.077</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -6866,25 +6945,36 @@
         <v>216</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>203.07692307692309</v>
       </c>
       <c r="AV8">
         <v>504</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>473.84615384615387</v>
       </c>
       <c r="AY8" s="1">
         <v>831</v>
       </c>
       <c r="AZ8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>781.28205128205138</v>
       </c>
-      <c r="BH8" s="1">
+      <c r="BH8" s="2">
         <v>88.89</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="5"/>
+        <v>435.56100000000004</v>
+      </c>
+      <c r="BK8">
+        <v>105.65</v>
+      </c>
+      <c r="BL8">
+        <f t="shared" si="6"/>
+        <v>517.68500000000006</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -6912,126 +7002,201 @@
         <v>2285</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2148.2905982905986</v>
       </c>
       <c r="AV9">
         <v>491</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461.62393162393164</v>
       </c>
       <c r="AY9" s="1">
         <v>781</v>
       </c>
       <c r="AZ9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>734.27350427350427</v>
       </c>
-      <c r="BH9" s="1">
+      <c r="BH9" s="2">
         <v>190.26</v>
       </c>
+      <c r="BI9">
+        <f t="shared" si="5"/>
+        <v>932.274</v>
+      </c>
+      <c r="BK9">
+        <v>262.06</v>
+      </c>
+      <c r="BL9">
+        <f t="shared" si="6"/>
+        <v>1284.0940000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:65">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>11238</v>
+      </c>
       <c r="AS10">
         <v>975</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>916.66666666666674</v>
       </c>
       <c r="AV10">
         <v>705</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>662.82051282051293</v>
       </c>
       <c r="AY10" s="1">
         <v>570</v>
       </c>
       <c r="AZ10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>535.89743589743591</v>
       </c>
-      <c r="BH10" s="1">
+      <c r="BH10" s="2">
         <v>173.17</v>
       </c>
+      <c r="BI10">
+        <f t="shared" si="5"/>
+        <v>848.53300000000002</v>
+      </c>
+      <c r="BK10">
+        <v>117.44</v>
+      </c>
+      <c r="BL10">
+        <f t="shared" si="6"/>
+        <v>575.45600000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:65">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>10505.6</v>
+      </c>
       <c r="AS11">
         <v>477</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>448.46153846153851</v>
       </c>
       <c r="AV11">
         <v>1340</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1259.8290598290598</v>
       </c>
       <c r="AY11" s="1">
         <v>512</v>
       </c>
       <c r="AZ11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>481.36752136752136</v>
       </c>
-      <c r="BH11" s="1">
+      <c r="BH11" s="2">
         <v>84.28</v>
       </c>
+      <c r="BI11">
+        <f t="shared" si="5"/>
+        <v>412.97200000000004</v>
+      </c>
+      <c r="BK11">
+        <v>88.72</v>
+      </c>
+      <c r="BL11">
+        <f t="shared" si="6"/>
+        <v>434.72800000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:65">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>13447</v>
+      </c>
       <c r="AS12">
         <v>473</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>444.70085470085473</v>
       </c>
       <c r="AV12">
         <v>334</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>314.01709401709405</v>
       </c>
       <c r="AY12" s="1">
         <v>684</v>
       </c>
       <c r="AZ12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>643.07692307692309</v>
       </c>
-      <c r="BH12" s="1">
+      <c r="BH12" s="2">
         <v>186.67</v>
       </c>
+      <c r="BI12">
+        <f t="shared" si="5"/>
+        <v>914.68299999999999</v>
+      </c>
+      <c r="BK12">
+        <v>327.87</v>
+      </c>
+      <c r="BL12">
+        <f t="shared" si="6"/>
+        <v>1606.5630000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:65">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>11850</v>
+      </c>
       <c r="AS13">
         <v>1543</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1450.6837606837607</v>
       </c>
       <c r="AY13" s="1">
         <v>1632</v>
       </c>
       <c r="AZ13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1534.3589743589746</v>
       </c>
-      <c r="BH13" s="1">
+      <c r="BH13" s="2">
         <v>392.48</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="5"/>
+        <v>1923.1520000000003</v>
+      </c>
+      <c r="BK13">
+        <v>270.95</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" si="6"/>
+        <v>1327.655</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -7040,18 +7205,29 @@
         <v>3075</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2891.0256410256411</v>
       </c>
       <c r="AY14" s="1">
         <v>2120</v>
       </c>
       <c r="AZ14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1993.1623931623933</v>
       </c>
-      <c r="BH14" s="1">
+      <c r="BH14" s="2">
         <v>254.36</v>
+      </c>
+      <c r="BI14">
+        <f t="shared" si="5"/>
+        <v>1246.3640000000003</v>
+      </c>
+      <c r="BK14">
+        <v>211.8</v>
+      </c>
+      <c r="BL14">
+        <f t="shared" si="6"/>
+        <v>1037.8200000000002</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -7060,158 +7236,242 @@
         <v>314</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>295.21367521367523</v>
       </c>
       <c r="AY15" s="1">
         <v>528</v>
       </c>
       <c r="AZ15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>496.41025641025647</v>
       </c>
-      <c r="BH15" s="1">
+      <c r="BH15" s="2">
         <v>417.27</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="5"/>
+        <v>2044.623</v>
       </c>
     </row>
     <row r="16" spans="1:65">
       <c r="A16" s="14"/>
-      <c r="BH16" s="1">
+      <c r="BH16" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:60">
+      <c r="BI16">
+        <f t="shared" si="5"/>
+        <v>357.70000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61">
       <c r="A17" s="14"/>
-      <c r="BH17" s="1">
+      <c r="BH17" s="2">
         <v>59.83</v>
       </c>
-    </row>
-    <row r="18" spans="1:60">
+      <c r="BI17">
+        <f t="shared" si="5"/>
+        <v>293.16700000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61">
       <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <f>SUM(B2:B17)</f>
-        <v>33692.550000000003</v>
-      </c>
-      <c r="BH18" s="1">
+        <v>80733.149999999994</v>
+      </c>
+      <c r="BH18" s="2">
         <v>59.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:60">
+      <c r="BI18">
+        <f t="shared" si="5"/>
+        <v>289.83500000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61">
       <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="13">
         <f>B18-A51</f>
-        <v>-21843.740598290591</v>
-      </c>
-      <c r="BH19" s="1">
+        <v>-10608.518598290611</v>
+      </c>
+      <c r="BH19" s="2">
         <v>251.97</v>
       </c>
-    </row>
-    <row r="20" spans="1:60">
+      <c r="BI19">
+        <f t="shared" si="5"/>
+        <v>1234.653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61">
       <c r="A20" s="14"/>
-      <c r="BH20" s="1">
+      <c r="BH20" s="2">
         <v>193.17</v>
       </c>
-    </row>
-    <row r="21" spans="1:60">
+      <c r="BI20">
+        <f t="shared" si="5"/>
+        <v>946.53300000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61">
       <c r="A21" s="14"/>
-      <c r="BH21" s="1">
+      <c r="BH21" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:60">
+      <c r="BI21">
+        <f t="shared" si="5"/>
+        <v>357.70000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61">
       <c r="A22" s="14"/>
-      <c r="BH22" s="1">
+      <c r="BH22" s="2">
         <v>110.26</v>
       </c>
-    </row>
-    <row r="23" spans="1:60">
+      <c r="BI22">
+        <f t="shared" si="5"/>
+        <v>540.27400000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61">
       <c r="A23" s="14"/>
-      <c r="BH23" s="1">
+      <c r="BH23" s="2">
         <v>105.82</v>
       </c>
-    </row>
-    <row r="24" spans="1:60">
+      <c r="BI23">
+        <f t="shared" si="5"/>
+        <v>518.51800000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61">
       <c r="A24" s="14"/>
-      <c r="BH24" s="1">
+      <c r="BH24" s="2">
         <v>108.55</v>
       </c>
-    </row>
-    <row r="25" spans="1:60">
+      <c r="BI24">
+        <f t="shared" si="5"/>
+        <v>531.89499999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61">
       <c r="A25" s="14"/>
-      <c r="BH25" s="1">
+      <c r="BH25" s="2">
         <v>81.37</v>
       </c>
-    </row>
-    <row r="26" spans="1:60">
+      <c r="BI25">
+        <f t="shared" si="5"/>
+        <v>398.71300000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61">
       <c r="A26" s="14"/>
-      <c r="BH26" s="1">
+      <c r="BH26" s="2">
         <v>128.04</v>
       </c>
-    </row>
-    <row r="27" spans="1:60">
+      <c r="BI26">
+        <f t="shared" si="5"/>
+        <v>627.39599999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61">
       <c r="A27" s="14"/>
-      <c r="BH27" s="1">
+      <c r="BH27" s="2">
         <v>203.42</v>
       </c>
-    </row>
-    <row r="28" spans="1:60">
+      <c r="BI27">
+        <f t="shared" si="5"/>
+        <v>996.75800000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61">
       <c r="A28" s="14"/>
-      <c r="BH28" s="1">
+      <c r="BH28" s="2">
         <v>141.71</v>
       </c>
-    </row>
-    <row r="29" spans="1:60">
+      <c r="BI28">
+        <f t="shared" si="5"/>
+        <v>694.37900000000013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61">
       <c r="A29" s="14"/>
-      <c r="BH29" s="1">
+      <c r="BH29" s="2">
         <v>107.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:60">
+      <c r="BI29">
+        <f t="shared" si="5"/>
+        <v>527.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61">
       <c r="A30" s="14"/>
-      <c r="BH30" s="1">
+      <c r="BH30" s="2">
         <v>79.489999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:60">
+      <c r="BI30">
+        <f t="shared" si="5"/>
+        <v>389.50099999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61">
       <c r="A31" s="14"/>
-      <c r="BH31" s="1">
+      <c r="BH31" s="2">
         <v>250.95</v>
       </c>
-    </row>
-    <row r="32" spans="1:60">
+      <c r="BI31">
+        <f t="shared" si="5"/>
+        <v>1229.655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61">
       <c r="A32" s="14"/>
-      <c r="BH32" s="1">
+      <c r="BH32" s="2">
         <v>166.84</v>
       </c>
-    </row>
-    <row r="33" spans="1:60">
+      <c r="BI32">
+        <f t="shared" si="5"/>
+        <v>817.51600000000008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
       <c r="A33" s="14"/>
-      <c r="BH33" s="1">
+      <c r="BH33" s="2">
         <v>113.17</v>
       </c>
-    </row>
-    <row r="34" spans="1:60">
+      <c r="BI33">
+        <f t="shared" si="5"/>
+        <v>554.53300000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
       <c r="A34" s="14"/>
       <c r="BH34">
         <f>SUM(BH3:BH33)</f>
         <v>4888.6899999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:60">
+      <c r="BK34">
+        <f>SUM(BK3:BK33)</f>
+        <v>2418.5300000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
       <c r="A35" s="14"/>
       <c r="BH35">
         <f>BH34*4.9</f>
         <v>23954.580999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:52">
+      <c r="BK35">
+        <f>BK34*4.9</f>
+        <v>11850.797000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:64">
       <c r="A51">
         <f>SUM(C51:DU51)</f>
-        <v>55536.290598290594</v>
+        <v>91341.668598290606</v>
       </c>
       <c r="J51">
         <f>SUM(J2:J50)</f>
@@ -7272,6 +7532,14 @@
       <c r="AZ51">
         <f>SUM(AZ2:AZ50)</f>
         <v>11237.863247863246</v>
+      </c>
+      <c r="BI51">
+        <f>SUM(BI2:BI50)</f>
+        <v>23954.581000000002</v>
+      </c>
+      <c r="BL51">
+        <f>SUM(BL2:BL50)</f>
+        <v>11850.797</v>
       </c>
     </row>
   </sheetData>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="38">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3164,6 +3164,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3172,30 +3196,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6171,17 +6171,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AM1:AO1"/>
@@ -6189,18 +6190,17 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6210,10 +6210,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM51"/>
+  <dimension ref="A1:BY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BL51" sqref="BL51"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="CA6" sqref="CA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6221,7 +6221,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:77">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6333,8 +6333,28 @@
       </c>
       <c r="BL1" s="16"/>
       <c r="BM1" s="17"/>
-    </row>
-    <row r="2" spans="1:65">
+      <c r="BN1" s="16">
+        <v>43091</v>
+      </c>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="16">
+        <v>43092</v>
+      </c>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="16">
+        <v>43093</v>
+      </c>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="16">
+        <v>43094</v>
+      </c>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="17"/>
+    </row>
+    <row r="2" spans="1:77">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -6465,13 +6485,52 @@
         <v>34</v>
       </c>
       <c r="BK2" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>33</v>
       </c>
       <c r="BM2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65">
+        <v>34</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:77">
       <c r="A3" s="14">
         <v>12.8</v>
       </c>
@@ -6644,8 +6703,29 @@
       <c r="BM3">
         <v>2750</v>
       </c>
-    </row>
-    <row r="4" spans="1:65">
+      <c r="BN3" s="2">
+        <v>46.67</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>1046</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>285.82</v>
+      </c>
+      <c r="BS3">
+        <v>4172</v>
+      </c>
+      <c r="BV3">
+        <v>2791</v>
+      </c>
+      <c r="BW3">
+        <v>194.37</v>
+      </c>
+      <c r="BY3">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:77">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
@@ -6738,8 +6818,23 @@
       <c r="BM4">
         <v>2484</v>
       </c>
-    </row>
-    <row r="5" spans="1:65">
+      <c r="BN4" s="2">
+        <v>58.98</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>905</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>156.19</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>1230</v>
+      </c>
+      <c r="BW4">
+        <v>129.63999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:77">
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
@@ -6793,8 +6888,23 @@
       <c r="BM5">
         <v>2660</v>
       </c>
-    </row>
-    <row r="6" spans="1:65">
+      <c r="BN5" s="2">
+        <v>49.46</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>678</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>102</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>919</v>
+      </c>
+      <c r="BW5">
+        <v>81.819999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:77">
       <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
@@ -6862,8 +6972,20 @@
       <c r="BM6">
         <v>2667</v>
       </c>
-    </row>
-    <row r="7" spans="1:65">
+      <c r="BN6" s="2">
+        <v>57.64</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>154.37</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>434</v>
+      </c>
+      <c r="BW6">
+        <v>120.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -6919,8 +7041,20 @@
         <f t="shared" si="6"/>
         <v>1253.077</v>
       </c>
-    </row>
-    <row r="8" spans="1:65">
+      <c r="BN7" s="2">
+        <v>88.55</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>127.64</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>456</v>
+      </c>
+      <c r="BW7">
+        <v>141.63999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -6976,8 +7110,17 @@
         <f t="shared" si="6"/>
         <v>517.68500000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:65">
+      <c r="BN8" s="2">
+        <v>50.37</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>91.64</v>
+      </c>
+      <c r="BW8">
+        <v>150.55000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:77">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -7033,8 +7176,17 @@
         <f t="shared" si="6"/>
         <v>1284.0940000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:65">
+      <c r="BN9" s="2">
+        <v>148.91</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>165.82</v>
+      </c>
+      <c r="BW9">
+        <v>200.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77">
       <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
@@ -7076,8 +7228,17 @@
         <f t="shared" si="6"/>
         <v>575.45600000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:65">
+      <c r="BN10" s="2">
+        <v>47.82</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>147.63999999999999</v>
+      </c>
+      <c r="BW10">
+        <v>132.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:77">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
@@ -7119,8 +7280,17 @@
         <f t="shared" si="6"/>
         <v>434.72800000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:65">
+      <c r="BN11" s="2">
+        <v>43.46</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>142</v>
+      </c>
+      <c r="BW11">
+        <v>160.72999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:77">
       <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
@@ -7162,8 +7332,17 @@
         <f t="shared" si="6"/>
         <v>1606.5630000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:65">
+      <c r="BN12" s="2">
+        <v>214.55</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>201.46</v>
+      </c>
+      <c r="BW12">
+        <v>148.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
@@ -7198,8 +7377,17 @@
         <f t="shared" si="6"/>
         <v>1327.655</v>
       </c>
-    </row>
-    <row r="14" spans="1:65">
+      <c r="BN13" s="2">
+        <v>113.1</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>180.91</v>
+      </c>
+      <c r="BW13">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:77">
       <c r="A14" s="14"/>
       <c r="AS14">
         <v>3075</v>
@@ -7229,8 +7417,17 @@
         <f t="shared" si="6"/>
         <v>1037.8200000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:65">
+      <c r="BN14" s="2">
+        <v>87.82</v>
+      </c>
+      <c r="BQ14" s="2">
+        <v>114.37</v>
+      </c>
+      <c r="BW14">
+        <v>46.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77">
       <c r="A15" s="14"/>
       <c r="AS15">
         <v>314</v>
@@ -7253,8 +7450,14 @@
         <f t="shared" si="5"/>
         <v>2044.623</v>
       </c>
-    </row>
-    <row r="16" spans="1:65">
+      <c r="BN15" s="2">
+        <v>95.64</v>
+      </c>
+      <c r="BW15">
+        <v>117.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:77">
       <c r="A16" s="14"/>
       <c r="BH16" s="2">
         <v>73</v>
@@ -7263,8 +7466,14 @@
         <f t="shared" si="5"/>
         <v>357.70000000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:61">
+      <c r="BN16" s="2">
+        <v>121.64</v>
+      </c>
+      <c r="BW16">
+        <v>115.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:75">
       <c r="A17" s="14"/>
       <c r="BH17" s="2">
         <v>59.83</v>
@@ -7273,8 +7482,14 @@
         <f t="shared" si="5"/>
         <v>293.16700000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:61">
+      <c r="BN17" s="2">
+        <v>179.64</v>
+      </c>
+      <c r="BW17">
+        <v>231.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:75">
       <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
@@ -7289,8 +7504,14 @@
         <f t="shared" si="5"/>
         <v>289.83500000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:61">
+      <c r="BN18" s="2">
+        <v>137.1</v>
+      </c>
+      <c r="BW18">
+        <v>159.63999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:75">
       <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
@@ -7305,8 +7526,14 @@
         <f t="shared" si="5"/>
         <v>1234.653</v>
       </c>
-    </row>
-    <row r="20" spans="1:61">
+      <c r="BN19" s="2">
+        <v>6.37</v>
+      </c>
+      <c r="BW19">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:75">
       <c r="A20" s="14"/>
       <c r="BH20" s="2">
         <v>193.17</v>
@@ -7315,8 +7542,14 @@
         <f t="shared" si="5"/>
         <v>946.53300000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:61">
+      <c r="BN20" s="2">
+        <v>131.27000000000001</v>
+      </c>
+      <c r="BW20">
+        <v>73.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:75">
       <c r="A21" s="14"/>
       <c r="BH21" s="2">
         <v>73</v>
@@ -7325,8 +7558,14 @@
         <f t="shared" si="5"/>
         <v>357.70000000000005</v>
       </c>
-    </row>
-    <row r="22" spans="1:61">
+      <c r="BN21" s="2">
+        <v>175.46</v>
+      </c>
+      <c r="BW21">
+        <v>111.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:75">
       <c r="A22" s="14"/>
       <c r="BH22" s="2">
         <v>110.26</v>
@@ -7335,8 +7574,14 @@
         <f t="shared" si="5"/>
         <v>540.27400000000011</v>
       </c>
-    </row>
-    <row r="23" spans="1:61">
+      <c r="BN22" s="2">
+        <v>108.91</v>
+      </c>
+      <c r="BW22">
+        <v>133.63999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:75">
       <c r="A23" s="14"/>
       <c r="BH23" s="2">
         <v>105.82</v>
@@ -7345,8 +7590,19 @@
         <f t="shared" si="5"/>
         <v>518.51800000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:61">
+      <c r="BN23">
+        <f>SUM(BN3:BN22)</f>
+        <v>1963.3600000000004</v>
+      </c>
+      <c r="BQ23">
+        <f>SUM(BQ3:BQ22)</f>
+        <v>1869.8600000000001</v>
+      </c>
+      <c r="BW23">
+        <v>96.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:75">
       <c r="A24" s="14"/>
       <c r="BH24" s="2">
         <v>108.55</v>
@@ -7355,8 +7611,19 @@
         <f t="shared" si="5"/>
         <v>531.89499999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:61">
+      <c r="BN24">
+        <f>BN23*4.9</f>
+        <v>9620.4640000000018</v>
+      </c>
+      <c r="BQ24">
+        <f>BQ23*4.9</f>
+        <v>9162.3140000000021</v>
+      </c>
+      <c r="BW24">
+        <v>54.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:75">
       <c r="A25" s="14"/>
       <c r="BH25" s="2">
         <v>81.37</v>
@@ -7365,8 +7632,11 @@
         <f t="shared" si="5"/>
         <v>398.71300000000008</v>
       </c>
-    </row>
-    <row r="26" spans="1:61">
+      <c r="BW25">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:75">
       <c r="A26" s="14"/>
       <c r="BH26" s="2">
         <v>128.04</v>
@@ -7375,8 +7645,12 @@
         <f t="shared" si="5"/>
         <v>627.39599999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:61">
+      <c r="BW26">
+        <f>SUM(BW3:BW25)</f>
+        <v>2847.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:75">
       <c r="A27" s="14"/>
       <c r="BH27" s="2">
         <v>203.42</v>
@@ -7385,8 +7659,12 @@
         <f t="shared" si="5"/>
         <v>996.75800000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:61">
+      <c r="BW27">
+        <f>BW26*4.9</f>
+        <v>13951.231000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:75">
       <c r="A28" s="14"/>
       <c r="BH28" s="2">
         <v>141.71</v>
@@ -7396,7 +7674,7 @@
         <v>694.37900000000013</v>
       </c>
     </row>
-    <row r="29" spans="1:61">
+    <row r="29" spans="1:75">
       <c r="A29" s="14"/>
       <c r="BH29" s="2">
         <v>107.7</v>
@@ -7406,7 +7684,7 @@
         <v>527.73</v>
       </c>
     </row>
-    <row r="30" spans="1:61">
+    <row r="30" spans="1:75">
       <c r="A30" s="14"/>
       <c r="BH30" s="2">
         <v>79.489999999999995</v>
@@ -7416,7 +7694,7 @@
         <v>389.50099999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:61">
+    <row r="31" spans="1:75">
       <c r="A31" s="14"/>
       <c r="BH31" s="2">
         <v>250.95</v>
@@ -7426,7 +7704,7 @@
         <v>1229.655</v>
       </c>
     </row>
-    <row r="32" spans="1:61">
+    <row r="32" spans="1:75">
       <c r="A32" s="14"/>
       <c r="BH32" s="2">
         <v>166.84</v>
@@ -7543,7 +7821,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="BK1:BM1"/>
@@ -7552,19 +7840,13 @@
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AY1:BA1"/>
     <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="39">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,10 @@
   </si>
   <si>
     <t>12.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6210,10 +6214,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY51"/>
+  <dimension ref="A1:CK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="CA6" sqref="CA6"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="CH3" sqref="CH3:CH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6221,7 +6225,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:89">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6353,8 +6357,28 @@
       </c>
       <c r="BX1" s="16"/>
       <c r="BY1" s="17"/>
-    </row>
-    <row r="2" spans="1:77">
+      <c r="BZ1" s="16">
+        <v>43095</v>
+      </c>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="17"/>
+      <c r="CC1" s="16">
+        <v>43096</v>
+      </c>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="17"/>
+      <c r="CF1" s="16">
+        <v>43097</v>
+      </c>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="16">
+        <v>43098</v>
+      </c>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="17"/>
+    </row>
+    <row r="2" spans="1:89">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -6529,8 +6553,44 @@
       <c r="BY2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:77">
+      <c r="BZ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:89">
       <c r="A3" s="14">
         <v>12.8</v>
       </c>
@@ -6724,8 +6784,20 @@
       <c r="BY3">
         <v>2250</v>
       </c>
-    </row>
-    <row r="4" spans="1:77">
+      <c r="BZ3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CF3">
+        <v>83.1</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:89">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
@@ -6827,14 +6899,20 @@
       <c r="BQ4" s="2">
         <v>156.19</v>
       </c>
-      <c r="BV4" s="1">
+      <c r="BV4" s="2">
         <v>1230</v>
       </c>
       <c r="BW4">
         <v>129.63999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:77">
+      <c r="CF4">
+        <v>42.73</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:89">
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
@@ -6897,14 +6975,20 @@
       <c r="BQ5" s="2">
         <v>102</v>
       </c>
-      <c r="BV5" s="1">
+      <c r="BV5" s="2">
         <v>919</v>
       </c>
       <c r="BW5">
         <v>81.819999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:77">
+      <c r="CF5">
+        <v>191.82</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:89">
       <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
@@ -6978,14 +7062,20 @@
       <c r="BQ6" s="2">
         <v>154.37</v>
       </c>
-      <c r="BV6" s="1">
+      <c r="BV6" s="2">
         <v>434</v>
       </c>
       <c r="BW6">
         <v>120.91</v>
       </c>
-    </row>
-    <row r="7" spans="1:77">
+      <c r="CF6">
+        <v>123.46</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:89">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -7047,14 +7137,17 @@
       <c r="BQ7" s="2">
         <v>127.64</v>
       </c>
-      <c r="BV7" s="1">
+      <c r="BV7" s="2">
         <v>456</v>
       </c>
       <c r="BW7">
         <v>141.63999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:77">
+      <c r="CF7">
+        <v>221.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:89">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -7119,8 +7212,11 @@
       <c r="BW8">
         <v>150.55000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:77">
+      <c r="CF8">
+        <v>132.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:89">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -7185,8 +7281,11 @@
       <c r="BW9">
         <v>200.91</v>
       </c>
-    </row>
-    <row r="10" spans="1:77">
+      <c r="CF9">
+        <v>116.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:89">
       <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
@@ -7237,8 +7336,11 @@
       <c r="BW10">
         <v>132.19</v>
       </c>
-    </row>
-    <row r="11" spans="1:77">
+      <c r="CF10">
+        <v>151.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:89">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
@@ -7289,8 +7391,11 @@
       <c r="BW11">
         <v>160.72999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:77">
+      <c r="CF11">
+        <v>101.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:89">
       <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
@@ -7341,8 +7446,11 @@
       <c r="BW12">
         <v>148.19</v>
       </c>
-    </row>
-    <row r="13" spans="1:77">
+      <c r="CF12">
+        <v>78.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:89">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
@@ -7386,8 +7494,11 @@
       <c r="BW13">
         <v>20.55</v>
       </c>
-    </row>
-    <row r="14" spans="1:77">
+      <c r="CF13">
+        <v>103.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:89">
       <c r="A14" s="14"/>
       <c r="AS14">
         <v>3075</v>
@@ -7426,8 +7537,11 @@
       <c r="BW14">
         <v>46.73</v>
       </c>
-    </row>
-    <row r="15" spans="1:77">
+      <c r="CF14">
+        <v>119.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:89">
       <c r="A15" s="14"/>
       <c r="AS15">
         <v>314</v>
@@ -7456,8 +7570,11 @@
       <c r="BW15">
         <v>117.46</v>
       </c>
-    </row>
-    <row r="16" spans="1:77">
+      <c r="CF15">
+        <v>61.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:89">
       <c r="A16" s="14"/>
       <c r="BH16" s="2">
         <v>73</v>
@@ -7472,8 +7589,11 @@
       <c r="BW16">
         <v>115.82</v>
       </c>
-    </row>
-    <row r="17" spans="1:75">
+      <c r="CF16">
+        <v>226.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:84">
       <c r="A17" s="14"/>
       <c r="BH17" s="2">
         <v>59.83</v>
@@ -7488,8 +7608,11 @@
       <c r="BW17">
         <v>231.46</v>
       </c>
-    </row>
-    <row r="18" spans="1:75">
+      <c r="CF17">
+        <v>91.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:84">
       <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
@@ -7510,8 +7633,11 @@
       <c r="BW18">
         <v>159.63999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:75">
+      <c r="CF18">
+        <v>118.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:84">
       <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
@@ -7532,8 +7658,11 @@
       <c r="BW19">
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="1:75">
+      <c r="CF19">
+        <v>216.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:84">
       <c r="A20" s="14"/>
       <c r="BH20" s="2">
         <v>193.17</v>
@@ -7548,8 +7677,11 @@
       <c r="BW20">
         <v>73.64</v>
       </c>
-    </row>
-    <row r="21" spans="1:75">
+      <c r="CF20">
+        <v>206.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:84">
       <c r="A21" s="14"/>
       <c r="BH21" s="2">
         <v>73</v>
@@ -7564,8 +7696,11 @@
       <c r="BW21">
         <v>111.46</v>
       </c>
-    </row>
-    <row r="22" spans="1:75">
+      <c r="CF21">
+        <v>187.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:84">
       <c r="A22" s="14"/>
       <c r="BH22" s="2">
         <v>110.26</v>
@@ -7580,8 +7715,11 @@
       <c r="BW22">
         <v>133.63999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:75">
+      <c r="CF22">
+        <v>186.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:84">
       <c r="A23" s="14"/>
       <c r="BH23" s="2">
         <v>105.82</v>
@@ -7601,8 +7739,11 @@
       <c r="BW23">
         <v>96.55</v>
       </c>
-    </row>
-    <row r="24" spans="1:75">
+      <c r="CF23">
+        <v>102.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:84">
       <c r="A24" s="14"/>
       <c r="BH24" s="2">
         <v>108.55</v>
@@ -7622,8 +7763,11 @@
       <c r="BW24">
         <v>54.19</v>
       </c>
-    </row>
-    <row r="25" spans="1:75">
+      <c r="CF24">
+        <v>249.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:84">
       <c r="A25" s="14"/>
       <c r="BH25" s="2">
         <v>81.37</v>
@@ -7635,8 +7779,11 @@
       <c r="BW25">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:75">
+      <c r="CF25">
+        <v>71.459999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:84">
       <c r="A26" s="14"/>
       <c r="BH26" s="2">
         <v>128.04</v>
@@ -7649,8 +7796,11 @@
         <f>SUM(BW3:BW25)</f>
         <v>2847.19</v>
       </c>
-    </row>
-    <row r="27" spans="1:75">
+      <c r="CF26">
+        <v>72.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:84">
       <c r="A27" s="14"/>
       <c r="BH27" s="2">
         <v>203.42</v>
@@ -7663,8 +7813,11 @@
         <f>BW26*4.9</f>
         <v>13951.231000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:75">
+      <c r="CF27">
+        <v>145.28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:84">
       <c r="A28" s="14"/>
       <c r="BH28" s="2">
         <v>141.71</v>
@@ -7673,8 +7826,12 @@
         <f t="shared" si="5"/>
         <v>694.37900000000013</v>
       </c>
-    </row>
-    <row r="29" spans="1:75">
+      <c r="CF28">
+        <f>SUM(CF3:CF27)</f>
+        <v>3401.4200000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:84">
       <c r="A29" s="14"/>
       <c r="BH29" s="2">
         <v>107.7</v>
@@ -7683,8 +7840,12 @@
         <f t="shared" si="5"/>
         <v>527.73</v>
       </c>
-    </row>
-    <row r="30" spans="1:75">
+      <c r="CF29">
+        <f>CF28*4.9</f>
+        <v>16666.958000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:84">
       <c r="A30" s="14"/>
       <c r="BH30" s="2">
         <v>79.489999999999995</v>
@@ -7694,7 +7855,7 @@
         <v>389.50099999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:75">
+    <row r="31" spans="1:84">
       <c r="A31" s="14"/>
       <c r="BH31" s="2">
         <v>250.95</v>
@@ -7704,7 +7865,7 @@
         <v>1229.655</v>
       </c>
     </row>
-    <row r="32" spans="1:75">
+    <row r="32" spans="1:84">
       <c r="A32" s="14"/>
       <c r="BH32" s="2">
         <v>166.84</v>
@@ -7821,25 +7982,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="I1:K1"/>
+  <mergeCells count="29">
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="L1:N1"/>
@@ -7847,6 +7998,20 @@
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="39">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3168,30 +3168,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3200,6 +3176,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6175,6 +6175,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
@@ -6182,29 +6205,6 @@
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6214,10 +6214,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CK51"/>
+  <dimension ref="A1:CQ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="CH3" sqref="CH3:CH6"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="CO12" sqref="CO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6225,7 +6225,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89">
+    <row r="1" spans="1:95">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6377,8 +6377,18 @@
       </c>
       <c r="CJ1" s="16"/>
       <c r="CK1" s="17"/>
-    </row>
-    <row r="2" spans="1:89">
+      <c r="CL1" s="16">
+        <v>43099</v>
+      </c>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="17"/>
+      <c r="CO1" s="16">
+        <v>43100</v>
+      </c>
+      <c r="CP1" s="16"/>
+      <c r="CQ1" s="17"/>
+    </row>
+    <row r="2" spans="1:95">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -6589,8 +6599,26 @@
       <c r="CK2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:89">
+      <c r="CL2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:95">
       <c r="A3" s="14">
         <v>12.8</v>
       </c>
@@ -6793,11 +6821,26 @@
       <c r="CF3">
         <v>83.1</v>
       </c>
-      <c r="CH3" s="1">
+      <c r="CH3" s="2">
         <v>872</v>
       </c>
-    </row>
-    <row r="4" spans="1:89">
+      <c r="CI3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CL3">
+        <v>84.37</v>
+      </c>
+      <c r="CN3">
+        <v>2750</v>
+      </c>
+      <c r="CQ3">
+        <v>7570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:95">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
@@ -6908,11 +6951,14 @@
       <c r="CF4">
         <v>42.73</v>
       </c>
-      <c r="CH4" s="1">
+      <c r="CH4" s="2">
         <v>854</v>
       </c>
-    </row>
-    <row r="5" spans="1:89">
+      <c r="CL4">
+        <v>131.63999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:95">
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
@@ -6984,11 +7030,14 @@
       <c r="CF5">
         <v>191.82</v>
       </c>
-      <c r="CH5" s="1">
+      <c r="CH5" s="2">
         <v>513</v>
       </c>
-    </row>
-    <row r="6" spans="1:89">
+      <c r="CL5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:95">
       <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
@@ -7071,11 +7120,14 @@
       <c r="CF6">
         <v>123.46</v>
       </c>
-      <c r="CH6" s="1">
+      <c r="CH6" s="2">
         <v>631</v>
       </c>
-    </row>
-    <row r="7" spans="1:89">
+      <c r="CL6">
+        <v>277.45999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:95">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -7146,8 +7198,11 @@
       <c r="CF7">
         <v>221.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:89">
+      <c r="CL7">
+        <v>254.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:95">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -7215,8 +7270,11 @@
       <c r="CF8">
         <v>132.19</v>
       </c>
-    </row>
-    <row r="9" spans="1:89">
+      <c r="CL8">
+        <v>281.45999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:95">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -7284,8 +7342,11 @@
       <c r="CF9">
         <v>116.19</v>
       </c>
-    </row>
-    <row r="10" spans="1:89">
+      <c r="CL9">
+        <v>58.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:95">
       <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
@@ -7339,8 +7400,11 @@
       <c r="CF10">
         <v>151.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:89">
+      <c r="CL10">
+        <v>248.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:95">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
@@ -7394,8 +7458,11 @@
       <c r="CF11">
         <v>101.82</v>
       </c>
-    </row>
-    <row r="12" spans="1:89">
+      <c r="CL11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:95">
       <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
@@ -7449,8 +7516,11 @@
       <c r="CF12">
         <v>78.73</v>
       </c>
-    </row>
-    <row r="13" spans="1:89">
+      <c r="CL12">
+        <v>355.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:95">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
@@ -7497,8 +7567,11 @@
       <c r="CF13">
         <v>103.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:89">
+      <c r="CL13">
+        <v>207.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:95">
       <c r="A14" s="14"/>
       <c r="AS14">
         <v>3075</v>
@@ -7540,8 +7613,11 @@
       <c r="CF14">
         <v>119.46</v>
       </c>
-    </row>
-    <row r="15" spans="1:89">
+      <c r="CL14">
+        <v>200.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:95">
       <c r="A15" s="14"/>
       <c r="AS15">
         <v>314</v>
@@ -7573,8 +7649,11 @@
       <c r="CF15">
         <v>61.28</v>
       </c>
-    </row>
-    <row r="16" spans="1:89">
+      <c r="CL15">
+        <v>96.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:95">
       <c r="A16" s="14"/>
       <c r="BH16" s="2">
         <v>73</v>
@@ -7592,8 +7671,11 @@
       <c r="CF16">
         <v>226.91</v>
       </c>
-    </row>
-    <row r="17" spans="1:84">
+      <c r="CL16">
+        <v>115.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:90">
       <c r="A17" s="14"/>
       <c r="BH17" s="2">
         <v>59.83</v>
@@ -7611,8 +7693,11 @@
       <c r="CF17">
         <v>91.28</v>
       </c>
-    </row>
-    <row r="18" spans="1:84">
+      <c r="CL17">
+        <v>121.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:90">
       <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
@@ -7636,8 +7721,11 @@
       <c r="CF18">
         <v>118.37</v>
       </c>
-    </row>
-    <row r="19" spans="1:84">
+      <c r="CL18">
+        <v>151.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:90">
       <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
@@ -7661,8 +7749,11 @@
       <c r="CF19">
         <v>216.55</v>
       </c>
-    </row>
-    <row r="20" spans="1:84">
+      <c r="CL19">
+        <v>196.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:90">
       <c r="A20" s="14"/>
       <c r="BH20" s="2">
         <v>193.17</v>
@@ -7681,7 +7772,7 @@
         <v>206.19</v>
       </c>
     </row>
-    <row r="21" spans="1:84">
+    <row r="21" spans="1:90">
       <c r="A21" s="14"/>
       <c r="BH21" s="2">
         <v>73</v>
@@ -7700,7 +7791,7 @@
         <v>187.83</v>
       </c>
     </row>
-    <row r="22" spans="1:84">
+    <row r="22" spans="1:90">
       <c r="A22" s="14"/>
       <c r="BH22" s="2">
         <v>110.26</v>
@@ -7719,7 +7810,7 @@
         <v>186.73</v>
       </c>
     </row>
-    <row r="23" spans="1:84">
+    <row r="23" spans="1:90">
       <c r="A23" s="14"/>
       <c r="BH23" s="2">
         <v>105.82</v>
@@ -7743,7 +7834,7 @@
         <v>102.73</v>
       </c>
     </row>
-    <row r="24" spans="1:84">
+    <row r="24" spans="1:90">
       <c r="A24" s="14"/>
       <c r="BH24" s="2">
         <v>108.55</v>
@@ -7767,7 +7858,7 @@
         <v>249.82</v>
       </c>
     </row>
-    <row r="25" spans="1:84">
+    <row r="25" spans="1:90">
       <c r="A25" s="14"/>
       <c r="BH25" s="2">
         <v>81.37</v>
@@ -7783,7 +7874,7 @@
         <v>71.459999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:84">
+    <row r="26" spans="1:90">
       <c r="A26" s="14"/>
       <c r="BH26" s="2">
         <v>128.04</v>
@@ -7800,7 +7891,7 @@
         <v>72.19</v>
       </c>
     </row>
-    <row r="27" spans="1:84">
+    <row r="27" spans="1:90">
       <c r="A27" s="14"/>
       <c r="BH27" s="2">
         <v>203.42</v>
@@ -7817,7 +7908,7 @@
         <v>145.28</v>
       </c>
     </row>
-    <row r="28" spans="1:84">
+    <row r="28" spans="1:90">
       <c r="A28" s="14"/>
       <c r="BH28" s="2">
         <v>141.71</v>
@@ -7831,7 +7922,7 @@
         <v>3401.4200000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:84">
+    <row r="29" spans="1:90">
       <c r="A29" s="14"/>
       <c r="BH29" s="2">
         <v>107.7</v>
@@ -7845,7 +7936,7 @@
         <v>16666.958000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:84">
+    <row r="30" spans="1:90">
       <c r="A30" s="14"/>
       <c r="BH30" s="2">
         <v>79.489999999999995</v>
@@ -7855,7 +7946,7 @@
         <v>389.50099999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:84">
+    <row r="31" spans="1:90">
       <c r="A31" s="14"/>
       <c r="BH31" s="2">
         <v>250.95</v>
@@ -7865,7 +7956,7 @@
         <v>1229.655</v>
       </c>
     </row>
-    <row r="32" spans="1:84">
+    <row r="32" spans="1:90">
       <c r="A32" s="14"/>
       <c r="BH32" s="2">
         <v>166.84</v>
@@ -7982,23 +8073,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="I1:K1"/>
+  <mergeCells count="31">
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
     <mergeCell ref="CF1:CH1"/>
@@ -8012,6 +8089,22 @@
     <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="1" r:id="rId1"/>
     <sheet name="10月" sheetId="2" r:id="rId2"/>
     <sheet name="11月" sheetId="3" r:id="rId3"/>
     <sheet name="12月" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="44">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +173,26 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史总欠款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6214,10 +6235,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CQ51"/>
+  <dimension ref="A1:DC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="CO12" sqref="CO12"/>
+    <sheetView topLeftCell="CD1" workbookViewId="0">
+      <selection activeCell="CS2" sqref="CS1:DB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6225,7 +6246,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:107">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6387,8 +6408,28 @@
       </c>
       <c r="CP1" s="16"/>
       <c r="CQ1" s="17"/>
-    </row>
-    <row r="2" spans="1:95">
+      <c r="CR1" s="16">
+        <v>43101</v>
+      </c>
+      <c r="CS1" s="16"/>
+      <c r="CT1" s="17"/>
+      <c r="CU1" s="16">
+        <v>43102</v>
+      </c>
+      <c r="CV1" s="16"/>
+      <c r="CW1" s="17"/>
+      <c r="CX1" s="16">
+        <v>43103</v>
+      </c>
+      <c r="CY1" s="16"/>
+      <c r="CZ1" s="17"/>
+      <c r="DA1" s="16">
+        <v>43104</v>
+      </c>
+      <c r="DB1" s="16"/>
+      <c r="DC1" s="17"/>
+    </row>
+    <row r="2" spans="1:107">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -6617,8 +6658,44 @@
       <c r="CQ2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:95">
+      <c r="CR2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>34</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:107">
       <c r="A3" s="14">
         <v>12.8</v>
       </c>
@@ -6732,7 +6809,7 @@
       <c r="AR3" t="s">
         <v>19</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="2">
         <v>3806</v>
       </c>
       <c r="AT3">
@@ -6752,7 +6829,7 @@
       <c r="AX3">
         <v>3302</v>
       </c>
-      <c r="AY3" s="1">
+      <c r="AY3" s="2">
         <v>1104</v>
       </c>
       <c r="AZ3">
@@ -6774,27 +6851,19 @@
       <c r="BH3" s="2">
         <v>193.68</v>
       </c>
-      <c r="BI3">
-        <f>BH3*4.9</f>
-        <v>949.03200000000015</v>
-      </c>
       <c r="BJ3">
         <v>3656</v>
       </c>
       <c r="BK3">
         <v>105.82</v>
       </c>
-      <c r="BL3">
-        <f>BK3*4.9</f>
-        <v>518.51800000000003</v>
-      </c>
       <c r="BM3">
         <v>2750</v>
       </c>
       <c r="BN3" s="2">
         <v>46.67</v>
       </c>
-      <c r="BP3" s="1">
+      <c r="BP3" s="2">
         <v>1046</v>
       </c>
       <c r="BQ3" s="2">
@@ -6839,8 +6908,26 @@
       <c r="CQ3">
         <v>7570</v>
       </c>
-    </row>
-    <row r="4" spans="1:95">
+      <c r="CR3">
+        <v>221.28</v>
+      </c>
+      <c r="CT3">
+        <v>500.19</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>39</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX3">
+        <v>104.37</v>
+      </c>
+      <c r="CZ3" s="1">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:107">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
@@ -6886,14 +6973,14 @@
       <c r="AO4">
         <v>2574</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="2">
         <v>1834</v>
       </c>
       <c r="AT4">
         <f t="shared" ref="AT4" si="2">AS4/5.85*5.5</f>
         <v>1724.2735042735042</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AU4" s="2">
         <v>1241</v>
       </c>
       <c r="AV4">
@@ -6906,7 +6993,7 @@
       <c r="AX4">
         <v>3363</v>
       </c>
-      <c r="AY4" s="1">
+      <c r="AY4" s="2">
         <v>773</v>
       </c>
       <c r="AZ4">
@@ -6919,24 +7006,16 @@
       <c r="BH4" s="2">
         <v>180.35</v>
       </c>
-      <c r="BI4">
-        <f t="shared" ref="BI4:BI33" si="5">BH4*4.9</f>
-        <v>883.71500000000003</v>
-      </c>
       <c r="BK4">
         <v>141.03</v>
       </c>
-      <c r="BL4">
-        <f t="shared" ref="BL4:BL14" si="6">BK4*4.9</f>
-        <v>691.04700000000003</v>
-      </c>
       <c r="BM4">
         <v>2484</v>
       </c>
       <c r="BN4" s="2">
         <v>58.98</v>
       </c>
-      <c r="BP4" s="1">
+      <c r="BP4" s="2">
         <v>905</v>
       </c>
       <c r="BQ4" s="2">
@@ -6957,8 +7036,17 @@
       <c r="CL4">
         <v>131.63999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:95">
+      <c r="CR4">
+        <v>154</v>
+      </c>
+      <c r="CX4">
+        <v>85.82</v>
+      </c>
+      <c r="CZ4" s="1">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:107">
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
@@ -6968,54 +7056,46 @@
       <c r="K5" s="2"/>
       <c r="N5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AS5" s="1">
+      <c r="AS5" s="2">
         <v>452</v>
       </c>
       <c r="AT5">
-        <f t="shared" ref="AT5:AT15" si="7">AS5/5.85*5.5</f>
+        <f t="shared" ref="AT5:AT15" si="5">AS5/5.85*5.5</f>
         <v>424.95726495726501</v>
       </c>
-      <c r="AU5" s="3">
+      <c r="AU5" s="2">
         <v>819</v>
       </c>
       <c r="AV5">
         <v>1007</v>
       </c>
       <c r="AW5">
-        <f t="shared" ref="AW5:AW12" si="8">AV5/5.85*5.5</f>
+        <f t="shared" ref="AW5:AW12" si="6">AV5/5.85*5.5</f>
         <v>946.75213675213672</v>
       </c>
       <c r="AX5">
         <v>792</v>
       </c>
-      <c r="AY5" s="1">
+      <c r="AY5" s="2">
         <v>1086</v>
       </c>
       <c r="AZ5">
-        <f t="shared" ref="AZ5:AZ15" si="9">AY5/5.85*5.5</f>
+        <f t="shared" ref="AZ5:AZ15" si="7">AY5/5.85*5.5</f>
         <v>1021.0256410256411</v>
       </c>
       <c r="BH5" s="2">
         <v>150.77000000000001</v>
       </c>
-      <c r="BI5">
-        <f t="shared" si="5"/>
-        <v>738.77300000000014</v>
-      </c>
       <c r="BK5">
         <v>148.38</v>
       </c>
-      <c r="BL5">
-        <f t="shared" si="6"/>
-        <v>727.06200000000001</v>
-      </c>
       <c r="BM5">
         <v>2660</v>
       </c>
       <c r="BN5" s="2">
         <v>49.46</v>
       </c>
-      <c r="BP5" s="1">
+      <c r="BP5" s="2">
         <v>678</v>
       </c>
       <c r="BQ5" s="2">
@@ -7036,8 +7116,17 @@
       <c r="CL5">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:95">
+      <c r="CR5">
+        <v>140.19</v>
+      </c>
+      <c r="CX5">
+        <v>84.19</v>
+      </c>
+      <c r="CZ5">
+        <v>363.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:107">
       <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
@@ -7065,43 +7154,35 @@
         <v>1124</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1056.7521367521367</v>
       </c>
-      <c r="AU6" s="3">
+      <c r="AU6" s="2">
         <v>1202</v>
       </c>
       <c r="AV6">
         <v>1739</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1634.9572649572651</v>
       </c>
       <c r="AX6">
         <v>730</v>
       </c>
-      <c r="AY6" s="1">
+      <c r="AY6" s="2">
         <v>640</v>
       </c>
       <c r="AZ6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>601.70940170940173</v>
       </c>
       <c r="BH6" s="2">
         <v>125.82</v>
       </c>
-      <c r="BI6">
-        <f t="shared" si="5"/>
-        <v>616.51800000000003</v>
-      </c>
       <c r="BK6">
         <v>383.08</v>
       </c>
-      <c r="BL6">
-        <f t="shared" si="6"/>
-        <v>1877.0920000000001</v>
-      </c>
       <c r="BM6">
         <v>2667</v>
       </c>
@@ -7126,8 +7207,14 @@
       <c r="CL6">
         <v>277.45999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:95">
+      <c r="CR6">
+        <v>62.37</v>
+      </c>
+      <c r="CX6">
+        <v>120.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:107">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -7152,37 +7239,29 @@
         <v>927</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>871.53846153846166</v>
       </c>
       <c r="AV7">
         <v>900</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>846.1538461538463</v>
       </c>
-      <c r="AY7" s="1">
+      <c r="AY7" s="2">
         <v>692</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>650.59829059829065</v>
       </c>
       <c r="BH7" s="2">
         <v>143.25</v>
       </c>
-      <c r="BI7">
-        <f t="shared" si="5"/>
-        <v>701.92500000000007</v>
-      </c>
       <c r="BK7">
         <v>255.73</v>
       </c>
-      <c r="BL7">
-        <f t="shared" si="6"/>
-        <v>1253.077</v>
-      </c>
       <c r="BN7" s="2">
         <v>88.55</v>
       </c>
@@ -7201,8 +7280,14 @@
       <c r="CL7">
         <v>254.73</v>
       </c>
-    </row>
-    <row r="8" spans="1:95">
+      <c r="CR7">
+        <v>157.28</v>
+      </c>
+      <c r="CX7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:107">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -7227,37 +7312,29 @@
         <v>216</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>203.07692307692309</v>
       </c>
       <c r="AV8">
         <v>504</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>473.84615384615387</v>
       </c>
-      <c r="AY8" s="1">
+      <c r="AY8" s="2">
         <v>831</v>
       </c>
       <c r="AZ8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>781.28205128205138</v>
       </c>
       <c r="BH8" s="2">
         <v>88.89</v>
       </c>
-      <c r="BI8">
-        <f t="shared" si="5"/>
-        <v>435.56100000000004</v>
-      </c>
       <c r="BK8">
         <v>105.65</v>
       </c>
-      <c r="BL8">
-        <f t="shared" si="6"/>
-        <v>517.68500000000006</v>
-      </c>
       <c r="BN8" s="2">
         <v>50.37</v>
       </c>
@@ -7273,8 +7350,14 @@
       <c r="CL8">
         <v>281.45999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:95">
+      <c r="CR8">
+        <v>143.63999999999999</v>
+      </c>
+      <c r="CX8">
+        <v>136.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -7299,37 +7382,29 @@
         <v>2285</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2148.2905982905986</v>
       </c>
       <c r="AV9">
         <v>491</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>461.62393162393164</v>
       </c>
-      <c r="AY9" s="1">
+      <c r="AY9" s="2">
         <v>781</v>
       </c>
       <c r="AZ9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>734.27350427350427</v>
       </c>
       <c r="BH9" s="2">
         <v>190.26</v>
       </c>
-      <c r="BI9">
-        <f t="shared" si="5"/>
-        <v>932.274</v>
-      </c>
       <c r="BK9">
         <v>262.06</v>
       </c>
-      <c r="BL9">
-        <f t="shared" si="6"/>
-        <v>1284.0940000000001</v>
-      </c>
       <c r="BN9" s="2">
         <v>148.91</v>
       </c>
@@ -7345,8 +7420,14 @@
       <c r="CL9">
         <v>58.91</v>
       </c>
-    </row>
-    <row r="10" spans="1:95">
+      <c r="CR9">
+        <v>109.64</v>
+      </c>
+      <c r="CX9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107">
       <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
@@ -7357,37 +7438,29 @@
         <v>975</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>916.66666666666674</v>
       </c>
       <c r="AV10">
         <v>705</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>662.82051282051293</v>
       </c>
-      <c r="AY10" s="1">
+      <c r="AY10" s="2">
         <v>570</v>
       </c>
       <c r="AZ10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>535.89743589743591</v>
       </c>
       <c r="BH10" s="2">
         <v>173.17</v>
       </c>
-      <c r="BI10">
-        <f t="shared" si="5"/>
-        <v>848.53300000000002</v>
-      </c>
       <c r="BK10">
         <v>117.44</v>
       </c>
-      <c r="BL10">
-        <f t="shared" si="6"/>
-        <v>575.45600000000002</v>
-      </c>
       <c r="BN10" s="2">
         <v>47.82</v>
       </c>
@@ -7403,8 +7476,14 @@
       <c r="CL10">
         <v>248.37</v>
       </c>
-    </row>
-    <row r="11" spans="1:95">
+      <c r="CR10">
+        <v>155.1</v>
+      </c>
+      <c r="CX10">
+        <v>170.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:107">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
@@ -7415,37 +7494,29 @@
         <v>477</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>448.46153846153851</v>
       </c>
       <c r="AV11">
         <v>1340</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1259.8290598290598</v>
       </c>
-      <c r="AY11" s="1">
+      <c r="AY11" s="2">
         <v>512</v>
       </c>
       <c r="AZ11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>481.36752136752136</v>
       </c>
       <c r="BH11" s="2">
         <v>84.28</v>
       </c>
-      <c r="BI11">
-        <f t="shared" si="5"/>
-        <v>412.97200000000004</v>
-      </c>
       <c r="BK11">
         <v>88.72</v>
       </c>
-      <c r="BL11">
-        <f t="shared" si="6"/>
-        <v>434.72800000000001</v>
-      </c>
       <c r="BN11" s="2">
         <v>43.46</v>
       </c>
@@ -7461,8 +7532,14 @@
       <c r="CL11">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:95">
+      <c r="CR11">
+        <v>121.1</v>
+      </c>
+      <c r="CX11">
+        <v>174.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:107">
       <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
@@ -7473,37 +7550,29 @@
         <v>473</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>444.70085470085473</v>
       </c>
       <c r="AV12">
         <v>334</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>314.01709401709405</v>
       </c>
-      <c r="AY12" s="1">
+      <c r="AY12" s="2">
         <v>684</v>
       </c>
       <c r="AZ12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>643.07692307692309</v>
       </c>
       <c r="BH12" s="2">
         <v>186.67</v>
       </c>
-      <c r="BI12">
-        <f t="shared" si="5"/>
-        <v>914.68299999999999</v>
-      </c>
       <c r="BK12">
         <v>327.87</v>
       </c>
-      <c r="BL12">
-        <f t="shared" si="6"/>
-        <v>1606.5630000000001</v>
-      </c>
       <c r="BN12" s="2">
         <v>214.55</v>
       </c>
@@ -7519,8 +7588,14 @@
       <c r="CL12">
         <v>355.82</v>
       </c>
-    </row>
-    <row r="13" spans="1:95">
+      <c r="CR12">
+        <v>157</v>
+      </c>
+      <c r="CX12">
+        <v>138.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:107">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
@@ -7531,30 +7606,22 @@
         <v>1543</v>
       </c>
       <c r="AT13">
+        <f t="shared" si="5"/>
+        <v>1450.6837606837607</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>1632</v>
+      </c>
+      <c r="AZ13">
         <f t="shared" si="7"/>
-        <v>1450.6837606837607</v>
-      </c>
-      <c r="AY13" s="1">
-        <v>1632</v>
-      </c>
-      <c r="AZ13">
-        <f t="shared" si="9"/>
         <v>1534.3589743589746</v>
       </c>
       <c r="BH13" s="2">
         <v>392.48</v>
       </c>
-      <c r="BI13">
-        <f t="shared" si="5"/>
-        <v>1923.1520000000003</v>
-      </c>
       <c r="BK13">
         <v>270.95</v>
       </c>
-      <c r="BL13">
-        <f t="shared" si="6"/>
-        <v>1327.655</v>
-      </c>
       <c r="BN13" s="2">
         <v>113.1</v>
       </c>
@@ -7570,37 +7637,40 @@
       <c r="CL13">
         <v>207.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:95">
-      <c r="A14" s="14"/>
+      <c r="CR13">
+        <v>455.28</v>
+      </c>
+      <c r="CX13">
+        <v>186.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:107">
+      <c r="A14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>517</v>
+      </c>
       <c r="AS14">
         <v>3075</v>
       </c>
       <c r="AT14">
+        <f t="shared" si="5"/>
+        <v>2891.0256410256411</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>2120</v>
+      </c>
+      <c r="AZ14">
         <f t="shared" si="7"/>
-        <v>2891.0256410256411</v>
-      </c>
-      <c r="AY14" s="1">
-        <v>2120</v>
-      </c>
-      <c r="AZ14">
-        <f t="shared" si="9"/>
         <v>1993.1623931623933</v>
       </c>
       <c r="BH14" s="2">
         <v>254.36</v>
       </c>
-      <c r="BI14">
-        <f t="shared" si="5"/>
-        <v>1246.3640000000003</v>
-      </c>
       <c r="BK14">
         <v>211.8</v>
       </c>
-      <c r="BL14">
-        <f t="shared" si="6"/>
-        <v>1037.8200000000002</v>
-      </c>
       <c r="BN14" s="2">
         <v>87.82</v>
       </c>
@@ -7616,30 +7686,37 @@
       <c r="CL14">
         <v>200.73</v>
       </c>
-    </row>
-    <row r="15" spans="1:95">
-      <c r="A15" s="14"/>
+      <c r="CR14">
+        <v>176.73</v>
+      </c>
+      <c r="CX14">
+        <v>255.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:107">
+      <c r="A15">
+        <v>12.24</v>
+      </c>
+      <c r="B15">
+        <v>9162</v>
+      </c>
       <c r="AS15">
         <v>314</v>
       </c>
       <c r="AT15">
+        <f t="shared" si="5"/>
+        <v>295.21367521367523</v>
+      </c>
+      <c r="AY15" s="2">
+        <v>528</v>
+      </c>
+      <c r="AZ15">
         <f t="shared" si="7"/>
-        <v>295.21367521367523</v>
-      </c>
-      <c r="AY15" s="1">
-        <v>528</v>
-      </c>
-      <c r="AZ15">
-        <f t="shared" si="9"/>
         <v>496.41025641025647</v>
       </c>
       <c r="BH15" s="2">
         <v>417.27</v>
       </c>
-      <c r="BI15">
-        <f t="shared" si="5"/>
-        <v>2044.623</v>
-      </c>
       <c r="BN15" s="2">
         <v>95.64</v>
       </c>
@@ -7652,16 +7729,23 @@
       <c r="CL15">
         <v>96.19</v>
       </c>
-    </row>
-    <row r="16" spans="1:95">
-      <c r="A16" s="14"/>
+      <c r="CR15">
+        <v>182.73</v>
+      </c>
+      <c r="CX15">
+        <v>176.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:107">
+      <c r="A16">
+        <v>12.24</v>
+      </c>
+      <c r="B16">
+        <v>9102</v>
+      </c>
       <c r="BH16" s="2">
         <v>73</v>
       </c>
-      <c r="BI16">
-        <f t="shared" si="5"/>
-        <v>357.70000000000005</v>
-      </c>
       <c r="BN16" s="2">
         <v>121.64</v>
       </c>
@@ -7674,16 +7758,23 @@
       <c r="CL16">
         <v>115.82</v>
       </c>
-    </row>
-    <row r="17" spans="1:90">
-      <c r="A17" s="14"/>
+      <c r="CR16">
+        <v>124.73</v>
+      </c>
+      <c r="CX16">
+        <v>178.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:102">
+      <c r="A17">
+        <v>12.27</v>
+      </c>
+      <c r="B17">
+        <v>4186</v>
+      </c>
       <c r="BH17" s="2">
         <v>59.83</v>
       </c>
-      <c r="BI17">
-        <f t="shared" si="5"/>
-        <v>293.16700000000003</v>
-      </c>
       <c r="BN17" s="2">
         <v>179.64</v>
       </c>
@@ -7696,22 +7787,23 @@
       <c r="CL17">
         <v>121.28</v>
       </c>
-    </row>
-    <row r="18" spans="1:90">
-      <c r="A18" s="14" t="s">
-        <v>16</v>
+      <c r="CR17">
+        <v>107.64</v>
+      </c>
+      <c r="CX17">
+        <v>354.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:102">
+      <c r="A18">
+        <v>12.27</v>
       </c>
       <c r="B18">
-        <f>SUM(B2:B17)</f>
-        <v>80733.149999999994</v>
+        <v>9762</v>
       </c>
       <c r="BH18" s="2">
         <v>59.15</v>
       </c>
-      <c r="BI18">
-        <f t="shared" si="5"/>
-        <v>289.83500000000004</v>
-      </c>
       <c r="BN18" s="2">
         <v>137.1</v>
       </c>
@@ -7724,22 +7816,23 @@
       <c r="CL18">
         <v>151.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:90">
-      <c r="A19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="13">
-        <f>B18-A51</f>
-        <v>-10608.518598290611</v>
+      <c r="CR18">
+        <v>251.28</v>
+      </c>
+      <c r="CX18">
+        <v>121.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:102">
+      <c r="A19">
+        <v>12.28</v>
+      </c>
+      <c r="B19">
+        <v>12864</v>
       </c>
       <c r="BH19" s="2">
         <v>251.97</v>
       </c>
-      <c r="BI19">
-        <f t="shared" si="5"/>
-        <v>1234.653</v>
-      </c>
       <c r="BN19" s="2">
         <v>6.37</v>
       </c>
@@ -7752,16 +7845,23 @@
       <c r="CL19">
         <v>196.37</v>
       </c>
-    </row>
-    <row r="20" spans="1:90">
-      <c r="A20" s="14"/>
+      <c r="CR19">
+        <v>119.1</v>
+      </c>
+      <c r="CX19">
+        <v>203.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:102">
+      <c r="A20">
+        <v>12.28</v>
+      </c>
+      <c r="B20">
+        <v>4058</v>
+      </c>
       <c r="BH20" s="2">
         <v>193.17</v>
       </c>
-      <c r="BI20">
-        <f t="shared" si="5"/>
-        <v>946.53300000000002</v>
-      </c>
       <c r="BN20" s="2">
         <v>131.27000000000001</v>
       </c>
@@ -7771,16 +7871,23 @@
       <c r="CF20">
         <v>206.19</v>
       </c>
-    </row>
-    <row r="21" spans="1:90">
-      <c r="A21" s="14"/>
+      <c r="CR20">
+        <v>204.73</v>
+      </c>
+      <c r="CX20">
+        <v>100.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:102">
+      <c r="A21">
+        <v>12.3</v>
+      </c>
+      <c r="B21">
+        <v>14609</v>
+      </c>
       <c r="BH21" s="2">
         <v>73</v>
       </c>
-      <c r="BI21">
-        <f t="shared" si="5"/>
-        <v>357.70000000000005</v>
-      </c>
       <c r="BN21" s="2">
         <v>175.46</v>
       </c>
@@ -7790,16 +7897,17 @@
       <c r="CF21">
         <v>187.83</v>
       </c>
-    </row>
-    <row r="22" spans="1:90">
-      <c r="A22" s="14"/>
+      <c r="CR21">
+        <v>106.73</v>
+      </c>
+      <c r="CX21">
+        <v>91.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:102">
       <c r="BH22" s="2">
         <v>110.26</v>
       </c>
-      <c r="BI22">
-        <f t="shared" si="5"/>
-        <v>540.27400000000011</v>
-      </c>
       <c r="BN22" s="2">
         <v>108.91</v>
       </c>
@@ -7809,199 +7917,210 @@
       <c r="CF22">
         <v>186.73</v>
       </c>
-    </row>
-    <row r="23" spans="1:90">
-      <c r="A23" s="14"/>
+      <c r="CR22">
+        <v>220.73</v>
+      </c>
+      <c r="CX22">
+        <v>158.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:102">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10608.52</v>
+      </c>
       <c r="BH23" s="2">
         <v>105.82</v>
       </c>
-      <c r="BI23">
-        <f t="shared" si="5"/>
-        <v>518.51800000000003</v>
-      </c>
-      <c r="BN23">
-        <f>SUM(BN3:BN22)</f>
-        <v>1963.3600000000004</v>
-      </c>
-      <c r="BQ23">
-        <f>SUM(BQ3:BQ22)</f>
-        <v>1869.8600000000001</v>
-      </c>
       <c r="BW23">
         <v>96.55</v>
       </c>
       <c r="CF23">
         <v>102.73</v>
       </c>
-    </row>
-    <row r="24" spans="1:90">
-      <c r="A24" s="14"/>
+      <c r="CR23">
+        <v>317.45999999999998</v>
+      </c>
+      <c r="CX23">
+        <v>219.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:102">
       <c r="BH24" s="2">
         <v>108.55</v>
       </c>
-      <c r="BI24">
-        <f t="shared" si="5"/>
-        <v>531.89499999999998</v>
-      </c>
-      <c r="BN24">
-        <f>BN23*4.9</f>
-        <v>9620.4640000000018</v>
-      </c>
-      <c r="BQ24">
-        <f>BQ23*4.9</f>
-        <v>9162.3140000000021</v>
-      </c>
       <c r="BW24">
         <v>54.19</v>
       </c>
       <c r="CF24">
         <v>249.82</v>
       </c>
-    </row>
-    <row r="25" spans="1:90">
-      <c r="A25" s="14"/>
+      <c r="CR24">
+        <v>244</v>
+      </c>
+      <c r="CX24">
+        <v>245.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:102">
+      <c r="A25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>15000</v>
+      </c>
       <c r="BH25" s="2">
         <v>81.37</v>
       </c>
-      <c r="BI25">
-        <f t="shared" si="5"/>
-        <v>398.71300000000008</v>
-      </c>
       <c r="BW25">
         <v>49.1</v>
       </c>
       <c r="CF25">
         <v>71.459999999999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:90">
-      <c r="A26" s="14"/>
+      <c r="CR25">
+        <v>162.37</v>
+      </c>
+      <c r="CX25">
+        <v>121.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:102">
+      <c r="A26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>18696</v>
+      </c>
       <c r="BH26" s="2">
         <v>128.04</v>
       </c>
-      <c r="BI26">
-        <f t="shared" si="5"/>
-        <v>627.39599999999996</v>
-      </c>
-      <c r="BW26">
-        <f>SUM(BW3:BW25)</f>
-        <v>2847.19</v>
-      </c>
       <c r="CF26">
         <v>72.19</v>
       </c>
-    </row>
-    <row r="27" spans="1:90">
-      <c r="A27" s="14"/>
+      <c r="CR26">
+        <v>83.64</v>
+      </c>
+      <c r="CX26">
+        <v>98.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:102">
+      <c r="A27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>13637</v>
+      </c>
       <c r="BH27" s="2">
         <v>203.42</v>
       </c>
-      <c r="BI27">
-        <f t="shared" si="5"/>
-        <v>996.75800000000004</v>
-      </c>
-      <c r="BW27">
-        <f>BW26*4.9</f>
-        <v>13951.231000000002</v>
-      </c>
       <c r="CF27">
         <v>145.28</v>
       </c>
-    </row>
-    <row r="28" spans="1:90">
-      <c r="A28" s="14"/>
+      <c r="CX27">
+        <v>89.28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:102">
       <c r="BH28" s="2">
         <v>141.71</v>
       </c>
-      <c r="BI28">
-        <f t="shared" si="5"/>
-        <v>694.37900000000013</v>
-      </c>
-      <c r="CF28">
-        <f>SUM(CF3:CF27)</f>
-        <v>3401.4200000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:90">
-      <c r="A29" s="14"/>
+      <c r="CX28">
+        <v>98.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:102">
       <c r="BH29" s="2">
         <v>107.7</v>
       </c>
-      <c r="BI29">
-        <f t="shared" si="5"/>
-        <v>527.73</v>
-      </c>
-      <c r="CF29">
-        <f>CF28*4.9</f>
-        <v>16666.958000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:90">
+    </row>
+    <row r="30" spans="1:102">
       <c r="A30" s="14"/>
       <c r="BH30" s="2">
         <v>79.489999999999995</v>
       </c>
-      <c r="BI30">
-        <f t="shared" si="5"/>
-        <v>389.50099999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:90">
+    </row>
+    <row r="31" spans="1:102">
       <c r="A31" s="14"/>
       <c r="BH31" s="2">
         <v>250.95</v>
       </c>
-      <c r="BI31">
-        <f t="shared" si="5"/>
-        <v>1229.655</v>
-      </c>
-    </row>
-    <row r="32" spans="1:90">
+    </row>
+    <row r="32" spans="1:102">
       <c r="A32" s="14"/>
       <c r="BH32" s="2">
         <v>166.84</v>
       </c>
-      <c r="BI32">
-        <f t="shared" si="5"/>
-        <v>817.51600000000008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:63">
-      <c r="A33" s="14"/>
+    </row>
+    <row r="33" spans="1:60">
+      <c r="A33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <f>SUM(B2:B27)</f>
+        <v>202934.66999999998</v>
+      </c>
       <c r="BH33" s="2">
         <v>113.17</v>
       </c>
-      <c r="BI33">
-        <f t="shared" si="5"/>
-        <v>554.53300000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:63">
-      <c r="A34" s="14"/>
-      <c r="BH34">
+    </row>
+    <row r="34" spans="1:60">
+      <c r="A34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="13">
+        <f>B33-A51</f>
+        <v>7768.7634017093806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60">
+      <c r="A35" s="14"/>
+    </row>
+    <row r="50" spans="1:102">
+      <c r="BH50">
         <f>SUM(BH3:BH33)</f>
         <v>4888.6899999999996</v>
       </c>
-      <c r="BK34">
+      <c r="BK50">
         <f>SUM(BK3:BK33)</f>
         <v>2418.5300000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:63">
-      <c r="A35" s="14"/>
-      <c r="BH35">
-        <f>BH34*4.9</f>
-        <v>23954.580999999998</v>
-      </c>
-      <c r="BK35">
-        <f>BK34*4.9</f>
-        <v>11850.797000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:64">
+      <c r="BN50">
+        <f>SUM(BN3:BN22)</f>
+        <v>1963.3600000000004</v>
+      </c>
+      <c r="BQ50">
+        <f>SUM(BQ3:BQ22)</f>
+        <v>1869.8600000000001</v>
+      </c>
+      <c r="BW50">
+        <f>SUM(BW3:BW25)</f>
+        <v>2847.19</v>
+      </c>
+      <c r="CF50">
+        <f>SUM(CF3:CF27)</f>
+        <v>3401.4200000000005</v>
+      </c>
+      <c r="CL50">
+        <f>SUM(CL3:CL19)</f>
+        <v>2981.3500000000004</v>
+      </c>
+      <c r="CR50">
+        <f>SUM(CR3:CR26)</f>
+        <v>4178.75</v>
+      </c>
+      <c r="CX50">
+        <f>SUM(CX3:CX28)</f>
+        <v>3946.6900000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:102">
       <c r="A51">
         <f>SUM(C51:DU51)</f>
-        <v>91341.668598290606</v>
+        <v>195165.9065982906</v>
       </c>
       <c r="J51">
         <f>SUM(J2:J50)</f>
@@ -8063,33 +8182,76 @@
         <f>SUM(AZ2:AZ50)</f>
         <v>11237.863247863246</v>
       </c>
-      <c r="BI51">
-        <f>SUM(BI2:BI50)</f>
-        <v>23954.581000000002</v>
+      <c r="BH51">
+        <f>BH50*4.9</f>
+        <v>23954.580999999998</v>
+      </c>
+      <c r="BK51">
+        <f>BK50*4.9</f>
+        <v>11850.797000000002</v>
       </c>
       <c r="BL51">
         <f>SUM(BL2:BL50)</f>
-        <v>11850.797</v>
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <f>BN50*4.9</f>
+        <v>9620.4640000000018</v>
+      </c>
+      <c r="BQ51">
+        <f>BQ50*4.9</f>
+        <v>9162.3140000000021</v>
+      </c>
+      <c r="BW51">
+        <f>BW50*4.9</f>
+        <v>13951.231000000002</v>
+      </c>
+      <c r="CF51">
+        <f>CF50*4.9</f>
+        <v>16666.958000000002</v>
+      </c>
+      <c r="CL51">
+        <f>CL50*4.9</f>
+        <v>14608.615000000003</v>
+      </c>
+      <c r="CR51">
+        <f>CR50*4.9</f>
+        <v>20475.875</v>
+      </c>
+      <c r="CX51">
+        <f>CX50*4.9</f>
+        <v>19338.781000000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="35">
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="BT1:BV1"/>
     <mergeCell ref="CL1:CN1"/>
     <mergeCell ref="CO1:CQ1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
     <mergeCell ref="CF1:CH1"/>
     <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
     <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="L1:N1"/>
@@ -8098,16 +8260,227 @@
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="16">
+        <v>43102</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="16">
+        <v>43103</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="D3">
+        <v>500.19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="4">
+        <v>104.37</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="H4" s="4">
+        <v>85.82</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" s="4">
+        <v>84.19</v>
+      </c>
+      <c r="J5">
+        <v>363.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="4">
+        <v>120.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" s="4">
+        <v>136.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="H10" s="4">
+        <v>170.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="H11" s="4">
+        <v>174.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" s="4">
+        <v>138.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" s="4">
+        <v>186.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" s="4">
+        <v>255.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="H15" s="4">
+        <v>176.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="4">
+        <v>178.19</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="4">
+        <v>354.55</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" s="4">
+        <v>121.64</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="4">
+        <v>203.46</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" s="4">
+        <v>100.91</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" s="4">
+        <v>91.28</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" s="4">
+        <v>158.91</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" s="4">
+        <v>219.1</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="4">
+        <v>245.1</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="4">
+        <v>121.28</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="4">
+        <v>98.19</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="4">
+        <v>89.28</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="4">
+        <v>98.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -11,14 +11,14 @@
     <sheet name="10月" sheetId="2" r:id="rId2"/>
     <sheet name="11月" sheetId="3" r:id="rId3"/>
     <sheet name="12月" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="1月" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="44">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8225,9 +8225,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
     <mergeCell ref="DA1:DC1"/>
     <mergeCell ref="BT1:BV1"/>
     <mergeCell ref="CL1:CN1"/>
@@ -8237,19 +8234,16 @@
     <mergeCell ref="CF1:CH1"/>
     <mergeCell ref="CI1:CK1"/>
     <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="C1:E1"/>
@@ -8260,6 +8254,12 @@
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8269,15 +8269,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8294,8 +8294,58 @@
       </c>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="16">
+        <v>43104</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="16">
+        <v>43105</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="16">
+        <v>43106</v>
+      </c>
+      <c r="T1" s="16"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="16">
+        <v>43107</v>
+      </c>
+      <c r="W1" s="16"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="16">
+        <v>43108</v>
+      </c>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="16">
+        <v>43109</v>
+      </c>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="16">
+        <v>43110</v>
+      </c>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="16">
+        <v>43111</v>
+      </c>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="16">
+        <v>43112</v>
+      </c>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="16">
+        <v>43113</v>
+      </c>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="17"/>
+    </row>
+    <row r="2" spans="1:42">
       <c r="C2" t="s">
         <v>33</v>
       </c>
@@ -8326,8 +8376,98 @@
       <c r="L2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="D3">
         <v>500.19</v>
       </c>
@@ -8340,77 +8480,104 @@
       <c r="H3" s="4">
         <v>104.37</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>2353</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="O3">
+        <v>1936</v>
+      </c>
+      <c r="R3">
+        <v>1251</v>
+      </c>
+      <c r="U3">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="H4" s="4">
         <v>85.82</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>2145</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="O4">
+        <v>1185</v>
+      </c>
+      <c r="R4">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="H5" s="4">
         <v>84.19</v>
       </c>
       <c r="J5">
         <v>363.19</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="O5">
+        <v>682</v>
+      </c>
+      <c r="R5">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="H6" s="4">
         <v>120.91</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="O6">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
       <c r="H7" s="4">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="O7">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
       <c r="H8" s="4">
         <v>136.19</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:42">
       <c r="H9" s="4">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:42">
       <c r="H10" s="4">
         <v>170.37</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:42">
       <c r="H11" s="4">
         <v>174.73</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:42">
       <c r="H12" s="4">
         <v>138.19</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:42">
       <c r="H13" s="4">
         <v>186.19</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:42">
       <c r="H14" s="4">
         <v>255.28</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:42">
       <c r="H15" s="4">
         <v>176.37</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:42">
       <c r="H16" s="4">
         <v>178.19</v>
       </c>
@@ -8476,11 +8643,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3189,6 +3189,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3197,30 +3221,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6196,17 +6196,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AM1:AO1"/>
@@ -6214,18 +6215,17 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8225,6 +8225,32 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="DA1:DC1"/>
     <mergeCell ref="BT1:BV1"/>
     <mergeCell ref="CL1:CN1"/>
@@ -8234,32 +8260,6 @@
     <mergeCell ref="CF1:CH1"/>
     <mergeCell ref="CI1:CK1"/>
     <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8271,8 +8271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="A1:AP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8492,6 +8492,15 @@
       <c r="U3">
         <v>2522</v>
       </c>
+      <c r="AA3" s="2">
+        <v>2997</v>
+      </c>
+      <c r="AB3">
+        <v>2627</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1850</v>
+      </c>
     </row>
     <row r="4" spans="1:42">
       <c r="H4" s="4">
@@ -8506,6 +8515,12 @@
       <c r="R4">
         <v>3020</v>
       </c>
+      <c r="AA4" s="2">
+        <v>3304</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>3367</v>
+      </c>
     </row>
     <row r="5" spans="1:42">
       <c r="H5" s="4">
@@ -8520,6 +8535,12 @@
       <c r="R5">
         <v>3102</v>
       </c>
+      <c r="AA5" s="2">
+        <v>1600</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>4041</v>
+      </c>
     </row>
     <row r="6" spans="1:42">
       <c r="H6" s="4">
@@ -8528,6 +8549,12 @@
       <c r="O6">
         <v>1052</v>
       </c>
+      <c r="AA6" s="2">
+        <v>3799</v>
+      </c>
+      <c r="AB6">
+        <v>2500</v>
+      </c>
     </row>
     <row r="7" spans="1:42">
       <c r="H7" s="4">
@@ -8536,31 +8563,53 @@
       <c r="O7">
         <v>2450</v>
       </c>
+      <c r="AA7" s="2">
+        <v>297</v>
+      </c>
+      <c r="AB7">
+        <v>2408</v>
+      </c>
     </row>
     <row r="8" spans="1:42">
       <c r="H8" s="4">
         <v>136.19</v>
       </c>
+      <c r="AA8" s="2">
+        <v>1155</v>
+      </c>
+      <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:42">
       <c r="H9" s="4">
         <v>148</v>
       </c>
+      <c r="AA9" s="2">
+        <v>530</v>
+      </c>
     </row>
     <row r="10" spans="1:42">
       <c r="H10" s="4">
         <v>170.37</v>
       </c>
+      <c r="AA10" s="2">
+        <v>1205</v>
+      </c>
     </row>
     <row r="11" spans="1:42">
       <c r="H11" s="4">
         <v>174.73</v>
       </c>
+      <c r="AA11" s="2">
+        <v>3415</v>
+      </c>
     </row>
     <row r="12" spans="1:42">
       <c r="H12" s="4">
         <v>138.19</v>
       </c>
+      <c r="AA12" s="2">
+        <v>4234</v>
+      </c>
     </row>
     <row r="13" spans="1:42">
       <c r="H13" s="4">
@@ -8571,11 +8620,13 @@
       <c r="H14" s="4">
         <v>255.28</v>
       </c>
+      <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:42">
       <c r="H15" s="4">
         <v>176.37</v>
       </c>
+      <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:42">
       <c r="H16" s="4">
@@ -8644,6 +8695,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="V1:X1"/>
@@ -8651,11 +8707,6 @@
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -3189,30 +3189,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3221,6 +3197,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6196,6 +6196,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
@@ -6203,29 +6226,6 @@
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8225,6 +8225,30 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AS1:AU1"/>
@@ -8236,30 +8260,6 @@
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="DA1:DC1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="BW1:BY1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8271,8 +8271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="A1:AP28"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8498,8 +8498,17 @@
       <c r="AB3">
         <v>2627</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="2">
         <v>1850</v>
+      </c>
+      <c r="AJ3">
+        <v>2303</v>
+      </c>
+      <c r="AM3">
+        <v>2538</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>2690.19</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -8518,8 +8527,11 @@
       <c r="AA4" s="2">
         <v>3304</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="2">
         <v>3367</v>
+      </c>
+      <c r="AM4">
+        <v>1381.87</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -8538,7 +8550,7 @@
       <c r="AA5" s="2">
         <v>1600</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="2">
         <v>4041</v>
       </c>
     </row>
@@ -8695,11 +8707,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="V1:X1"/>
@@ -8707,6 +8714,11 @@
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="44">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3189,6 +3189,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3197,30 +3221,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6196,17 +6196,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AM1:AO1"/>
@@ -6214,18 +6215,17 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8225,30 +8225,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="DA1:DC1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AS1:AU1"/>
@@ -8260,6 +8236,30 @@
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="BW1:BY1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8269,15 +8269,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP28"/>
+  <dimension ref="A1:AV28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AM7" sqref="AM7"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AW9" sqref="AW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:48">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8344,8 +8344,18 @@
       </c>
       <c r="AO1" s="16"/>
       <c r="AP1" s="17"/>
-    </row>
-    <row r="2" spans="1:42">
+      <c r="AQ1" s="16">
+        <v>43114</v>
+      </c>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="16">
+        <v>43115</v>
+      </c>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="17"/>
+    </row>
+    <row r="2" spans="1:48">
       <c r="C2" t="s">
         <v>33</v>
       </c>
@@ -8466,8 +8476,26 @@
       <c r="AP2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:42">
+      <c r="AQ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48">
       <c r="D3">
         <v>500.19</v>
       </c>
@@ -8511,7 +8539,7 @@
         <v>2690.19</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:48">
       <c r="H4" s="4">
         <v>85.82</v>
       </c>
@@ -8534,7 +8562,7 @@
         <v>1381.87</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:48">
       <c r="H5" s="4">
         <v>84.19</v>
       </c>
@@ -8554,7 +8582,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:48">
       <c r="H6" s="4">
         <v>120.91</v>
       </c>
@@ -8568,7 +8596,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:48">
       <c r="H7" s="4">
         <v>86</v>
       </c>
@@ -8582,7 +8610,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:48">
       <c r="H8" s="4">
         <v>136.19</v>
       </c>
@@ -8591,7 +8619,7 @@
       </c>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:48">
       <c r="H9" s="4">
         <v>148</v>
       </c>
@@ -8599,7 +8627,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:48">
       <c r="H10" s="4">
         <v>170.37</v>
       </c>
@@ -8607,7 +8635,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:48">
       <c r="H11" s="4">
         <v>174.73</v>
       </c>
@@ -8615,7 +8643,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:48">
       <c r="H12" s="4">
         <v>138.19</v>
       </c>
@@ -8623,24 +8651,24 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:48">
       <c r="H13" s="4">
         <v>186.19</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:48">
       <c r="H14" s="4">
         <v>255.28</v>
       </c>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:48">
       <c r="H15" s="4">
         <v>176.37</v>
       </c>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:48">
       <c r="H16" s="4">
         <v>178.19</v>
       </c>
@@ -8706,7 +8734,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="V1:X1"/>
@@ -8714,11 +8749,6 @@
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="44">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3189,30 +3189,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3221,6 +3197,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6196,6 +6196,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
@@ -6203,29 +6226,6 @@
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8225,6 +8225,30 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AS1:AU1"/>
@@ -8236,30 +8260,6 @@
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="DA1:DC1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="BW1:BY1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8269,15 +8269,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV28"/>
+  <dimension ref="A1:BE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AW9" sqref="AW9"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:57">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8354,8 +8354,23 @@
       </c>
       <c r="AU1" s="16"/>
       <c r="AV1" s="17"/>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="16">
+        <v>43116</v>
+      </c>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="16">
+        <v>43117</v>
+      </c>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="16">
+        <v>43118</v>
+      </c>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="17"/>
+    </row>
+    <row r="2" spans="1:57">
       <c r="C2" t="s">
         <v>33</v>
       </c>
@@ -8494,8 +8509,35 @@
       <c r="AV2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:48">
+      <c r="AW2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57">
       <c r="D3">
         <v>500.19</v>
       </c>
@@ -8535,11 +8577,17 @@
       <c r="AM3">
         <v>2538</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AP3" s="2">
         <v>2690.19</v>
       </c>
-    </row>
-    <row r="4" spans="1:48">
+      <c r="AV3" s="2">
+        <v>3661</v>
+      </c>
+      <c r="AY3">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
       <c r="H4" s="4">
         <v>85.82</v>
       </c>
@@ -8561,8 +8609,14 @@
       <c r="AM4">
         <v>1381.87</v>
       </c>
-    </row>
-    <row r="5" spans="1:48">
+      <c r="AV4" s="2">
+        <v>1223</v>
+      </c>
+      <c r="AY4">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
       <c r="H5" s="4">
         <v>84.19</v>
       </c>
@@ -8581,8 +8635,11 @@
       <c r="AG5" s="2">
         <v>4041</v>
       </c>
-    </row>
-    <row r="6" spans="1:48">
+      <c r="AY5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
       <c r="H6" s="4">
         <v>120.91</v>
       </c>
@@ -8595,8 +8652,11 @@
       <c r="AB6">
         <v>2500</v>
       </c>
-    </row>
-    <row r="7" spans="1:48">
+      <c r="AY6">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
       <c r="H7" s="4">
         <v>86</v>
       </c>
@@ -8610,7 +8670,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:57">
       <c r="H8" s="4">
         <v>136.19</v>
       </c>
@@ -8619,7 +8679,7 @@
       </c>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:57">
       <c r="H9" s="4">
         <v>148</v>
       </c>
@@ -8627,7 +8687,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:57">
       <c r="H10" s="4">
         <v>170.37</v>
       </c>
@@ -8635,7 +8695,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:57">
       <c r="H11" s="4">
         <v>174.73</v>
       </c>
@@ -8643,7 +8703,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:57">
       <c r="H12" s="4">
         <v>138.19</v>
       </c>
@@ -8651,24 +8711,24 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:57">
       <c r="H13" s="4">
         <v>186.19</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:57">
       <c r="H14" s="4">
         <v>255.28</v>
       </c>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:57">
       <c r="H15" s="4">
         <v>176.37</v>
       </c>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:57">
       <c r="H16" s="4">
         <v>178.19</v>
       </c>
@@ -8734,7 +8794,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BC1:BE1"/>
     <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="E1:G1"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="44">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3189,6 +3189,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3197,30 +3221,6 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6196,17 +6196,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AM1:AO1"/>
@@ -6214,18 +6215,17 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8225,30 +8225,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="DA1:DC1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AS1:AU1"/>
@@ -8260,6 +8236,30 @@
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="BW1:BY1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8269,15 +8269,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE28"/>
+  <dimension ref="A1:BK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BG11" sqref="BG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:63">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8369,8 +8369,18 @@
       </c>
       <c r="BD1" s="16"/>
       <c r="BE1" s="17"/>
-    </row>
-    <row r="2" spans="1:57">
+      <c r="BF1" s="16">
+        <v>43119</v>
+      </c>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="16">
+        <v>43120</v>
+      </c>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="17"/>
+    </row>
+    <row r="2" spans="1:63">
       <c r="C2" t="s">
         <v>33</v>
       </c>
@@ -8536,8 +8546,26 @@
       <c r="BE2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:57">
+      <c r="BF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
       <c r="D3">
         <v>500.19</v>
       </c>
@@ -8586,8 +8614,17 @@
       <c r="AY3">
         <v>3621</v>
       </c>
-    </row>
-    <row r="4" spans="1:57">
+      <c r="BE3" s="2">
+        <v>1088</v>
+      </c>
+      <c r="BH3">
+        <v>2750</v>
+      </c>
+      <c r="BK3">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
       <c r="H4" s="4">
         <v>85.82</v>
       </c>
@@ -8615,8 +8652,17 @@
       <c r="AY4">
         <v>3266</v>
       </c>
-    </row>
-    <row r="5" spans="1:57">
+      <c r="BE4" s="2">
+        <v>1183</v>
+      </c>
+      <c r="BH4">
+        <v>297</v>
+      </c>
+      <c r="BK4">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
       <c r="H5" s="4">
         <v>84.19</v>
       </c>
@@ -8638,8 +8684,14 @@
       <c r="AY5">
         <v>517</v>
       </c>
-    </row>
-    <row r="6" spans="1:57">
+      <c r="BE5" s="2">
+        <v>993</v>
+      </c>
+      <c r="BK5">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
       <c r="H6" s="4">
         <v>120.91</v>
       </c>
@@ -8655,8 +8707,14 @@
       <c r="AY6">
         <v>3760</v>
       </c>
-    </row>
-    <row r="7" spans="1:57">
+      <c r="BE6">
+        <v>3453</v>
+      </c>
+      <c r="BK6">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
       <c r="H7" s="4">
         <v>86</v>
       </c>
@@ -8669,8 +8727,11 @@
       <c r="AB7">
         <v>2408</v>
       </c>
-    </row>
-    <row r="8" spans="1:57">
+      <c r="BK7">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
       <c r="H8" s="4">
         <v>136.19</v>
       </c>
@@ -8678,16 +8739,22 @@
         <v>1155</v>
       </c>
       <c r="AB8" s="2"/>
-    </row>
-    <row r="9" spans="1:57">
+      <c r="BK8">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
       <c r="H9" s="4">
         <v>148</v>
       </c>
       <c r="AA9" s="2">
         <v>530</v>
       </c>
-    </row>
-    <row r="10" spans="1:57">
+      <c r="BK9" s="1">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
       <c r="H10" s="4">
         <v>170.37</v>
       </c>
@@ -8695,7 +8762,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:63">
       <c r="H11" s="4">
         <v>174.73</v>
       </c>
@@ -8703,7 +8770,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:63">
       <c r="H12" s="4">
         <v>138.19</v>
       </c>
@@ -8711,24 +8778,24 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:63">
       <c r="H13" s="4">
         <v>186.19</v>
       </c>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:63">
       <c r="H14" s="4">
         <v>255.28</v>
       </c>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:63">
       <c r="H15" s="4">
         <v>176.37</v>
       </c>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:63">
       <c r="H16" s="4">
         <v>178.19</v>
       </c>
@@ -8794,17 +8861,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
+  <mergeCells count="19">
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="V1:X1"/>
@@ -8812,6 +8871,16 @@
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/财务对账表.xlsx
+++ b/财务/财务对账表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="44">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3189,30 +3189,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
@@ -3221,6 +3197,30 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6196,6 +6196,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
@@ -6203,29 +6226,6 @@
     <mergeCell ref="BN1:BP1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8225,6 +8225,30 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AS1:AU1"/>
@@ -8236,30 +8260,6 @@
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="DA1:DC1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="BW1:BY1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8269,15 +8269,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK28"/>
+  <dimension ref="A1:CO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BG11" sqref="BG11"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="CN3" sqref="CN3:CN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:93">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8379,8 +8379,58 @@
       </c>
       <c r="BJ1" s="16"/>
       <c r="BK1" s="17"/>
-    </row>
-    <row r="2" spans="1:63">
+      <c r="BL1" s="16">
+        <v>43121</v>
+      </c>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="16">
+        <v>43122</v>
+      </c>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="17"/>
+      <c r="BR1" s="16">
+        <v>43123</v>
+      </c>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="17"/>
+      <c r="BU1" s="16">
+        <v>43124</v>
+      </c>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="17"/>
+      <c r="BX1" s="16">
+        <v>43125</v>
+      </c>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="17"/>
+      <c r="CA1" s="16">
+        <v>43126</v>
+      </c>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="17"/>
+      <c r="CD1" s="16">
+        <v>43127</v>
+      </c>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="16">
+        <v>43128</v>
+      </c>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="16">
+        <v>43129</v>
+      </c>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="17"/>
+      <c r="CM1" s="16">
+        <v>43130</v>
+      </c>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="17"/>
+    </row>
+    <row r="2" spans="1:93">
       <c r="C2" t="s">
         <v>33</v>
       </c>
@@ -8564,8 +8614,98 @@
       <c r="BK2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:63">
+      <c r="BL2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
       <c r="D3">
         <v>500.19</v>
       </c>
@@ -8623,8 +8763,14 @@
       <c r="BK3">
         <v>1563</v>
       </c>
-    </row>
-    <row r="4" spans="1:63">
+      <c r="CN3">
+        <v>200</v>
+      </c>
+      <c r="CO3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
       <c r="H4" s="4">
         <v>85.82</v>
       </c>
@@ -8661,8 +8807,14 @@
       <c r="BK4">
         <v>3419</v>
       </c>
-    </row>
-    <row r="5" spans="1:63">
+      <c r="CN4">
+        <v>157.36000000000001</v>
+      </c>
+      <c r="CO4">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
       <c r="H5" s="4">
         <v>84.19</v>
       </c>
@@ -8690,8 +8842,14 @@
       <c r="BK5">
         <v>2735</v>
       </c>
-    </row>
-    <row r="6" spans="1:63">
+      <c r="CN5">
+        <v>202.08</v>
+      </c>
+      <c r="CO5">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:93">
       <c r="H6" s="4">
         <v>120.91</v>
       </c>
@@ -8714,7 +8872,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:93">
       <c r="H7" s="4">
         <v>86</v>
       </c>
@@ -8731,7 +8889,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:93">
       <c r="H8" s="4">
         <v>136.19</v>
       </c>
@@ -8743,7 +8901,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:93">
       <c r="H9" s="4">
         <v>148</v>
       </c>
@@ -8754,7 +8912,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:93">
       <c r="H10" s="4">
         <v>170.37</v>
       </c>
@@ -8762,7 +8920,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:93">
       <c r="H11" s="4">
         <v>174.73</v>
       </c>
@@ -8770,7 +8928,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:93">
       <c r="H12" s="4">
         <v>138.19</v>
       </c>
@@ -8778,24 +8936,24 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:93">
       <c r="H13" s="4">
         <v>186.19</v>
       </c>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:93">
       <c r="H14" s="4">
         <v>255.28</v>
       </c>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:93">
       <c r="H15" s="4">
         <v>176.37</v>
       </c>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:93">
       <c r="H16" s="4">
         <v>178.19</v>
       </c>
@@ -8861,7 +9019,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="29">
+    <mergeCell ref="CA1:CC1"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="CG1:CI1"/>
+    <mergeCell ref="CJ1:CL1"/>
+    <mergeCell ref="CM1:CO1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="BU1:BW1"/>
+    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="BF1:BH1"/>
     <mergeCell ref="BI1:BK1"/>
     <mergeCell ref="AK1:AM1"/>
@@ -8871,11 +9044,6 @@
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="AZ1:BB1"/>
     <mergeCell ref="BC1:BE1"/>
